--- a/JavaApplication19/src/excel/Ventas.xlsx
+++ b/JavaApplication19/src/excel/Ventas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Google Drive\EPIC MOUNTAIN\ADMINISTRACIÒN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46ACAB59-D8BC-412C-92CE-A750E062EEA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01BB111-B04D-4760-8447-7EE0C2BCD701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,14 @@
     <sheet name="NOVIEMBRE" sheetId="11" r:id="rId11"/>
     <sheet name="DICIEMBRE" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="112">
   <si>
     <t>PRUDUCTO</t>
   </si>
@@ -339,6 +341,42 @@
   </si>
   <si>
     <t>IVA NETO</t>
+  </si>
+  <si>
+    <t>23  julio</t>
+  </si>
+  <si>
+    <t>BICI FUJI RUTA</t>
+  </si>
+  <si>
+    <t>BICI PARA RUTA - TALLA 56 - LLANTAS 700x38 - DOBLE ENCINTADO - RECIEN ARMADA Y ALINEADA - TRANSMISION 2x8 - TRANSMISION COMPLETA CLARIS - FRENOS ULTEGRA DE ZAPATAS DE REPUESTOS - POTENCIA Y POSTE THOMSON ELITE - MUY RAPIDA - INCLUYE VELOCIMETRO - INCLUYE ESPEJO RETROVISOR - SEMINUEVA</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10508.0</t>
+  </si>
+  <si>
+    <t>13000.0</t>
+  </si>
+  <si>
+    <t>BANDANA MULTIFUNCIONAL - VARIOS MODELOS Y COLORES - ABSORBENTE - FACIL DE LAVAR - NUEVOS</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>135.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
   </si>
 </sst>
 </file>
@@ -348,7 +386,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,8 +426,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,6 +474,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,7 +538,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -589,6 +641,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -993,6 +1049,61 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>442914</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>414338</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="6 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDE650F8-E8A0-49EA-B03B-4B236B7BCD7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="442914" y="28575"/>
+          <a:ext cx="538162" cy="385763"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -1321,17 +1432,17 @@
       <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="15" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.73046875" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="30.73046875" customWidth="1" collapsed="1"/>
+    <col min="4" max="11" width="15.73046875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.73046875" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="15.73046875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="30.73046875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1374,7 +1485,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9">
         <v>43837</v>
       </c>
@@ -1419,7 +1530,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="9">
         <v>43837</v>
       </c>
@@ -1470,7 +1581,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="9">
         <v>43837</v>
       </c>
@@ -1521,7 +1632,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="9">
         <v>43837</v>
       </c>
@@ -1572,7 +1683,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="9">
         <v>43837</v>
       </c>
@@ -1617,7 +1728,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="9">
         <v>43837</v>
       </c>
@@ -1662,7 +1773,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="10">
         <v>43850</v>
       </c>
@@ -1713,7 +1824,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="10">
         <v>43852</v>
       </c>
@@ -1758,7 +1869,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="10">
         <v>43859</v>
       </c>
@@ -1803,7 +1914,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="13">
         <v>43861</v>
       </c>
@@ -1848,7 +1959,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="13">
         <v>43861</v>
       </c>
@@ -1893,7 +2004,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1919,200 +2030,200 @@
       <c r="N13" s="6"/>
       <c r="O13" s="24"/>
     </row>
-    <row r="14" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="103" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="104" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="105" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="106" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="107" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="108" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="109" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="110" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="111" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="112" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="113" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="114" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="115" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="116" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="117" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="118" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="119" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="120" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="121" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="122" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="123" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="124" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="125" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="126" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="127" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="128" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="129" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="130" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="131" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="132" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="133" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="134" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="135" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="136" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="137" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="138" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="139" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="140" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="141" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="142" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="143" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="144" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="145" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="146" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="147" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="148" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="149" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="150" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="151" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="152" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="153" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="154" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="155" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="156" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="157" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="158" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="159" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="160" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="161" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="162" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="163" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="164" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="165" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="166" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="167" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="168" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="169" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="170" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="171" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="172" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="173" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="174" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="175" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="176" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="177" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="178" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="179" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="180" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="181" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="182" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="183" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="184" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="185" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="186" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="187" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="188" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="189" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="190" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="191" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="192" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="193" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="194" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="195" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="196" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="197" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="198" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="199" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="200" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="201" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="202" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="203" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="204" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="205" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="206" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="207" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2126,7 +2237,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2138,7 +2249,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2150,7 +2261,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2165,17 +2276,17 @@
       <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="15" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.73046875" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="30.73046875" customWidth="1" collapsed="1"/>
+    <col min="4" max="11" width="15.73046875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.73046875" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="15.73046875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="30.73046875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2218,7 +2329,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9">
         <v>43870</v>
       </c>
@@ -2263,7 +2374,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="9">
         <v>43869</v>
       </c>
@@ -2308,7 +2419,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="9">
         <v>43879</v>
       </c>
@@ -2359,7 +2470,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="18">
         <v>43879</v>
       </c>
@@ -2404,7 +2515,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="18">
         <v>43837</v>
       </c>
@@ -2455,7 +2566,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="10">
         <v>43853</v>
       </c>
@@ -2506,7 +2617,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -2532,203 +2643,203 @@
       <c r="N8" s="6"/>
       <c r="O8" s="24"/>
     </row>
-    <row r="9" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="103" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="104" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="105" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="106" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="107" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="108" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="109" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="110" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="111" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="112" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="113" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="114" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="115" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="116" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="117" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="118" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="119" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="120" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="121" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="122" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="123" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="124" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="125" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="126" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="127" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="128" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="129" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="130" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="131" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="132" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="133" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="134" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="135" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="136" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="137" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="138" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="139" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="140" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="141" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="142" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="143" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="144" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="145" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="146" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="147" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="148" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="149" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="150" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="151" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="152" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="153" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="154" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="155" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="156" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="157" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="158" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="159" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="160" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="161" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="162" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="163" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="164" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="165" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="166" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="167" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="168" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="169" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="170" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="171" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="172" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="173" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="174" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="175" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="176" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="177" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="178" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="179" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="180" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="181" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="182" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="183" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="184" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="185" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="186" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="187" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="188" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="189" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="190" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="191" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="192" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="193" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="194" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="195" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="196" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="197" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="198" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="199" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="200" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="201" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="202" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="203" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="204" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="205" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2744,17 +2855,17 @@
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="15" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.73046875" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="30.73046875" customWidth="1" collapsed="1"/>
+    <col min="4" max="11" width="15.73046875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.73046875" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="15.73046875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="30.73046875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2797,7 +2908,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9">
         <v>43853</v>
       </c>
@@ -2848,7 +2959,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2874,7 +2985,7 @@
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="25"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -2891,7 +3002,7 @@
       <c r="N4" s="25"/>
       <c r="O4" s="25"/>
     </row>
-    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="25"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -2908,7 +3019,7 @@
       <c r="N5" s="25"/>
       <c r="O5" s="25"/>
     </row>
-    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -2925,7 +3036,7 @@
       <c r="N6" s="25"/>
       <c r="O6" s="25"/>
     </row>
-    <row r="7" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -2942,7 +3053,7 @@
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
     </row>
-    <row r="8" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -2959,7 +3070,7 @@
       <c r="N8" s="25"/>
       <c r="O8" s="25"/>
     </row>
-    <row r="9" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -2976,7 +3087,7 @@
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
     </row>
-    <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -2993,7 +3104,7 @@
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
     </row>
-    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -3010,7 +3121,7 @@
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
     </row>
-    <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -3027,7 +3138,7 @@
       <c r="N12" s="25"/>
       <c r="O12" s="25"/>
     </row>
-    <row r="13" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -3044,7 +3155,7 @@
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
     </row>
-    <row r="14" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -3061,7 +3172,7 @@
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
     </row>
-    <row r="15" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -3078,7 +3189,7 @@
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
     </row>
-    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -3095,7 +3206,7 @@
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
     </row>
-    <row r="17" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -3112,7 +3223,7 @@
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
     </row>
-    <row r="18" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -3129,7 +3240,7 @@
       <c r="N18" s="25"/>
       <c r="O18" s="25"/>
     </row>
-    <row r="19" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
@@ -3146,7 +3257,7 @@
       <c r="N19" s="25"/>
       <c r="O19" s="25"/>
     </row>
-    <row r="20" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="25"/>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
@@ -3163,7 +3274,7 @@
       <c r="N20" s="25"/>
       <c r="O20" s="25"/>
     </row>
-    <row r="21" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
@@ -3180,7 +3291,7 @@
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
     </row>
-    <row r="22" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -3197,7 +3308,7 @@
       <c r="N22" s="25"/>
       <c r="O22" s="25"/>
     </row>
-    <row r="23" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -3214,7 +3325,7 @@
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
     </row>
-    <row r="24" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="25"/>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
@@ -3231,7 +3342,7 @@
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
     </row>
-    <row r="25" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="25"/>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
@@ -3248,7 +3359,7 @@
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
     </row>
-    <row r="26" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="25"/>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
@@ -3265,7 +3376,7 @@
       <c r="N26" s="25"/>
       <c r="O26" s="25"/>
     </row>
-    <row r="27" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="25"/>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
@@ -3282,7 +3393,7 @@
       <c r="N27" s="25"/>
       <c r="O27" s="25"/>
     </row>
-    <row r="28" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="25"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
@@ -3299,7 +3410,7 @@
       <c r="N28" s="25"/>
       <c r="O28" s="25"/>
     </row>
-    <row r="29" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="25"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -3316,7 +3427,7 @@
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
     </row>
-    <row r="30" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
@@ -3333,7 +3444,7 @@
       <c r="N30" s="25"/>
       <c r="O30" s="25"/>
     </row>
-    <row r="31" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="25"/>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
@@ -3350,7 +3461,7 @@
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
     </row>
-    <row r="32" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="25"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
@@ -3367,7 +3478,7 @@
       <c r="N32" s="25"/>
       <c r="O32" s="25"/>
     </row>
-    <row r="33" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
@@ -3384,7 +3495,7 @@
       <c r="N33" s="25"/>
       <c r="O33" s="25"/>
     </row>
-    <row r="34" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="25"/>
       <c r="B34" s="25"/>
       <c r="C34" s="25"/>
@@ -3401,7 +3512,7 @@
       <c r="N34" s="25"/>
       <c r="O34" s="25"/>
     </row>
-    <row r="35" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="25"/>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
@@ -3418,7 +3529,7 @@
       <c r="N35" s="25"/>
       <c r="O35" s="25"/>
     </row>
-    <row r="36" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="25"/>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
@@ -3435,7 +3546,7 @@
       <c r="N36" s="25"/>
       <c r="O36" s="25"/>
     </row>
-    <row r="37" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="25"/>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
@@ -3452,7 +3563,7 @@
       <c r="N37" s="25"/>
       <c r="O37" s="25"/>
     </row>
-    <row r="38" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="25"/>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
@@ -3469,7 +3580,7 @@
       <c r="N38" s="25"/>
       <c r="O38" s="25"/>
     </row>
-    <row r="39" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="25"/>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -3486,7 +3597,7 @@
       <c r="N39" s="25"/>
       <c r="O39" s="25"/>
     </row>
-    <row r="40" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="25"/>
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
@@ -3503,7 +3614,7 @@
       <c r="N40" s="25"/>
       <c r="O40" s="25"/>
     </row>
-    <row r="41" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="25"/>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
@@ -3520,7 +3631,7 @@
       <c r="N41" s="25"/>
       <c r="O41" s="25"/>
     </row>
-    <row r="42" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="25"/>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
@@ -3537,7 +3648,7 @@
       <c r="N42" s="25"/>
       <c r="O42" s="25"/>
     </row>
-    <row r="43" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="25"/>
       <c r="B43" s="25"/>
       <c r="C43" s="25"/>
@@ -3554,7 +3665,7 @@
       <c r="N43" s="25"/>
       <c r="O43" s="25"/>
     </row>
-    <row r="44" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="25"/>
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
@@ -3571,7 +3682,7 @@
       <c r="N44" s="25"/>
       <c r="O44" s="25"/>
     </row>
-    <row r="45" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="25"/>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
@@ -3588,7 +3699,7 @@
       <c r="N45" s="25"/>
       <c r="O45" s="25"/>
     </row>
-    <row r="46" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="25"/>
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
@@ -3605,7 +3716,7 @@
       <c r="N46" s="25"/>
       <c r="O46" s="25"/>
     </row>
-    <row r="47" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="25"/>
       <c r="B47" s="25"/>
       <c r="C47" s="25"/>
@@ -3622,7 +3733,7 @@
       <c r="N47" s="25"/>
       <c r="O47" s="25"/>
     </row>
-    <row r="48" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="25"/>
       <c r="B48" s="25"/>
       <c r="C48" s="25"/>
@@ -3639,7 +3750,7 @@
       <c r="N48" s="25"/>
       <c r="O48" s="25"/>
     </row>
-    <row r="49" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="25"/>
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
@@ -3656,7 +3767,7 @@
       <c r="N49" s="25"/>
       <c r="O49" s="25"/>
     </row>
-    <row r="50" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="25"/>
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
@@ -3673,7 +3784,7 @@
       <c r="N50" s="25"/>
       <c r="O50" s="25"/>
     </row>
-    <row r="51" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="25"/>
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
@@ -3690,7 +3801,7 @@
       <c r="N51" s="25"/>
       <c r="O51" s="25"/>
     </row>
-    <row r="52" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="25"/>
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
@@ -3707,7 +3818,7 @@
       <c r="N52" s="25"/>
       <c r="O52" s="25"/>
     </row>
-    <row r="53" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="25"/>
       <c r="B53" s="25"/>
       <c r="C53" s="25"/>
@@ -3724,7 +3835,7 @@
       <c r="N53" s="25"/>
       <c r="O53" s="25"/>
     </row>
-    <row r="54" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="25"/>
       <c r="B54" s="25"/>
       <c r="C54" s="25"/>
@@ -3741,7 +3852,7 @@
       <c r="N54" s="25"/>
       <c r="O54" s="25"/>
     </row>
-    <row r="55" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
       <c r="C55" s="25"/>
@@ -3758,7 +3869,7 @@
       <c r="N55" s="25"/>
       <c r="O55" s="25"/>
     </row>
-    <row r="56" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="25"/>
@@ -3775,7 +3886,7 @@
       <c r="N56" s="25"/>
       <c r="O56" s="25"/>
     </row>
-    <row r="57" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="25"/>
       <c r="B57" s="25"/>
       <c r="C57" s="25"/>
@@ -3792,7 +3903,7 @@
       <c r="N57" s="25"/>
       <c r="O57" s="25"/>
     </row>
-    <row r="58" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="25"/>
       <c r="B58" s="25"/>
       <c r="C58" s="25"/>
@@ -3809,7 +3920,7 @@
       <c r="N58" s="25"/>
       <c r="O58" s="25"/>
     </row>
-    <row r="59" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="25"/>
       <c r="B59" s="25"/>
       <c r="C59" s="25"/>
@@ -3826,7 +3937,7 @@
       <c r="N59" s="25"/>
       <c r="O59" s="25"/>
     </row>
-    <row r="60" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="25"/>
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
@@ -3843,7 +3954,7 @@
       <c r="N60" s="25"/>
       <c r="O60" s="25"/>
     </row>
-    <row r="61" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="25"/>
       <c r="B61" s="25"/>
       <c r="C61" s="25"/>
@@ -3860,7 +3971,7 @@
       <c r="N61" s="25"/>
       <c r="O61" s="25"/>
     </row>
-    <row r="62" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="25"/>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
@@ -3877,7 +3988,7 @@
       <c r="N62" s="25"/>
       <c r="O62" s="25"/>
     </row>
-    <row r="63" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="25"/>
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
@@ -3894,7 +4005,7 @@
       <c r="N63" s="25"/>
       <c r="O63" s="25"/>
     </row>
-    <row r="64" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="25"/>
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
@@ -3911,7 +4022,7 @@
       <c r="N64" s="25"/>
       <c r="O64" s="25"/>
     </row>
-    <row r="65" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="25"/>
       <c r="B65" s="25"/>
       <c r="C65" s="25"/>
@@ -3928,7 +4039,7 @@
       <c r="N65" s="25"/>
       <c r="O65" s="25"/>
     </row>
-    <row r="66" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="25"/>
       <c r="B66" s="25"/>
       <c r="C66" s="25"/>
@@ -3945,7 +4056,7 @@
       <c r="N66" s="25"/>
       <c r="O66" s="25"/>
     </row>
-    <row r="67" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="25"/>
       <c r="B67" s="25"/>
       <c r="C67" s="25"/>
@@ -3962,7 +4073,7 @@
       <c r="N67" s="25"/>
       <c r="O67" s="25"/>
     </row>
-    <row r="68" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="25"/>
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
@@ -3979,7 +4090,7 @@
       <c r="N68" s="25"/>
       <c r="O68" s="25"/>
     </row>
-    <row r="69" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="25"/>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
@@ -3996,7 +4107,7 @@
       <c r="N69" s="25"/>
       <c r="O69" s="25"/>
     </row>
-    <row r="70" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="25"/>
       <c r="B70" s="25"/>
       <c r="C70" s="25"/>
@@ -4013,7 +4124,7 @@
       <c r="N70" s="25"/>
       <c r="O70" s="25"/>
     </row>
-    <row r="71" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="25"/>
       <c r="B71" s="25"/>
       <c r="C71" s="25"/>
@@ -4030,7 +4141,7 @@
       <c r="N71" s="25"/>
       <c r="O71" s="25"/>
     </row>
-    <row r="72" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="25"/>
       <c r="B72" s="25"/>
       <c r="C72" s="25"/>
@@ -4047,7 +4158,7 @@
       <c r="N72" s="25"/>
       <c r="O72" s="25"/>
     </row>
-    <row r="73" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="25"/>
       <c r="B73" s="25"/>
       <c r="C73" s="25"/>
@@ -4064,7 +4175,7 @@
       <c r="N73" s="25"/>
       <c r="O73" s="25"/>
     </row>
-    <row r="74" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="25"/>
       <c r="B74" s="25"/>
       <c r="C74" s="25"/>
@@ -4081,7 +4192,7 @@
       <c r="N74" s="25"/>
       <c r="O74" s="25"/>
     </row>
-    <row r="75" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="25"/>
       <c r="B75" s="25"/>
       <c r="C75" s="25"/>
@@ -4098,7 +4209,7 @@
       <c r="N75" s="25"/>
       <c r="O75" s="25"/>
     </row>
-    <row r="76" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="25"/>
       <c r="B76" s="25"/>
       <c r="C76" s="25"/>
@@ -4115,7 +4226,7 @@
       <c r="N76" s="25"/>
       <c r="O76" s="25"/>
     </row>
-    <row r="77" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="25"/>
       <c r="B77" s="25"/>
       <c r="C77" s="25"/>
@@ -4132,7 +4243,7 @@
       <c r="N77" s="25"/>
       <c r="O77" s="25"/>
     </row>
-    <row r="78" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="25"/>
       <c r="B78" s="25"/>
       <c r="C78" s="25"/>
@@ -4149,7 +4260,7 @@
       <c r="N78" s="25"/>
       <c r="O78" s="25"/>
     </row>
-    <row r="79" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="25"/>
       <c r="B79" s="25"/>
       <c r="C79" s="25"/>
@@ -4166,7 +4277,7 @@
       <c r="N79" s="25"/>
       <c r="O79" s="25"/>
     </row>
-    <row r="80" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="25"/>
       <c r="B80" s="25"/>
       <c r="C80" s="25"/>
@@ -4183,7 +4294,7 @@
       <c r="N80" s="25"/>
       <c r="O80" s="25"/>
     </row>
-    <row r="81" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="25"/>
       <c r="B81" s="25"/>
       <c r="C81" s="25"/>
@@ -4200,7 +4311,7 @@
       <c r="N81" s="25"/>
       <c r="O81" s="25"/>
     </row>
-    <row r="82" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="25"/>
       <c r="B82" s="25"/>
       <c r="C82" s="25"/>
@@ -4217,7 +4328,7 @@
       <c r="N82" s="25"/>
       <c r="O82" s="25"/>
     </row>
-    <row r="83" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="25"/>
       <c r="B83" s="25"/>
       <c r="C83" s="25"/>
@@ -4234,7 +4345,7 @@
       <c r="N83" s="25"/>
       <c r="O83" s="25"/>
     </row>
-    <row r="84" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="25"/>
       <c r="B84" s="25"/>
       <c r="C84" s="25"/>
@@ -4251,7 +4362,7 @@
       <c r="N84" s="25"/>
       <c r="O84" s="25"/>
     </row>
-    <row r="85" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="25"/>
       <c r="B85" s="25"/>
       <c r="C85" s="25"/>
@@ -4268,7 +4379,7 @@
       <c r="N85" s="25"/>
       <c r="O85" s="25"/>
     </row>
-    <row r="86" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="25"/>
       <c r="B86" s="25"/>
       <c r="C86" s="25"/>
@@ -4285,7 +4396,7 @@
       <c r="N86" s="25"/>
       <c r="O86" s="25"/>
     </row>
-    <row r="87" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="25"/>
       <c r="B87" s="25"/>
       <c r="C87" s="25"/>
@@ -4302,7 +4413,7 @@
       <c r="N87" s="25"/>
       <c r="O87" s="25"/>
     </row>
-    <row r="88" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="25"/>
       <c r="B88" s="25"/>
       <c r="C88" s="25"/>
@@ -4319,7 +4430,7 @@
       <c r="N88" s="25"/>
       <c r="O88" s="25"/>
     </row>
-    <row r="89" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="25"/>
       <c r="B89" s="25"/>
       <c r="C89" s="25"/>
@@ -4336,7 +4447,7 @@
       <c r="N89" s="25"/>
       <c r="O89" s="25"/>
     </row>
-    <row r="90" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="25"/>
       <c r="B90" s="25"/>
       <c r="C90" s="25"/>
@@ -4353,7 +4464,7 @@
       <c r="N90" s="25"/>
       <c r="O90" s="25"/>
     </row>
-    <row r="91" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="25"/>
       <c r="B91" s="25"/>
       <c r="C91" s="25"/>
@@ -4370,7 +4481,7 @@
       <c r="N91" s="25"/>
       <c r="O91" s="25"/>
     </row>
-    <row r="92" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="25"/>
       <c r="B92" s="25"/>
       <c r="C92" s="25"/>
@@ -4387,7 +4498,7 @@
       <c r="N92" s="25"/>
       <c r="O92" s="25"/>
     </row>
-    <row r="93" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="25"/>
       <c r="B93" s="25"/>
       <c r="C93" s="25"/>
@@ -4404,7 +4515,7 @@
       <c r="N93" s="25"/>
       <c r="O93" s="25"/>
     </row>
-    <row r="94" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="25"/>
       <c r="B94" s="25"/>
       <c r="C94" s="25"/>
@@ -4421,7 +4532,7 @@
       <c r="N94" s="25"/>
       <c r="O94" s="25"/>
     </row>
-    <row r="95" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="25"/>
       <c r="B95" s="25"/>
       <c r="C95" s="25"/>
@@ -4438,7 +4549,7 @@
       <c r="N95" s="25"/>
       <c r="O95" s="25"/>
     </row>
-    <row r="96" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="25"/>
       <c r="B96" s="25"/>
       <c r="C96" s="25"/>
@@ -4455,7 +4566,7 @@
       <c r="N96" s="25"/>
       <c r="O96" s="25"/>
     </row>
-    <row r="97" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="25"/>
       <c r="B97" s="25"/>
       <c r="C97" s="25"/>
@@ -4472,7 +4583,7 @@
       <c r="N97" s="25"/>
       <c r="O97" s="25"/>
     </row>
-    <row r="98" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="25"/>
       <c r="B98" s="25"/>
       <c r="C98" s="25"/>
@@ -4489,7 +4600,7 @@
       <c r="N98" s="25"/>
       <c r="O98" s="25"/>
     </row>
-    <row r="99" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="25"/>
       <c r="B99" s="25"/>
       <c r="C99" s="25"/>
@@ -4506,7 +4617,7 @@
       <c r="N99" s="25"/>
       <c r="O99" s="25"/>
     </row>
-    <row r="100" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="25"/>
       <c r="B100" s="25"/>
       <c r="C100" s="25"/>
@@ -4531,22 +4642,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N129"/>
+  <dimension ref="A1:X129"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N1" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="13" width="15.7109375" customWidth="1"/>
-    <col min="14" max="14" width="30.7109375" customWidth="1"/>
-    <col min="15" max="24" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.73046875" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="30.73046875" customWidth="1" collapsed="1"/>
+    <col min="4" max="13" width="15.73046875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="30.73046875" customWidth="1" collapsed="1"/>
+    <col min="15" max="24" width="15.73046875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -4588,7 +4699,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9">
         <v>43937</v>
       </c>
@@ -4632,7 +4743,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="10">
         <v>43853</v>
       </c>
@@ -4682,7 +4793,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10">
         <v>43853</v>
       </c>
@@ -4732,7 +4843,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="10">
         <v>43853</v>
       </c>
@@ -4776,7 +4887,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -4801,129 +4912,129 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="103" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="104" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="105" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="106" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="107" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="108" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="109" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="110" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="111" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="112" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="113" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="114" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="115" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="116" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="117" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="118" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="119" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="120" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="121" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="122" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="123" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="124" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="125" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="126" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="127" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="128" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="129" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4939,16 +5050,16 @@
       <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="15" width="15.7109375" customWidth="1"/>
-    <col min="16" max="16" width="30.7109375" customWidth="1"/>
-    <col min="17" max="28" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.73046875" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="30.73046875" customWidth="1" collapsed="1"/>
+    <col min="4" max="15" width="15.73046875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="30.73046875" customWidth="1" collapsed="1"/>
+    <col min="17" max="28" width="15.73046875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -5008,7 +5119,7 @@
       <c r="AA1" s="25"/>
       <c r="AB1" s="25"/>
     </row>
-    <row r="2" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="26">
         <v>43837</v>
       </c>
@@ -5077,7 +5188,7 @@
       <c r="AA2" s="25"/>
       <c r="AB2" s="25"/>
     </row>
-    <row r="3" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="10">
         <v>43853</v>
       </c>
@@ -5147,7 +5258,7 @@
       <c r="AA3" s="25"/>
       <c r="AB3" s="25"/>
     </row>
-    <row r="4" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10">
         <v>43853</v>
       </c>
@@ -5216,7 +5327,7 @@
       <c r="AA4" s="25"/>
       <c r="AB4" s="25"/>
     </row>
-    <row r="5" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="29">
         <v>43853</v>
       </c>
@@ -5286,7 +5397,7 @@
       <c r="AA5" s="25"/>
       <c r="AB5" s="25"/>
     </row>
-    <row r="6" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="10">
         <v>43847</v>
       </c>
@@ -5350,7 +5461,7 @@
       <c r="AA6" s="25"/>
       <c r="AB6" s="25"/>
     </row>
-    <row r="7" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="10">
         <v>43837</v>
       </c>
@@ -5414,7 +5525,7 @@
       <c r="AA7" s="25"/>
       <c r="AB7" s="25"/>
     </row>
-    <row r="8" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -5456,7 +5567,7 @@
       <c r="AA8" s="25"/>
       <c r="AB8" s="25"/>
     </row>
-    <row r="9" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -5486,7 +5597,7 @@
       <c r="AA9" s="25"/>
       <c r="AB9" s="25"/>
     </row>
-    <row r="10" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -5516,7 +5627,7 @@
       <c r="AA10" s="25"/>
       <c r="AB10" s="25"/>
     </row>
-    <row r="11" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -5546,7 +5657,7 @@
       <c r="AA11" s="25"/>
       <c r="AB11" s="25"/>
     </row>
-    <row r="12" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -5576,7 +5687,7 @@
       <c r="AA12" s="25"/>
       <c r="AB12" s="25"/>
     </row>
-    <row r="13" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -5606,7 +5717,7 @@
       <c r="AA13" s="25"/>
       <c r="AB13" s="25"/>
     </row>
-    <row r="14" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -5636,7 +5747,7 @@
       <c r="AA14" s="25"/>
       <c r="AB14" s="25"/>
     </row>
-    <row r="15" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -5666,7 +5777,7 @@
       <c r="AA15" s="25"/>
       <c r="AB15" s="25"/>
     </row>
-    <row r="16" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -5696,7 +5807,7 @@
       <c r="AA16" s="25"/>
       <c r="AB16" s="25"/>
     </row>
-    <row r="17" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -5726,7 +5837,7 @@
       <c r="AA17" s="25"/>
       <c r="AB17" s="25"/>
     </row>
-    <row r="18" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -5756,7 +5867,7 @@
       <c r="AA18" s="25"/>
       <c r="AB18" s="25"/>
     </row>
-    <row r="19" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -5786,7 +5897,7 @@
       <c r="AA19" s="25"/>
       <c r="AB19" s="25"/>
     </row>
-    <row r="20" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -5816,7 +5927,7 @@
       <c r="AA20" s="25"/>
       <c r="AB20" s="25"/>
     </row>
-    <row r="21" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -5846,7 +5957,7 @@
       <c r="AA21" s="25"/>
       <c r="AB21" s="25"/>
     </row>
-    <row r="22" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -5876,7 +5987,7 @@
       <c r="AA22" s="25"/>
       <c r="AB22" s="25"/>
     </row>
-    <row r="23" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -5906,7 +6017,7 @@
       <c r="AA23" s="25"/>
       <c r="AB23" s="25"/>
     </row>
-    <row r="24" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -5936,7 +6047,7 @@
       <c r="AA24" s="25"/>
       <c r="AB24" s="25"/>
     </row>
-    <row r="25" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="19"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -5966,7 +6077,7 @@
       <c r="AA25" s="25"/>
       <c r="AB25" s="25"/>
     </row>
-    <row r="26" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="19"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -5996,7 +6107,7 @@
       <c r="AA26" s="25"/>
       <c r="AB26" s="25"/>
     </row>
-    <row r="27" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -6026,7 +6137,7 @@
       <c r="AA27" s="25"/>
       <c r="AB27" s="25"/>
     </row>
-    <row r="28" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="19"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -6056,7 +6167,7 @@
       <c r="AA28" s="25"/>
       <c r="AB28" s="25"/>
     </row>
-    <row r="29" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="19"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
@@ -6086,7 +6197,7 @@
       <c r="AA29" s="25"/>
       <c r="AB29" s="25"/>
     </row>
-    <row r="30" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="19"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -6116,7 +6227,7 @@
       <c r="AA30" s="25"/>
       <c r="AB30" s="25"/>
     </row>
-    <row r="31" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="19"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -6146,7 +6257,7 @@
       <c r="AA31" s="25"/>
       <c r="AB31" s="25"/>
     </row>
-    <row r="32" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="19"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -6176,7 +6287,7 @@
       <c r="AA32" s="25"/>
       <c r="AB32" s="25"/>
     </row>
-    <row r="33" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="19"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -6206,7 +6317,7 @@
       <c r="AA33" s="25"/>
       <c r="AB33" s="25"/>
     </row>
-    <row r="34" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="19"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -6236,7 +6347,7 @@
       <c r="AA34" s="25"/>
       <c r="AB34" s="25"/>
     </row>
-    <row r="35" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="19"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -6266,7 +6377,7 @@
       <c r="AA35" s="25"/>
       <c r="AB35" s="25"/>
     </row>
-    <row r="36" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -6296,7 +6407,7 @@
       <c r="AA36" s="25"/>
       <c r="AB36" s="25"/>
     </row>
-    <row r="37" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="19"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -6326,7 +6437,7 @@
       <c r="AA37" s="25"/>
       <c r="AB37" s="25"/>
     </row>
-    <row r="38" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="19"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
@@ -6356,7 +6467,7 @@
       <c r="AA38" s="25"/>
       <c r="AB38" s="25"/>
     </row>
-    <row r="39" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="19"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -6386,7 +6497,7 @@
       <c r="AA39" s="25"/>
       <c r="AB39" s="25"/>
     </row>
-    <row r="40" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="19"/>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -6416,7 +6527,7 @@
       <c r="AA40" s="25"/>
       <c r="AB40" s="25"/>
     </row>
-    <row r="41" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="19"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -6446,7 +6557,7 @@
       <c r="AA41" s="25"/>
       <c r="AB41" s="25"/>
     </row>
-    <row r="42" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="19"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -6476,7 +6587,7 @@
       <c r="AA42" s="25"/>
       <c r="AB42" s="25"/>
     </row>
-    <row r="43" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="19"/>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -6506,7 +6617,7 @@
       <c r="AA43" s="25"/>
       <c r="AB43" s="25"/>
     </row>
-    <row r="44" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="19"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
@@ -6536,7 +6647,7 @@
       <c r="AA44" s="25"/>
       <c r="AB44" s="25"/>
     </row>
-    <row r="45" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="19"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
@@ -6566,7 +6677,7 @@
       <c r="AA45" s="25"/>
       <c r="AB45" s="25"/>
     </row>
-    <row r="46" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="19"/>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
@@ -6596,7 +6707,7 @@
       <c r="AA46" s="25"/>
       <c r="AB46" s="25"/>
     </row>
-    <row r="47" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="19"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
@@ -6626,7 +6737,7 @@
       <c r="AA47" s="25"/>
       <c r="AB47" s="25"/>
     </row>
-    <row r="48" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
@@ -6656,7 +6767,7 @@
       <c r="AA48" s="25"/>
       <c r="AB48" s="25"/>
     </row>
-    <row r="49" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="19"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
@@ -6686,7 +6797,7 @@
       <c r="AA49" s="25"/>
       <c r="AB49" s="25"/>
     </row>
-    <row r="50" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
@@ -6716,7 +6827,7 @@
       <c r="AA50" s="25"/>
       <c r="AB50" s="25"/>
     </row>
-    <row r="51" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="19"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
@@ -6746,7 +6857,7 @@
       <c r="AA51" s="25"/>
       <c r="AB51" s="25"/>
     </row>
-    <row r="52" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="19"/>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
@@ -6776,7 +6887,7 @@
       <c r="AA52" s="25"/>
       <c r="AB52" s="25"/>
     </row>
-    <row r="53" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="19"/>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
@@ -6806,7 +6917,7 @@
       <c r="AA53" s="25"/>
       <c r="AB53" s="25"/>
     </row>
-    <row r="54" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="19"/>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
@@ -6836,7 +6947,7 @@
       <c r="AA54" s="25"/>
       <c r="AB54" s="25"/>
     </row>
-    <row r="55" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="19"/>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
@@ -6866,7 +6977,7 @@
       <c r="AA55" s="25"/>
       <c r="AB55" s="25"/>
     </row>
-    <row r="56" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="19"/>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
@@ -6896,7 +7007,7 @@
       <c r="AA56" s="25"/>
       <c r="AB56" s="25"/>
     </row>
-    <row r="57" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="19"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -6926,7 +7037,7 @@
       <c r="AA57" s="25"/>
       <c r="AB57" s="25"/>
     </row>
-    <row r="58" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="19"/>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
@@ -6956,7 +7067,7 @@
       <c r="AA58" s="25"/>
       <c r="AB58" s="25"/>
     </row>
-    <row r="59" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="19"/>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
@@ -6986,7 +7097,7 @@
       <c r="AA59" s="25"/>
       <c r="AB59" s="25"/>
     </row>
-    <row r="60" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="19"/>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
@@ -7016,7 +7127,7 @@
       <c r="AA60" s="25"/>
       <c r="AB60" s="25"/>
     </row>
-    <row r="61" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="19"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
@@ -7046,7 +7157,7 @@
       <c r="AA61" s="25"/>
       <c r="AB61" s="25"/>
     </row>
-    <row r="62" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="19"/>
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
@@ -7076,7 +7187,7 @@
       <c r="AA62" s="25"/>
       <c r="AB62" s="25"/>
     </row>
-    <row r="63" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="19"/>
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
@@ -7106,7 +7217,7 @@
       <c r="AA63" s="25"/>
       <c r="AB63" s="25"/>
     </row>
-    <row r="64" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="19"/>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
@@ -7136,7 +7247,7 @@
       <c r="AA64" s="25"/>
       <c r="AB64" s="25"/>
     </row>
-    <row r="65" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="19"/>
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
@@ -7166,7 +7277,7 @@
       <c r="AA65" s="25"/>
       <c r="AB65" s="25"/>
     </row>
-    <row r="66" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="19"/>
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
@@ -7196,7 +7307,7 @@
       <c r="AA66" s="25"/>
       <c r="AB66" s="25"/>
     </row>
-    <row r="67" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="19"/>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
@@ -7226,7 +7337,7 @@
       <c r="AA67" s="25"/>
       <c r="AB67" s="25"/>
     </row>
-    <row r="68" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="19"/>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
@@ -7256,7 +7367,7 @@
       <c r="AA68" s="25"/>
       <c r="AB68" s="25"/>
     </row>
-    <row r="69" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="19"/>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
@@ -7286,7 +7397,7 @@
       <c r="AA69" s="25"/>
       <c r="AB69" s="25"/>
     </row>
-    <row r="70" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="19"/>
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
@@ -7316,7 +7427,7 @@
       <c r="AA70" s="25"/>
       <c r="AB70" s="25"/>
     </row>
-    <row r="71" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="19"/>
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
@@ -7346,7 +7457,7 @@
       <c r="AA71" s="25"/>
       <c r="AB71" s="25"/>
     </row>
-    <row r="72" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="19"/>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
@@ -7376,7 +7487,7 @@
       <c r="AA72" s="25"/>
       <c r="AB72" s="25"/>
     </row>
-    <row r="73" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="19"/>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
@@ -7406,7 +7517,7 @@
       <c r="AA73" s="25"/>
       <c r="AB73" s="25"/>
     </row>
-    <row r="74" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="19"/>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
@@ -7436,7 +7547,7 @@
       <c r="AA74" s="25"/>
       <c r="AB74" s="25"/>
     </row>
-    <row r="75" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="19"/>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
@@ -7466,7 +7577,7 @@
       <c r="AA75" s="25"/>
       <c r="AB75" s="25"/>
     </row>
-    <row r="76" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="19"/>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
@@ -7496,7 +7607,7 @@
       <c r="AA76" s="25"/>
       <c r="AB76" s="25"/>
     </row>
-    <row r="77" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="19"/>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -7526,7 +7637,7 @@
       <c r="AA77" s="25"/>
       <c r="AB77" s="25"/>
     </row>
-    <row r="78" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="19"/>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
@@ -7556,7 +7667,7 @@
       <c r="AA78" s="25"/>
       <c r="AB78" s="25"/>
     </row>
-    <row r="79" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="19"/>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
@@ -7586,7 +7697,7 @@
       <c r="AA79" s="25"/>
       <c r="AB79" s="25"/>
     </row>
-    <row r="80" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="19"/>
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
@@ -7616,7 +7727,7 @@
       <c r="AA80" s="25"/>
       <c r="AB80" s="25"/>
     </row>
-    <row r="81" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="19"/>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
@@ -7646,7 +7757,7 @@
       <c r="AA81" s="25"/>
       <c r="AB81" s="25"/>
     </row>
-    <row r="82" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="19"/>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
@@ -7676,7 +7787,7 @@
       <c r="AA82" s="25"/>
       <c r="AB82" s="25"/>
     </row>
-    <row r="83" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="19"/>
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
@@ -7706,7 +7817,7 @@
       <c r="AA83" s="25"/>
       <c r="AB83" s="25"/>
     </row>
-    <row r="84" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="19"/>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
@@ -7736,7 +7847,7 @@
       <c r="AA84" s="25"/>
       <c r="AB84" s="25"/>
     </row>
-    <row r="85" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="19"/>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
@@ -7766,7 +7877,7 @@
       <c r="AA85" s="25"/>
       <c r="AB85" s="25"/>
     </row>
-    <row r="86" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="19"/>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
@@ -7796,7 +7907,7 @@
       <c r="AA86" s="25"/>
       <c r="AB86" s="25"/>
     </row>
-    <row r="87" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="19"/>
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
@@ -7826,7 +7937,7 @@
       <c r="AA87" s="25"/>
       <c r="AB87" s="25"/>
     </row>
-    <row r="88" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="19"/>
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
@@ -7856,7 +7967,7 @@
       <c r="AA88" s="25"/>
       <c r="AB88" s="25"/>
     </row>
-    <row r="89" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="19"/>
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
@@ -7886,7 +7997,7 @@
       <c r="AA89" s="25"/>
       <c r="AB89" s="25"/>
     </row>
-    <row r="90" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="19"/>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
@@ -7916,7 +8027,7 @@
       <c r="AA90" s="25"/>
       <c r="AB90" s="25"/>
     </row>
-    <row r="91" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="19"/>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
@@ -7946,7 +8057,7 @@
       <c r="AA91" s="25"/>
       <c r="AB91" s="25"/>
     </row>
-    <row r="92" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="19"/>
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
@@ -7976,7 +8087,7 @@
       <c r="AA92" s="25"/>
       <c r="AB92" s="25"/>
     </row>
-    <row r="93" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="19"/>
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
@@ -8006,7 +8117,7 @@
       <c r="AA93" s="25"/>
       <c r="AB93" s="25"/>
     </row>
-    <row r="94" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="19"/>
       <c r="B94" s="19"/>
       <c r="C94" s="19"/>
@@ -8036,7 +8147,7 @@
       <c r="AA94" s="25"/>
       <c r="AB94" s="25"/>
     </row>
-    <row r="95" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="19"/>
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
@@ -8066,7 +8177,7 @@
       <c r="AA95" s="25"/>
       <c r="AB95" s="25"/>
     </row>
-    <row r="96" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="19"/>
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
@@ -8096,7 +8207,7 @@
       <c r="AA96" s="25"/>
       <c r="AB96" s="25"/>
     </row>
-    <row r="97" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="19"/>
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
@@ -8126,7 +8237,7 @@
       <c r="AA97" s="25"/>
       <c r="AB97" s="25"/>
     </row>
-    <row r="98" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="19"/>
       <c r="B98" s="19"/>
       <c r="C98" s="19"/>
@@ -8156,7 +8267,7 @@
       <c r="AA98" s="25"/>
       <c r="AB98" s="25"/>
     </row>
-    <row r="99" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="19"/>
       <c r="B99" s="19"/>
       <c r="C99" s="19"/>
@@ -8186,7 +8297,7 @@
       <c r="AA99" s="25"/>
       <c r="AB99" s="25"/>
     </row>
-    <row r="100" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="19"/>
       <c r="B100" s="19"/>
       <c r="C100" s="19"/>
@@ -8216,7 +8327,7 @@
       <c r="AA100" s="25"/>
       <c r="AB100" s="25"/>
     </row>
-    <row r="101" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="19"/>
       <c r="B101" s="19"/>
       <c r="C101" s="19"/>
@@ -8246,7 +8357,7 @@
       <c r="AA101" s="25"/>
       <c r="AB101" s="25"/>
     </row>
-    <row r="102" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="19"/>
       <c r="B102" s="19"/>
       <c r="C102" s="19"/>
@@ -8276,7 +8387,7 @@
       <c r="AA102" s="25"/>
       <c r="AB102" s="25"/>
     </row>
-    <row r="103" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="19"/>
       <c r="B103" s="19"/>
       <c r="C103" s="19"/>
@@ -8306,7 +8417,7 @@
       <c r="AA103" s="25"/>
       <c r="AB103" s="25"/>
     </row>
-    <row r="104" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="19"/>
       <c r="B104" s="19"/>
       <c r="C104" s="19"/>
@@ -8336,7 +8447,7 @@
       <c r="AA104" s="25"/>
       <c r="AB104" s="25"/>
     </row>
-    <row r="105" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="19"/>
       <c r="B105" s="19"/>
       <c r="C105" s="19"/>
@@ -8374,24 +8485,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:T95"/>
+  <dimension ref="A1:Z95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="T3" sqref="A1:T3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" customWidth="1"/>
-    <col min="4" max="19" width="15.7109375" customWidth="1"/>
-    <col min="20" max="20" width="30.7109375" customWidth="1"/>
-    <col min="21" max="26" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.73046875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.73046875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="50.73046875" customWidth="1" collapsed="1"/>
+    <col min="4" max="19" width="15.73046875" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="30.73046875" customWidth="1" collapsed="1"/>
+    <col min="21" max="26" width="15.73046875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="34"/>
       <c r="B1" s="35"/>
       <c r="C1" s="3" t="s">
@@ -8449,7 +8560,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10">
         <v>43837</v>
       </c>
@@ -8507,7 +8618,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -8547,98 +8658,98 @@
       </c>
       <c r="T3" s="6"/>
     </row>
-    <row r="4" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -8650,13 +8761,189 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="44.06640625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J4" s="36"/>
+      <c r="K4" s="5" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T4" s="6"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="D12" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8666,7 +8953,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8678,7 +8965,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JavaApplication19/src/excel/Ventas.xlsx
+++ b/JavaApplication19/src/excel/Ventas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="118">
   <si>
     <t>PRUDUCTO</t>
   </si>
@@ -377,6 +377,24 @@
   </si>
   <si>
     <t>60.0</t>
+  </si>
+  <si>
+    <t>24  julio</t>
+  </si>
+  <si>
+    <t>BICI RUTA SCHWINN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TALLA L </t>
+  </si>
+  <si>
+    <t>SEMINUEVO</t>
+  </si>
+  <si>
+    <t>5990.0</t>
+  </si>
+  <si>
+    <t>15000.0</t>
   </si>
 </sst>
 </file>
@@ -1434,12 +1452,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.73046875" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="30.73046875" customWidth="1" collapsed="1"/>
-    <col min="4" max="11" width="15.73046875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.73046875" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="15.73046875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="30.73046875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.73046875" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="30.73046875" collapsed="true"/>
+    <col min="4" max="11" customWidth="true" width="15.73046875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.73046875" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="15.73046875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="30.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -2278,12 +2296,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.73046875" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="30.73046875" customWidth="1" collapsed="1"/>
-    <col min="4" max="11" width="15.73046875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.73046875" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="15.73046875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="30.73046875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.73046875" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="30.73046875" collapsed="true"/>
+    <col min="4" max="11" customWidth="true" width="15.73046875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.73046875" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="15.73046875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="30.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -2857,12 +2875,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.73046875" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="30.73046875" customWidth="1" collapsed="1"/>
-    <col min="4" max="11" width="15.73046875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.73046875" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="15.73046875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="30.73046875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.73046875" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="30.73046875" collapsed="true"/>
+    <col min="4" max="11" customWidth="true" width="15.73046875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.73046875" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="15.73046875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="30.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -4642,7 +4660,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:X129"/>
+  <dimension ref="A1:N129"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N1" sqref="A1:N1"/>
@@ -4650,11 +4668,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.73046875" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="30.73046875" customWidth="1" collapsed="1"/>
-    <col min="4" max="13" width="15.73046875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="30.73046875" customWidth="1" collapsed="1"/>
-    <col min="15" max="24" width="15.73046875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.73046875" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="30.73046875" collapsed="true"/>
+    <col min="4" max="13" customWidth="true" width="15.73046875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="30.73046875" collapsed="true"/>
+    <col min="15" max="24" customWidth="true" width="15.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -5052,11 +5070,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.73046875" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="30.73046875" customWidth="1" collapsed="1"/>
-    <col min="4" max="15" width="15.73046875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="30.73046875" customWidth="1" collapsed="1"/>
-    <col min="17" max="28" width="15.73046875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.73046875" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="30.73046875" collapsed="true"/>
+    <col min="4" max="15" customWidth="true" width="15.73046875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="30.73046875" collapsed="true"/>
+    <col min="17" max="28" customWidth="true" width="15.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -8485,7 +8503,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:Z95"/>
+  <dimension ref="A1:T95"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8494,12 +8512,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.73046875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.73046875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="50.73046875" customWidth="1" collapsed="1"/>
-    <col min="4" max="19" width="15.73046875" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="30.73046875" customWidth="1" collapsed="1"/>
-    <col min="21" max="26" width="15.73046875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.73046875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.73046875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="50.73046875" collapsed="true"/>
+    <col min="4" max="19" customWidth="true" width="15.73046875" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="30.73046875" collapsed="true"/>
+    <col min="21" max="26" customWidth="true" width="15.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45">
@@ -8761,7 +8779,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -8769,7 +8787,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="44.06640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="44.06640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -8934,8 +8952,8 @@
       </c>
       <c r="T4" s="6"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="D12" s="37"/>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="D11" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/JavaApplication19/src/excel/Ventas.xlsx
+++ b/JavaApplication19/src/excel/Ventas.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="122">
   <si>
     <t>PRUDUCTO</t>
   </si>
@@ -395,6 +395,18 @@
   </si>
   <si>
     <t>15000.0</t>
+  </si>
+  <si>
+    <t>27  julio</t>
+  </si>
+  <si>
+    <t>ASIENTO WTB ROCKET</t>
+  </si>
+  <si>
+    <t>TALLA 125mm - PARA MUJER - USADO</t>
+  </si>
+  <si>
+    <t>280.0</t>
   </si>
 </sst>
 </file>
@@ -8880,77 +8892,78 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="6" t="s">
+    <row r="3"/>
+    <row r="4">
+      <c r="A4" t="s" s="6">
+        <v>118</v>
+      </c>
+      <c r="B4" t="s" s="6">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s" s="6">
+        <v>120</v>
+      </c>
+      <c r="D4" t="s" s="6">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s" s="6">
         <v>103</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F4" t="s" s="6">
         <v>103</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5" t="e">
+      <c r="G4" t="s" s="6">
+        <v>104</v>
+      </c>
+      <c r="H4" t="s" s="6">
+        <v>121</v>
+      </c>
+      <c r="I4" t="s" s="6">
+        <v>121</v>
+      </c>
+      <c r="J4" t="s" s="6">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="J4" s="36"/>
-      <c r="K4" s="5" t="e">
+      <c r="J5" s="36"/>
+      <c r="K5" s="5" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5" t="e">
+      <c r="L5" s="5"/>
+      <c r="M5" s="5" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5" t="e">
+      <c r="N5" s="5"/>
+      <c r="O5" s="5" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5" t="e">
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5" t="e">
+      <c r="R5" s="5"/>
+      <c r="S5" s="5" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="T4" s="6"/>
+      <c r="T5" s="6"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="D11" s="37"/>

--- a/JavaApplication19/src/excel/Ventas.xlsx
+++ b/JavaApplication19/src/excel/Ventas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Google Drive\EPIC MOUNTAIN\ADMINISTRACIÒN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01BB111-B04D-4760-8447-7EE0C2BCD701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D32496-5AC1-40F6-8BA8-EF233E6F053B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO" sheetId="1" r:id="rId1"/>
@@ -26,14 +26,12 @@
     <sheet name="NOVIEMBRE" sheetId="11" r:id="rId11"/>
     <sheet name="DICIEMBRE" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="122">
   <si>
     <t>PRUDUCTO</t>
   </si>
@@ -343,70 +341,70 @@
     <t>IVA NETO</t>
   </si>
   <si>
-    <t>23  julio</t>
-  </si>
-  <si>
-    <t>BICI FUJI RUTA</t>
-  </si>
-  <si>
-    <t>BICI PARA RUTA - TALLA 56 - LLANTAS 700x38 - DOBLE ENCINTADO - RECIEN ARMADA Y ALINEADA - TRANSMISION 2x8 - TRANSMISION COMPLETA CLARIS - FRENOS ULTEGRA DE ZAPATAS DE REPUESTOS - POTENCIA Y POSTE THOMSON ELITE - MUY RAPIDA - INCLUYE VELOCIMETRO - INCLUYE ESPEJO RETROVISOR - SEMINUEVA</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10508.0</t>
-  </si>
-  <si>
-    <t>13000.0</t>
-  </si>
-  <si>
-    <t>BANDANA MULTIFUNCIONAL - VARIOS MODELOS Y COLORES - ABSORBENTE - FACIL DE LAVAR - NUEVOS</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>27.0</t>
-  </si>
-  <si>
-    <t>135.0</t>
-  </si>
-  <si>
-    <t>60.0</t>
-  </si>
-  <si>
-    <t>24  julio</t>
-  </si>
-  <si>
-    <t>BICI RUTA SCHWINN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TALLA L </t>
-  </si>
-  <si>
-    <t>SEMINUEVO</t>
-  </si>
-  <si>
-    <t>5990.0</t>
-  </si>
-  <si>
-    <t>15000.0</t>
-  </si>
-  <si>
-    <t>27  julio</t>
-  </si>
-  <si>
-    <t>ASIENTO WTB ROCKET</t>
-  </si>
-  <si>
-    <t>TALLA 125mm - PARA MUJER - USADO</t>
-  </si>
-  <si>
-    <t>280.0</t>
+    <t>FECHA DE REGISTRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRECIO LOCAL X UNIDAD </t>
+  </si>
+  <si>
+    <t>PRECIO LOCAL NETO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRECIO ML X UNIDAD </t>
+  </si>
+  <si>
+    <t>PRECIO ML NETO</t>
+  </si>
+  <si>
+    <t>COMISIÒN ML X UNIDAD</t>
+  </si>
+  <si>
+    <t>COMISIÒN ML NETO</t>
+  </si>
+  <si>
+    <t>IVA NETA</t>
+  </si>
+  <si>
+    <t>UTILIDAD LOCAL X UNIDAD</t>
+  </si>
+  <si>
+    <t>UTILIDAD LOCAL NETA</t>
+  </si>
+  <si>
+    <t>UTILIDAD ML X UNIDAD</t>
+  </si>
+  <si>
+    <t>UTILIDAD ML NETA</t>
+  </si>
+  <si>
+    <t>MEDIO DE VENTA</t>
+  </si>
+  <si>
+    <t>DESVIADOR TRASERO XTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARA 9s - DETALLES ESTETICOS  - USADO </t>
+  </si>
+  <si>
+    <t>MERCADO LIBRE</t>
+  </si>
+  <si>
+    <t>COYUCA DE BENITEZ, GUERRERO</t>
+  </si>
+  <si>
+    <t>DESVIADOR TRAERO SLX 10s</t>
+  </si>
+  <si>
+    <t>PARA 9s Y 10s - MUY PRECISO - DETALLES ESTETICOS - USADO</t>
+  </si>
+  <si>
+    <t>SHIFTERS XT 3x9</t>
+  </si>
+  <si>
+    <t>SHIFTERS DE GATILLO - 3x9 - DETALLES ESTETICOS - UN PAR - USADO</t>
+  </si>
+  <si>
+    <t>MEXPOST</t>
   </si>
 </sst>
 </file>
@@ -416,7 +414,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,15 +455,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,8 +529,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF03DF7B"/>
+        <bgColor rgb="FF03DF7B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF03DF7B"/>
+        <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor rgb="FF03DF7B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
   </fills>
@@ -568,7 +618,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -665,16 +715,61 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="6" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1084,22 +1179,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>442914</xdr:colOff>
+      <xdr:colOff>1060975</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>26830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>219076</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1684822</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>414338</xdr:rowOff>
+      <xdr:rowOff>489857</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="6 Imagen">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDE650F8-E8A0-49EA-B03B-4B236B7BCD7A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F29CCC9-8BA5-434A-A1DC-F761FD06946F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1121,8 +1216,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="442914" y="28575"/>
-          <a:ext cx="538162" cy="385763"/>
+          <a:off x="1060975" y="26830"/>
+          <a:ext cx="623847" cy="463027"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1462,17 +1557,17 @@
       <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.73046875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="30.73046875" collapsed="true"/>
-    <col min="4" max="11" customWidth="true" width="15.73046875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.73046875" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="15.73046875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="30.73046875" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1515,7 +1610,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>43837</v>
       </c>
@@ -1560,7 +1655,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>43837</v>
       </c>
@@ -1611,7 +1706,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>43837</v>
       </c>
@@ -1662,7 +1757,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>43837</v>
       </c>
@@ -1713,7 +1808,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>43837</v>
       </c>
@@ -1758,7 +1853,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>43837</v>
       </c>
@@ -1803,7 +1898,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>43850</v>
       </c>
@@ -1854,7 +1949,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>43852</v>
       </c>
@@ -1899,7 +1994,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>43859</v>
       </c>
@@ -1944,7 +2039,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>43861</v>
       </c>
@@ -1989,7 +2084,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>43861</v>
       </c>
@@ -2034,7 +2129,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2060,200 +2155,200 @@
       <c r="N13" s="6"/>
       <c r="O13" s="24"/>
     </row>
-    <row r="14" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="15" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="103" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="104" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="105" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="106" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="107" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="108" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="109" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="110" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="111" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="112" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="113" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="114" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="115" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="116" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="117" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="118" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="119" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="120" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="121" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="122" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="123" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="124" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="125" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="126" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="127" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="128" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="129" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="130" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="131" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="132" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="133" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="134" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="135" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="136" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="137" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="138" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="139" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="140" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="141" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="142" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="143" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="144" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="145" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="146" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="147" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="148" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="149" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="150" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="151" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="152" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="153" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="154" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="155" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="156" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="157" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="158" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="159" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="160" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="161" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="162" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="163" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="164" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="165" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="166" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="167" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="168" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="169" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="170" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="171" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="172" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="173" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="174" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="175" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="176" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="177" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="178" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="179" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="180" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="181" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="182" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="183" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="184" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="185" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="186" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="187" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="188" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="189" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="190" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="191" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="192" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="193" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="194" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="195" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="196" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="197" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="198" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="199" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="200" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="201" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="202" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="203" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="204" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="205" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="206" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="207" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2267,7 +2362,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2279,7 +2374,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2291,7 +2386,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2306,17 +2401,17 @@
       <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.73046875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="30.73046875" collapsed="true"/>
-    <col min="4" max="11" customWidth="true" width="15.73046875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.73046875" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="15.73046875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="30.73046875" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2359,7 +2454,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>43870</v>
       </c>
@@ -2404,7 +2499,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>43869</v>
       </c>
@@ -2449,7 +2544,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>43879</v>
       </c>
@@ -2500,7 +2595,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>43879</v>
       </c>
@@ -2545,7 +2640,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>43837</v>
       </c>
@@ -2596,7 +2691,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>43853</v>
       </c>
@@ -2647,7 +2742,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -2673,203 +2768,203 @@
       <c r="N8" s="6"/>
       <c r="O8" s="24"/>
     </row>
-    <row r="9" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="15" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="103" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="104" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="105" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="106" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="107" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="108" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="109" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="110" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="111" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="112" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="113" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="114" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="115" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="116" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="117" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="118" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="119" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="120" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="121" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="122" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="123" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="124" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="125" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="126" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="127" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="128" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="129" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="130" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="131" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="132" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="133" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="134" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="135" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="136" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="137" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="138" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="139" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="140" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="141" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="142" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="143" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="144" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="145" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="146" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="147" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="148" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="149" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="150" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="151" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="152" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="153" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="154" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="155" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="156" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="157" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="158" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="159" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="160" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="161" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="162" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="163" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="164" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="165" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="166" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="167" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="168" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="169" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="170" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="171" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="172" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="173" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="174" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="175" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="176" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="177" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="178" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="179" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="180" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="181" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="182" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="183" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="184" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="185" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="186" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="187" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="188" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="189" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="190" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="191" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="192" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="193" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="194" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="195" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="196" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="197" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="198" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="199" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="200" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="201" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="202" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="203" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="204" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="205" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2885,17 +2980,17 @@
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.73046875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="30.73046875" collapsed="true"/>
-    <col min="4" max="11" customWidth="true" width="15.73046875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.73046875" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="15.73046875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="30.73046875" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2938,7 +3033,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>43853</v>
       </c>
@@ -2989,7 +3084,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3015,7 +3110,7 @@
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -3032,7 +3127,7 @@
       <c r="N4" s="25"/>
       <c r="O4" s="25"/>
     </row>
-    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -3049,7 +3144,7 @@
       <c r="N5" s="25"/>
       <c r="O5" s="25"/>
     </row>
-    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -3066,7 +3161,7 @@
       <c r="N6" s="25"/>
       <c r="O6" s="25"/>
     </row>
-    <row r="7" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -3083,7 +3178,7 @@
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
     </row>
-    <row r="8" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -3100,7 +3195,7 @@
       <c r="N8" s="25"/>
       <c r="O8" s="25"/>
     </row>
-    <row r="9" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -3117,7 +3212,7 @@
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
     </row>
-    <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -3134,7 +3229,7 @@
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
     </row>
-    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -3151,7 +3246,7 @@
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
     </row>
-    <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -3168,7 +3263,7 @@
       <c r="N12" s="25"/>
       <c r="O12" s="25"/>
     </row>
-    <row r="13" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -3185,7 +3280,7 @@
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
     </row>
-    <row r="14" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -3202,7 +3297,7 @@
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
     </row>
-    <row r="15" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -3219,7 +3314,7 @@
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
     </row>
-    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -3236,7 +3331,7 @@
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
     </row>
-    <row r="17" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -3253,7 +3348,7 @@
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
     </row>
-    <row r="18" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -3270,7 +3365,7 @@
       <c r="N18" s="25"/>
       <c r="O18" s="25"/>
     </row>
-    <row r="19" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
@@ -3287,7 +3382,7 @@
       <c r="N19" s="25"/>
       <c r="O19" s="25"/>
     </row>
-    <row r="20" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
@@ -3304,7 +3399,7 @@
       <c r="N20" s="25"/>
       <c r="O20" s="25"/>
     </row>
-    <row r="21" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
@@ -3321,7 +3416,7 @@
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
     </row>
-    <row r="22" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -3338,7 +3433,7 @@
       <c r="N22" s="25"/>
       <c r="O22" s="25"/>
     </row>
-    <row r="23" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -3355,7 +3450,7 @@
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
     </row>
-    <row r="24" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
@@ -3372,7 +3467,7 @@
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
     </row>
-    <row r="25" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
@@ -3389,7 +3484,7 @@
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
     </row>
-    <row r="26" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
@@ -3406,7 +3501,7 @@
       <c r="N26" s="25"/>
       <c r="O26" s="25"/>
     </row>
-    <row r="27" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
@@ -3423,7 +3518,7 @@
       <c r="N27" s="25"/>
       <c r="O27" s="25"/>
     </row>
-    <row r="28" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
@@ -3440,7 +3535,7 @@
       <c r="N28" s="25"/>
       <c r="O28" s="25"/>
     </row>
-    <row r="29" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -3457,7 +3552,7 @@
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
     </row>
-    <row r="30" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
@@ -3474,7 +3569,7 @@
       <c r="N30" s="25"/>
       <c r="O30" s="25"/>
     </row>
-    <row r="31" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
@@ -3491,7 +3586,7 @@
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
     </row>
-    <row r="32" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
@@ -3508,7 +3603,7 @@
       <c r="N32" s="25"/>
       <c r="O32" s="25"/>
     </row>
-    <row r="33" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
@@ -3525,7 +3620,7 @@
       <c r="N33" s="25"/>
       <c r="O33" s="25"/>
     </row>
-    <row r="34" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
       <c r="B34" s="25"/>
       <c r="C34" s="25"/>
@@ -3542,7 +3637,7 @@
       <c r="N34" s="25"/>
       <c r="O34" s="25"/>
     </row>
-    <row r="35" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
@@ -3559,7 +3654,7 @@
       <c r="N35" s="25"/>
       <c r="O35" s="25"/>
     </row>
-    <row r="36" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
@@ -3576,7 +3671,7 @@
       <c r="N36" s="25"/>
       <c r="O36" s="25"/>
     </row>
-    <row r="37" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
@@ -3593,7 +3688,7 @@
       <c r="N37" s="25"/>
       <c r="O37" s="25"/>
     </row>
-    <row r="38" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
@@ -3610,7 +3705,7 @@
       <c r="N38" s="25"/>
       <c r="O38" s="25"/>
     </row>
-    <row r="39" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -3627,7 +3722,7 @@
       <c r="N39" s="25"/>
       <c r="O39" s="25"/>
     </row>
-    <row r="40" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
@@ -3644,7 +3739,7 @@
       <c r="N40" s="25"/>
       <c r="O40" s="25"/>
     </row>
-    <row r="41" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
@@ -3661,7 +3756,7 @@
       <c r="N41" s="25"/>
       <c r="O41" s="25"/>
     </row>
-    <row r="42" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
@@ -3678,7 +3773,7 @@
       <c r="N42" s="25"/>
       <c r="O42" s="25"/>
     </row>
-    <row r="43" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
       <c r="B43" s="25"/>
       <c r="C43" s="25"/>
@@ -3695,7 +3790,7 @@
       <c r="N43" s="25"/>
       <c r="O43" s="25"/>
     </row>
-    <row r="44" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
@@ -3712,7 +3807,7 @@
       <c r="N44" s="25"/>
       <c r="O44" s="25"/>
     </row>
-    <row r="45" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="25"/>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
@@ -3729,7 +3824,7 @@
       <c r="N45" s="25"/>
       <c r="O45" s="25"/>
     </row>
-    <row r="46" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="25"/>
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
@@ -3746,7 +3841,7 @@
       <c r="N46" s="25"/>
       <c r="O46" s="25"/>
     </row>
-    <row r="47" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="25"/>
       <c r="B47" s="25"/>
       <c r="C47" s="25"/>
@@ -3763,7 +3858,7 @@
       <c r="N47" s="25"/>
       <c r="O47" s="25"/>
     </row>
-    <row r="48" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="25"/>
       <c r="B48" s="25"/>
       <c r="C48" s="25"/>
@@ -3780,7 +3875,7 @@
       <c r="N48" s="25"/>
       <c r="O48" s="25"/>
     </row>
-    <row r="49" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="25"/>
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
@@ -3797,7 +3892,7 @@
       <c r="N49" s="25"/>
       <c r="O49" s="25"/>
     </row>
-    <row r="50" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="25"/>
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
@@ -3814,7 +3909,7 @@
       <c r="N50" s="25"/>
       <c r="O50" s="25"/>
     </row>
-    <row r="51" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="25"/>
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
@@ -3831,7 +3926,7 @@
       <c r="N51" s="25"/>
       <c r="O51" s="25"/>
     </row>
-    <row r="52" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="25"/>
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
@@ -3848,7 +3943,7 @@
       <c r="N52" s="25"/>
       <c r="O52" s="25"/>
     </row>
-    <row r="53" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="25"/>
       <c r="B53" s="25"/>
       <c r="C53" s="25"/>
@@ -3865,7 +3960,7 @@
       <c r="N53" s="25"/>
       <c r="O53" s="25"/>
     </row>
-    <row r="54" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="25"/>
       <c r="B54" s="25"/>
       <c r="C54" s="25"/>
@@ -3882,7 +3977,7 @@
       <c r="N54" s="25"/>
       <c r="O54" s="25"/>
     </row>
-    <row r="55" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
       <c r="C55" s="25"/>
@@ -3899,7 +3994,7 @@
       <c r="N55" s="25"/>
       <c r="O55" s="25"/>
     </row>
-    <row r="56" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="25"/>
@@ -3916,7 +4011,7 @@
       <c r="N56" s="25"/>
       <c r="O56" s="25"/>
     </row>
-    <row r="57" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="25"/>
       <c r="B57" s="25"/>
       <c r="C57" s="25"/>
@@ -3933,7 +4028,7 @@
       <c r="N57" s="25"/>
       <c r="O57" s="25"/>
     </row>
-    <row r="58" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="25"/>
       <c r="B58" s="25"/>
       <c r="C58" s="25"/>
@@ -3950,7 +4045,7 @@
       <c r="N58" s="25"/>
       <c r="O58" s="25"/>
     </row>
-    <row r="59" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="25"/>
       <c r="B59" s="25"/>
       <c r="C59" s="25"/>
@@ -3967,7 +4062,7 @@
       <c r="N59" s="25"/>
       <c r="O59" s="25"/>
     </row>
-    <row r="60" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="25"/>
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
@@ -3984,7 +4079,7 @@
       <c r="N60" s="25"/>
       <c r="O60" s="25"/>
     </row>
-    <row r="61" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="25"/>
       <c r="B61" s="25"/>
       <c r="C61" s="25"/>
@@ -4001,7 +4096,7 @@
       <c r="N61" s="25"/>
       <c r="O61" s="25"/>
     </row>
-    <row r="62" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="25"/>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
@@ -4018,7 +4113,7 @@
       <c r="N62" s="25"/>
       <c r="O62" s="25"/>
     </row>
-    <row r="63" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="25"/>
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
@@ -4035,7 +4130,7 @@
       <c r="N63" s="25"/>
       <c r="O63" s="25"/>
     </row>
-    <row r="64" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="25"/>
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
@@ -4052,7 +4147,7 @@
       <c r="N64" s="25"/>
       <c r="O64" s="25"/>
     </row>
-    <row r="65" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="25"/>
       <c r="B65" s="25"/>
       <c r="C65" s="25"/>
@@ -4069,7 +4164,7 @@
       <c r="N65" s="25"/>
       <c r="O65" s="25"/>
     </row>
-    <row r="66" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="25"/>
       <c r="B66" s="25"/>
       <c r="C66" s="25"/>
@@ -4086,7 +4181,7 @@
       <c r="N66" s="25"/>
       <c r="O66" s="25"/>
     </row>
-    <row r="67" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="25"/>
       <c r="B67" s="25"/>
       <c r="C67" s="25"/>
@@ -4103,7 +4198,7 @@
       <c r="N67" s="25"/>
       <c r="O67" s="25"/>
     </row>
-    <row r="68" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="25"/>
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
@@ -4120,7 +4215,7 @@
       <c r="N68" s="25"/>
       <c r="O68" s="25"/>
     </row>
-    <row r="69" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="25"/>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
@@ -4137,7 +4232,7 @@
       <c r="N69" s="25"/>
       <c r="O69" s="25"/>
     </row>
-    <row r="70" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="25"/>
       <c r="B70" s="25"/>
       <c r="C70" s="25"/>
@@ -4154,7 +4249,7 @@
       <c r="N70" s="25"/>
       <c r="O70" s="25"/>
     </row>
-    <row r="71" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="25"/>
       <c r="B71" s="25"/>
       <c r="C71" s="25"/>
@@ -4171,7 +4266,7 @@
       <c r="N71" s="25"/>
       <c r="O71" s="25"/>
     </row>
-    <row r="72" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="25"/>
       <c r="B72" s="25"/>
       <c r="C72" s="25"/>
@@ -4188,7 +4283,7 @@
       <c r="N72" s="25"/>
       <c r="O72" s="25"/>
     </row>
-    <row r="73" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="25"/>
       <c r="B73" s="25"/>
       <c r="C73" s="25"/>
@@ -4205,7 +4300,7 @@
       <c r="N73" s="25"/>
       <c r="O73" s="25"/>
     </row>
-    <row r="74" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="25"/>
       <c r="B74" s="25"/>
       <c r="C74" s="25"/>
@@ -4222,7 +4317,7 @@
       <c r="N74" s="25"/>
       <c r="O74" s="25"/>
     </row>
-    <row r="75" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="25"/>
       <c r="B75" s="25"/>
       <c r="C75" s="25"/>
@@ -4239,7 +4334,7 @@
       <c r="N75" s="25"/>
       <c r="O75" s="25"/>
     </row>
-    <row r="76" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="25"/>
       <c r="B76" s="25"/>
       <c r="C76" s="25"/>
@@ -4256,7 +4351,7 @@
       <c r="N76" s="25"/>
       <c r="O76" s="25"/>
     </row>
-    <row r="77" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="25"/>
       <c r="B77" s="25"/>
       <c r="C77" s="25"/>
@@ -4273,7 +4368,7 @@
       <c r="N77" s="25"/>
       <c r="O77" s="25"/>
     </row>
-    <row r="78" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="25"/>
       <c r="B78" s="25"/>
       <c r="C78" s="25"/>
@@ -4290,7 +4385,7 @@
       <c r="N78" s="25"/>
       <c r="O78" s="25"/>
     </row>
-    <row r="79" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="25"/>
       <c r="B79" s="25"/>
       <c r="C79" s="25"/>
@@ -4307,7 +4402,7 @@
       <c r="N79" s="25"/>
       <c r="O79" s="25"/>
     </row>
-    <row r="80" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="25"/>
       <c r="B80" s="25"/>
       <c r="C80" s="25"/>
@@ -4324,7 +4419,7 @@
       <c r="N80" s="25"/>
       <c r="O80" s="25"/>
     </row>
-    <row r="81" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="25"/>
       <c r="B81" s="25"/>
       <c r="C81" s="25"/>
@@ -4341,7 +4436,7 @@
       <c r="N81" s="25"/>
       <c r="O81" s="25"/>
     </row>
-    <row r="82" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="25"/>
       <c r="B82" s="25"/>
       <c r="C82" s="25"/>
@@ -4358,7 +4453,7 @@
       <c r="N82" s="25"/>
       <c r="O82" s="25"/>
     </row>
-    <row r="83" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="25"/>
       <c r="B83" s="25"/>
       <c r="C83" s="25"/>
@@ -4375,7 +4470,7 @@
       <c r="N83" s="25"/>
       <c r="O83" s="25"/>
     </row>
-    <row r="84" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="25"/>
       <c r="B84" s="25"/>
       <c r="C84" s="25"/>
@@ -4392,7 +4487,7 @@
       <c r="N84" s="25"/>
       <c r="O84" s="25"/>
     </row>
-    <row r="85" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="25"/>
       <c r="B85" s="25"/>
       <c r="C85" s="25"/>
@@ -4409,7 +4504,7 @@
       <c r="N85" s="25"/>
       <c r="O85" s="25"/>
     </row>
-    <row r="86" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="25"/>
       <c r="B86" s="25"/>
       <c r="C86" s="25"/>
@@ -4426,7 +4521,7 @@
       <c r="N86" s="25"/>
       <c r="O86" s="25"/>
     </row>
-    <row r="87" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="25"/>
       <c r="B87" s="25"/>
       <c r="C87" s="25"/>
@@ -4443,7 +4538,7 @@
       <c r="N87" s="25"/>
       <c r="O87" s="25"/>
     </row>
-    <row r="88" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="25"/>
       <c r="B88" s="25"/>
       <c r="C88" s="25"/>
@@ -4460,7 +4555,7 @@
       <c r="N88" s="25"/>
       <c r="O88" s="25"/>
     </row>
-    <row r="89" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="25"/>
       <c r="B89" s="25"/>
       <c r="C89" s="25"/>
@@ -4477,7 +4572,7 @@
       <c r="N89" s="25"/>
       <c r="O89" s="25"/>
     </row>
-    <row r="90" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="25"/>
       <c r="B90" s="25"/>
       <c r="C90" s="25"/>
@@ -4494,7 +4589,7 @@
       <c r="N90" s="25"/>
       <c r="O90" s="25"/>
     </row>
-    <row r="91" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="25"/>
       <c r="B91" s="25"/>
       <c r="C91" s="25"/>
@@ -4511,7 +4606,7 @@
       <c r="N91" s="25"/>
       <c r="O91" s="25"/>
     </row>
-    <row r="92" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="25"/>
       <c r="B92" s="25"/>
       <c r="C92" s="25"/>
@@ -4528,7 +4623,7 @@
       <c r="N92" s="25"/>
       <c r="O92" s="25"/>
     </row>
-    <row r="93" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="25"/>
       <c r="B93" s="25"/>
       <c r="C93" s="25"/>
@@ -4545,7 +4640,7 @@
       <c r="N93" s="25"/>
       <c r="O93" s="25"/>
     </row>
-    <row r="94" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="25"/>
       <c r="B94" s="25"/>
       <c r="C94" s="25"/>
@@ -4562,7 +4657,7 @@
       <c r="N94" s="25"/>
       <c r="O94" s="25"/>
     </row>
-    <row r="95" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="25"/>
       <c r="B95" s="25"/>
       <c r="C95" s="25"/>
@@ -4579,7 +4674,7 @@
       <c r="N95" s="25"/>
       <c r="O95" s="25"/>
     </row>
-    <row r="96" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="25"/>
       <c r="B96" s="25"/>
       <c r="C96" s="25"/>
@@ -4596,7 +4691,7 @@
       <c r="N96" s="25"/>
       <c r="O96" s="25"/>
     </row>
-    <row r="97" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="25"/>
       <c r="B97" s="25"/>
       <c r="C97" s="25"/>
@@ -4613,7 +4708,7 @@
       <c r="N97" s="25"/>
       <c r="O97" s="25"/>
     </row>
-    <row r="98" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="25"/>
       <c r="B98" s="25"/>
       <c r="C98" s="25"/>
@@ -4630,7 +4725,7 @@
       <c r="N98" s="25"/>
       <c r="O98" s="25"/>
     </row>
-    <row r="99" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="25"/>
       <c r="B99" s="25"/>
       <c r="C99" s="25"/>
@@ -4647,7 +4742,7 @@
       <c r="N99" s="25"/>
       <c r="O99" s="25"/>
     </row>
-    <row r="100" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="25"/>
       <c r="B100" s="25"/>
       <c r="C100" s="25"/>
@@ -4678,16 +4773,16 @@
       <selection activeCell="N1" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.73046875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="30.73046875" collapsed="true"/>
-    <col min="4" max="13" customWidth="true" width="15.73046875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="30.73046875" collapsed="true"/>
-    <col min="15" max="24" customWidth="true" width="15.73046875" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="13" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="30.7109375" customWidth="1"/>
+    <col min="15" max="24" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -4729,7 +4824,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>43937</v>
       </c>
@@ -4773,7 +4868,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>43853</v>
       </c>
@@ -4823,7 +4918,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>43853</v>
       </c>
@@ -4873,7 +4968,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>43853</v>
       </c>
@@ -4917,7 +5012,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -4942,129 +5037,129 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="10" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="12" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="15" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="103" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="104" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="105" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="106" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="107" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="108" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="109" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="110" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="111" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="112" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="113" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="114" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="115" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="116" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="117" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="118" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="119" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="120" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="121" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="122" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="123" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="124" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="125" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="126" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="127" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="128" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="129" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5080,16 +5175,16 @@
       <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.73046875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="30.73046875" collapsed="true"/>
-    <col min="4" max="15" customWidth="true" width="15.73046875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="30.73046875" collapsed="true"/>
-    <col min="17" max="28" customWidth="true" width="15.73046875" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="15" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="30.7109375" customWidth="1"/>
+    <col min="17" max="28" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -5149,7 +5244,7 @@
       <c r="AA1" s="25"/>
       <c r="AB1" s="25"/>
     </row>
-    <row r="2" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <v>43837</v>
       </c>
@@ -5218,7 +5313,7 @@
       <c r="AA2" s="25"/>
       <c r="AB2" s="25"/>
     </row>
-    <row r="3" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>43853</v>
       </c>
@@ -5288,7 +5383,7 @@
       <c r="AA3" s="25"/>
       <c r="AB3" s="25"/>
     </row>
-    <row r="4" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>43853</v>
       </c>
@@ -5357,7 +5452,7 @@
       <c r="AA4" s="25"/>
       <c r="AB4" s="25"/>
     </row>
-    <row r="5" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>43853</v>
       </c>
@@ -5427,7 +5522,7 @@
       <c r="AA5" s="25"/>
       <c r="AB5" s="25"/>
     </row>
-    <row r="6" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>43847</v>
       </c>
@@ -5491,7 +5586,7 @@
       <c r="AA6" s="25"/>
       <c r="AB6" s="25"/>
     </row>
-    <row r="7" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>43837</v>
       </c>
@@ -5555,7 +5650,7 @@
       <c r="AA7" s="25"/>
       <c r="AB7" s="25"/>
     </row>
-    <row r="8" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -5597,7 +5692,7 @@
       <c r="AA8" s="25"/>
       <c r="AB8" s="25"/>
     </row>
-    <row r="9" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -5627,7 +5722,7 @@
       <c r="AA9" s="25"/>
       <c r="AB9" s="25"/>
     </row>
-    <row r="10" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -5657,7 +5752,7 @@
       <c r="AA10" s="25"/>
       <c r="AB10" s="25"/>
     </row>
-    <row r="11" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -5687,7 +5782,7 @@
       <c r="AA11" s="25"/>
       <c r="AB11" s="25"/>
     </row>
-    <row r="12" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -5717,7 +5812,7 @@
       <c r="AA12" s="25"/>
       <c r="AB12" s="25"/>
     </row>
-    <row r="13" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -5747,7 +5842,7 @@
       <c r="AA13" s="25"/>
       <c r="AB13" s="25"/>
     </row>
-    <row r="14" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -5777,7 +5872,7 @@
       <c r="AA14" s="25"/>
       <c r="AB14" s="25"/>
     </row>
-    <row r="15" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -5807,7 +5902,7 @@
       <c r="AA15" s="25"/>
       <c r="AB15" s="25"/>
     </row>
-    <row r="16" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -5837,7 +5932,7 @@
       <c r="AA16" s="25"/>
       <c r="AB16" s="25"/>
     </row>
-    <row r="17" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -5867,7 +5962,7 @@
       <c r="AA17" s="25"/>
       <c r="AB17" s="25"/>
     </row>
-    <row r="18" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -5897,7 +5992,7 @@
       <c r="AA18" s="25"/>
       <c r="AB18" s="25"/>
     </row>
-    <row r="19" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -5927,7 +6022,7 @@
       <c r="AA19" s="25"/>
       <c r="AB19" s="25"/>
     </row>
-    <row r="20" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -5957,7 +6052,7 @@
       <c r="AA20" s="25"/>
       <c r="AB20" s="25"/>
     </row>
-    <row r="21" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -5987,7 +6082,7 @@
       <c r="AA21" s="25"/>
       <c r="AB21" s="25"/>
     </row>
-    <row r="22" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -6017,7 +6112,7 @@
       <c r="AA22" s="25"/>
       <c r="AB22" s="25"/>
     </row>
-    <row r="23" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -6047,7 +6142,7 @@
       <c r="AA23" s="25"/>
       <c r="AB23" s="25"/>
     </row>
-    <row r="24" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -6077,7 +6172,7 @@
       <c r="AA24" s="25"/>
       <c r="AB24" s="25"/>
     </row>
-    <row r="25" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -6107,7 +6202,7 @@
       <c r="AA25" s="25"/>
       <c r="AB25" s="25"/>
     </row>
-    <row r="26" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -6137,7 +6232,7 @@
       <c r="AA26" s="25"/>
       <c r="AB26" s="25"/>
     </row>
-    <row r="27" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -6167,7 +6262,7 @@
       <c r="AA27" s="25"/>
       <c r="AB27" s="25"/>
     </row>
-    <row r="28" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -6197,7 +6292,7 @@
       <c r="AA28" s="25"/>
       <c r="AB28" s="25"/>
     </row>
-    <row r="29" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
@@ -6227,7 +6322,7 @@
       <c r="AA29" s="25"/>
       <c r="AB29" s="25"/>
     </row>
-    <row r="30" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -6257,7 +6352,7 @@
       <c r="AA30" s="25"/>
       <c r="AB30" s="25"/>
     </row>
-    <row r="31" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -6287,7 +6382,7 @@
       <c r="AA31" s="25"/>
       <c r="AB31" s="25"/>
     </row>
-    <row r="32" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -6317,7 +6412,7 @@
       <c r="AA32" s="25"/>
       <c r="AB32" s="25"/>
     </row>
-    <row r="33" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -6347,7 +6442,7 @@
       <c r="AA33" s="25"/>
       <c r="AB33" s="25"/>
     </row>
-    <row r="34" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -6377,7 +6472,7 @@
       <c r="AA34" s="25"/>
       <c r="AB34" s="25"/>
     </row>
-    <row r="35" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -6407,7 +6502,7 @@
       <c r="AA35" s="25"/>
       <c r="AB35" s="25"/>
     </row>
-    <row r="36" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -6437,7 +6532,7 @@
       <c r="AA36" s="25"/>
       <c r="AB36" s="25"/>
     </row>
-    <row r="37" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -6467,7 +6562,7 @@
       <c r="AA37" s="25"/>
       <c r="AB37" s="25"/>
     </row>
-    <row r="38" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
@@ -6497,7 +6592,7 @@
       <c r="AA38" s="25"/>
       <c r="AB38" s="25"/>
     </row>
-    <row r="39" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="19"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -6527,7 +6622,7 @@
       <c r="AA39" s="25"/>
       <c r="AB39" s="25"/>
     </row>
-    <row r="40" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19"/>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -6557,7 +6652,7 @@
       <c r="AA40" s="25"/>
       <c r="AB40" s="25"/>
     </row>
-    <row r="41" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -6587,7 +6682,7 @@
       <c r="AA41" s="25"/>
       <c r="AB41" s="25"/>
     </row>
-    <row r="42" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -6617,7 +6712,7 @@
       <c r="AA42" s="25"/>
       <c r="AB42" s="25"/>
     </row>
-    <row r="43" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19"/>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -6647,7 +6742,7 @@
       <c r="AA43" s="25"/>
       <c r="AB43" s="25"/>
     </row>
-    <row r="44" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
@@ -6677,7 +6772,7 @@
       <c r="AA44" s="25"/>
       <c r="AB44" s="25"/>
     </row>
-    <row r="45" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
@@ -6707,7 +6802,7 @@
       <c r="AA45" s="25"/>
       <c r="AB45" s="25"/>
     </row>
-    <row r="46" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
@@ -6737,7 +6832,7 @@
       <c r="AA46" s="25"/>
       <c r="AB46" s="25"/>
     </row>
-    <row r="47" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
@@ -6767,7 +6862,7 @@
       <c r="AA47" s="25"/>
       <c r="AB47" s="25"/>
     </row>
-    <row r="48" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
@@ -6797,7 +6892,7 @@
       <c r="AA48" s="25"/>
       <c r="AB48" s="25"/>
     </row>
-    <row r="49" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="19"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
@@ -6827,7 +6922,7 @@
       <c r="AA49" s="25"/>
       <c r="AB49" s="25"/>
     </row>
-    <row r="50" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
@@ -6857,7 +6952,7 @@
       <c r="AA50" s="25"/>
       <c r="AB50" s="25"/>
     </row>
-    <row r="51" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="19"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
@@ -6887,7 +6982,7 @@
       <c r="AA51" s="25"/>
       <c r="AB51" s="25"/>
     </row>
-    <row r="52" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="19"/>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
@@ -6917,7 +7012,7 @@
       <c r="AA52" s="25"/>
       <c r="AB52" s="25"/>
     </row>
-    <row r="53" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
@@ -6947,7 +7042,7 @@
       <c r="AA53" s="25"/>
       <c r="AB53" s="25"/>
     </row>
-    <row r="54" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="19"/>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
@@ -6977,7 +7072,7 @@
       <c r="AA54" s="25"/>
       <c r="AB54" s="25"/>
     </row>
-    <row r="55" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="19"/>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
@@ -7007,7 +7102,7 @@
       <c r="AA55" s="25"/>
       <c r="AB55" s="25"/>
     </row>
-    <row r="56" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="19"/>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
@@ -7037,7 +7132,7 @@
       <c r="AA56" s="25"/>
       <c r="AB56" s="25"/>
     </row>
-    <row r="57" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="19"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -7067,7 +7162,7 @@
       <c r="AA57" s="25"/>
       <c r="AB57" s="25"/>
     </row>
-    <row r="58" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="19"/>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
@@ -7097,7 +7192,7 @@
       <c r="AA58" s="25"/>
       <c r="AB58" s="25"/>
     </row>
-    <row r="59" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="19"/>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
@@ -7127,7 +7222,7 @@
       <c r="AA59" s="25"/>
       <c r="AB59" s="25"/>
     </row>
-    <row r="60" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="19"/>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
@@ -7157,7 +7252,7 @@
       <c r="AA60" s="25"/>
       <c r="AB60" s="25"/>
     </row>
-    <row r="61" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="19"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
@@ -7187,7 +7282,7 @@
       <c r="AA61" s="25"/>
       <c r="AB61" s="25"/>
     </row>
-    <row r="62" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="19"/>
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
@@ -7217,7 +7312,7 @@
       <c r="AA62" s="25"/>
       <c r="AB62" s="25"/>
     </row>
-    <row r="63" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="19"/>
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
@@ -7247,7 +7342,7 @@
       <c r="AA63" s="25"/>
       <c r="AB63" s="25"/>
     </row>
-    <row r="64" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="19"/>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
@@ -7277,7 +7372,7 @@
       <c r="AA64" s="25"/>
       <c r="AB64" s="25"/>
     </row>
-    <row r="65" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="19"/>
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
@@ -7307,7 +7402,7 @@
       <c r="AA65" s="25"/>
       <c r="AB65" s="25"/>
     </row>
-    <row r="66" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="19"/>
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
@@ -7337,7 +7432,7 @@
       <c r="AA66" s="25"/>
       <c r="AB66" s="25"/>
     </row>
-    <row r="67" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="19"/>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
@@ -7367,7 +7462,7 @@
       <c r="AA67" s="25"/>
       <c r="AB67" s="25"/>
     </row>
-    <row r="68" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="19"/>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
@@ -7397,7 +7492,7 @@
       <c r="AA68" s="25"/>
       <c r="AB68" s="25"/>
     </row>
-    <row r="69" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="19"/>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
@@ -7427,7 +7522,7 @@
       <c r="AA69" s="25"/>
       <c r="AB69" s="25"/>
     </row>
-    <row r="70" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="19"/>
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
@@ -7457,7 +7552,7 @@
       <c r="AA70" s="25"/>
       <c r="AB70" s="25"/>
     </row>
-    <row r="71" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="19"/>
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
@@ -7487,7 +7582,7 @@
       <c r="AA71" s="25"/>
       <c r="AB71" s="25"/>
     </row>
-    <row r="72" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="19"/>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
@@ -7517,7 +7612,7 @@
       <c r="AA72" s="25"/>
       <c r="AB72" s="25"/>
     </row>
-    <row r="73" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="19"/>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
@@ -7547,7 +7642,7 @@
       <c r="AA73" s="25"/>
       <c r="AB73" s="25"/>
     </row>
-    <row r="74" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="19"/>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
@@ -7577,7 +7672,7 @@
       <c r="AA74" s="25"/>
       <c r="AB74" s="25"/>
     </row>
-    <row r="75" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="19"/>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
@@ -7607,7 +7702,7 @@
       <c r="AA75" s="25"/>
       <c r="AB75" s="25"/>
     </row>
-    <row r="76" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="19"/>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
@@ -7637,7 +7732,7 @@
       <c r="AA76" s="25"/>
       <c r="AB76" s="25"/>
     </row>
-    <row r="77" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="19"/>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -7667,7 +7762,7 @@
       <c r="AA77" s="25"/>
       <c r="AB77" s="25"/>
     </row>
-    <row r="78" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="19"/>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
@@ -7697,7 +7792,7 @@
       <c r="AA78" s="25"/>
       <c r="AB78" s="25"/>
     </row>
-    <row r="79" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="19"/>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
@@ -7727,7 +7822,7 @@
       <c r="AA79" s="25"/>
       <c r="AB79" s="25"/>
     </row>
-    <row r="80" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="19"/>
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
@@ -7757,7 +7852,7 @@
       <c r="AA80" s="25"/>
       <c r="AB80" s="25"/>
     </row>
-    <row r="81" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="19"/>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
@@ -7787,7 +7882,7 @@
       <c r="AA81" s="25"/>
       <c r="AB81" s="25"/>
     </row>
-    <row r="82" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="19"/>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
@@ -7817,7 +7912,7 @@
       <c r="AA82" s="25"/>
       <c r="AB82" s="25"/>
     </row>
-    <row r="83" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="19"/>
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
@@ -7847,7 +7942,7 @@
       <c r="AA83" s="25"/>
       <c r="AB83" s="25"/>
     </row>
-    <row r="84" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="19"/>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
@@ -7877,7 +7972,7 @@
       <c r="AA84" s="25"/>
       <c r="AB84" s="25"/>
     </row>
-    <row r="85" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="19"/>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
@@ -7907,7 +8002,7 @@
       <c r="AA85" s="25"/>
       <c r="AB85" s="25"/>
     </row>
-    <row r="86" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="19"/>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
@@ -7937,7 +8032,7 @@
       <c r="AA86" s="25"/>
       <c r="AB86" s="25"/>
     </row>
-    <row r="87" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="19"/>
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
@@ -7967,7 +8062,7 @@
       <c r="AA87" s="25"/>
       <c r="AB87" s="25"/>
     </row>
-    <row r="88" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="19"/>
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
@@ -7997,7 +8092,7 @@
       <c r="AA88" s="25"/>
       <c r="AB88" s="25"/>
     </row>
-    <row r="89" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="19"/>
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
@@ -8027,7 +8122,7 @@
       <c r="AA89" s="25"/>
       <c r="AB89" s="25"/>
     </row>
-    <row r="90" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="19"/>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
@@ -8057,7 +8152,7 @@
       <c r="AA90" s="25"/>
       <c r="AB90" s="25"/>
     </row>
-    <row r="91" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="19"/>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
@@ -8087,7 +8182,7 @@
       <c r="AA91" s="25"/>
       <c r="AB91" s="25"/>
     </row>
-    <row r="92" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="19"/>
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
@@ -8117,7 +8212,7 @@
       <c r="AA92" s="25"/>
       <c r="AB92" s="25"/>
     </row>
-    <row r="93" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="19"/>
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
@@ -8147,7 +8242,7 @@
       <c r="AA93" s="25"/>
       <c r="AB93" s="25"/>
     </row>
-    <row r="94" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="19"/>
       <c r="B94" s="19"/>
       <c r="C94" s="19"/>
@@ -8177,7 +8272,7 @@
       <c r="AA94" s="25"/>
       <c r="AB94" s="25"/>
     </row>
-    <row r="95" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="19"/>
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
@@ -8207,7 +8302,7 @@
       <c r="AA95" s="25"/>
       <c r="AB95" s="25"/>
     </row>
-    <row r="96" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="19"/>
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
@@ -8237,7 +8332,7 @@
       <c r="AA96" s="25"/>
       <c r="AB96" s="25"/>
     </row>
-    <row r="97" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="19"/>
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
@@ -8267,7 +8362,7 @@
       <c r="AA97" s="25"/>
       <c r="AB97" s="25"/>
     </row>
-    <row r="98" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="19"/>
       <c r="B98" s="19"/>
       <c r="C98" s="19"/>
@@ -8297,7 +8392,7 @@
       <c r="AA98" s="25"/>
       <c r="AB98" s="25"/>
     </row>
-    <row r="99" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="19"/>
       <c r="B99" s="19"/>
       <c r="C99" s="19"/>
@@ -8327,7 +8422,7 @@
       <c r="AA99" s="25"/>
       <c r="AB99" s="25"/>
     </row>
-    <row r="100" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="19"/>
       <c r="B100" s="19"/>
       <c r="C100" s="19"/>
@@ -8357,7 +8452,7 @@
       <c r="AA100" s="25"/>
       <c r="AB100" s="25"/>
     </row>
-    <row r="101" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="19"/>
       <c r="B101" s="19"/>
       <c r="C101" s="19"/>
@@ -8387,7 +8482,7 @@
       <c r="AA101" s="25"/>
       <c r="AB101" s="25"/>
     </row>
-    <row r="102" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="19"/>
       <c r="B102" s="19"/>
       <c r="C102" s="19"/>
@@ -8417,7 +8512,7 @@
       <c r="AA102" s="25"/>
       <c r="AB102" s="25"/>
     </row>
-    <row r="103" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="19"/>
       <c r="B103" s="19"/>
       <c r="C103" s="19"/>
@@ -8447,7 +8542,7 @@
       <c r="AA103" s="25"/>
       <c r="AB103" s="25"/>
     </row>
-    <row r="104" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="19"/>
       <c r="B104" s="19"/>
       <c r="C104" s="19"/>
@@ -8477,7 +8572,7 @@
       <c r="AA104" s="25"/>
       <c r="AB104" s="25"/>
     </row>
-    <row r="105" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="19"/>
       <c r="B105" s="19"/>
       <c r="C105" s="19"/>
@@ -8519,22 +8614,22 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T3" sqref="A1:T3"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.73046875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.73046875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="50.73046875" collapsed="true"/>
-    <col min="4" max="19" customWidth="true" width="15.73046875" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="30.73046875" collapsed="true"/>
-    <col min="21" max="26" customWidth="true" width="15.73046875" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
+    <col min="4" max="19" width="15.7109375" customWidth="1"/>
+    <col min="20" max="20" width="30.7109375" customWidth="1"/>
+    <col min="21" max="26" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="34"/>
-      <c r="B1" s="35"/>
+    <row r="1" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="47"/>
+      <c r="B1" s="48"/>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
@@ -8590,7 +8685,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>43837</v>
       </c>
@@ -8648,7 +8743,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -8688,98 +8783,98 @@
       </c>
       <c r="T3" s="6"/>
     </row>
-    <row r="4" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="7" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="10" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="12" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="15" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -8791,189 +8886,596 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:Y201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="44.06640625" collapsed="true"/>
+    <col min="1" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="23" width="15.7109375" customWidth="1"/>
+    <col min="24" max="25" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="C1" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="L1" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q1" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="R1" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="T1" s="2" t="s">
+      <c r="S1" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="W1" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y1" s="46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="6" t="s">
+    <row r="2" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="50">
+        <v>44038</v>
+      </c>
+      <c r="D2" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="51">
+        <f>14600/7500</f>
+        <v>1.9466666666666668</v>
+      </c>
+      <c r="G2" s="51">
+        <v>1</v>
+      </c>
+      <c r="H2" s="43">
+        <f>J2/F2</f>
+        <v>205.47945205479451</v>
+      </c>
+      <c r="I2" s="43">
+        <f t="shared" ref="I2:I4" si="0">H2*G2</f>
+        <v>205.47945205479451</v>
+      </c>
+      <c r="J2" s="43">
+        <v>400</v>
+      </c>
+      <c r="K2" s="43">
+        <f t="shared" ref="K2:K4" si="1">J2*G2</f>
+        <v>400</v>
+      </c>
+      <c r="L2" s="43">
+        <f t="shared" ref="L2:L4" si="2">J2+R2</f>
+        <v>464</v>
+      </c>
+      <c r="M2" s="43">
+        <f t="shared" ref="M2:M4" si="3">L2*G2</f>
+        <v>464</v>
+      </c>
+      <c r="N2" s="43">
+        <f t="shared" ref="N2:N4" si="4">J2+R2+P2+35</f>
+        <v>573.6</v>
+      </c>
+      <c r="O2" s="43">
+        <f t="shared" ref="O2:O4" si="5">N2*G2</f>
+        <v>573.6</v>
+      </c>
+      <c r="P2" s="43">
+        <f t="shared" ref="P2:P4" si="6">(L2*0.15)+5</f>
+        <v>74.599999999999994</v>
+      </c>
+      <c r="Q2" s="43">
+        <f t="shared" ref="Q2:Q4" si="7">P2*G2</f>
+        <v>74.599999999999994</v>
+      </c>
+      <c r="R2" s="43">
+        <f t="shared" ref="R2:R4" si="8">J2*0.16</f>
+        <v>64</v>
+      </c>
+      <c r="S2" s="43">
+        <f t="shared" ref="S2:S4" si="9">R2*G2</f>
+        <v>64</v>
+      </c>
+      <c r="T2" s="43">
+        <f t="shared" ref="T2:T4" si="10">L2-H2-R2</f>
+        <v>194.52054794520552</v>
+      </c>
+      <c r="U2" s="43">
+        <f t="shared" ref="U2:U4" si="11">T2*G2</f>
+        <v>194.52054794520552</v>
+      </c>
+      <c r="V2" s="43">
+        <f t="shared" ref="V2:V4" si="12">N2-H2-P2-R2-35</f>
+        <v>194.52054794520552</v>
+      </c>
+      <c r="W2" s="44">
+        <f t="shared" ref="W2:W4" si="13">V2*G2</f>
+        <v>194.52054794520552</v>
+      </c>
+      <c r="X2" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y2" s="52" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="41">
+        <v>44004</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42">
+        <v>1</v>
+      </c>
+      <c r="H3" s="43">
+        <v>650</v>
+      </c>
+      <c r="I3" s="43">
+        <f t="shared" si="0"/>
+        <v>650</v>
+      </c>
+      <c r="J3" s="43">
+        <v>650</v>
+      </c>
+      <c r="K3" s="43">
+        <f t="shared" si="1"/>
+        <v>650</v>
+      </c>
+      <c r="L3" s="43">
+        <f t="shared" si="2"/>
+        <v>754</v>
+      </c>
+      <c r="M3" s="43">
+        <f t="shared" si="3"/>
+        <v>754</v>
+      </c>
+      <c r="N3" s="43">
+        <f t="shared" si="4"/>
+        <v>907.1</v>
+      </c>
+      <c r="O3" s="43">
+        <f t="shared" si="5"/>
+        <v>907.1</v>
+      </c>
+      <c r="P3" s="43">
+        <f t="shared" si="6"/>
+        <v>118.1</v>
+      </c>
+      <c r="Q3" s="43">
+        <f t="shared" si="7"/>
+        <v>118.1</v>
+      </c>
+      <c r="R3" s="43">
+        <f t="shared" si="8"/>
         <v>104</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3"/>
-    <row r="4">
-      <c r="A4" t="s" s="6">
-        <v>118</v>
-      </c>
-      <c r="B4" t="s" s="6">
+      <c r="S3" s="43">
+        <f t="shared" si="9"/>
+        <v>104</v>
+      </c>
+      <c r="T3" s="43">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U3" s="43">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V3" s="43">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W3" s="44">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X3" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y3" s="52" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="C4" t="s" s="6">
+      <c r="B4" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="D4" t="s" s="6">
+      <c r="C4" s="50">
+        <v>43837</v>
+      </c>
+      <c r="D4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s" s="6">
-        <v>103</v>
-      </c>
-      <c r="F4" t="s" s="6">
-        <v>103</v>
-      </c>
-      <c r="G4" t="s" s="6">
-        <v>104</v>
-      </c>
-      <c r="H4" t="s" s="6">
+      <c r="E4" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="51">
+        <f>14600/7500</f>
+        <v>1.9466666666666668</v>
+      </c>
+      <c r="G4" s="51">
+        <v>1</v>
+      </c>
+      <c r="H4" s="43">
+        <f>J4/F4</f>
+        <v>205.47945205479451</v>
+      </c>
+      <c r="I4" s="43">
+        <f t="shared" si="0"/>
+        <v>205.47945205479451</v>
+      </c>
+      <c r="J4" s="43">
+        <v>400</v>
+      </c>
+      <c r="K4" s="43">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="L4" s="43">
+        <f t="shared" si="2"/>
+        <v>464</v>
+      </c>
+      <c r="M4" s="43">
+        <f t="shared" si="3"/>
+        <v>464</v>
+      </c>
+      <c r="N4" s="43">
+        <f t="shared" si="4"/>
+        <v>573.6</v>
+      </c>
+      <c r="O4" s="43">
+        <f t="shared" si="5"/>
+        <v>573.6</v>
+      </c>
+      <c r="P4" s="43">
+        <f t="shared" si="6"/>
+        <v>74.599999999999994</v>
+      </c>
+      <c r="Q4" s="43">
+        <f t="shared" si="7"/>
+        <v>74.599999999999994</v>
+      </c>
+      <c r="R4" s="43">
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+      <c r="S4" s="43">
+        <f t="shared" si="9"/>
+        <v>64</v>
+      </c>
+      <c r="T4" s="43">
+        <f t="shared" si="10"/>
+        <v>194.52054794520552</v>
+      </c>
+      <c r="U4" s="43">
+        <f t="shared" si="11"/>
+        <v>194.52054794520552</v>
+      </c>
+      <c r="V4" s="43">
+        <f t="shared" si="12"/>
+        <v>194.52054794520552</v>
+      </c>
+      <c r="W4" s="44">
+        <f t="shared" si="13"/>
+        <v>194.52054794520552</v>
+      </c>
+      <c r="X4" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="I4" t="s" s="6">
-        <v>121</v>
-      </c>
-      <c r="J4" t="s" s="6">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J5" s="36"/>
-      <c r="K5" s="5" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T5" s="6"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="D11" s="37"/>
-    </row>
+      <c r="Y4" s="52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+    </row>
+    <row r="6" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -8984,7 +9486,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8996,7 +9498,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JavaApplication19/src/excel/Ventas.xlsx
+++ b/JavaApplication19/src/excel/Ventas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Google Drive\EPIC MOUNTAIN\ADMINISTRACIÒN\"/>
     </mc:Choice>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="129">
   <si>
     <t>PRUDUCTO</t>
   </si>
@@ -405,6 +405,27 @@
   </si>
   <si>
     <t>MEXPOST</t>
+  </si>
+  <si>
+    <t>LUBRICANTE DE ALTO RENDIMIENTO - PARA: CADENA, DESVIADORES, FUNDAS DE CABLE, ETC. - FACIL APLICACIÓN - TIPO GOTERO - NUEVO</t>
+  </si>
+  <si>
+    <t>28  julio</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>14.96</t>
+  </si>
+  <si>
+    <t>1421.2</t>
+  </si>
+  <si>
+    <t>30.0</t>
   </si>
 </sst>
 </file>
@@ -1559,12 +1580,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="15" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="4" max="11" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="30.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -2403,12 +2424,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="15" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="4" max="11" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="30.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -2982,12 +3003,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="15" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="4" max="11" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="30.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -4775,11 +4796,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="13" width="15.7109375" customWidth="1"/>
-    <col min="14" max="14" width="30.7109375" customWidth="1"/>
-    <col min="15" max="24" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="4" max="13" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="15" max="24" customWidth="true" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -5177,11 +5198,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="15" width="15.7109375" customWidth="1"/>
-    <col min="16" max="16" width="30.7109375" customWidth="1"/>
-    <col min="17" max="28" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="4" max="15" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="17" max="28" customWidth="true" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -8619,12 +8640,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" customWidth="1"/>
-    <col min="4" max="19" width="15.7109375" customWidth="1"/>
-    <col min="20" max="20" width="30.7109375" customWidth="1"/>
-    <col min="21" max="26" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="50.7109375" collapsed="true"/>
+    <col min="4" max="19" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="21" max="26" customWidth="true" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8897,9 +8918,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="23" width="15.7109375" customWidth="1"/>
-    <col min="24" max="25" width="40.7109375" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="3" max="23" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="24" max="25" customWidth="true" width="40.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -9250,35 +9271,97 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-    </row>
-    <row r="6" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="45"/>
+    </row>
     <row r="8" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/JavaApplication19/src/excel/Ventas.xlsx
+++ b/JavaApplication19/src/excel/Ventas.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="131">
   <si>
     <t>PRUDUCTO</t>
   </si>
@@ -426,6 +426,12 @@
   </si>
   <si>
     <t>30.0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>29.92</t>
   </si>
 </sst>
 </file>
@@ -9335,35 +9341,97 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="45"/>
-    </row>
-    <row r="8" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+    </row>
     <row r="10" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/JavaApplication19/src/excel/Ventas.xlsx
+++ b/JavaApplication19/src/excel/Ventas.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="133">
   <si>
     <t>PRUDUCTO</t>
   </si>
@@ -432,6 +432,12 @@
   </si>
   <si>
     <t>29.92</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>748.0</t>
   </si>
 </sst>
 </file>
@@ -9405,36 +9411,129 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
-    </row>
-    <row r="10" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="45"/>
+    </row>
     <row r="13" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/JavaApplication19/src/excel/Ventas.xlsx
+++ b/JavaApplication19/src/excel/Ventas.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="140">
   <si>
     <t>PRUDUCTO</t>
   </si>
@@ -438,6 +438,27 @@
   </si>
   <si>
     <t>748.0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>74.80000000000001</t>
+  </si>
+  <si>
+    <t>BANDANA MULTIFUNCIONAL - VARIOS MODELOS Y COLORES - ABSORBENTE - FACIL DE LAVAR - NUEVOS</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>837.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
   </si>
 </sst>
 </file>
@@ -8919,7 +8940,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Y201"/>
+  <dimension ref="A1:Y192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
@@ -9535,9 +9556,9 @@
       <c r="Y12" s="45"/>
     </row>
     <row r="13" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9714,15 +9735,6 @@
     <row r="190" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="191" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="192" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/JavaApplication19/src/excel/Ventas.xlsx
+++ b/JavaApplication19/src/excel/Ventas.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="142">
   <si>
     <t>PRUDUCTO</t>
   </si>
@@ -459,6 +459,12 @@
   </si>
   <si>
     <t>60.0</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>299.20000000000005</t>
   </si>
 </sst>
 </file>
@@ -8940,7 +8946,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Y192"/>
+  <dimension ref="A1:Y191"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
@@ -9734,7 +9740,6 @@
     <row r="189" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="190" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="191" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/JavaApplication19/src/excel/Ventas.xlsx
+++ b/JavaApplication19/src/excel/Ventas.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="148">
   <si>
     <t>PRUDUCTO</t>
   </si>
@@ -465,6 +465,24 @@
   </si>
   <si>
     <t>299.20000000000005</t>
+  </si>
+  <si>
+    <t>ASIENTO GT</t>
+  </si>
+  <si>
+    <t>TALLA 144mm - MUY COMODO - SEMINUEVO</t>
+  </si>
+  <si>
+    <t>29  julio</t>
+  </si>
+  <si>
+    <t>SEMINUEVO</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>380.0</t>
   </si>
 </sst>
 </file>
@@ -9534,36 +9552,98 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
-    </row>
-    <row r="13" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="45"/>
+    </row>
+    <row r="15" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/JavaApplication19/src/excel/Ventas.xlsx
+++ b/JavaApplication19/src/excel/Ventas.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="162">
   <si>
     <t>PRUDUCTO</t>
   </si>
@@ -465,6 +465,66 @@
   </si>
   <si>
     <t>299.20000000000005</t>
+  </si>
+  <si>
+    <t>ASIENTO GT</t>
+  </si>
+  <si>
+    <t>TALLA 144mm - MUY COMODO - SEMINUEVO</t>
+  </si>
+  <si>
+    <t>29  julio</t>
+  </si>
+  <si>
+    <t>SEMINUEVO</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>380.0</t>
+  </si>
+  <si>
+    <t>BICI FUJI RUTA</t>
+  </si>
+  <si>
+    <t>BICI PARA RUTA - TALLA 56 - LLANTAS 700x38 - DOBLE ENCINTADO - RECIEN ARMADA Y ALINEADA - TRANSMISION 2x8 - TRANSMISION COMPLETA CLARIS - FRENOS ULTEGRA DE ZAPATAS DE REPUESTOS - POTENCIA Y POSTE THOMSON ELITE - MUY RAPIDA - INCLUYE VELOCIMETRO - INCLUYE ESPEJO RETROVISOR - SEMINUEVA</t>
+  </si>
+  <si>
+    <t>10508.0</t>
+  </si>
+  <si>
+    <t>13000.0</t>
+  </si>
+  <si>
+    <t>ADAPTADOR DE CALIPER A 203mm</t>
+  </si>
+  <si>
+    <t>PARA DISCOS DE 203mm - INCLUYE 4 TORNILLOS ALLEN - SEMINUEVO</t>
+  </si>
+  <si>
+    <t>200.0</t>
+  </si>
+  <si>
+    <t>ASIENTO WTB ROCKET</t>
+  </si>
+  <si>
+    <t>TALLA 125mm - PARA MUJER - USADO</t>
+  </si>
+  <si>
+    <t>280.0</t>
+  </si>
+  <si>
+    <t>BICI FUJI ABSOLUTE</t>
+  </si>
+  <si>
+    <t>BICI PARA CIUDAD - LLANTAS NUEVAS 700x38 - TALLA S - FRENOS DE DISCO TEKTRO - TRANSMISION 3x8 - CAMBIOS DE GATILLO - RECIEN ALINEADA - SEMINUEVA</t>
+  </si>
+  <si>
+    <t>4111.59</t>
+  </si>
+  <si>
+    <t>5600.0</t>
   </si>
 </sst>
 </file>
@@ -8946,7 +9006,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Y191"/>
+  <dimension ref="A1:Y188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
@@ -9534,38 +9594,162 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
-    </row>
-    <row r="13" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="J14" t="s" s="0">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="I15" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="J15" t="s" s="0">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="45"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
+    </row>
+    <row r="17" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9737,9 +9921,6 @@
     <row r="186" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="187" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="188" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/JavaApplication19/src/excel/Ventas.xlsx
+++ b/JavaApplication19/src/excel/Ventas.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="166">
   <si>
     <t>PRUDUCTO</t>
   </si>
@@ -525,6 +525,18 @@
   </si>
   <si>
     <t>5600.0</t>
+  </si>
+  <si>
+    <t>BICI RUTA SCHWINN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TALLA L </t>
+  </si>
+  <si>
+    <t>5990.0</t>
+  </si>
+  <si>
+    <t>15000.0</t>
   </si>
 </sst>
 </file>
@@ -9006,7 +9018,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Y188"/>
+  <dimension ref="A1:Y187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
@@ -9920,7 +9932,6 @@
     <row r="185" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="186" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="187" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/JavaApplication19/src/excel/Ventas.xlsx
+++ b/JavaApplication19/src/excel/Ventas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Google Drive\EPIC MOUNTAIN\ADMINISTRACIÒN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D32496-5AC1-40F6-8BA8-EF233E6F053B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68FBDD4-4DA7-42E8-8FC7-F20FF2726415}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2948" yWindow="1553" windowWidth="21727" windowHeight="11497" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,14 @@
     <sheet name="NOVIEMBRE" sheetId="11" r:id="rId11"/>
     <sheet name="DICIEMBRE" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="122">
   <si>
     <t>PRUDUCTO</t>
   </si>
@@ -405,138 +407,6 @@
   </si>
   <si>
     <t>MEXPOST</t>
-  </si>
-  <si>
-    <t>LUBRICANTE DE ALTO RENDIMIENTO - PARA: CADENA, DESVIADORES, FUNDAS DE CABLE, ETC. - FACIL APLICACIÓN - TIPO GOTERO - NUEVO</t>
-  </si>
-  <si>
-    <t>28  julio</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>14.96</t>
-  </si>
-  <si>
-    <t>1421.2</t>
-  </si>
-  <si>
-    <t>30.0</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>29.92</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>748.0</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>74.80000000000001</t>
-  </si>
-  <si>
-    <t>BANDANA MULTIFUNCIONAL - VARIOS MODELOS Y COLORES - ABSORBENTE - FACIL DE LAVAR - NUEVOS</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>27.0</t>
-  </si>
-  <si>
-    <t>837.0</t>
-  </si>
-  <si>
-    <t>60.0</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>299.20000000000005</t>
-  </si>
-  <si>
-    <t>ASIENTO GT</t>
-  </si>
-  <si>
-    <t>TALLA 144mm - MUY COMODO - SEMINUEVO</t>
-  </si>
-  <si>
-    <t>29  julio</t>
-  </si>
-  <si>
-    <t>SEMINUEVO</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>380.0</t>
-  </si>
-  <si>
-    <t>BICI FUJI RUTA</t>
-  </si>
-  <si>
-    <t>BICI PARA RUTA - TALLA 56 - LLANTAS 700x38 - DOBLE ENCINTADO - RECIEN ARMADA Y ALINEADA - TRANSMISION 2x8 - TRANSMISION COMPLETA CLARIS - FRENOS ULTEGRA DE ZAPATAS DE REPUESTOS - POTENCIA Y POSTE THOMSON ELITE - MUY RAPIDA - INCLUYE VELOCIMETRO - INCLUYE ESPEJO RETROVISOR - SEMINUEVA</t>
-  </si>
-  <si>
-    <t>10508.0</t>
-  </si>
-  <si>
-    <t>13000.0</t>
-  </si>
-  <si>
-    <t>ADAPTADOR DE CALIPER A 203mm</t>
-  </si>
-  <si>
-    <t>PARA DISCOS DE 203mm - INCLUYE 4 TORNILLOS ALLEN - SEMINUEVO</t>
-  </si>
-  <si>
-    <t>200.0</t>
-  </si>
-  <si>
-    <t>ASIENTO WTB ROCKET</t>
-  </si>
-  <si>
-    <t>TALLA 125mm - PARA MUJER - USADO</t>
-  </si>
-  <si>
-    <t>280.0</t>
-  </si>
-  <si>
-    <t>BICI FUJI ABSOLUTE</t>
-  </si>
-  <si>
-    <t>BICI PARA CIUDAD - LLANTAS NUEVAS 700x38 - TALLA S - FRENOS DE DISCO TEKTRO - TRANSMISION 3x8 - CAMBIOS DE GATILLO - RECIEN ALINEADA - SEMINUEVA</t>
-  </si>
-  <si>
-    <t>4111.59</t>
-  </si>
-  <si>
-    <t>5600.0</t>
-  </si>
-  <si>
-    <t>BICI RUTA SCHWINN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TALLA L </t>
-  </si>
-  <si>
-    <t>5990.0</t>
-  </si>
-  <si>
-    <t>15000.0</t>
   </si>
 </sst>
 </file>
@@ -884,12 +754,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -900,6 +764,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1689,17 +1559,17 @@
       <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="4" max="11" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.73046875" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="30.73046875" customWidth="1" collapsed="1"/>
+    <col min="4" max="11" width="15.73046875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.73046875" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="15.73046875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="30.73046875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1742,7 +1612,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9">
         <v>43837</v>
       </c>
@@ -1787,7 +1657,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="9">
         <v>43837</v>
       </c>
@@ -1838,7 +1708,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="9">
         <v>43837</v>
       </c>
@@ -1889,7 +1759,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="9">
         <v>43837</v>
       </c>
@@ -1940,7 +1810,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="9">
         <v>43837</v>
       </c>
@@ -1985,7 +1855,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="9">
         <v>43837</v>
       </c>
@@ -2030,7 +1900,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="10">
         <v>43850</v>
       </c>
@@ -2081,7 +1951,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="10">
         <v>43852</v>
       </c>
@@ -2126,7 +1996,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="10">
         <v>43859</v>
       </c>
@@ -2171,7 +2041,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="13">
         <v>43861</v>
       </c>
@@ -2216,7 +2086,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="13">
         <v>43861</v>
       </c>
@@ -2261,7 +2131,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2287,200 +2157,200 @@
       <c r="N13" s="6"/>
       <c r="O13" s="24"/>
     </row>
-    <row r="14" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="103" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="104" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="105" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="106" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="107" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="108" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="109" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="110" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="111" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="112" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="113" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="114" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="115" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="116" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="117" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="118" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="119" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="120" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="121" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="122" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="123" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="124" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="125" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="126" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="127" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="128" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="129" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="130" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="131" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="132" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="133" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="134" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="135" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="136" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="137" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="138" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="139" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="140" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="141" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="142" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="143" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="144" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="145" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="146" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="147" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="148" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="149" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="150" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="151" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="152" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="153" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="154" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="155" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="156" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="157" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="158" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="159" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="160" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="161" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="162" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="163" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="164" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="165" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="166" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="167" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="168" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="169" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="170" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="171" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="172" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="173" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="174" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="175" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="176" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="177" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="178" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="179" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="180" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="181" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="182" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="183" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="184" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="185" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="186" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="187" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="188" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="189" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="190" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="191" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="192" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="193" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="194" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="195" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="196" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="197" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="198" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="199" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="200" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="201" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="202" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="203" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="204" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="205" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="206" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="207" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2494,7 +2364,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2506,7 +2376,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2518,7 +2388,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2533,17 +2403,17 @@
       <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="4" max="11" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.73046875" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="30.73046875" customWidth="1" collapsed="1"/>
+    <col min="4" max="11" width="15.73046875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.73046875" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="15.73046875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="30.73046875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2586,7 +2456,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9">
         <v>43870</v>
       </c>
@@ -2631,7 +2501,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="9">
         <v>43869</v>
       </c>
@@ -2676,7 +2546,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="9">
         <v>43879</v>
       </c>
@@ -2727,7 +2597,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="18">
         <v>43879</v>
       </c>
@@ -2772,7 +2642,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="18">
         <v>43837</v>
       </c>
@@ -2823,7 +2693,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="10">
         <v>43853</v>
       </c>
@@ -2874,7 +2744,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -2900,203 +2770,203 @@
       <c r="N8" s="6"/>
       <c r="O8" s="24"/>
     </row>
-    <row r="9" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="103" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="104" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="105" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="106" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="107" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="108" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="109" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="110" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="111" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="112" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="113" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="114" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="115" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="116" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="117" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="118" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="119" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="120" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="121" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="122" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="123" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="124" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="125" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="126" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="127" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="128" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="129" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="130" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="131" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="132" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="133" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="134" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="135" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="136" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="137" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="138" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="139" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="140" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="141" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="142" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="143" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="144" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="145" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="146" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="147" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="148" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="149" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="150" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="151" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="152" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="153" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="154" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="155" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="156" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="157" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="158" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="159" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="160" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="161" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="162" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="163" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="164" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="165" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="166" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="167" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="168" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="169" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="170" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="171" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="172" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="173" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="174" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="175" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="176" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="177" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="178" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="179" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="180" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="181" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="182" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="183" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="184" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="185" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="186" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="187" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="188" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="189" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="190" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="191" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="192" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="193" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="194" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="195" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="196" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="197" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="198" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="199" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="200" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="201" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="202" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="203" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="204" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="205" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3112,17 +2982,17 @@
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="4" max="11" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.73046875" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="30.73046875" customWidth="1" collapsed="1"/>
+    <col min="4" max="11" width="15.73046875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.73046875" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="15.73046875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="30.73046875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -3165,7 +3035,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9">
         <v>43853</v>
       </c>
@@ -3216,7 +3086,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3242,7 +3112,7 @@
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="25"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -3259,7 +3129,7 @@
       <c r="N4" s="25"/>
       <c r="O4" s="25"/>
     </row>
-    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="25"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -3276,7 +3146,7 @@
       <c r="N5" s="25"/>
       <c r="O5" s="25"/>
     </row>
-    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -3293,7 +3163,7 @@
       <c r="N6" s="25"/>
       <c r="O6" s="25"/>
     </row>
-    <row r="7" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -3310,7 +3180,7 @@
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
     </row>
-    <row r="8" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -3327,7 +3197,7 @@
       <c r="N8" s="25"/>
       <c r="O8" s="25"/>
     </row>
-    <row r="9" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -3344,7 +3214,7 @@
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
     </row>
-    <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -3361,7 +3231,7 @@
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
     </row>
-    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -3378,7 +3248,7 @@
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
     </row>
-    <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -3395,7 +3265,7 @@
       <c r="N12" s="25"/>
       <c r="O12" s="25"/>
     </row>
-    <row r="13" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -3412,7 +3282,7 @@
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
     </row>
-    <row r="14" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -3429,7 +3299,7 @@
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
     </row>
-    <row r="15" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -3446,7 +3316,7 @@
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
     </row>
-    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -3463,7 +3333,7 @@
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
     </row>
-    <row r="17" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -3480,7 +3350,7 @@
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
     </row>
-    <row r="18" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -3497,7 +3367,7 @@
       <c r="N18" s="25"/>
       <c r="O18" s="25"/>
     </row>
-    <row r="19" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
@@ -3514,7 +3384,7 @@
       <c r="N19" s="25"/>
       <c r="O19" s="25"/>
     </row>
-    <row r="20" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="25"/>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
@@ -3531,7 +3401,7 @@
       <c r="N20" s="25"/>
       <c r="O20" s="25"/>
     </row>
-    <row r="21" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
@@ -3548,7 +3418,7 @@
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
     </row>
-    <row r="22" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -3565,7 +3435,7 @@
       <c r="N22" s="25"/>
       <c r="O22" s="25"/>
     </row>
-    <row r="23" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -3582,7 +3452,7 @@
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
     </row>
-    <row r="24" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="25"/>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
@@ -3599,7 +3469,7 @@
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
     </row>
-    <row r="25" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="25"/>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
@@ -3616,7 +3486,7 @@
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
     </row>
-    <row r="26" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="25"/>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
@@ -3633,7 +3503,7 @@
       <c r="N26" s="25"/>
       <c r="O26" s="25"/>
     </row>
-    <row r="27" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="25"/>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
@@ -3650,7 +3520,7 @@
       <c r="N27" s="25"/>
       <c r="O27" s="25"/>
     </row>
-    <row r="28" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="25"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
@@ -3667,7 +3537,7 @@
       <c r="N28" s="25"/>
       <c r="O28" s="25"/>
     </row>
-    <row r="29" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="25"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -3684,7 +3554,7 @@
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
     </row>
-    <row r="30" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
@@ -3701,7 +3571,7 @@
       <c r="N30" s="25"/>
       <c r="O30" s="25"/>
     </row>
-    <row r="31" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="25"/>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
@@ -3718,7 +3588,7 @@
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
     </row>
-    <row r="32" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="25"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
@@ -3735,7 +3605,7 @@
       <c r="N32" s="25"/>
       <c r="O32" s="25"/>
     </row>
-    <row r="33" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
@@ -3752,7 +3622,7 @@
       <c r="N33" s="25"/>
       <c r="O33" s="25"/>
     </row>
-    <row r="34" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="25"/>
       <c r="B34" s="25"/>
       <c r="C34" s="25"/>
@@ -3769,7 +3639,7 @@
       <c r="N34" s="25"/>
       <c r="O34" s="25"/>
     </row>
-    <row r="35" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="25"/>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
@@ -3786,7 +3656,7 @@
       <c r="N35" s="25"/>
       <c r="O35" s="25"/>
     </row>
-    <row r="36" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="25"/>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
@@ -3803,7 +3673,7 @@
       <c r="N36" s="25"/>
       <c r="O36" s="25"/>
     </row>
-    <row r="37" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="25"/>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
@@ -3820,7 +3690,7 @@
       <c r="N37" s="25"/>
       <c r="O37" s="25"/>
     </row>
-    <row r="38" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="25"/>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
@@ -3837,7 +3707,7 @@
       <c r="N38" s="25"/>
       <c r="O38" s="25"/>
     </row>
-    <row r="39" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="25"/>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -3854,7 +3724,7 @@
       <c r="N39" s="25"/>
       <c r="O39" s="25"/>
     </row>
-    <row r="40" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="25"/>
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
@@ -3871,7 +3741,7 @@
       <c r="N40" s="25"/>
       <c r="O40" s="25"/>
     </row>
-    <row r="41" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="25"/>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
@@ -3888,7 +3758,7 @@
       <c r="N41" s="25"/>
       <c r="O41" s="25"/>
     </row>
-    <row r="42" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="25"/>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
@@ -3905,7 +3775,7 @@
       <c r="N42" s="25"/>
       <c r="O42" s="25"/>
     </row>
-    <row r="43" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="25"/>
       <c r="B43" s="25"/>
       <c r="C43" s="25"/>
@@ -3922,7 +3792,7 @@
       <c r="N43" s="25"/>
       <c r="O43" s="25"/>
     </row>
-    <row r="44" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="25"/>
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
@@ -3939,7 +3809,7 @@
       <c r="N44" s="25"/>
       <c r="O44" s="25"/>
     </row>
-    <row r="45" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="25"/>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
@@ -3956,7 +3826,7 @@
       <c r="N45" s="25"/>
       <c r="O45" s="25"/>
     </row>
-    <row r="46" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="25"/>
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
@@ -3973,7 +3843,7 @@
       <c r="N46" s="25"/>
       <c r="O46" s="25"/>
     </row>
-    <row r="47" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="25"/>
       <c r="B47" s="25"/>
       <c r="C47" s="25"/>
@@ -3990,7 +3860,7 @@
       <c r="N47" s="25"/>
       <c r="O47" s="25"/>
     </row>
-    <row r="48" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="25"/>
       <c r="B48" s="25"/>
       <c r="C48" s="25"/>
@@ -4007,7 +3877,7 @@
       <c r="N48" s="25"/>
       <c r="O48" s="25"/>
     </row>
-    <row r="49" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="25"/>
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
@@ -4024,7 +3894,7 @@
       <c r="N49" s="25"/>
       <c r="O49" s="25"/>
     </row>
-    <row r="50" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="25"/>
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
@@ -4041,7 +3911,7 @@
       <c r="N50" s="25"/>
       <c r="O50" s="25"/>
     </row>
-    <row r="51" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="25"/>
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
@@ -4058,7 +3928,7 @@
       <c r="N51" s="25"/>
       <c r="O51" s="25"/>
     </row>
-    <row r="52" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="25"/>
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
@@ -4075,7 +3945,7 @@
       <c r="N52" s="25"/>
       <c r="O52" s="25"/>
     </row>
-    <row r="53" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="25"/>
       <c r="B53" s="25"/>
       <c r="C53" s="25"/>
@@ -4092,7 +3962,7 @@
       <c r="N53" s="25"/>
       <c r="O53" s="25"/>
     </row>
-    <row r="54" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="25"/>
       <c r="B54" s="25"/>
       <c r="C54" s="25"/>
@@ -4109,7 +3979,7 @@
       <c r="N54" s="25"/>
       <c r="O54" s="25"/>
     </row>
-    <row r="55" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
       <c r="C55" s="25"/>
@@ -4126,7 +3996,7 @@
       <c r="N55" s="25"/>
       <c r="O55" s="25"/>
     </row>
-    <row r="56" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="25"/>
@@ -4143,7 +4013,7 @@
       <c r="N56" s="25"/>
       <c r="O56" s="25"/>
     </row>
-    <row r="57" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="25"/>
       <c r="B57" s="25"/>
       <c r="C57" s="25"/>
@@ -4160,7 +4030,7 @@
       <c r="N57" s="25"/>
       <c r="O57" s="25"/>
     </row>
-    <row r="58" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="25"/>
       <c r="B58" s="25"/>
       <c r="C58" s="25"/>
@@ -4177,7 +4047,7 @@
       <c r="N58" s="25"/>
       <c r="O58" s="25"/>
     </row>
-    <row r="59" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="25"/>
       <c r="B59" s="25"/>
       <c r="C59" s="25"/>
@@ -4194,7 +4064,7 @@
       <c r="N59" s="25"/>
       <c r="O59" s="25"/>
     </row>
-    <row r="60" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="25"/>
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
@@ -4211,7 +4081,7 @@
       <c r="N60" s="25"/>
       <c r="O60" s="25"/>
     </row>
-    <row r="61" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="25"/>
       <c r="B61" s="25"/>
       <c r="C61" s="25"/>
@@ -4228,7 +4098,7 @@
       <c r="N61" s="25"/>
       <c r="O61" s="25"/>
     </row>
-    <row r="62" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="25"/>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
@@ -4245,7 +4115,7 @@
       <c r="N62" s="25"/>
       <c r="O62" s="25"/>
     </row>
-    <row r="63" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="25"/>
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
@@ -4262,7 +4132,7 @@
       <c r="N63" s="25"/>
       <c r="O63" s="25"/>
     </row>
-    <row r="64" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="25"/>
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
@@ -4279,7 +4149,7 @@
       <c r="N64" s="25"/>
       <c r="O64" s="25"/>
     </row>
-    <row r="65" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="25"/>
       <c r="B65" s="25"/>
       <c r="C65" s="25"/>
@@ -4296,7 +4166,7 @@
       <c r="N65" s="25"/>
       <c r="O65" s="25"/>
     </row>
-    <row r="66" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="25"/>
       <c r="B66" s="25"/>
       <c r="C66" s="25"/>
@@ -4313,7 +4183,7 @@
       <c r="N66" s="25"/>
       <c r="O66" s="25"/>
     </row>
-    <row r="67" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="25"/>
       <c r="B67" s="25"/>
       <c r="C67" s="25"/>
@@ -4330,7 +4200,7 @@
       <c r="N67" s="25"/>
       <c r="O67" s="25"/>
     </row>
-    <row r="68" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="25"/>
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
@@ -4347,7 +4217,7 @@
       <c r="N68" s="25"/>
       <c r="O68" s="25"/>
     </row>
-    <row r="69" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="25"/>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
@@ -4364,7 +4234,7 @@
       <c r="N69" s="25"/>
       <c r="O69" s="25"/>
     </row>
-    <row r="70" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="25"/>
       <c r="B70" s="25"/>
       <c r="C70" s="25"/>
@@ -4381,7 +4251,7 @@
       <c r="N70" s="25"/>
       <c r="O70" s="25"/>
     </row>
-    <row r="71" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="25"/>
       <c r="B71" s="25"/>
       <c r="C71" s="25"/>
@@ -4398,7 +4268,7 @@
       <c r="N71" s="25"/>
       <c r="O71" s="25"/>
     </row>
-    <row r="72" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="25"/>
       <c r="B72" s="25"/>
       <c r="C72" s="25"/>
@@ -4415,7 +4285,7 @@
       <c r="N72" s="25"/>
       <c r="O72" s="25"/>
     </row>
-    <row r="73" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="25"/>
       <c r="B73" s="25"/>
       <c r="C73" s="25"/>
@@ -4432,7 +4302,7 @@
       <c r="N73" s="25"/>
       <c r="O73" s="25"/>
     </row>
-    <row r="74" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="25"/>
       <c r="B74" s="25"/>
       <c r="C74" s="25"/>
@@ -4449,7 +4319,7 @@
       <c r="N74" s="25"/>
       <c r="O74" s="25"/>
     </row>
-    <row r="75" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="25"/>
       <c r="B75" s="25"/>
       <c r="C75" s="25"/>
@@ -4466,7 +4336,7 @@
       <c r="N75" s="25"/>
       <c r="O75" s="25"/>
     </row>
-    <row r="76" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="25"/>
       <c r="B76" s="25"/>
       <c r="C76" s="25"/>
@@ -4483,7 +4353,7 @@
       <c r="N76" s="25"/>
       <c r="O76" s="25"/>
     </row>
-    <row r="77" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="25"/>
       <c r="B77" s="25"/>
       <c r="C77" s="25"/>
@@ -4500,7 +4370,7 @@
       <c r="N77" s="25"/>
       <c r="O77" s="25"/>
     </row>
-    <row r="78" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="25"/>
       <c r="B78" s="25"/>
       <c r="C78" s="25"/>
@@ -4517,7 +4387,7 @@
       <c r="N78" s="25"/>
       <c r="O78" s="25"/>
     </row>
-    <row r="79" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="25"/>
       <c r="B79" s="25"/>
       <c r="C79" s="25"/>
@@ -4534,7 +4404,7 @@
       <c r="N79" s="25"/>
       <c r="O79" s="25"/>
     </row>
-    <row r="80" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="25"/>
       <c r="B80" s="25"/>
       <c r="C80" s="25"/>
@@ -4551,7 +4421,7 @@
       <c r="N80" s="25"/>
       <c r="O80" s="25"/>
     </row>
-    <row r="81" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="25"/>
       <c r="B81" s="25"/>
       <c r="C81" s="25"/>
@@ -4568,7 +4438,7 @@
       <c r="N81" s="25"/>
       <c r="O81" s="25"/>
     </row>
-    <row r="82" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="25"/>
       <c r="B82" s="25"/>
       <c r="C82" s="25"/>
@@ -4585,7 +4455,7 @@
       <c r="N82" s="25"/>
       <c r="O82" s="25"/>
     </row>
-    <row r="83" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="25"/>
       <c r="B83" s="25"/>
       <c r="C83" s="25"/>
@@ -4602,7 +4472,7 @@
       <c r="N83" s="25"/>
       <c r="O83" s="25"/>
     </row>
-    <row r="84" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="25"/>
       <c r="B84" s="25"/>
       <c r="C84" s="25"/>
@@ -4619,7 +4489,7 @@
       <c r="N84" s="25"/>
       <c r="O84" s="25"/>
     </row>
-    <row r="85" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="25"/>
       <c r="B85" s="25"/>
       <c r="C85" s="25"/>
@@ -4636,7 +4506,7 @@
       <c r="N85" s="25"/>
       <c r="O85" s="25"/>
     </row>
-    <row r="86" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="25"/>
       <c r="B86" s="25"/>
       <c r="C86" s="25"/>
@@ -4653,7 +4523,7 @@
       <c r="N86" s="25"/>
       <c r="O86" s="25"/>
     </row>
-    <row r="87" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="25"/>
       <c r="B87" s="25"/>
       <c r="C87" s="25"/>
@@ -4670,7 +4540,7 @@
       <c r="N87" s="25"/>
       <c r="O87" s="25"/>
     </row>
-    <row r="88" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="25"/>
       <c r="B88" s="25"/>
       <c r="C88" s="25"/>
@@ -4687,7 +4557,7 @@
       <c r="N88" s="25"/>
       <c r="O88" s="25"/>
     </row>
-    <row r="89" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="25"/>
       <c r="B89" s="25"/>
       <c r="C89" s="25"/>
@@ -4704,7 +4574,7 @@
       <c r="N89" s="25"/>
       <c r="O89" s="25"/>
     </row>
-    <row r="90" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="25"/>
       <c r="B90" s="25"/>
       <c r="C90" s="25"/>
@@ -4721,7 +4591,7 @@
       <c r="N90" s="25"/>
       <c r="O90" s="25"/>
     </row>
-    <row r="91" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="25"/>
       <c r="B91" s="25"/>
       <c r="C91" s="25"/>
@@ -4738,7 +4608,7 @@
       <c r="N91" s="25"/>
       <c r="O91" s="25"/>
     </row>
-    <row r="92" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="25"/>
       <c r="B92" s="25"/>
       <c r="C92" s="25"/>
@@ -4755,7 +4625,7 @@
       <c r="N92" s="25"/>
       <c r="O92" s="25"/>
     </row>
-    <row r="93" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="25"/>
       <c r="B93" s="25"/>
       <c r="C93" s="25"/>
@@ -4772,7 +4642,7 @@
       <c r="N93" s="25"/>
       <c r="O93" s="25"/>
     </row>
-    <row r="94" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="25"/>
       <c r="B94" s="25"/>
       <c r="C94" s="25"/>
@@ -4789,7 +4659,7 @@
       <c r="N94" s="25"/>
       <c r="O94" s="25"/>
     </row>
-    <row r="95" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="25"/>
       <c r="B95" s="25"/>
       <c r="C95" s="25"/>
@@ -4806,7 +4676,7 @@
       <c r="N95" s="25"/>
       <c r="O95" s="25"/>
     </row>
-    <row r="96" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="25"/>
       <c r="B96" s="25"/>
       <c r="C96" s="25"/>
@@ -4823,7 +4693,7 @@
       <c r="N96" s="25"/>
       <c r="O96" s="25"/>
     </row>
-    <row r="97" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="25"/>
       <c r="B97" s="25"/>
       <c r="C97" s="25"/>
@@ -4840,7 +4710,7 @@
       <c r="N97" s="25"/>
       <c r="O97" s="25"/>
     </row>
-    <row r="98" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="25"/>
       <c r="B98" s="25"/>
       <c r="C98" s="25"/>
@@ -4857,7 +4727,7 @@
       <c r="N98" s="25"/>
       <c r="O98" s="25"/>
     </row>
-    <row r="99" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="25"/>
       <c r="B99" s="25"/>
       <c r="C99" s="25"/>
@@ -4874,7 +4744,7 @@
       <c r="N99" s="25"/>
       <c r="O99" s="25"/>
     </row>
-    <row r="100" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="25"/>
       <c r="B100" s="25"/>
       <c r="C100" s="25"/>
@@ -4899,22 +4769,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N129"/>
+  <dimension ref="A1:X129"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N1" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="4" max="13" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="15" max="24" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.73046875" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="30.73046875" customWidth="1" collapsed="1"/>
+    <col min="4" max="13" width="15.73046875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="30.73046875" customWidth="1" collapsed="1"/>
+    <col min="15" max="24" width="15.73046875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -4956,7 +4826,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9">
         <v>43937</v>
       </c>
@@ -5000,7 +4870,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="10">
         <v>43853</v>
       </c>
@@ -5050,7 +4920,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10">
         <v>43853</v>
       </c>
@@ -5100,7 +4970,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="10">
         <v>43853</v>
       </c>
@@ -5144,7 +5014,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -5169,129 +5039,129 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="103" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="104" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="105" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="106" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="107" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="108" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="109" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="110" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="111" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="112" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="113" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="114" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="115" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="116" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="117" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="118" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="119" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="120" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="121" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="122" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="123" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="124" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="125" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="126" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="127" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="128" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="129" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5307,16 +5177,16 @@
       <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="4" max="15" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="17" max="28" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.73046875" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="30.73046875" customWidth="1" collapsed="1"/>
+    <col min="4" max="15" width="15.73046875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="30.73046875" customWidth="1" collapsed="1"/>
+    <col min="17" max="28" width="15.73046875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -5376,7 +5246,7 @@
       <c r="AA1" s="25"/>
       <c r="AB1" s="25"/>
     </row>
-    <row r="2" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="26">
         <v>43837</v>
       </c>
@@ -5445,7 +5315,7 @@
       <c r="AA2" s="25"/>
       <c r="AB2" s="25"/>
     </row>
-    <row r="3" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="10">
         <v>43853</v>
       </c>
@@ -5515,7 +5385,7 @@
       <c r="AA3" s="25"/>
       <c r="AB3" s="25"/>
     </row>
-    <row r="4" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10">
         <v>43853</v>
       </c>
@@ -5584,7 +5454,7 @@
       <c r="AA4" s="25"/>
       <c r="AB4" s="25"/>
     </row>
-    <row r="5" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="29">
         <v>43853</v>
       </c>
@@ -5654,7 +5524,7 @@
       <c r="AA5" s="25"/>
       <c r="AB5" s="25"/>
     </row>
-    <row r="6" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="10">
         <v>43847</v>
       </c>
@@ -5718,7 +5588,7 @@
       <c r="AA6" s="25"/>
       <c r="AB6" s="25"/>
     </row>
-    <row r="7" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="10">
         <v>43837</v>
       </c>
@@ -5782,7 +5652,7 @@
       <c r="AA7" s="25"/>
       <c r="AB7" s="25"/>
     </row>
-    <row r="8" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -5824,7 +5694,7 @@
       <c r="AA8" s="25"/>
       <c r="AB8" s="25"/>
     </row>
-    <row r="9" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -5854,7 +5724,7 @@
       <c r="AA9" s="25"/>
       <c r="AB9" s="25"/>
     </row>
-    <row r="10" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -5884,7 +5754,7 @@
       <c r="AA10" s="25"/>
       <c r="AB10" s="25"/>
     </row>
-    <row r="11" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -5914,7 +5784,7 @@
       <c r="AA11" s="25"/>
       <c r="AB11" s="25"/>
     </row>
-    <row r="12" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -5944,7 +5814,7 @@
       <c r="AA12" s="25"/>
       <c r="AB12" s="25"/>
     </row>
-    <row r="13" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -5974,7 +5844,7 @@
       <c r="AA13" s="25"/>
       <c r="AB13" s="25"/>
     </row>
-    <row r="14" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -6004,7 +5874,7 @@
       <c r="AA14" s="25"/>
       <c r="AB14" s="25"/>
     </row>
-    <row r="15" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -6034,7 +5904,7 @@
       <c r="AA15" s="25"/>
       <c r="AB15" s="25"/>
     </row>
-    <row r="16" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -6064,7 +5934,7 @@
       <c r="AA16" s="25"/>
       <c r="AB16" s="25"/>
     </row>
-    <row r="17" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -6094,7 +5964,7 @@
       <c r="AA17" s="25"/>
       <c r="AB17" s="25"/>
     </row>
-    <row r="18" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -6124,7 +5994,7 @@
       <c r="AA18" s="25"/>
       <c r="AB18" s="25"/>
     </row>
-    <row r="19" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -6154,7 +6024,7 @@
       <c r="AA19" s="25"/>
       <c r="AB19" s="25"/>
     </row>
-    <row r="20" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -6184,7 +6054,7 @@
       <c r="AA20" s="25"/>
       <c r="AB20" s="25"/>
     </row>
-    <row r="21" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -6214,7 +6084,7 @@
       <c r="AA21" s="25"/>
       <c r="AB21" s="25"/>
     </row>
-    <row r="22" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -6244,7 +6114,7 @@
       <c r="AA22" s="25"/>
       <c r="AB22" s="25"/>
     </row>
-    <row r="23" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -6274,7 +6144,7 @@
       <c r="AA23" s="25"/>
       <c r="AB23" s="25"/>
     </row>
-    <row r="24" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -6304,7 +6174,7 @@
       <c r="AA24" s="25"/>
       <c r="AB24" s="25"/>
     </row>
-    <row r="25" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="19"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -6334,7 +6204,7 @@
       <c r="AA25" s="25"/>
       <c r="AB25" s="25"/>
     </row>
-    <row r="26" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="19"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -6364,7 +6234,7 @@
       <c r="AA26" s="25"/>
       <c r="AB26" s="25"/>
     </row>
-    <row r="27" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -6394,7 +6264,7 @@
       <c r="AA27" s="25"/>
       <c r="AB27" s="25"/>
     </row>
-    <row r="28" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="19"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -6424,7 +6294,7 @@
       <c r="AA28" s="25"/>
       <c r="AB28" s="25"/>
     </row>
-    <row r="29" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="19"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
@@ -6454,7 +6324,7 @@
       <c r="AA29" s="25"/>
       <c r="AB29" s="25"/>
     </row>
-    <row r="30" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="19"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -6484,7 +6354,7 @@
       <c r="AA30" s="25"/>
       <c r="AB30" s="25"/>
     </row>
-    <row r="31" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="19"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -6514,7 +6384,7 @@
       <c r="AA31" s="25"/>
       <c r="AB31" s="25"/>
     </row>
-    <row r="32" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="19"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -6544,7 +6414,7 @@
       <c r="AA32" s="25"/>
       <c r="AB32" s="25"/>
     </row>
-    <row r="33" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="19"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -6574,7 +6444,7 @@
       <c r="AA33" s="25"/>
       <c r="AB33" s="25"/>
     </row>
-    <row r="34" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="19"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -6604,7 +6474,7 @@
       <c r="AA34" s="25"/>
       <c r="AB34" s="25"/>
     </row>
-    <row r="35" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="19"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -6634,7 +6504,7 @@
       <c r="AA35" s="25"/>
       <c r="AB35" s="25"/>
     </row>
-    <row r="36" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -6664,7 +6534,7 @@
       <c r="AA36" s="25"/>
       <c r="AB36" s="25"/>
     </row>
-    <row r="37" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="19"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -6694,7 +6564,7 @@
       <c r="AA37" s="25"/>
       <c r="AB37" s="25"/>
     </row>
-    <row r="38" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="19"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
@@ -6724,7 +6594,7 @@
       <c r="AA38" s="25"/>
       <c r="AB38" s="25"/>
     </row>
-    <row r="39" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="19"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -6754,7 +6624,7 @@
       <c r="AA39" s="25"/>
       <c r="AB39" s="25"/>
     </row>
-    <row r="40" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="19"/>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -6784,7 +6654,7 @@
       <c r="AA40" s="25"/>
       <c r="AB40" s="25"/>
     </row>
-    <row r="41" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="19"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -6814,7 +6684,7 @@
       <c r="AA41" s="25"/>
       <c r="AB41" s="25"/>
     </row>
-    <row r="42" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="19"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -6844,7 +6714,7 @@
       <c r="AA42" s="25"/>
       <c r="AB42" s="25"/>
     </row>
-    <row r="43" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="19"/>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -6874,7 +6744,7 @@
       <c r="AA43" s="25"/>
       <c r="AB43" s="25"/>
     </row>
-    <row r="44" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="19"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
@@ -6904,7 +6774,7 @@
       <c r="AA44" s="25"/>
       <c r="AB44" s="25"/>
     </row>
-    <row r="45" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="19"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
@@ -6934,7 +6804,7 @@
       <c r="AA45" s="25"/>
       <c r="AB45" s="25"/>
     </row>
-    <row r="46" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="19"/>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
@@ -6964,7 +6834,7 @@
       <c r="AA46" s="25"/>
       <c r="AB46" s="25"/>
     </row>
-    <row r="47" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="19"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
@@ -6994,7 +6864,7 @@
       <c r="AA47" s="25"/>
       <c r="AB47" s="25"/>
     </row>
-    <row r="48" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
@@ -7024,7 +6894,7 @@
       <c r="AA48" s="25"/>
       <c r="AB48" s="25"/>
     </row>
-    <row r="49" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="19"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
@@ -7054,7 +6924,7 @@
       <c r="AA49" s="25"/>
       <c r="AB49" s="25"/>
     </row>
-    <row r="50" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
@@ -7084,7 +6954,7 @@
       <c r="AA50" s="25"/>
       <c r="AB50" s="25"/>
     </row>
-    <row r="51" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="19"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
@@ -7114,7 +6984,7 @@
       <c r="AA51" s="25"/>
       <c r="AB51" s="25"/>
     </row>
-    <row r="52" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="19"/>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
@@ -7144,7 +7014,7 @@
       <c r="AA52" s="25"/>
       <c r="AB52" s="25"/>
     </row>
-    <row r="53" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="19"/>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
@@ -7174,7 +7044,7 @@
       <c r="AA53" s="25"/>
       <c r="AB53" s="25"/>
     </row>
-    <row r="54" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="19"/>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
@@ -7204,7 +7074,7 @@
       <c r="AA54" s="25"/>
       <c r="AB54" s="25"/>
     </row>
-    <row r="55" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="19"/>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
@@ -7234,7 +7104,7 @@
       <c r="AA55" s="25"/>
       <c r="AB55" s="25"/>
     </row>
-    <row r="56" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="19"/>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
@@ -7264,7 +7134,7 @@
       <c r="AA56" s="25"/>
       <c r="AB56" s="25"/>
     </row>
-    <row r="57" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="19"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -7294,7 +7164,7 @@
       <c r="AA57" s="25"/>
       <c r="AB57" s="25"/>
     </row>
-    <row r="58" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="19"/>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
@@ -7324,7 +7194,7 @@
       <c r="AA58" s="25"/>
       <c r="AB58" s="25"/>
     </row>
-    <row r="59" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="19"/>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
@@ -7354,7 +7224,7 @@
       <c r="AA59" s="25"/>
       <c r="AB59" s="25"/>
     </row>
-    <row r="60" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="19"/>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
@@ -7384,7 +7254,7 @@
       <c r="AA60" s="25"/>
       <c r="AB60" s="25"/>
     </row>
-    <row r="61" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="19"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
@@ -7414,7 +7284,7 @@
       <c r="AA61" s="25"/>
       <c r="AB61" s="25"/>
     </row>
-    <row r="62" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="19"/>
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
@@ -7444,7 +7314,7 @@
       <c r="AA62" s="25"/>
       <c r="AB62" s="25"/>
     </row>
-    <row r="63" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="19"/>
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
@@ -7474,7 +7344,7 @@
       <c r="AA63" s="25"/>
       <c r="AB63" s="25"/>
     </row>
-    <row r="64" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="19"/>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
@@ -7504,7 +7374,7 @@
       <c r="AA64" s="25"/>
       <c r="AB64" s="25"/>
     </row>
-    <row r="65" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="19"/>
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
@@ -7534,7 +7404,7 @@
       <c r="AA65" s="25"/>
       <c r="AB65" s="25"/>
     </row>
-    <row r="66" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="19"/>
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
@@ -7564,7 +7434,7 @@
       <c r="AA66" s="25"/>
       <c r="AB66" s="25"/>
     </row>
-    <row r="67" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="19"/>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
@@ -7594,7 +7464,7 @@
       <c r="AA67" s="25"/>
       <c r="AB67" s="25"/>
     </row>
-    <row r="68" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="19"/>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
@@ -7624,7 +7494,7 @@
       <c r="AA68" s="25"/>
       <c r="AB68" s="25"/>
     </row>
-    <row r="69" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="19"/>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
@@ -7654,7 +7524,7 @@
       <c r="AA69" s="25"/>
       <c r="AB69" s="25"/>
     </row>
-    <row r="70" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="19"/>
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
@@ -7684,7 +7554,7 @@
       <c r="AA70" s="25"/>
       <c r="AB70" s="25"/>
     </row>
-    <row r="71" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="19"/>
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
@@ -7714,7 +7584,7 @@
       <c r="AA71" s="25"/>
       <c r="AB71" s="25"/>
     </row>
-    <row r="72" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="19"/>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
@@ -7744,7 +7614,7 @@
       <c r="AA72" s="25"/>
       <c r="AB72" s="25"/>
     </row>
-    <row r="73" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="19"/>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
@@ -7774,7 +7644,7 @@
       <c r="AA73" s="25"/>
       <c r="AB73" s="25"/>
     </row>
-    <row r="74" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="19"/>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
@@ -7804,7 +7674,7 @@
       <c r="AA74" s="25"/>
       <c r="AB74" s="25"/>
     </row>
-    <row r="75" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="19"/>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
@@ -7834,7 +7704,7 @@
       <c r="AA75" s="25"/>
       <c r="AB75" s="25"/>
     </row>
-    <row r="76" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="19"/>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
@@ -7864,7 +7734,7 @@
       <c r="AA76" s="25"/>
       <c r="AB76" s="25"/>
     </row>
-    <row r="77" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="19"/>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -7894,7 +7764,7 @@
       <c r="AA77" s="25"/>
       <c r="AB77" s="25"/>
     </row>
-    <row r="78" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="19"/>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
@@ -7924,7 +7794,7 @@
       <c r="AA78" s="25"/>
       <c r="AB78" s="25"/>
     </row>
-    <row r="79" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="19"/>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
@@ -7954,7 +7824,7 @@
       <c r="AA79" s="25"/>
       <c r="AB79" s="25"/>
     </row>
-    <row r="80" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="19"/>
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
@@ -7984,7 +7854,7 @@
       <c r="AA80" s="25"/>
       <c r="AB80" s="25"/>
     </row>
-    <row r="81" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="19"/>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
@@ -8014,7 +7884,7 @@
       <c r="AA81" s="25"/>
       <c r="AB81" s="25"/>
     </row>
-    <row r="82" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="19"/>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
@@ -8044,7 +7914,7 @@
       <c r="AA82" s="25"/>
       <c r="AB82" s="25"/>
     </row>
-    <row r="83" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="19"/>
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
@@ -8074,7 +7944,7 @@
       <c r="AA83" s="25"/>
       <c r="AB83" s="25"/>
     </row>
-    <row r="84" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="19"/>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
@@ -8104,7 +7974,7 @@
       <c r="AA84" s="25"/>
       <c r="AB84" s="25"/>
     </row>
-    <row r="85" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="19"/>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
@@ -8134,7 +8004,7 @@
       <c r="AA85" s="25"/>
       <c r="AB85" s="25"/>
     </row>
-    <row r="86" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="19"/>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
@@ -8164,7 +8034,7 @@
       <c r="AA86" s="25"/>
       <c r="AB86" s="25"/>
     </row>
-    <row r="87" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="19"/>
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
@@ -8194,7 +8064,7 @@
       <c r="AA87" s="25"/>
       <c r="AB87" s="25"/>
     </row>
-    <row r="88" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="19"/>
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
@@ -8224,7 +8094,7 @@
       <c r="AA88" s="25"/>
       <c r="AB88" s="25"/>
     </row>
-    <row r="89" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="19"/>
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
@@ -8254,7 +8124,7 @@
       <c r="AA89" s="25"/>
       <c r="AB89" s="25"/>
     </row>
-    <row r="90" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="19"/>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
@@ -8284,7 +8154,7 @@
       <c r="AA90" s="25"/>
       <c r="AB90" s="25"/>
     </row>
-    <row r="91" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="19"/>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
@@ -8314,7 +8184,7 @@
       <c r="AA91" s="25"/>
       <c r="AB91" s="25"/>
     </row>
-    <row r="92" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="19"/>
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
@@ -8344,7 +8214,7 @@
       <c r="AA92" s="25"/>
       <c r="AB92" s="25"/>
     </row>
-    <row r="93" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="19"/>
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
@@ -8374,7 +8244,7 @@
       <c r="AA93" s="25"/>
       <c r="AB93" s="25"/>
     </row>
-    <row r="94" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="19"/>
       <c r="B94" s="19"/>
       <c r="C94" s="19"/>
@@ -8404,7 +8274,7 @@
       <c r="AA94" s="25"/>
       <c r="AB94" s="25"/>
     </row>
-    <row r="95" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="19"/>
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
@@ -8434,7 +8304,7 @@
       <c r="AA95" s="25"/>
       <c r="AB95" s="25"/>
     </row>
-    <row r="96" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="19"/>
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
@@ -8464,7 +8334,7 @@
       <c r="AA96" s="25"/>
       <c r="AB96" s="25"/>
     </row>
-    <row r="97" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="19"/>
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
@@ -8494,7 +8364,7 @@
       <c r="AA97" s="25"/>
       <c r="AB97" s="25"/>
     </row>
-    <row r="98" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="19"/>
       <c r="B98" s="19"/>
       <c r="C98" s="19"/>
@@ -8524,7 +8394,7 @@
       <c r="AA98" s="25"/>
       <c r="AB98" s="25"/>
     </row>
-    <row r="99" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="19"/>
       <c r="B99" s="19"/>
       <c r="C99" s="19"/>
@@ -8554,7 +8424,7 @@
       <c r="AA99" s="25"/>
       <c r="AB99" s="25"/>
     </row>
-    <row r="100" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="19"/>
       <c r="B100" s="19"/>
       <c r="C100" s="19"/>
@@ -8584,7 +8454,7 @@
       <c r="AA100" s="25"/>
       <c r="AB100" s="25"/>
     </row>
-    <row r="101" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="19"/>
       <c r="B101" s="19"/>
       <c r="C101" s="19"/>
@@ -8614,7 +8484,7 @@
       <c r="AA101" s="25"/>
       <c r="AB101" s="25"/>
     </row>
-    <row r="102" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="19"/>
       <c r="B102" s="19"/>
       <c r="C102" s="19"/>
@@ -8644,7 +8514,7 @@
       <c r="AA102" s="25"/>
       <c r="AB102" s="25"/>
     </row>
-    <row r="103" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="19"/>
       <c r="B103" s="19"/>
       <c r="C103" s="19"/>
@@ -8674,7 +8544,7 @@
       <c r="AA103" s="25"/>
       <c r="AB103" s="25"/>
     </row>
-    <row r="104" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="19"/>
       <c r="B104" s="19"/>
       <c r="C104" s="19"/>
@@ -8704,7 +8574,7 @@
       <c r="AA104" s="25"/>
       <c r="AB104" s="25"/>
     </row>
-    <row r="105" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="19"/>
       <c r="B105" s="19"/>
       <c r="C105" s="19"/>
@@ -8742,26 +8612,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:T95"/>
+  <dimension ref="A1:Z95"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="50.7109375" collapsed="true"/>
-    <col min="4" max="19" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="21" max="26" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.73046875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.73046875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="50.73046875" customWidth="1" collapsed="1"/>
+    <col min="4" max="19" width="15.73046875" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="30.73046875" customWidth="1" collapsed="1"/>
+    <col min="21" max="26" width="15.73046875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47"/>
-      <c r="B1" s="48"/>
+    <row r="1" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="51"/>
+      <c r="B1" s="52"/>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
@@ -8817,7 +8687,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10">
         <v>43837</v>
       </c>
@@ -8875,7 +8745,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -8915,98 +8785,98 @@
       </c>
       <c r="T3" s="6"/>
     </row>
-    <row r="4" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -9021,20 +8891,20 @@
   <dimension ref="A1:Y187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y5" sqref="Y5"/>
+      <selection pane="bottomRight" activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="40.7109375" collapsed="true"/>
-    <col min="3" max="23" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="24" max="25" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="1" max="2" width="40.73046875" customWidth="1" collapsed="1"/>
+    <col min="3" max="23" width="15.73046875" customWidth="1" collapsed="1"/>
+    <col min="24" max="25" width="40.73046875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="34"/>
       <c r="B1" s="35" t="s">
         <v>1</v>
@@ -9109,27 +8979,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="50">
+      <c r="C2" s="48">
         <v>44038</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="51">
+      <c r="F2" s="49">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
-      <c r="G2" s="51">
+      <c r="G2" s="49">
         <v>1</v>
       </c>
       <c r="H2" s="43">
@@ -9198,11 +9068,11 @@
       <c r="X2" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="Y2" s="52" t="s">
+      <c r="Y2" s="50" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="40" t="s">
         <v>117</v>
       </c>
@@ -9285,31 +9155,31 @@
       <c r="X3" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="Y3" s="52" t="s">
+      <c r="Y3" s="50" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="48">
         <v>43837</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="51">
+      <c r="F4" s="49">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="49">
         <v>1</v>
       </c>
       <c r="H4" s="43">
@@ -9378,560 +9248,219 @@
       <c r="X4" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="Y4" s="52" t="s">
+      <c r="Y4" s="50" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>122</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>123</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>125</v>
-      </c>
-      <c r="H5" t="s" s="0">
-        <v>126</v>
-      </c>
-      <c r="I5" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="J5" t="s" s="0">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>122</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>123</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>125</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>126</v>
-      </c>
-      <c r="I6" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="J6" t="s" s="0">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>122</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>123</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="G7" t="s" s="0">
-        <v>125</v>
-      </c>
-      <c r="H7" t="s" s="0">
-        <v>126</v>
-      </c>
-      <c r="I7" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="J7" t="s" s="0">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>122</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>123</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="G8" t="s" s="0">
-        <v>129</v>
-      </c>
-      <c r="H8" t="s" s="0">
-        <v>126</v>
-      </c>
-      <c r="I8" t="s" s="0">
-        <v>130</v>
-      </c>
-      <c r="J8" t="s" s="0">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>122</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>123</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="G9" t="s" s="0">
-        <v>125</v>
-      </c>
-      <c r="H9" t="s" s="0">
-        <v>126</v>
-      </c>
-      <c r="I9" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="J9" t="s" s="0">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>122</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>123</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="G10" t="s" s="0">
-        <v>125</v>
-      </c>
-      <c r="H10" t="s" s="0">
-        <v>126</v>
-      </c>
-      <c r="I10" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="J10" t="s" s="0">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>122</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>123</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="F11" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="G11" t="s" s="0">
-        <v>131</v>
-      </c>
-      <c r="H11" t="s" s="0">
-        <v>126</v>
-      </c>
-      <c r="I11" t="s" s="0">
-        <v>132</v>
-      </c>
-      <c r="J11" t="s" s="0">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>142</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>143</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>144</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>145</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="F12" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="G12" t="s" s="0">
-        <v>146</v>
-      </c>
-      <c r="H12" t="s" s="0">
-        <v>147</v>
-      </c>
-      <c r="I12" t="s" s="0">
-        <v>147</v>
-      </c>
-      <c r="J12" t="s" s="0">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
-        <v>155</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>156</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>144</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="F13" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="G13" t="s" s="0">
-        <v>146</v>
-      </c>
-      <c r="H13" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="I13" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="J13" t="s" s="0">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="0">
-        <v>148</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>144</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="F14" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="G14" t="s" s="0">
-        <v>146</v>
-      </c>
-      <c r="H14" t="s" s="0">
-        <v>150</v>
-      </c>
-      <c r="I14" t="s" s="0">
-        <v>150</v>
-      </c>
-      <c r="J14" t="s" s="0">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="0">
-        <v>158</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>159</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>144</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="E15" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="F15" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="G15" t="s" s="0">
-        <v>146</v>
-      </c>
-      <c r="H15" t="s" s="0">
-        <v>160</v>
-      </c>
-      <c r="I15" t="s" s="0">
-        <v>160</v>
-      </c>
-      <c r="J15" t="s" s="0">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="45"/>
-      <c r="Y16" s="45"/>
-    </row>
-    <row r="17" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+    </row>
+    <row r="6" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="20" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="27" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="30" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="31" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="32" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="36" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="37" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="38" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="39" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="40" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="44" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="45" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="46" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="47" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="48" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="49" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="50" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="51" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="52" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="53" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="54" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="55" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="56" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="57" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="58" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="60" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="61" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="62" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="63" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="64" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="65" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="66" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="67" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="68" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="69" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="70" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="71" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="72" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="73" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="74" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="75" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="76" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="77" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="78" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="79" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="80" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="81" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="83" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="84" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="85" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="86" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="87" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="90" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="91" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="92" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="93" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="94" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="95" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="96" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="97" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="98" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="99" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="100" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="101" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="102" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="103" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="104" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="106" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="107" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="108" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="109" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="110" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="111" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="112" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="113" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="114" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="115" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="116" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="117" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="118" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="119" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="120" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="121" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="122" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="123" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="136" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="137" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="138" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="139" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="140" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="141" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="142" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="143" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="144" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="145" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="146" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="147" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="148" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="149" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="150" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="151" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="152" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="153" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="154" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="155" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="156" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="157" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="158" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="159" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="160" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="161" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="162" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="163" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="164" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="165" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="166" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="167" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="168" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="169" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="170" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="171" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="172" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="173" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="174" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="175" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="176" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="177" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="178" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="179" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="180" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="181" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="182" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="183" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="184" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="185" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="186" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="187" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -9945,7 +9474,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9957,7 +9486,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JavaApplication19/src/excel/Ventas.xlsx
+++ b/JavaApplication19/src/excel/Ventas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="128">
   <si>
     <t>PRUDUCTO</t>
   </si>
@@ -407,6 +407,24 @@
   </si>
   <si>
     <t>MEXPOST</t>
+  </si>
+  <si>
+    <t>ASIENTO WTB ROCKET</t>
+  </si>
+  <si>
+    <t>TALLA 125mm - PARA MUJER - USADO</t>
+  </si>
+  <si>
+    <t>29  julio</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>280.0</t>
   </si>
 </sst>
 </file>
@@ -416,7 +434,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,8 +504,68 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,8 +643,18 @@
         <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -615,12 +703,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -771,6 +877,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1561,12 +1697,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.73046875" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="30.73046875" customWidth="1" collapsed="1"/>
-    <col min="4" max="11" width="15.73046875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.73046875" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="15.73046875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="30.73046875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.73046875" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="30.73046875" collapsed="true"/>
+    <col min="4" max="11" customWidth="true" width="15.73046875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.73046875" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="15.73046875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="30.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -2405,12 +2541,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.73046875" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="30.73046875" customWidth="1" collapsed="1"/>
-    <col min="4" max="11" width="15.73046875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.73046875" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="15.73046875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="30.73046875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.73046875" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="30.73046875" collapsed="true"/>
+    <col min="4" max="11" customWidth="true" width="15.73046875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.73046875" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="15.73046875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="30.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -2984,12 +3120,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.73046875" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="30.73046875" customWidth="1" collapsed="1"/>
-    <col min="4" max="11" width="15.73046875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.73046875" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="15.73046875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="30.73046875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.73046875" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="30.73046875" collapsed="true"/>
+    <col min="4" max="11" customWidth="true" width="15.73046875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.73046875" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="15.73046875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="30.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -4769,7 +4905,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:X129"/>
+  <dimension ref="A1:N129"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N1" sqref="A1:N1"/>
@@ -4777,11 +4913,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.73046875" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="30.73046875" customWidth="1" collapsed="1"/>
-    <col min="4" max="13" width="15.73046875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="30.73046875" customWidth="1" collapsed="1"/>
-    <col min="15" max="24" width="15.73046875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.73046875" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="30.73046875" collapsed="true"/>
+    <col min="4" max="13" customWidth="true" width="15.73046875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="30.73046875" collapsed="true"/>
+    <col min="15" max="24" customWidth="true" width="15.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -5179,11 +5315,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.73046875" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="30.73046875" customWidth="1" collapsed="1"/>
-    <col min="4" max="15" width="15.73046875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="30.73046875" customWidth="1" collapsed="1"/>
-    <col min="17" max="28" width="15.73046875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.73046875" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="30.73046875" collapsed="true"/>
+    <col min="4" max="15" customWidth="true" width="15.73046875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="30.73046875" collapsed="true"/>
+    <col min="17" max="28" customWidth="true" width="15.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -8612,7 +8748,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:Z95"/>
+  <dimension ref="A1:T95"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8621,12 +8757,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.73046875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.73046875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="50.73046875" customWidth="1" collapsed="1"/>
-    <col min="4" max="19" width="15.73046875" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="30.73046875" customWidth="1" collapsed="1"/>
-    <col min="21" max="26" width="15.73046875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.73046875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.73046875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="50.73046875" collapsed="true"/>
+    <col min="4" max="19" customWidth="true" width="15.73046875" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="30.73046875" collapsed="true"/>
+    <col min="21" max="26" customWidth="true" width="15.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45">
@@ -8899,9 +9035,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="40.73046875" customWidth="1" collapsed="1"/>
-    <col min="3" max="23" width="15.73046875" customWidth="1" collapsed="1"/>
-    <col min="24" max="25" width="40.73046875" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="40.73046875" collapsed="true"/>
+    <col min="3" max="23" customWidth="true" width="15.73046875" collapsed="true"/>
+    <col min="24" max="25" customWidth="true" width="40.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -8979,7 +9115,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A2" s="40" t="s">
         <v>113</v>
       </c>
@@ -9072,7 +9208,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:25" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A3" s="40" t="s">
         <v>117</v>
       </c>
@@ -9159,7 +9295,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:25" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A4" s="40" t="s">
         <v>119</v>
       </c>
@@ -9252,34 +9388,65 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-    </row>
-    <row r="6" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="5" ht="28.5" customHeight="true">
+      <c r="A5" t="s" s="53">
+        <v>122</v>
+      </c>
+      <c r="B5" t="s" s="54">
+        <v>123</v>
+      </c>
+      <c r="C5" t="s" s="55">
+        <v>124</v>
+      </c>
+      <c r="D5" t="s" s="56">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s" s="57">
+        <v>125</v>
+      </c>
+      <c r="F5" t="s" s="58">
+        <v>125</v>
+      </c>
+      <c r="G5" t="s" s="59">
+        <v>126</v>
+      </c>
+      <c r="H5" t="s" s="60">
+        <v>127</v>
+      </c>
+      <c r="I5" t="s" s="61">
+        <v>127</v>
+      </c>
+      <c r="J5" t="s" s="62">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="28.5" customHeight="true" x14ac:dyDescent="0.5">
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+    </row>
     <row r="7" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="9" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/JavaApplication19/src/excel/Ventas.xlsx
+++ b/JavaApplication19/src/excel/Ventas.xlsx
@@ -9024,7 +9024,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Y187"/>
+  <dimension ref="A1:Y186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -9388,65 +9388,34 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" ht="28.5" customHeight="true">
-      <c r="A5" t="s" s="53">
-        <v>122</v>
-      </c>
-      <c r="B5" t="s" s="54">
-        <v>123</v>
-      </c>
-      <c r="C5" t="s" s="55">
-        <v>124</v>
-      </c>
-      <c r="D5" t="s" s="56">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s" s="57">
-        <v>125</v>
-      </c>
-      <c r="F5" t="s" s="58">
-        <v>125</v>
-      </c>
-      <c r="G5" t="s" s="59">
-        <v>126</v>
-      </c>
-      <c r="H5" t="s" s="60">
-        <v>127</v>
-      </c>
-      <c r="I5" t="s" s="61">
-        <v>127</v>
-      </c>
-      <c r="J5" t="s" s="62">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="28.5" customHeight="true" x14ac:dyDescent="0.5">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-    </row>
+    <row r="5" spans="1:25" ht="28.5" customHeight="true" x14ac:dyDescent="0.5">
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+    </row>
+    <row r="6" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="7" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="9" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -9456,10 +9425,10 @@
     <row r="13" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="14" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="15" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="16" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="20" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -9627,7 +9596,6 @@
     <row r="184" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="185" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="186" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="187" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/JavaApplication19/src/excel/Ventas.xlsx
+++ b/JavaApplication19/src/excel/Ventas.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="132">
   <si>
     <t>PRUDUCTO</t>
   </si>
@@ -425,6 +425,18 @@
   </si>
   <si>
     <t>280.0</t>
+  </si>
+  <si>
+    <t>BICI FUJI RUTA</t>
+  </si>
+  <si>
+    <t>BICI PARA RUTA - TALLA 56 - LLANTAS 700x38 - DOBLE ENCINTADO - RECIEN ARMADA Y ALINEADA - TRANSMISION 2x8 - TRANSMISION COMPLETA CLARIS - FRENOS ULTEGRA DE ZAPATAS DE REPUESTOS - POTENCIA Y POSTE THOMSON ELITE - MUY RAPIDA - INCLUYE VELOCIMETRO - INCLUYE ESPEJO RETROVISOR - SEMINUEVA</t>
+  </si>
+  <si>
+    <t>10508.0</t>
+  </si>
+  <si>
+    <t>13000.0</t>
   </si>
 </sst>
 </file>
@@ -434,7 +446,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,6 +515,66 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -726,7 +798,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -906,6 +978,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9024,7 +9126,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Y186"/>
+  <dimension ref="A1:Y185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -9424,10 +9526,10 @@
     <row r="12" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="13" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="14" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="15" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="15" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="16" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="18" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="20" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -9595,7 +9697,6 @@
     <row r="183" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="184" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="185" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="186" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/JavaApplication19/src/excel/Ventas.xlsx
+++ b/JavaApplication19/src/excel/Ventas.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="137">
   <si>
     <t>PRUDUCTO</t>
   </si>
@@ -437,6 +437,21 @@
   </si>
   <si>
     <t>13000.0</t>
+  </si>
+  <si>
+    <t>BANDANA MULTIFUNCIONAL - VARIOS MODELOS Y COLORES - ABSORBENTE - FACIL DE LAVAR - NUEVOS</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>459.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
   </si>
 </sst>
 </file>
@@ -446,7 +461,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,6 +530,66 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -798,7 +873,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1008,6 +1083,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9126,7 +9231,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Y185"/>
+  <dimension ref="A1:Y184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -9525,10 +9630,10 @@
     <row r="11" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="12" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="13" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="14" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="15" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="16" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="18" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="20" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -9696,7 +9801,6 @@
     <row r="182" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="183" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="184" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="185" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/JavaApplication19/src/excel/Ventas.xlsx
+++ b/JavaApplication19/src/excel/Ventas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Google Drive\EPIC MOUNTAIN\ADMINISTRACIÒN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68FBDD4-4DA7-42E8-8FC7-F20FF2726415}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D32496-5AC1-40F6-8BA8-EF233E6F053B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2948" yWindow="1553" windowWidth="21727" windowHeight="11497" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO" sheetId="1" r:id="rId1"/>
@@ -26,14 +26,12 @@
     <sheet name="NOVIEMBRE" sheetId="11" r:id="rId11"/>
     <sheet name="DICIEMBRE" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="122">
   <si>
     <t>PRUDUCTO</t>
   </si>
@@ -407,51 +405,6 @@
   </si>
   <si>
     <t>MEXPOST</t>
-  </si>
-  <si>
-    <t>ASIENTO WTB ROCKET</t>
-  </si>
-  <si>
-    <t>TALLA 125mm - PARA MUJER - USADO</t>
-  </si>
-  <si>
-    <t>29  julio</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>280.0</t>
-  </si>
-  <si>
-    <t>BICI FUJI RUTA</t>
-  </si>
-  <si>
-    <t>BICI PARA RUTA - TALLA 56 - LLANTAS 700x38 - DOBLE ENCINTADO - RECIEN ARMADA Y ALINEADA - TRANSMISION 2x8 - TRANSMISION COMPLETA CLARIS - FRENOS ULTEGRA DE ZAPATAS DE REPUESTOS - POTENCIA Y POSTE THOMSON ELITE - MUY RAPIDA - INCLUYE VELOCIMETRO - INCLUYE ESPEJO RETROVISOR - SEMINUEVA</t>
-  </si>
-  <si>
-    <t>10508.0</t>
-  </si>
-  <si>
-    <t>13000.0</t>
-  </si>
-  <si>
-    <t>BANDANA MULTIFUNCIONAL - VARIOS MODELOS Y COLORES - ABSORBENTE - FACIL DE LAVAR - NUEVOS</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>27.0</t>
-  </si>
-  <si>
-    <t>459.0</t>
-  </si>
-  <si>
-    <t>60.0</t>
   </si>
 </sst>
 </file>
@@ -461,7 +414,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,188 +484,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
   </fonts>
-  <fills count="16">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -790,18 +563,8 @@
         <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="EEEEEE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="EEEEEE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -850,30 +613,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1007,6 +752,12 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1018,102 +769,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1902,17 +1557,17 @@
       <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.73046875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="30.73046875" collapsed="true"/>
-    <col min="4" max="11" customWidth="true" width="15.73046875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.73046875" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="15.73046875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="30.73046875" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1955,7 +1610,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>43837</v>
       </c>
@@ -2000,7 +1655,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>43837</v>
       </c>
@@ -2051,7 +1706,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>43837</v>
       </c>
@@ -2102,7 +1757,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>43837</v>
       </c>
@@ -2153,7 +1808,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>43837</v>
       </c>
@@ -2198,7 +1853,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>43837</v>
       </c>
@@ -2243,7 +1898,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>43850</v>
       </c>
@@ -2294,7 +1949,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>43852</v>
       </c>
@@ -2339,7 +1994,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>43859</v>
       </c>
@@ -2384,7 +2039,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>43861</v>
       </c>
@@ -2429,7 +2084,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>43861</v>
       </c>
@@ -2474,7 +2129,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2500,200 +2155,200 @@
       <c r="N13" s="6"/>
       <c r="O13" s="24"/>
     </row>
-    <row r="14" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="15" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="103" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="104" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="105" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="106" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="107" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="108" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="109" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="110" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="111" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="112" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="113" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="114" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="115" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="116" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="117" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="118" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="119" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="120" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="121" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="122" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="123" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="124" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="125" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="126" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="127" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="128" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="129" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="130" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="131" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="132" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="133" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="134" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="135" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="136" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="137" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="138" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="139" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="140" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="141" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="142" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="143" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="144" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="145" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="146" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="147" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="148" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="149" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="150" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="151" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="152" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="153" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="154" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="155" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="156" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="157" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="158" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="159" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="160" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="161" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="162" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="163" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="164" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="165" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="166" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="167" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="168" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="169" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="170" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="171" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="172" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="173" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="174" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="175" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="176" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="177" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="178" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="179" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="180" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="181" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="182" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="183" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="184" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="185" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="186" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="187" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="188" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="189" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="190" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="191" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="192" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="193" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="194" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="195" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="196" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="197" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="198" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="199" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="200" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="201" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="202" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="203" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="204" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="205" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="206" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="207" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2707,7 +2362,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2719,7 +2374,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2731,7 +2386,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2746,17 +2401,17 @@
       <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.73046875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="30.73046875" collapsed="true"/>
-    <col min="4" max="11" customWidth="true" width="15.73046875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.73046875" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="15.73046875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="30.73046875" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2799,7 +2454,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>43870</v>
       </c>
@@ -2844,7 +2499,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>43869</v>
       </c>
@@ -2889,7 +2544,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>43879</v>
       </c>
@@ -2940,7 +2595,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>43879</v>
       </c>
@@ -2985,7 +2640,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>43837</v>
       </c>
@@ -3036,7 +2691,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>43853</v>
       </c>
@@ -3087,7 +2742,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -3113,203 +2768,203 @@
       <c r="N8" s="6"/>
       <c r="O8" s="24"/>
     </row>
-    <row r="9" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="15" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="103" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="104" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="105" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="106" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="107" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="108" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="109" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="110" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="111" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="112" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="113" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="114" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="115" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="116" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="117" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="118" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="119" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="120" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="121" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="122" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="123" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="124" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="125" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="126" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="127" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="128" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="129" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="130" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="131" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="132" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="133" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="134" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="135" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="136" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="137" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="138" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="139" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="140" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="141" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="142" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="143" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="144" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="145" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="146" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="147" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="148" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="149" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="150" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="151" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="152" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="153" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="154" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="155" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="156" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="157" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="158" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="159" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="160" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="161" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="162" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="163" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="164" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="165" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="166" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="167" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="168" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="169" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="170" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="171" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="172" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="173" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="174" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="175" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="176" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="177" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="178" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="179" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="180" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="181" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="182" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="183" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="184" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="185" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="186" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="187" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="188" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="189" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="190" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="191" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="192" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="193" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="194" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="195" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="196" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="197" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="198" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="199" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="200" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="201" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="202" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="203" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="204" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="205" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3325,17 +2980,17 @@
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.73046875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="30.73046875" collapsed="true"/>
-    <col min="4" max="11" customWidth="true" width="15.73046875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.73046875" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="15.73046875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="30.73046875" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -3378,7 +3033,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>43853</v>
       </c>
@@ -3429,7 +3084,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3455,7 +3110,7 @@
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -3472,7 +3127,7 @@
       <c r="N4" s="25"/>
       <c r="O4" s="25"/>
     </row>
-    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -3489,7 +3144,7 @@
       <c r="N5" s="25"/>
       <c r="O5" s="25"/>
     </row>
-    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -3506,7 +3161,7 @@
       <c r="N6" s="25"/>
       <c r="O6" s="25"/>
     </row>
-    <row r="7" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -3523,7 +3178,7 @@
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
     </row>
-    <row r="8" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -3540,7 +3195,7 @@
       <c r="N8" s="25"/>
       <c r="O8" s="25"/>
     </row>
-    <row r="9" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -3557,7 +3212,7 @@
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
     </row>
-    <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -3574,7 +3229,7 @@
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
     </row>
-    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -3591,7 +3246,7 @@
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
     </row>
-    <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -3608,7 +3263,7 @@
       <c r="N12" s="25"/>
       <c r="O12" s="25"/>
     </row>
-    <row r="13" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -3625,7 +3280,7 @@
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
     </row>
-    <row r="14" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -3642,7 +3297,7 @@
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
     </row>
-    <row r="15" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -3659,7 +3314,7 @@
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
     </row>
-    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -3676,7 +3331,7 @@
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
     </row>
-    <row r="17" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -3693,7 +3348,7 @@
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
     </row>
-    <row r="18" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -3710,7 +3365,7 @@
       <c r="N18" s="25"/>
       <c r="O18" s="25"/>
     </row>
-    <row r="19" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
@@ -3727,7 +3382,7 @@
       <c r="N19" s="25"/>
       <c r="O19" s="25"/>
     </row>
-    <row r="20" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
@@ -3744,7 +3399,7 @@
       <c r="N20" s="25"/>
       <c r="O20" s="25"/>
     </row>
-    <row r="21" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
@@ -3761,7 +3416,7 @@
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
     </row>
-    <row r="22" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -3778,7 +3433,7 @@
       <c r="N22" s="25"/>
       <c r="O22" s="25"/>
     </row>
-    <row r="23" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -3795,7 +3450,7 @@
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
     </row>
-    <row r="24" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
@@ -3812,7 +3467,7 @@
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
     </row>
-    <row r="25" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
@@ -3829,7 +3484,7 @@
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
     </row>
-    <row r="26" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
@@ -3846,7 +3501,7 @@
       <c r="N26" s="25"/>
       <c r="O26" s="25"/>
     </row>
-    <row r="27" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
@@ -3863,7 +3518,7 @@
       <c r="N27" s="25"/>
       <c r="O27" s="25"/>
     </row>
-    <row r="28" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
@@ -3880,7 +3535,7 @@
       <c r="N28" s="25"/>
       <c r="O28" s="25"/>
     </row>
-    <row r="29" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -3897,7 +3552,7 @@
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
     </row>
-    <row r="30" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
@@ -3914,7 +3569,7 @@
       <c r="N30" s="25"/>
       <c r="O30" s="25"/>
     </row>
-    <row r="31" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
@@ -3931,7 +3586,7 @@
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
     </row>
-    <row r="32" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
@@ -3948,7 +3603,7 @@
       <c r="N32" s="25"/>
       <c r="O32" s="25"/>
     </row>
-    <row r="33" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
@@ -3965,7 +3620,7 @@
       <c r="N33" s="25"/>
       <c r="O33" s="25"/>
     </row>
-    <row r="34" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
       <c r="B34" s="25"/>
       <c r="C34" s="25"/>
@@ -3982,7 +3637,7 @@
       <c r="N34" s="25"/>
       <c r="O34" s="25"/>
     </row>
-    <row r="35" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
@@ -3999,7 +3654,7 @@
       <c r="N35" s="25"/>
       <c r="O35" s="25"/>
     </row>
-    <row r="36" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
@@ -4016,7 +3671,7 @@
       <c r="N36" s="25"/>
       <c r="O36" s="25"/>
     </row>
-    <row r="37" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
@@ -4033,7 +3688,7 @@
       <c r="N37" s="25"/>
       <c r="O37" s="25"/>
     </row>
-    <row r="38" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
@@ -4050,7 +3705,7 @@
       <c r="N38" s="25"/>
       <c r="O38" s="25"/>
     </row>
-    <row r="39" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -4067,7 +3722,7 @@
       <c r="N39" s="25"/>
       <c r="O39" s="25"/>
     </row>
-    <row r="40" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
@@ -4084,7 +3739,7 @@
       <c r="N40" s="25"/>
       <c r="O40" s="25"/>
     </row>
-    <row r="41" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
@@ -4101,7 +3756,7 @@
       <c r="N41" s="25"/>
       <c r="O41" s="25"/>
     </row>
-    <row r="42" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
@@ -4118,7 +3773,7 @@
       <c r="N42" s="25"/>
       <c r="O42" s="25"/>
     </row>
-    <row r="43" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
       <c r="B43" s="25"/>
       <c r="C43" s="25"/>
@@ -4135,7 +3790,7 @@
       <c r="N43" s="25"/>
       <c r="O43" s="25"/>
     </row>
-    <row r="44" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
@@ -4152,7 +3807,7 @@
       <c r="N44" s="25"/>
       <c r="O44" s="25"/>
     </row>
-    <row r="45" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="25"/>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
@@ -4169,7 +3824,7 @@
       <c r="N45" s="25"/>
       <c r="O45" s="25"/>
     </row>
-    <row r="46" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="25"/>
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
@@ -4186,7 +3841,7 @@
       <c r="N46" s="25"/>
       <c r="O46" s="25"/>
     </row>
-    <row r="47" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="25"/>
       <c r="B47" s="25"/>
       <c r="C47" s="25"/>
@@ -4203,7 +3858,7 @@
       <c r="N47" s="25"/>
       <c r="O47" s="25"/>
     </row>
-    <row r="48" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="25"/>
       <c r="B48" s="25"/>
       <c r="C48" s="25"/>
@@ -4220,7 +3875,7 @@
       <c r="N48" s="25"/>
       <c r="O48" s="25"/>
     </row>
-    <row r="49" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="25"/>
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
@@ -4237,7 +3892,7 @@
       <c r="N49" s="25"/>
       <c r="O49" s="25"/>
     </row>
-    <row r="50" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="25"/>
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
@@ -4254,7 +3909,7 @@
       <c r="N50" s="25"/>
       <c r="O50" s="25"/>
     </row>
-    <row r="51" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="25"/>
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
@@ -4271,7 +3926,7 @@
       <c r="N51" s="25"/>
       <c r="O51" s="25"/>
     </row>
-    <row r="52" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="25"/>
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
@@ -4288,7 +3943,7 @@
       <c r="N52" s="25"/>
       <c r="O52" s="25"/>
     </row>
-    <row r="53" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="25"/>
       <c r="B53" s="25"/>
       <c r="C53" s="25"/>
@@ -4305,7 +3960,7 @@
       <c r="N53" s="25"/>
       <c r="O53" s="25"/>
     </row>
-    <row r="54" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="25"/>
       <c r="B54" s="25"/>
       <c r="C54" s="25"/>
@@ -4322,7 +3977,7 @@
       <c r="N54" s="25"/>
       <c r="O54" s="25"/>
     </row>
-    <row r="55" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
       <c r="C55" s="25"/>
@@ -4339,7 +3994,7 @@
       <c r="N55" s="25"/>
       <c r="O55" s="25"/>
     </row>
-    <row r="56" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="25"/>
@@ -4356,7 +4011,7 @@
       <c r="N56" s="25"/>
       <c r="O56" s="25"/>
     </row>
-    <row r="57" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="25"/>
       <c r="B57" s="25"/>
       <c r="C57" s="25"/>
@@ -4373,7 +4028,7 @@
       <c r="N57" s="25"/>
       <c r="O57" s="25"/>
     </row>
-    <row r="58" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="25"/>
       <c r="B58" s="25"/>
       <c r="C58" s="25"/>
@@ -4390,7 +4045,7 @@
       <c r="N58" s="25"/>
       <c r="O58" s="25"/>
     </row>
-    <row r="59" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="25"/>
       <c r="B59" s="25"/>
       <c r="C59" s="25"/>
@@ -4407,7 +4062,7 @@
       <c r="N59" s="25"/>
       <c r="O59" s="25"/>
     </row>
-    <row r="60" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="25"/>
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
@@ -4424,7 +4079,7 @@
       <c r="N60" s="25"/>
       <c r="O60" s="25"/>
     </row>
-    <row r="61" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="25"/>
       <c r="B61" s="25"/>
       <c r="C61" s="25"/>
@@ -4441,7 +4096,7 @@
       <c r="N61" s="25"/>
       <c r="O61" s="25"/>
     </row>
-    <row r="62" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="25"/>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
@@ -4458,7 +4113,7 @@
       <c r="N62" s="25"/>
       <c r="O62" s="25"/>
     </row>
-    <row r="63" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="25"/>
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
@@ -4475,7 +4130,7 @@
       <c r="N63" s="25"/>
       <c r="O63" s="25"/>
     </row>
-    <row r="64" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="25"/>
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
@@ -4492,7 +4147,7 @@
       <c r="N64" s="25"/>
       <c r="O64" s="25"/>
     </row>
-    <row r="65" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="25"/>
       <c r="B65" s="25"/>
       <c r="C65" s="25"/>
@@ -4509,7 +4164,7 @@
       <c r="N65" s="25"/>
       <c r="O65" s="25"/>
     </row>
-    <row r="66" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="25"/>
       <c r="B66" s="25"/>
       <c r="C66" s="25"/>
@@ -4526,7 +4181,7 @@
       <c r="N66" s="25"/>
       <c r="O66" s="25"/>
     </row>
-    <row r="67" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="25"/>
       <c r="B67" s="25"/>
       <c r="C67" s="25"/>
@@ -4543,7 +4198,7 @@
       <c r="N67" s="25"/>
       <c r="O67" s="25"/>
     </row>
-    <row r="68" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="25"/>
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
@@ -4560,7 +4215,7 @@
       <c r="N68" s="25"/>
       <c r="O68" s="25"/>
     </row>
-    <row r="69" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="25"/>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
@@ -4577,7 +4232,7 @@
       <c r="N69" s="25"/>
       <c r="O69" s="25"/>
     </row>
-    <row r="70" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="25"/>
       <c r="B70" s="25"/>
       <c r="C70" s="25"/>
@@ -4594,7 +4249,7 @@
       <c r="N70" s="25"/>
       <c r="O70" s="25"/>
     </row>
-    <row r="71" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="25"/>
       <c r="B71" s="25"/>
       <c r="C71" s="25"/>
@@ -4611,7 +4266,7 @@
       <c r="N71" s="25"/>
       <c r="O71" s="25"/>
     </row>
-    <row r="72" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="25"/>
       <c r="B72" s="25"/>
       <c r="C72" s="25"/>
@@ -4628,7 +4283,7 @@
       <c r="N72" s="25"/>
       <c r="O72" s="25"/>
     </row>
-    <row r="73" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="25"/>
       <c r="B73" s="25"/>
       <c r="C73" s="25"/>
@@ -4645,7 +4300,7 @@
       <c r="N73" s="25"/>
       <c r="O73" s="25"/>
     </row>
-    <row r="74" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="25"/>
       <c r="B74" s="25"/>
       <c r="C74" s="25"/>
@@ -4662,7 +4317,7 @@
       <c r="N74" s="25"/>
       <c r="O74" s="25"/>
     </row>
-    <row r="75" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="25"/>
       <c r="B75" s="25"/>
       <c r="C75" s="25"/>
@@ -4679,7 +4334,7 @@
       <c r="N75" s="25"/>
       <c r="O75" s="25"/>
     </row>
-    <row r="76" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="25"/>
       <c r="B76" s="25"/>
       <c r="C76" s="25"/>
@@ -4696,7 +4351,7 @@
       <c r="N76" s="25"/>
       <c r="O76" s="25"/>
     </row>
-    <row r="77" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="25"/>
       <c r="B77" s="25"/>
       <c r="C77" s="25"/>
@@ -4713,7 +4368,7 @@
       <c r="N77" s="25"/>
       <c r="O77" s="25"/>
     </row>
-    <row r="78" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="25"/>
       <c r="B78" s="25"/>
       <c r="C78" s="25"/>
@@ -4730,7 +4385,7 @@
       <c r="N78" s="25"/>
       <c r="O78" s="25"/>
     </row>
-    <row r="79" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="25"/>
       <c r="B79" s="25"/>
       <c r="C79" s="25"/>
@@ -4747,7 +4402,7 @@
       <c r="N79" s="25"/>
       <c r="O79" s="25"/>
     </row>
-    <row r="80" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="25"/>
       <c r="B80" s="25"/>
       <c r="C80" s="25"/>
@@ -4764,7 +4419,7 @@
       <c r="N80" s="25"/>
       <c r="O80" s="25"/>
     </row>
-    <row r="81" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="25"/>
       <c r="B81" s="25"/>
       <c r="C81" s="25"/>
@@ -4781,7 +4436,7 @@
       <c r="N81" s="25"/>
       <c r="O81" s="25"/>
     </row>
-    <row r="82" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="25"/>
       <c r="B82" s="25"/>
       <c r="C82" s="25"/>
@@ -4798,7 +4453,7 @@
       <c r="N82" s="25"/>
       <c r="O82" s="25"/>
     </row>
-    <row r="83" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="25"/>
       <c r="B83" s="25"/>
       <c r="C83" s="25"/>
@@ -4815,7 +4470,7 @@
       <c r="N83" s="25"/>
       <c r="O83" s="25"/>
     </row>
-    <row r="84" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="25"/>
       <c r="B84" s="25"/>
       <c r="C84" s="25"/>
@@ -4832,7 +4487,7 @@
       <c r="N84" s="25"/>
       <c r="O84" s="25"/>
     </row>
-    <row r="85" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="25"/>
       <c r="B85" s="25"/>
       <c r="C85" s="25"/>
@@ -4849,7 +4504,7 @@
       <c r="N85" s="25"/>
       <c r="O85" s="25"/>
     </row>
-    <row r="86" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="25"/>
       <c r="B86" s="25"/>
       <c r="C86" s="25"/>
@@ -4866,7 +4521,7 @@
       <c r="N86" s="25"/>
       <c r="O86" s="25"/>
     </row>
-    <row r="87" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="25"/>
       <c r="B87" s="25"/>
       <c r="C87" s="25"/>
@@ -4883,7 +4538,7 @@
       <c r="N87" s="25"/>
       <c r="O87" s="25"/>
     </row>
-    <row r="88" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="25"/>
       <c r="B88" s="25"/>
       <c r="C88" s="25"/>
@@ -4900,7 +4555,7 @@
       <c r="N88" s="25"/>
       <c r="O88" s="25"/>
     </row>
-    <row r="89" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="25"/>
       <c r="B89" s="25"/>
       <c r="C89" s="25"/>
@@ -4917,7 +4572,7 @@
       <c r="N89" s="25"/>
       <c r="O89" s="25"/>
     </row>
-    <row r="90" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="25"/>
       <c r="B90" s="25"/>
       <c r="C90" s="25"/>
@@ -4934,7 +4589,7 @@
       <c r="N90" s="25"/>
       <c r="O90" s="25"/>
     </row>
-    <row r="91" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="25"/>
       <c r="B91" s="25"/>
       <c r="C91" s="25"/>
@@ -4951,7 +4606,7 @@
       <c r="N91" s="25"/>
       <c r="O91" s="25"/>
     </row>
-    <row r="92" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="25"/>
       <c r="B92" s="25"/>
       <c r="C92" s="25"/>
@@ -4968,7 +4623,7 @@
       <c r="N92" s="25"/>
       <c r="O92" s="25"/>
     </row>
-    <row r="93" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="25"/>
       <c r="B93" s="25"/>
       <c r="C93" s="25"/>
@@ -4985,7 +4640,7 @@
       <c r="N93" s="25"/>
       <c r="O93" s="25"/>
     </row>
-    <row r="94" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="25"/>
       <c r="B94" s="25"/>
       <c r="C94" s="25"/>
@@ -5002,7 +4657,7 @@
       <c r="N94" s="25"/>
       <c r="O94" s="25"/>
     </row>
-    <row r="95" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="25"/>
       <c r="B95" s="25"/>
       <c r="C95" s="25"/>
@@ -5019,7 +4674,7 @@
       <c r="N95" s="25"/>
       <c r="O95" s="25"/>
     </row>
-    <row r="96" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="25"/>
       <c r="B96" s="25"/>
       <c r="C96" s="25"/>
@@ -5036,7 +4691,7 @@
       <c r="N96" s="25"/>
       <c r="O96" s="25"/>
     </row>
-    <row r="97" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="25"/>
       <c r="B97" s="25"/>
       <c r="C97" s="25"/>
@@ -5053,7 +4708,7 @@
       <c r="N97" s="25"/>
       <c r="O97" s="25"/>
     </row>
-    <row r="98" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="25"/>
       <c r="B98" s="25"/>
       <c r="C98" s="25"/>
@@ -5070,7 +4725,7 @@
       <c r="N98" s="25"/>
       <c r="O98" s="25"/>
     </row>
-    <row r="99" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="25"/>
       <c r="B99" s="25"/>
       <c r="C99" s="25"/>
@@ -5087,7 +4742,7 @@
       <c r="N99" s="25"/>
       <c r="O99" s="25"/>
     </row>
-    <row r="100" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="25"/>
       <c r="B100" s="25"/>
       <c r="C100" s="25"/>
@@ -5118,16 +4773,16 @@
       <selection activeCell="N1" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.73046875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="30.73046875" collapsed="true"/>
-    <col min="4" max="13" customWidth="true" width="15.73046875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="30.73046875" collapsed="true"/>
-    <col min="15" max="24" customWidth="true" width="15.73046875" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="13" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="30.7109375" customWidth="1"/>
+    <col min="15" max="24" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -5169,7 +4824,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>43937</v>
       </c>
@@ -5213,7 +4868,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>43853</v>
       </c>
@@ -5263,7 +4918,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>43853</v>
       </c>
@@ -5313,7 +4968,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>43853</v>
       </c>
@@ -5357,7 +5012,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -5382,129 +5037,129 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="10" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="12" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="15" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="103" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="104" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="105" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="106" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="107" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="108" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="109" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="110" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="111" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="112" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="113" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="114" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="115" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="116" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="117" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="118" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="119" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="120" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="121" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="122" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="123" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="124" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="125" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="126" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="127" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="128" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="129" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5520,16 +5175,16 @@
       <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.73046875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="30.73046875" collapsed="true"/>
-    <col min="4" max="15" customWidth="true" width="15.73046875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="30.73046875" collapsed="true"/>
-    <col min="17" max="28" customWidth="true" width="15.73046875" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="15" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="30.7109375" customWidth="1"/>
+    <col min="17" max="28" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -5589,7 +5244,7 @@
       <c r="AA1" s="25"/>
       <c r="AB1" s="25"/>
     </row>
-    <row r="2" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <v>43837</v>
       </c>
@@ -5658,7 +5313,7 @@
       <c r="AA2" s="25"/>
       <c r="AB2" s="25"/>
     </row>
-    <row r="3" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>43853</v>
       </c>
@@ -5728,7 +5383,7 @@
       <c r="AA3" s="25"/>
       <c r="AB3" s="25"/>
     </row>
-    <row r="4" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>43853</v>
       </c>
@@ -5797,7 +5452,7 @@
       <c r="AA4" s="25"/>
       <c r="AB4" s="25"/>
     </row>
-    <row r="5" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>43853</v>
       </c>
@@ -5867,7 +5522,7 @@
       <c r="AA5" s="25"/>
       <c r="AB5" s="25"/>
     </row>
-    <row r="6" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>43847</v>
       </c>
@@ -5931,7 +5586,7 @@
       <c r="AA6" s="25"/>
       <c r="AB6" s="25"/>
     </row>
-    <row r="7" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>43837</v>
       </c>
@@ -5995,7 +5650,7 @@
       <c r="AA7" s="25"/>
       <c r="AB7" s="25"/>
     </row>
-    <row r="8" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -6037,7 +5692,7 @@
       <c r="AA8" s="25"/>
       <c r="AB8" s="25"/>
     </row>
-    <row r="9" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -6067,7 +5722,7 @@
       <c r="AA9" s="25"/>
       <c r="AB9" s="25"/>
     </row>
-    <row r="10" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -6097,7 +5752,7 @@
       <c r="AA10" s="25"/>
       <c r="AB10" s="25"/>
     </row>
-    <row r="11" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -6127,7 +5782,7 @@
       <c r="AA11" s="25"/>
       <c r="AB11" s="25"/>
     </row>
-    <row r="12" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -6157,7 +5812,7 @@
       <c r="AA12" s="25"/>
       <c r="AB12" s="25"/>
     </row>
-    <row r="13" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -6187,7 +5842,7 @@
       <c r="AA13" s="25"/>
       <c r="AB13" s="25"/>
     </row>
-    <row r="14" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -6217,7 +5872,7 @@
       <c r="AA14" s="25"/>
       <c r="AB14" s="25"/>
     </row>
-    <row r="15" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -6247,7 +5902,7 @@
       <c r="AA15" s="25"/>
       <c r="AB15" s="25"/>
     </row>
-    <row r="16" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -6277,7 +5932,7 @@
       <c r="AA16" s="25"/>
       <c r="AB16" s="25"/>
     </row>
-    <row r="17" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -6307,7 +5962,7 @@
       <c r="AA17" s="25"/>
       <c r="AB17" s="25"/>
     </row>
-    <row r="18" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -6337,7 +5992,7 @@
       <c r="AA18" s="25"/>
       <c r="AB18" s="25"/>
     </row>
-    <row r="19" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -6367,7 +6022,7 @@
       <c r="AA19" s="25"/>
       <c r="AB19" s="25"/>
     </row>
-    <row r="20" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -6397,7 +6052,7 @@
       <c r="AA20" s="25"/>
       <c r="AB20" s="25"/>
     </row>
-    <row r="21" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -6427,7 +6082,7 @@
       <c r="AA21" s="25"/>
       <c r="AB21" s="25"/>
     </row>
-    <row r="22" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -6457,7 +6112,7 @@
       <c r="AA22" s="25"/>
       <c r="AB22" s="25"/>
     </row>
-    <row r="23" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -6487,7 +6142,7 @@
       <c r="AA23" s="25"/>
       <c r="AB23" s="25"/>
     </row>
-    <row r="24" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -6517,7 +6172,7 @@
       <c r="AA24" s="25"/>
       <c r="AB24" s="25"/>
     </row>
-    <row r="25" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -6547,7 +6202,7 @@
       <c r="AA25" s="25"/>
       <c r="AB25" s="25"/>
     </row>
-    <row r="26" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -6577,7 +6232,7 @@
       <c r="AA26" s="25"/>
       <c r="AB26" s="25"/>
     </row>
-    <row r="27" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -6607,7 +6262,7 @@
       <c r="AA27" s="25"/>
       <c r="AB27" s="25"/>
     </row>
-    <row r="28" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -6637,7 +6292,7 @@
       <c r="AA28" s="25"/>
       <c r="AB28" s="25"/>
     </row>
-    <row r="29" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
@@ -6667,7 +6322,7 @@
       <c r="AA29" s="25"/>
       <c r="AB29" s="25"/>
     </row>
-    <row r="30" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -6697,7 +6352,7 @@
       <c r="AA30" s="25"/>
       <c r="AB30" s="25"/>
     </row>
-    <row r="31" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -6727,7 +6382,7 @@
       <c r="AA31" s="25"/>
       <c r="AB31" s="25"/>
     </row>
-    <row r="32" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -6757,7 +6412,7 @@
       <c r="AA32" s="25"/>
       <c r="AB32" s="25"/>
     </row>
-    <row r="33" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -6787,7 +6442,7 @@
       <c r="AA33" s="25"/>
       <c r="AB33" s="25"/>
     </row>
-    <row r="34" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -6817,7 +6472,7 @@
       <c r="AA34" s="25"/>
       <c r="AB34" s="25"/>
     </row>
-    <row r="35" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -6847,7 +6502,7 @@
       <c r="AA35" s="25"/>
       <c r="AB35" s="25"/>
     </row>
-    <row r="36" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -6877,7 +6532,7 @@
       <c r="AA36" s="25"/>
       <c r="AB36" s="25"/>
     </row>
-    <row r="37" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -6907,7 +6562,7 @@
       <c r="AA37" s="25"/>
       <c r="AB37" s="25"/>
     </row>
-    <row r="38" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
@@ -6937,7 +6592,7 @@
       <c r="AA38" s="25"/>
       <c r="AB38" s="25"/>
     </row>
-    <row r="39" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="19"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -6967,7 +6622,7 @@
       <c r="AA39" s="25"/>
       <c r="AB39" s="25"/>
     </row>
-    <row r="40" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19"/>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -6997,7 +6652,7 @@
       <c r="AA40" s="25"/>
       <c r="AB40" s="25"/>
     </row>
-    <row r="41" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -7027,7 +6682,7 @@
       <c r="AA41" s="25"/>
       <c r="AB41" s="25"/>
     </row>
-    <row r="42" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -7057,7 +6712,7 @@
       <c r="AA42" s="25"/>
       <c r="AB42" s="25"/>
     </row>
-    <row r="43" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19"/>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -7087,7 +6742,7 @@
       <c r="AA43" s="25"/>
       <c r="AB43" s="25"/>
     </row>
-    <row r="44" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
@@ -7117,7 +6772,7 @@
       <c r="AA44" s="25"/>
       <c r="AB44" s="25"/>
     </row>
-    <row r="45" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
@@ -7147,7 +6802,7 @@
       <c r="AA45" s="25"/>
       <c r="AB45" s="25"/>
     </row>
-    <row r="46" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
@@ -7177,7 +6832,7 @@
       <c r="AA46" s="25"/>
       <c r="AB46" s="25"/>
     </row>
-    <row r="47" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
@@ -7207,7 +6862,7 @@
       <c r="AA47" s="25"/>
       <c r="AB47" s="25"/>
     </row>
-    <row r="48" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
@@ -7237,7 +6892,7 @@
       <c r="AA48" s="25"/>
       <c r="AB48" s="25"/>
     </row>
-    <row r="49" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="19"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
@@ -7267,7 +6922,7 @@
       <c r="AA49" s="25"/>
       <c r="AB49" s="25"/>
     </row>
-    <row r="50" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
@@ -7297,7 +6952,7 @@
       <c r="AA50" s="25"/>
       <c r="AB50" s="25"/>
     </row>
-    <row r="51" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="19"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
@@ -7327,7 +6982,7 @@
       <c r="AA51" s="25"/>
       <c r="AB51" s="25"/>
     </row>
-    <row r="52" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="19"/>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
@@ -7357,7 +7012,7 @@
       <c r="AA52" s="25"/>
       <c r="AB52" s="25"/>
     </row>
-    <row r="53" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
@@ -7387,7 +7042,7 @@
       <c r="AA53" s="25"/>
       <c r="AB53" s="25"/>
     </row>
-    <row r="54" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="19"/>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
@@ -7417,7 +7072,7 @@
       <c r="AA54" s="25"/>
       <c r="AB54" s="25"/>
     </row>
-    <row r="55" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="19"/>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
@@ -7447,7 +7102,7 @@
       <c r="AA55" s="25"/>
       <c r="AB55" s="25"/>
     </row>
-    <row r="56" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="19"/>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
@@ -7477,7 +7132,7 @@
       <c r="AA56" s="25"/>
       <c r="AB56" s="25"/>
     </row>
-    <row r="57" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="19"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -7507,7 +7162,7 @@
       <c r="AA57" s="25"/>
       <c r="AB57" s="25"/>
     </row>
-    <row r="58" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="19"/>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
@@ -7537,7 +7192,7 @@
       <c r="AA58" s="25"/>
       <c r="AB58" s="25"/>
     </row>
-    <row r="59" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="19"/>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
@@ -7567,7 +7222,7 @@
       <c r="AA59" s="25"/>
       <c r="AB59" s="25"/>
     </row>
-    <row r="60" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="19"/>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
@@ -7597,7 +7252,7 @@
       <c r="AA60" s="25"/>
       <c r="AB60" s="25"/>
     </row>
-    <row r="61" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="19"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
@@ -7627,7 +7282,7 @@
       <c r="AA61" s="25"/>
       <c r="AB61" s="25"/>
     </row>
-    <row r="62" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="19"/>
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
@@ -7657,7 +7312,7 @@
       <c r="AA62" s="25"/>
       <c r="AB62" s="25"/>
     </row>
-    <row r="63" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="19"/>
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
@@ -7687,7 +7342,7 @@
       <c r="AA63" s="25"/>
       <c r="AB63" s="25"/>
     </row>
-    <row r="64" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="19"/>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
@@ -7717,7 +7372,7 @@
       <c r="AA64" s="25"/>
       <c r="AB64" s="25"/>
     </row>
-    <row r="65" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="19"/>
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
@@ -7747,7 +7402,7 @@
       <c r="AA65" s="25"/>
       <c r="AB65" s="25"/>
     </row>
-    <row r="66" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="19"/>
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
@@ -7777,7 +7432,7 @@
       <c r="AA66" s="25"/>
       <c r="AB66" s="25"/>
     </row>
-    <row r="67" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="19"/>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
@@ -7807,7 +7462,7 @@
       <c r="AA67" s="25"/>
       <c r="AB67" s="25"/>
     </row>
-    <row r="68" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="19"/>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
@@ -7837,7 +7492,7 @@
       <c r="AA68" s="25"/>
       <c r="AB68" s="25"/>
     </row>
-    <row r="69" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="19"/>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
@@ -7867,7 +7522,7 @@
       <c r="AA69" s="25"/>
       <c r="AB69" s="25"/>
     </row>
-    <row r="70" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="19"/>
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
@@ -7897,7 +7552,7 @@
       <c r="AA70" s="25"/>
       <c r="AB70" s="25"/>
     </row>
-    <row r="71" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="19"/>
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
@@ -7927,7 +7582,7 @@
       <c r="AA71" s="25"/>
       <c r="AB71" s="25"/>
     </row>
-    <row r="72" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="19"/>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
@@ -7957,7 +7612,7 @@
       <c r="AA72" s="25"/>
       <c r="AB72" s="25"/>
     </row>
-    <row r="73" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="19"/>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
@@ -7987,7 +7642,7 @@
       <c r="AA73" s="25"/>
       <c r="AB73" s="25"/>
     </row>
-    <row r="74" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="19"/>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
@@ -8017,7 +7672,7 @@
       <c r="AA74" s="25"/>
       <c r="AB74" s="25"/>
     </row>
-    <row r="75" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="19"/>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
@@ -8047,7 +7702,7 @@
       <c r="AA75" s="25"/>
       <c r="AB75" s="25"/>
     </row>
-    <row r="76" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="19"/>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
@@ -8077,7 +7732,7 @@
       <c r="AA76" s="25"/>
       <c r="AB76" s="25"/>
     </row>
-    <row r="77" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="19"/>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -8107,7 +7762,7 @@
       <c r="AA77" s="25"/>
       <c r="AB77" s="25"/>
     </row>
-    <row r="78" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="19"/>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
@@ -8137,7 +7792,7 @@
       <c r="AA78" s="25"/>
       <c r="AB78" s="25"/>
     </row>
-    <row r="79" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="19"/>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
@@ -8167,7 +7822,7 @@
       <c r="AA79" s="25"/>
       <c r="AB79" s="25"/>
     </row>
-    <row r="80" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="19"/>
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
@@ -8197,7 +7852,7 @@
       <c r="AA80" s="25"/>
       <c r="AB80" s="25"/>
     </row>
-    <row r="81" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="19"/>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
@@ -8227,7 +7882,7 @@
       <c r="AA81" s="25"/>
       <c r="AB81" s="25"/>
     </row>
-    <row r="82" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="19"/>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
@@ -8257,7 +7912,7 @@
       <c r="AA82" s="25"/>
       <c r="AB82" s="25"/>
     </row>
-    <row r="83" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="19"/>
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
@@ -8287,7 +7942,7 @@
       <c r="AA83" s="25"/>
       <c r="AB83" s="25"/>
     </row>
-    <row r="84" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="19"/>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
@@ -8317,7 +7972,7 @@
       <c r="AA84" s="25"/>
       <c r="AB84" s="25"/>
     </row>
-    <row r="85" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="19"/>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
@@ -8347,7 +8002,7 @@
       <c r="AA85" s="25"/>
       <c r="AB85" s="25"/>
     </row>
-    <row r="86" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="19"/>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
@@ -8377,7 +8032,7 @@
       <c r="AA86" s="25"/>
       <c r="AB86" s="25"/>
     </row>
-    <row r="87" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="19"/>
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
@@ -8407,7 +8062,7 @@
       <c r="AA87" s="25"/>
       <c r="AB87" s="25"/>
     </row>
-    <row r="88" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="19"/>
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
@@ -8437,7 +8092,7 @@
       <c r="AA88" s="25"/>
       <c r="AB88" s="25"/>
     </row>
-    <row r="89" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="19"/>
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
@@ -8467,7 +8122,7 @@
       <c r="AA89" s="25"/>
       <c r="AB89" s="25"/>
     </row>
-    <row r="90" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="19"/>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
@@ -8497,7 +8152,7 @@
       <c r="AA90" s="25"/>
       <c r="AB90" s="25"/>
     </row>
-    <row r="91" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="19"/>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
@@ -8527,7 +8182,7 @@
       <c r="AA91" s="25"/>
       <c r="AB91" s="25"/>
     </row>
-    <row r="92" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="19"/>
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
@@ -8557,7 +8212,7 @@
       <c r="AA92" s="25"/>
       <c r="AB92" s="25"/>
     </row>
-    <row r="93" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="19"/>
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
@@ -8587,7 +8242,7 @@
       <c r="AA93" s="25"/>
       <c r="AB93" s="25"/>
     </row>
-    <row r="94" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="19"/>
       <c r="B94" s="19"/>
       <c r="C94" s="19"/>
@@ -8617,7 +8272,7 @@
       <c r="AA94" s="25"/>
       <c r="AB94" s="25"/>
     </row>
-    <row r="95" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="19"/>
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
@@ -8647,7 +8302,7 @@
       <c r="AA95" s="25"/>
       <c r="AB95" s="25"/>
     </row>
-    <row r="96" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="19"/>
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
@@ -8677,7 +8332,7 @@
       <c r="AA96" s="25"/>
       <c r="AB96" s="25"/>
     </row>
-    <row r="97" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="19"/>
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
@@ -8707,7 +8362,7 @@
       <c r="AA97" s="25"/>
       <c r="AB97" s="25"/>
     </row>
-    <row r="98" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="19"/>
       <c r="B98" s="19"/>
       <c r="C98" s="19"/>
@@ -8737,7 +8392,7 @@
       <c r="AA98" s="25"/>
       <c r="AB98" s="25"/>
     </row>
-    <row r="99" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="19"/>
       <c r="B99" s="19"/>
       <c r="C99" s="19"/>
@@ -8767,7 +8422,7 @@
       <c r="AA99" s="25"/>
       <c r="AB99" s="25"/>
     </row>
-    <row r="100" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="19"/>
       <c r="B100" s="19"/>
       <c r="C100" s="19"/>
@@ -8797,7 +8452,7 @@
       <c r="AA100" s="25"/>
       <c r="AB100" s="25"/>
     </row>
-    <row r="101" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="19"/>
       <c r="B101" s="19"/>
       <c r="C101" s="19"/>
@@ -8827,7 +8482,7 @@
       <c r="AA101" s="25"/>
       <c r="AB101" s="25"/>
     </row>
-    <row r="102" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="19"/>
       <c r="B102" s="19"/>
       <c r="C102" s="19"/>
@@ -8857,7 +8512,7 @@
       <c r="AA102" s="25"/>
       <c r="AB102" s="25"/>
     </row>
-    <row r="103" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="19"/>
       <c r="B103" s="19"/>
       <c r="C103" s="19"/>
@@ -8887,7 +8542,7 @@
       <c r="AA103" s="25"/>
       <c r="AB103" s="25"/>
     </row>
-    <row r="104" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="19"/>
       <c r="B104" s="19"/>
       <c r="C104" s="19"/>
@@ -8917,7 +8572,7 @@
       <c r="AA104" s="25"/>
       <c r="AB104" s="25"/>
     </row>
-    <row r="105" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="19"/>
       <c r="B105" s="19"/>
       <c r="C105" s="19"/>
@@ -8962,19 +8617,19 @@
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.73046875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.73046875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="50.73046875" collapsed="true"/>
-    <col min="4" max="19" customWidth="true" width="15.73046875" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="30.73046875" collapsed="true"/>
-    <col min="21" max="26" customWidth="true" width="15.73046875" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
+    <col min="4" max="19" width="15.7109375" customWidth="1"/>
+    <col min="20" max="20" width="30.7109375" customWidth="1"/>
+    <col min="21" max="26" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="51"/>
-      <c r="B1" s="52"/>
+    <row r="1" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="47"/>
+      <c r="B1" s="48"/>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
@@ -9030,7 +8685,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>43837</v>
       </c>
@@ -9088,7 +8743,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -9128,98 +8783,98 @@
       </c>
       <c r="T3" s="6"/>
     </row>
-    <row r="4" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="7" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="10" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="12" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="15" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -9231,23 +8886,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Y184"/>
+  <dimension ref="A1:Y201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U13" sqref="U13"/>
+      <selection pane="bottomRight" activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="40.73046875" collapsed="true"/>
-    <col min="3" max="23" customWidth="true" width="15.73046875" collapsed="true"/>
-    <col min="24" max="25" customWidth="true" width="40.73046875" collapsed="true"/>
+    <col min="1" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="23" width="15.7109375" customWidth="1"/>
+    <col min="24" max="25" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34"/>
       <c r="B1" s="35" t="s">
         <v>1</v>
@@ -9322,27 +8977,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="50">
         <v>44038</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="49">
+      <c r="F2" s="51">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
-      <c r="G2" s="49">
+      <c r="G2" s="51">
         <v>1</v>
       </c>
       <c r="H2" s="43">
@@ -9411,11 +9066,11 @@
       <c r="X2" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="Y2" s="50" t="s">
+      <c r="Y2" s="52" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>117</v>
       </c>
@@ -9498,31 +9153,31 @@
       <c r="X3" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="Y3" s="50" t="s">
+      <c r="Y3" s="52" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="50">
         <v>43837</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="49">
+      <c r="F4" s="51">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="51">
         <v>1</v>
       </c>
       <c r="H4" s="43">
@@ -9591,11 +9246,11 @@
       <c r="X4" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="Y4" s="50" t="s">
+      <c r="Y4" s="52" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="28.5" customHeight="true" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45"/>
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
@@ -9622,185 +9277,202 @@
       <c r="X5" s="45"/>
       <c r="Y5" s="45"/>
     </row>
-    <row r="6" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="7" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="10" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="12" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="14" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="15" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="16" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="18" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="20" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="27" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="30" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="31" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="32" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="36" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="37" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="38" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="39" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="40" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="44" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="45" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="46" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="47" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="48" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="49" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="50" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="51" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="52" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="53" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="54" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="55" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="56" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="57" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="58" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="60" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="61" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="62" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="63" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="64" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="65" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="66" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="67" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="68" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="69" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="70" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="71" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="72" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="73" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="74" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="75" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="76" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="77" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="78" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="79" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="80" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="81" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="83" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="84" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="85" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="86" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="87" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="90" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="91" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="92" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="93" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="94" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="95" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="96" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="97" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="98" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="99" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="100" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="101" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="102" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="103" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="104" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="106" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="107" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="108" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="109" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="110" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="111" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="112" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="113" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="114" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="115" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="116" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="117" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="118" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="119" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="120" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="121" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="122" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="123" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="136" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="137" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="138" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="139" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="140" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="141" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="142" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="143" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="144" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="145" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="146" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="147" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="148" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="149" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="150" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="151" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="152" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="153" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="154" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="155" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="156" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="157" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="158" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="159" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="160" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="161" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="162" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="163" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="164" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="165" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="166" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="167" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="168" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="169" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="170" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="171" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="172" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="173" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="174" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="175" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="176" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="177" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="178" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="179" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="180" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="181" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="182" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="183" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="184" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -9814,7 +9486,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9826,7 +9498,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JavaApplication19/src/excel/Ventas.xlsx
+++ b/JavaApplication19/src/excel/Ventas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Google Drive\EPIC MOUNTAIN\ADMINISTRACIÒN\"/>
     </mc:Choice>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="129">
   <si>
     <t>PRUDUCTO</t>
   </si>
@@ -405,6 +405,27 @@
   </si>
   <si>
     <t>MEXPOST</t>
+  </si>
+  <si>
+    <t>SHIFTERS SHIMANO ALIVIO 3x9</t>
+  </si>
+  <si>
+    <t>SHIFTERS DE GATILLO - 3x9 - COMO NUEVOS - UN PAR - SEMINUEVOS</t>
+  </si>
+  <si>
+    <t>30  julio</t>
+  </si>
+  <si>
+    <t>1.2405405405405405</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>403.05010893246185</t>
+  </si>
+  <si>
+    <t>500.0</t>
   </si>
 </sst>
 </file>
@@ -414,7 +435,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,8 +505,68 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -563,8 +644,18 @@
         <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -613,12 +704,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -769,6 +878,36 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1559,12 +1698,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="15" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="2" max="3" customWidth="true" width="30.7109375" collapsed="false"/>
+    <col min="4" max="11" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="10.7109375" collapsed="false"/>
+    <col min="13" max="14" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="30.7109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1629,24 +1768,24 @@
       <c r="F2" s="8">
         <v>250</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="8" t="n">
         <f t="shared" ref="G2:G12" si="0">F2*D2</f>
-        <v>250</v>
+        <v>250.0</v>
       </c>
       <c r="H2" s="8">
         <v>100</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="8" t="n">
         <f t="shared" ref="I2:I12" si="1">H2*D2</f>
-        <v>100</v>
-      </c>
-      <c r="J2" s="8">
+        <v>100.0</v>
+      </c>
+      <c r="J2" s="8" t="n">
         <f t="shared" ref="J2:J12" si="2">F2-H2</f>
-        <v>150</v>
-      </c>
-      <c r="K2" s="8">
+        <v>150.0</v>
+      </c>
+      <c r="K2" s="8" t="n">
         <f t="shared" ref="K2:K7" si="3">J2*D2</f>
-        <v>150</v>
+        <v>150.0</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
@@ -1674,31 +1813,31 @@
       <c r="F3" s="8">
         <v>400</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="8" t="n">
         <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="H3" s="8">
+        <v>400.0</v>
+      </c>
+      <c r="H3" s="8" t="n">
         <f t="shared" ref="H3:H5" si="4">F3/N3</f>
-        <v>205.47945205479451</v>
-      </c>
-      <c r="I3" s="8">
+        <v>205.4794520547945</v>
+      </c>
+      <c r="I3" s="8" t="n">
         <f t="shared" si="1"/>
-        <v>205.47945205479451</v>
-      </c>
-      <c r="J3" s="8">
+        <v>205.4794520547945</v>
+      </c>
+      <c r="J3" s="8" t="n">
         <f t="shared" si="2"/>
-        <v>194.52054794520549</v>
-      </c>
-      <c r="K3" s="8">
+        <v>194.5205479452055</v>
+      </c>
+      <c r="K3" s="8" t="n">
         <f t="shared" si="3"/>
-        <v>194.52054794520549</v>
+        <v>194.5205479452055</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="7" t="n">
         <f t="shared" ref="N3:N5" si="5">14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
@@ -1725,31 +1864,31 @@
       <c r="F4" s="8">
         <v>3500</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="8" t="n">
         <f t="shared" si="0"/>
-        <v>3500</v>
-      </c>
-      <c r="H4" s="8">
+        <v>3500.0</v>
+      </c>
+      <c r="H4" s="8" t="n">
         <f t="shared" si="4"/>
-        <v>1797.9452054794519</v>
-      </c>
-      <c r="I4" s="8">
+        <v>1797.945205479452</v>
+      </c>
+      <c r="I4" s="8" t="n">
         <f t="shared" si="1"/>
-        <v>1797.9452054794519</v>
-      </c>
-      <c r="J4" s="8">
+        <v>1797.945205479452</v>
+      </c>
+      <c r="J4" s="8" t="n">
         <f t="shared" si="2"/>
-        <v>1702.0547945205481</v>
-      </c>
-      <c r="K4" s="8">
+        <v>1702.054794520548</v>
+      </c>
+      <c r="K4" s="8" t="n">
         <f t="shared" si="3"/>
-        <v>1702.0547945205481</v>
+        <v>1702.054794520548</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="7" t="n">
         <f t="shared" si="5"/>
         <v>1.9466666666666668</v>
       </c>
@@ -1776,23 +1915,23 @@
       <c r="F5" s="8">
         <v>950</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="8" t="n">
         <f t="shared" si="0"/>
-        <v>950</v>
-      </c>
-      <c r="H5" s="8">
+        <v>950.0</v>
+      </c>
+      <c r="H5" s="8" t="n">
         <f t="shared" si="4"/>
         <v>488.01369863013696</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="8" t="n">
         <f t="shared" si="1"/>
         <v>488.01369863013696</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="8" t="n">
         <f t="shared" si="2"/>
         <v>461.98630136986304</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="8" t="n">
         <f t="shared" si="3"/>
         <v>461.98630136986304</v>
       </c>
@@ -1800,7 +1939,7 @@
       <c r="M5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="7" t="n">
         <f t="shared" si="5"/>
         <v>1.9466666666666668</v>
       </c>
@@ -1827,24 +1966,24 @@
       <c r="F6" s="8">
         <v>263.60000000000002</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="8" t="n">
         <f t="shared" si="0"/>
-        <v>263.60000000000002</v>
+        <v>263.6</v>
       </c>
       <c r="H6" s="8">
         <v>0</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="8" t="n">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="8" t="n">
         <f t="shared" si="2"/>
-        <v>263.60000000000002</v>
-      </c>
-      <c r="K6" s="8">
+        <v>263.6</v>
+      </c>
+      <c r="K6" s="8" t="n">
         <f t="shared" si="3"/>
-        <v>263.60000000000002</v>
+        <v>263.6</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
@@ -1872,24 +2011,24 @@
       <c r="F7" s="8">
         <v>60</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="8" t="n">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>180.0</v>
       </c>
       <c r="H7" s="8">
         <v>27</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="8" t="n">
         <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="J7" s="8">
+        <v>81.0</v>
+      </c>
+      <c r="J7" s="8" t="n">
         <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="K7" s="8">
+        <v>33.0</v>
+      </c>
+      <c r="K7" s="8" t="n">
         <f t="shared" si="3"/>
-        <v>99</v>
+        <v>99.0</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
@@ -1917,23 +2056,23 @@
       <c r="F8" s="12">
         <v>500</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="12" t="n">
         <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="H8" s="12">
+        <v>500.0</v>
+      </c>
+      <c r="H8" s="12" t="n">
         <f t="shared" ref="H8" si="6">F8/N8</f>
-        <v>256.84931506849313</v>
-      </c>
-      <c r="I8" s="12">
+        <v>256.8493150684931</v>
+      </c>
+      <c r="I8" s="12" t="n">
         <f t="shared" si="1"/>
-        <v>256.84931506849313</v>
-      </c>
-      <c r="J8" s="12">
+        <v>256.8493150684931</v>
+      </c>
+      <c r="J8" s="12" t="n">
         <f t="shared" si="2"/>
         <v>243.15068493150687</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="8" t="n">
         <f>J8*D8</f>
         <v>243.15068493150687</v>
       </c>
@@ -1941,7 +2080,7 @@
       <c r="M8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="11" t="n">
         <f t="shared" ref="N8" si="7">14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
@@ -1968,24 +2107,24 @@
       <c r="F9" s="12">
         <v>60</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="12" t="n">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>60.0</v>
       </c>
       <c r="H9" s="12">
         <v>27</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="12" t="n">
         <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="J9" s="12">
+        <v>27.0</v>
+      </c>
+      <c r="J9" s="12" t="n">
         <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="K9" s="8">
+        <v>33.0</v>
+      </c>
+      <c r="K9" s="8" t="n">
         <f t="shared" ref="K9:K12" si="8">J9*D9</f>
-        <v>33</v>
+        <v>33.0</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
@@ -2013,24 +2152,24 @@
       <c r="F10" s="12">
         <v>250</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="12" t="n">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>250.0</v>
       </c>
       <c r="H10" s="12">
         <v>0</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="12" t="n">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="J10" s="12" t="n">
         <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-      <c r="K10" s="8">
+        <v>250.0</v>
+      </c>
+      <c r="K10" s="8" t="n">
         <f t="shared" si="8"/>
-        <v>250</v>
+        <v>250.0</v>
       </c>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
@@ -2058,24 +2197,24 @@
       <c r="F11" s="16">
         <v>150</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="12" t="n">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>150.0</v>
       </c>
       <c r="H11" s="16">
         <v>130</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="12" t="n">
         <f t="shared" si="1"/>
-        <v>130</v>
-      </c>
-      <c r="J11" s="12">
+        <v>130.0</v>
+      </c>
+      <c r="J11" s="12" t="n">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="K11" s="8">
+        <v>20.0</v>
+      </c>
+      <c r="K11" s="8" t="n">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
@@ -2103,24 +2242,24 @@
       <c r="F12" s="16">
         <v>350</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="12" t="n">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>350.0</v>
       </c>
       <c r="H12" s="16">
         <v>60</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="12" t="n">
         <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="J12" s="12">
+        <v>60.0</v>
+      </c>
+      <c r="J12" s="12" t="n">
         <f t="shared" si="2"/>
-        <v>290</v>
-      </c>
-      <c r="K12" s="8">
+        <v>290.0</v>
+      </c>
+      <c r="K12" s="8" t="n">
         <f t="shared" si="8"/>
-        <v>290</v>
+        <v>290.0</v>
       </c>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
@@ -2136,17 +2275,17 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="5">
+      <c r="G13" s="5" t="n">
         <f>SUM(G2:G12)</f>
         <v>6853.6</v>
       </c>
       <c r="H13" s="5"/>
-      <c r="I13" s="5">
+      <c r="I13" s="5" t="n">
         <f>SUM(I2:I12)</f>
-        <v>3146.2876712328762</v>
+        <v>3146.287671232876</v>
       </c>
       <c r="J13" s="5"/>
-      <c r="K13" s="5">
+      <c r="K13" s="5" t="n">
         <f>SUM(K2:K12)</f>
         <v>3707.3123287671237</v>
       </c>
@@ -2403,12 +2542,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="15" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="2" max="3" customWidth="true" width="30.7109375" collapsed="false"/>
+    <col min="4" max="11" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="10.7109375" collapsed="false"/>
+    <col min="13" max="14" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="30.7109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -2473,24 +2612,24 @@
       <c r="F2" s="8">
         <v>300</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="8" t="n">
         <f t="shared" ref="G2:G7" si="0">F2*D2</f>
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="H2" s="8">
         <v>0</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="8" t="n">
         <f t="shared" ref="I2:I6" si="1">H2*D2</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J2" s="8" t="n">
         <f t="shared" ref="J2:J7" si="2">F2-H2</f>
-        <v>300</v>
-      </c>
-      <c r="K2" s="8">
+        <v>300.0</v>
+      </c>
+      <c r="K2" s="8" t="n">
         <f t="shared" ref="K2:K7" si="3">J2*D2</f>
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
@@ -2518,24 +2657,24 @@
       <c r="F3" s="8">
         <v>200</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="8" t="n">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>200.0</v>
       </c>
       <c r="H3" s="8">
         <v>0</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="8" t="n">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J3" s="8" t="n">
         <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="K3" s="8">
+        <v>200.0</v>
+      </c>
+      <c r="K3" s="8" t="n">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>200.0</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -2563,31 +2702,31 @@
       <c r="F4" s="8">
         <v>2200</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="8" t="n">
         <f t="shared" si="0"/>
-        <v>2200</v>
-      </c>
-      <c r="H4" s="8">
+        <v>2200.0</v>
+      </c>
+      <c r="H4" s="8" t="n">
         <f>F4/N4</f>
         <v>1773.4204793028323</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="8" t="n">
         <f t="shared" si="1"/>
         <v>1773.4204793028323</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="8" t="n">
         <f t="shared" si="2"/>
-        <v>426.57952069716771</v>
-      </c>
-      <c r="K4" s="8">
+        <v>426.5795206971677</v>
+      </c>
+      <c r="K4" s="8" t="n">
         <f t="shared" si="3"/>
-        <v>426.57952069716771</v>
+        <v>426.5795206971677</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="11" t="n">
         <f t="shared" ref="N4" si="4">22950/18500</f>
         <v>1.2405405405405405</v>
       </c>
@@ -2614,24 +2753,24 @@
       <c r="F5" s="21">
         <v>300</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="21" t="n">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="H5" s="21">
         <v>150</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="21" t="n">
         <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="J5" s="21">
+        <v>150.0</v>
+      </c>
+      <c r="J5" s="21" t="n">
         <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-      <c r="K5" s="22">
+        <v>150.0</v>
+      </c>
+      <c r="K5" s="22" t="n">
         <f t="shared" si="3"/>
-        <v>150</v>
+        <v>150.0</v>
       </c>
       <c r="L5" s="20"/>
       <c r="M5" s="20"/>
@@ -2659,23 +2798,23 @@
       <c r="F6" s="21">
         <v>2700</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="21" t="n">
         <f t="shared" si="0"/>
-        <v>2700</v>
-      </c>
-      <c r="H6" s="21">
+        <v>2700.0</v>
+      </c>
+      <c r="H6" s="21" t="n">
         <f t="shared" ref="H6:H7" si="5">F6/N6</f>
         <v>1386.986301369863</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="21" t="n">
         <f t="shared" si="1"/>
         <v>1386.986301369863</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="21" t="n">
         <f t="shared" si="2"/>
         <v>1313.013698630137</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="22" t="n">
         <f t="shared" si="3"/>
         <v>1313.013698630137</v>
       </c>
@@ -2683,7 +2822,7 @@
       <c r="M6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6" s="20" t="n">
         <f t="shared" ref="N6" si="6">14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
@@ -2710,23 +2849,23 @@
       <c r="F7" s="12">
         <v>7500</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="21" t="n">
         <f t="shared" si="0"/>
-        <v>7500</v>
-      </c>
-      <c r="H7" s="12">
+        <v>7500.0</v>
+      </c>
+      <c r="H7" s="12" t="n">
         <f t="shared" si="5"/>
         <v>6045.751633986928</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="21" t="n">
         <f>H7*D7</f>
         <v>6045.751633986928</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="21" t="n">
         <f t="shared" si="2"/>
         <v>1454.248366013072</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="22" t="n">
         <f t="shared" si="3"/>
         <v>1454.248366013072</v>
       </c>
@@ -2734,7 +2873,7 @@
       <c r="M7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="11" t="n">
         <f t="shared" ref="N7" si="7">22950/18500</f>
         <v>1.2405405405405405</v>
       </c>
@@ -2749,17 +2888,17 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="5">
+      <c r="G8" s="5" t="n">
         <f>SUM(G2:G6)</f>
-        <v>5700</v>
+        <v>5700.0</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="5">
+      <c r="I8" s="5" t="n">
         <f>SUM(I2:I6)</f>
         <v>3310.4067806726953</v>
       </c>
       <c r="J8" s="5"/>
-      <c r="K8" s="5">
+      <c r="K8" s="5" t="n">
         <f>SUM(K2:K6)</f>
         <v>2389.5932193273047</v>
       </c>
@@ -2982,12 +3121,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="15" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="2" max="3" customWidth="true" width="30.7109375" collapsed="false"/>
+    <col min="4" max="11" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="10.7109375" collapsed="false"/>
+    <col min="13" max="14" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="30.7109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3052,23 +3191,23 @@
       <c r="F2" s="8">
         <v>7500</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="22" t="n">
         <f t="shared" ref="G2" si="0">F2*D2</f>
-        <v>7500</v>
-      </c>
-      <c r="H2" s="8">
+        <v>7500.0</v>
+      </c>
+      <c r="H2" s="8" t="n">
         <f t="shared" ref="H2" si="1">F2/N2</f>
         <v>6045.751633986928</v>
       </c>
-      <c r="I2" s="22">
+      <c r="I2" s="22" t="n">
         <f>H2*D2</f>
         <v>6045.751633986928</v>
       </c>
-      <c r="J2" s="22">
+      <c r="J2" s="22" t="n">
         <f t="shared" ref="J2" si="2">F2-H2</f>
         <v>1454.248366013072</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="22" t="n">
         <f t="shared" ref="K2" si="3">J2*D2</f>
         <v>1454.248366013072</v>
       </c>
@@ -3076,7 +3215,7 @@
       <c r="M2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="7" t="n">
         <f t="shared" ref="N2" si="4">22950/18500</f>
         <v>1.2405405405405405</v>
       </c>
@@ -3091,17 +3230,17 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="5">
+      <c r="G3" s="5" t="n">
         <f>SUM(G2)</f>
-        <v>7500</v>
+        <v>7500.0</v>
       </c>
       <c r="H3" s="6"/>
-      <c r="I3" s="5">
+      <c r="I3" s="5" t="n">
         <f>SUM(I2)</f>
         <v>6045.751633986928</v>
       </c>
       <c r="J3" s="6"/>
-      <c r="K3" s="5">
+      <c r="K3" s="5" t="n">
         <f>SUM(K2)</f>
         <v>1454.248366013072</v>
       </c>
@@ -4775,11 +4914,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="13" width="15.7109375" customWidth="1"/>
-    <col min="14" max="14" width="30.7109375" customWidth="1"/>
-    <col min="15" max="24" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="2" max="3" customWidth="true" width="30.7109375" collapsed="false"/>
+    <col min="4" max="13" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="30.7109375" collapsed="false"/>
+    <col min="15" max="24" customWidth="true" width="15.7109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -4843,24 +4982,24 @@
       <c r="F2" s="8">
         <v>60</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="22" t="n">
         <f t="shared" ref="G2:G5" si="0">F2*D2</f>
-        <v>60</v>
+        <v>60.0</v>
       </c>
       <c r="H2" s="8">
         <v>0</v>
       </c>
-      <c r="I2" s="22">
+      <c r="I2" s="22" t="n">
         <f>H2*D2</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="J2" s="22" t="n">
         <f t="shared" ref="J2:J5" si="1">F2-H2</f>
-        <v>60</v>
-      </c>
-      <c r="K2" s="22">
+        <v>60.0</v>
+      </c>
+      <c r="K2" s="22" t="n">
         <f t="shared" ref="K2:K5" si="2">J2*D2</f>
-        <v>60</v>
+        <v>60.0</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
@@ -4887,30 +5026,30 @@
       <c r="F3" s="12">
         <v>950</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="21" t="n">
         <f t="shared" si="0"/>
-        <v>950</v>
-      </c>
-      <c r="H3" s="12">
+        <v>950.0</v>
+      </c>
+      <c r="H3" s="12" t="n">
         <f>F3/M3</f>
-        <v>765.79520697167754</v>
-      </c>
-      <c r="I3" s="21">
+        <v>765.7952069716775</v>
+      </c>
+      <c r="I3" s="21" t="n">
         <f t="shared" ref="I3:I5" si="3">H3*D3</f>
-        <v>765.79520697167754</v>
-      </c>
-      <c r="J3" s="21">
+        <v>765.7952069716775</v>
+      </c>
+      <c r="J3" s="21" t="n">
         <f t="shared" si="1"/>
         <v>184.20479302832246</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="22" t="n">
         <f t="shared" si="2"/>
         <v>184.20479302832246</v>
       </c>
       <c r="L3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="11" t="n">
         <f t="shared" ref="M3" si="4">22950/18500</f>
         <v>1.2405405405405405</v>
       </c>
@@ -4937,30 +5076,30 @@
       <c r="F4" s="12">
         <v>600</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="21" t="n">
         <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-      <c r="H4" s="12">
+        <v>600.0</v>
+      </c>
+      <c r="H4" s="12" t="n">
         <f>F4/M4</f>
         <v>483.66013071895424</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="21" t="n">
         <f t="shared" si="3"/>
         <v>483.66013071895424</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="21" t="n">
         <f t="shared" si="1"/>
         <v>116.33986928104576</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="22" t="n">
         <f t="shared" si="2"/>
         <v>116.33986928104576</v>
       </c>
       <c r="L4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="11" t="n">
         <f>22950/18500</f>
         <v>1.2405405405405405</v>
       </c>
@@ -4987,24 +5126,24 @@
       <c r="F5" s="12">
         <v>950</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="21" t="n">
         <f t="shared" si="0"/>
-        <v>950</v>
+        <v>950.0</v>
       </c>
       <c r="H5" s="12">
         <v>950</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="21" t="n">
         <f t="shared" si="3"/>
-        <v>950</v>
-      </c>
-      <c r="J5" s="21">
+        <v>950.0</v>
+      </c>
+      <c r="J5" s="21" t="n">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="K5" s="22" t="n">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
@@ -5019,19 +5158,19 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="5">
+      <c r="G6" s="5" t="n">
         <f>SUM(G2:G5)</f>
-        <v>2560</v>
+        <v>2560.0</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="5">
+      <c r="I6" s="5" t="n">
         <f>SUM(I2:I5)</f>
         <v>2199.4553376906315</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="5">
+      <c r="K6" s="5" t="n">
         <f>SUM(K2:K5)</f>
-        <v>360.54466230936822</v>
+        <v>360.5446623093682</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
@@ -5177,11 +5316,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="15" width="15.7109375" customWidth="1"/>
-    <col min="16" max="16" width="30.7109375" customWidth="1"/>
-    <col min="17" max="28" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="2" max="3" customWidth="true" width="30.7109375" collapsed="false"/>
+    <col min="4" max="15" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="30.7109375" collapsed="false"/>
+    <col min="17" max="28" customWidth="true" width="15.7109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -5263,37 +5402,37 @@
       <c r="F2" s="28">
         <v>800</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="28" t="n">
         <f t="shared" ref="G2:G7" si="0">F2*D2</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
       <c r="H2" s="28">
         <v>488.01</v>
       </c>
-      <c r="I2" s="28">
+      <c r="I2" s="28" t="n">
         <f t="shared" ref="I2:I7" si="1">H2*D2</f>
         <v>488.01</v>
       </c>
-      <c r="J2" s="28">
+      <c r="J2" s="28" t="n">
         <f>F2*0.065</f>
-        <v>52</v>
-      </c>
-      <c r="K2" s="28">
+        <v>52.0</v>
+      </c>
+      <c r="K2" s="28" t="n">
         <f>J2*D2</f>
-        <v>52</v>
-      </c>
-      <c r="L2" s="28">
+        <v>52.0</v>
+      </c>
+      <c r="L2" s="28" t="n">
         <f>F2-H2-J2</f>
         <v>259.99</v>
       </c>
-      <c r="M2" s="28">
+      <c r="M2" s="28" t="n">
         <f t="shared" ref="M2:M7" si="2">L2*D2</f>
         <v>259.99</v>
       </c>
       <c r="N2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="27">
+      <c r="O2" s="27" t="n">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
@@ -5332,38 +5471,38 @@
       <c r="F3" s="12">
         <v>700</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="21" t="n">
         <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="H3" s="12">
+        <v>700.0</v>
+      </c>
+      <c r="H3" s="12" t="n">
         <f>F3/O3</f>
-        <v>564.27015250544662</v>
-      </c>
-      <c r="I3" s="21">
+        <v>564.2701525054466</v>
+      </c>
+      <c r="I3" s="21" t="n">
         <f t="shared" si="1"/>
-        <v>564.27015250544662</v>
-      </c>
-      <c r="J3" s="21">
+        <v>564.2701525054466</v>
+      </c>
+      <c r="J3" s="21" t="n">
         <f t="shared" ref="J3:J7" si="3">F3*0.065</f>
         <v>45.5</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3" s="21" t="n">
         <f t="shared" ref="K3:K7" si="4">J3*D3</f>
         <v>45.5</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="21" t="n">
         <f t="shared" ref="L3:L7" si="5">F3-H3-J3</f>
-        <v>90.229847494553383</v>
-      </c>
-      <c r="M3" s="22">
+        <v>90.22984749455338</v>
+      </c>
+      <c r="M3" s="22" t="n">
         <f t="shared" si="2"/>
-        <v>90.229847494553383</v>
+        <v>90.22984749455338</v>
       </c>
       <c r="N3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="11" t="n">
         <f>22950/18500</f>
         <v>1.2405405405405405</v>
       </c>
@@ -5402,37 +5541,37 @@
       <c r="F4" s="12">
         <v>600</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="21" t="n">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>600.0</v>
       </c>
       <c r="H4" s="12">
         <v>403.05</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="21" t="n">
         <f t="shared" si="1"/>
         <v>403.05</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="21" t="n">
         <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-      <c r="K4" s="21">
+        <v>39.0</v>
+      </c>
+      <c r="K4" s="21" t="n">
         <f t="shared" si="4"/>
-        <v>39</v>
-      </c>
-      <c r="L4" s="21">
+        <v>39.0</v>
+      </c>
+      <c r="L4" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>157.94999999999999</v>
-      </c>
-      <c r="M4" s="22">
+        <v>157.95</v>
+      </c>
+      <c r="M4" s="22" t="n">
         <f t="shared" si="2"/>
-        <v>157.94999999999999</v>
+        <v>157.95</v>
       </c>
       <c r="N4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="11" t="n">
         <f>22950/18500</f>
         <v>1.2405405405405405</v>
       </c>
@@ -5471,38 +5610,38 @@
       <c r="F5" s="31">
         <v>4000</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="H5" s="31">
+        <v>4000.0</v>
+      </c>
+      <c r="H5" s="31" t="n">
         <f>F5/O5</f>
-        <v>3224.4008714596948</v>
-      </c>
-      <c r="I5" s="31">
+        <v>3224.400871459695</v>
+      </c>
+      <c r="I5" s="31" t="n">
         <f t="shared" si="1"/>
-        <v>3224.4008714596948</v>
-      </c>
-      <c r="J5" s="31">
+        <v>3224.400871459695</v>
+      </c>
+      <c r="J5" s="31" t="n">
         <f t="shared" si="3"/>
-        <v>260</v>
-      </c>
-      <c r="K5" s="31">
+        <v>260.0</v>
+      </c>
+      <c r="K5" s="31" t="n">
         <f t="shared" si="4"/>
-        <v>260</v>
-      </c>
-      <c r="L5" s="31">
+        <v>260.0</v>
+      </c>
+      <c r="L5" s="31" t="n">
         <f t="shared" si="5"/>
-        <v>515.59912854030517</v>
-      </c>
-      <c r="M5" s="28">
+        <v>515.5991285403052</v>
+      </c>
+      <c r="M5" s="28" t="n">
         <f t="shared" si="2"/>
-        <v>515.59912854030517</v>
+        <v>515.5991285403052</v>
       </c>
       <c r="N5" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="30">
+      <c r="O5" s="30" t="n">
         <f>22950/18500</f>
         <v>1.2405405405405405</v>
       </c>
@@ -5541,30 +5680,30 @@
       <c r="F6" s="12">
         <v>40</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="12" t="n">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>40.0</v>
       </c>
       <c r="H6" s="12">
         <v>14.96</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="12" t="n">
         <f t="shared" si="1"/>
         <v>14.96</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="21" t="n">
         <f t="shared" si="3"/>
         <v>2.6</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="21" t="n">
         <f t="shared" si="4"/>
         <v>2.6</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="21" t="n">
         <f t="shared" si="5"/>
         <v>22.439999999999998</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="22" t="n">
         <f t="shared" si="2"/>
         <v>22.439999999999998</v>
       </c>
@@ -5605,30 +5744,30 @@
       <c r="F7" s="12">
         <v>60</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="12" t="n">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>60.0</v>
       </c>
       <c r="H7" s="12">
         <v>27</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="12" t="n">
         <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="J7" s="12">
+        <v>27.0</v>
+      </c>
+      <c r="J7" s="12" t="n">
         <f t="shared" si="3"/>
         <v>3.9000000000000004</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="12" t="n">
         <f t="shared" si="4"/>
         <v>3.9000000000000004</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="12" t="n">
         <f t="shared" si="5"/>
         <v>29.1</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="8" t="n">
         <f t="shared" si="2"/>
         <v>29.1</v>
       </c>
@@ -5657,22 +5796,22 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="5">
+      <c r="G8" s="5" t="n">
         <f>SUM(G2:G5)</f>
-        <v>6100</v>
+        <v>6100.0</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="5">
+      <c r="I8" s="5" t="n">
         <f>SUM(I2:I5)</f>
         <v>4679.7310239651415</v>
       </c>
       <c r="J8" s="6"/>
-      <c r="K8" s="5">
+      <c r="K8" s="5" t="n">
         <f>SUM(K2:K5)</f>
         <v>396.5</v>
       </c>
       <c r="L8" s="6"/>
-      <c r="M8" s="5">
+      <c r="M8" s="5" t="n">
         <f>SUM(M2:M5)</f>
         <v>1023.7689760348585</v>
       </c>
@@ -8619,12 +8758,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" customWidth="1"/>
-    <col min="4" max="19" width="15.7109375" customWidth="1"/>
-    <col min="20" max="20" width="30.7109375" customWidth="1"/>
-    <col min="21" max="26" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="50.7109375" collapsed="false"/>
+    <col min="4" max="19" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="20" max="20" customWidth="true" width="30.7109375" collapsed="false"/>
+    <col min="21" max="26" customWidth="true" width="15.7109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8706,38 +8845,38 @@
       <c r="H2" s="22">
         <v>200</v>
       </c>
-      <c r="I2" s="22">
+      <c r="I2" s="22" t="n">
         <f>H2*G2</f>
-        <v>200</v>
+        <v>200.0</v>
       </c>
       <c r="J2" s="22">
         <v>200</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="22" t="n">
         <f>J2*G2</f>
-        <v>200</v>
+        <v>200.0</v>
       </c>
       <c r="L2" s="22">
         <v>200</v>
       </c>
-      <c r="M2" s="22">
+      <c r="M2" s="22" t="n">
         <f>L2*G2</f>
-        <v>200</v>
+        <v>200.0</v>
       </c>
       <c r="N2" s="22"/>
-      <c r="O2" s="22">
+      <c r="O2" s="22" t="n">
         <f>N2*G2</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P2" s="22"/>
-      <c r="Q2" s="22">
+      <c r="Q2" s="22" t="n">
         <f>P2*G2</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="R2" s="22"/>
-      <c r="S2" s="22">
+      <c r="S2" s="22" t="n">
         <f>R2*G2</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="T2" s="19" t="s">
         <v>86</v>
@@ -8752,34 +8891,34 @@
       <c r="F3" s="6"/>
       <c r="G3" s="33"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="5">
+      <c r="I3" s="5" t="n">
         <f>SUM(I2)</f>
-        <v>200</v>
+        <v>200.0</v>
       </c>
       <c r="J3" s="5"/>
-      <c r="K3" s="5">
+      <c r="K3" s="5" t="n">
         <f>SUM(K2)</f>
-        <v>200</v>
+        <v>200.0</v>
       </c>
       <c r="L3" s="5"/>
-      <c r="M3" s="5">
+      <c r="M3" s="5" t="n">
         <f>SUM(M2)</f>
-        <v>200</v>
+        <v>200.0</v>
       </c>
       <c r="N3" s="5"/>
-      <c r="O3" s="5">
+      <c r="O3" s="5" t="n">
         <f>SUM(O2)</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P3" s="5"/>
-      <c r="Q3" s="5">
+      <c r="Q3" s="5" t="n">
         <f>SUM(Q2)</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="R3" s="5"/>
-      <c r="S3" s="5">
+      <c r="S3" s="5" t="n">
         <f>SUM(S2)</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="T3" s="6"/>
     </row>
@@ -8897,9 +9036,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="23" width="15.7109375" customWidth="1"/>
-    <col min="24" max="25" width="40.7109375" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="40.7109375" collapsed="false"/>
+    <col min="3" max="23" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="24" max="25" customWidth="true" width="40.7109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -8977,7 +9116,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>113</v>
       </c>
@@ -8993,73 +9132,73 @@
       <c r="E2" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="51">
+      <c r="F2" s="51" t="n">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
       <c r="G2" s="51">
         <v>1</v>
       </c>
-      <c r="H2" s="43">
+      <c r="H2" s="43" t="n">
         <f>J2/F2</f>
-        <v>205.47945205479451</v>
-      </c>
-      <c r="I2" s="43">
+        <v>205.4794520547945</v>
+      </c>
+      <c r="I2" s="43" t="n">
         <f t="shared" ref="I2:I4" si="0">H2*G2</f>
-        <v>205.47945205479451</v>
+        <v>205.4794520547945</v>
       </c>
       <c r="J2" s="43">
         <v>400</v>
       </c>
-      <c r="K2" s="43">
+      <c r="K2" s="43" t="n">
         <f t="shared" ref="K2:K4" si="1">J2*G2</f>
-        <v>400</v>
-      </c>
-      <c r="L2" s="43">
+        <v>400.0</v>
+      </c>
+      <c r="L2" s="43" t="n">
         <f t="shared" ref="L2:L4" si="2">J2+R2</f>
-        <v>464</v>
-      </c>
-      <c r="M2" s="43">
+        <v>464.0</v>
+      </c>
+      <c r="M2" s="43" t="n">
         <f t="shared" ref="M2:M4" si="3">L2*G2</f>
-        <v>464</v>
-      </c>
-      <c r="N2" s="43">
+        <v>464.0</v>
+      </c>
+      <c r="N2" s="43" t="n">
         <f t="shared" ref="N2:N4" si="4">J2+R2+P2+35</f>
         <v>573.6</v>
       </c>
-      <c r="O2" s="43">
+      <c r="O2" s="43" t="n">
         <f t="shared" ref="O2:O4" si="5">N2*G2</f>
         <v>573.6</v>
       </c>
-      <c r="P2" s="43">
+      <c r="P2" s="43" t="n">
         <f t="shared" ref="P2:P4" si="6">(L2*0.15)+5</f>
-        <v>74.599999999999994</v>
-      </c>
-      <c r="Q2" s="43">
+        <v>74.6</v>
+      </c>
+      <c r="Q2" s="43" t="n">
         <f t="shared" ref="Q2:Q4" si="7">P2*G2</f>
-        <v>74.599999999999994</v>
-      </c>
-      <c r="R2" s="43">
+        <v>74.6</v>
+      </c>
+      <c r="R2" s="43" t="n">
         <f t="shared" ref="R2:R4" si="8">J2*0.16</f>
-        <v>64</v>
-      </c>
-      <c r="S2" s="43">
+        <v>64.0</v>
+      </c>
+      <c r="S2" s="43" t="n">
         <f t="shared" ref="S2:S4" si="9">R2*G2</f>
-        <v>64</v>
-      </c>
-      <c r="T2" s="43">
+        <v>64.0</v>
+      </c>
+      <c r="T2" s="43" t="n">
         <f t="shared" ref="T2:T4" si="10">L2-H2-R2</f>
         <v>194.52054794520552</v>
       </c>
-      <c r="U2" s="43">
+      <c r="U2" s="43" t="n">
         <f t="shared" ref="U2:U4" si="11">T2*G2</f>
         <v>194.52054794520552</v>
       </c>
-      <c r="V2" s="43">
+      <c r="V2" s="43" t="n">
         <f t="shared" ref="V2:V4" si="12">N2-H2-P2-R2-35</f>
         <v>194.52054794520552</v>
       </c>
-      <c r="W2" s="44">
+      <c r="W2" s="44" t="n">
         <f t="shared" ref="W2:W4" si="13">V2*G2</f>
         <v>194.52054794520552</v>
       </c>
@@ -9070,7 +9209,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>117</v>
       </c>
@@ -9091,64 +9230,64 @@
       <c r="H3" s="43">
         <v>650</v>
       </c>
-      <c r="I3" s="43">
+      <c r="I3" s="43" t="n">
         <f t="shared" si="0"/>
-        <v>650</v>
+        <v>650.0</v>
       </c>
       <c r="J3" s="43">
         <v>650</v>
       </c>
-      <c r="K3" s="43">
+      <c r="K3" s="43" t="n">
         <f t="shared" si="1"/>
-        <v>650</v>
-      </c>
-      <c r="L3" s="43">
+        <v>650.0</v>
+      </c>
+      <c r="L3" s="43" t="n">
         <f t="shared" si="2"/>
-        <v>754</v>
-      </c>
-      <c r="M3" s="43">
+        <v>754.0</v>
+      </c>
+      <c r="M3" s="43" t="n">
         <f t="shared" si="3"/>
-        <v>754</v>
-      </c>
-      <c r="N3" s="43">
+        <v>754.0</v>
+      </c>
+      <c r="N3" s="43" t="n">
         <f t="shared" si="4"/>
         <v>907.1</v>
       </c>
-      <c r="O3" s="43">
+      <c r="O3" s="43" t="n">
         <f t="shared" si="5"/>
         <v>907.1</v>
       </c>
-      <c r="P3" s="43">
+      <c r="P3" s="43" t="n">
         <f t="shared" si="6"/>
         <v>118.1</v>
       </c>
-      <c r="Q3" s="43">
+      <c r="Q3" s="43" t="n">
         <f t="shared" si="7"/>
         <v>118.1</v>
       </c>
-      <c r="R3" s="43">
+      <c r="R3" s="43" t="n">
         <f t="shared" si="8"/>
-        <v>104</v>
-      </c>
-      <c r="S3" s="43">
+        <v>104.0</v>
+      </c>
+      <c r="S3" s="43" t="n">
         <f t="shared" si="9"/>
-        <v>104</v>
-      </c>
-      <c r="T3" s="43">
+        <v>104.0</v>
+      </c>
+      <c r="T3" s="43" t="n">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U3" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="U3" s="43" t="n">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V3" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="V3" s="43" t="n">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W3" s="44">
+        <v>2.8421709430404007E-14</v>
+      </c>
+      <c r="W3" s="44" t="n">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2.8421709430404007E-14</v>
       </c>
       <c r="X3" s="44" t="s">
         <v>115</v>
@@ -9157,7 +9296,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>119</v>
       </c>
@@ -9173,73 +9312,73 @@
       <c r="E4" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="51">
+      <c r="F4" s="51" t="n">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
       <c r="G4" s="51">
         <v>1</v>
       </c>
-      <c r="H4" s="43">
+      <c r="H4" s="43" t="n">
         <f>J4/F4</f>
-        <v>205.47945205479451</v>
-      </c>
-      <c r="I4" s="43">
+        <v>205.4794520547945</v>
+      </c>
+      <c r="I4" s="43" t="n">
         <f t="shared" si="0"/>
-        <v>205.47945205479451</v>
+        <v>205.4794520547945</v>
       </c>
       <c r="J4" s="43">
         <v>400</v>
       </c>
-      <c r="K4" s="43">
+      <c r="K4" s="43" t="n">
         <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="L4" s="43">
+        <v>400.0</v>
+      </c>
+      <c r="L4" s="43" t="n">
         <f t="shared" si="2"/>
-        <v>464</v>
-      </c>
-      <c r="M4" s="43">
+        <v>464.0</v>
+      </c>
+      <c r="M4" s="43" t="n">
         <f t="shared" si="3"/>
-        <v>464</v>
-      </c>
-      <c r="N4" s="43">
+        <v>464.0</v>
+      </c>
+      <c r="N4" s="43" t="n">
         <f t="shared" si="4"/>
         <v>573.6</v>
       </c>
-      <c r="O4" s="43">
+      <c r="O4" s="43" t="n">
         <f t="shared" si="5"/>
         <v>573.6</v>
       </c>
-      <c r="P4" s="43">
+      <c r="P4" s="43" t="n">
         <f t="shared" si="6"/>
-        <v>74.599999999999994</v>
-      </c>
-      <c r="Q4" s="43">
+        <v>74.6</v>
+      </c>
+      <c r="Q4" s="43" t="n">
         <f t="shared" si="7"/>
-        <v>74.599999999999994</v>
-      </c>
-      <c r="R4" s="43">
+        <v>74.6</v>
+      </c>
+      <c r="R4" s="43" t="n">
         <f t="shared" si="8"/>
-        <v>64</v>
-      </c>
-      <c r="S4" s="43">
+        <v>64.0</v>
+      </c>
+      <c r="S4" s="43" t="n">
         <f t="shared" si="9"/>
-        <v>64</v>
-      </c>
-      <c r="T4" s="43">
+        <v>64.0</v>
+      </c>
+      <c r="T4" s="43" t="n">
         <f t="shared" si="10"/>
         <v>194.52054794520552</v>
       </c>
-      <c r="U4" s="43">
+      <c r="U4" s="43" t="n">
         <f t="shared" si="11"/>
         <v>194.52054794520552</v>
       </c>
-      <c r="V4" s="43">
+      <c r="V4" s="43" t="n">
         <f t="shared" si="12"/>
         <v>194.52054794520552</v>
       </c>
-      <c r="W4" s="44">
+      <c r="W4" s="44" t="n">
         <f t="shared" si="13"/>
         <v>194.52054794520552</v>
       </c>
@@ -9250,34 +9389,65 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-    </row>
-    <row r="6" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" ht="30.0" customHeight="true">
+      <c r="A5" t="n" s="53">
+        <v>122</v>
+      </c>
+      <c r="B5" t="n" s="54">
+        <v>123</v>
+      </c>
+      <c r="C5" t="n" s="55">
+        <v>124</v>
+      </c>
+      <c r="D5" t="n" s="56">
+        <v>17</v>
+      </c>
+      <c r="E5" t="n" s="57">
+        <v>45</v>
+      </c>
+      <c r="F5" t="n" s="58">
+        <v>125</v>
+      </c>
+      <c r="G5" t="n" s="59">
+        <v>126</v>
+      </c>
+      <c r="H5" t="n" s="60">
+        <v>127</v>
+      </c>
+      <c r="I5" t="n" s="61">
+        <v>127</v>
+      </c>
+      <c r="J5" t="n" s="62">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+    </row>
     <row r="7" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/JavaApplication19/src/excel/Ventas.xlsx
+++ b/JavaApplication19/src/excel/Ventas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Google Drive\EPIC MOUNTAIN\ADMINISTRACIÒN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D32496-5AC1-40F6-8BA8-EF233E6F053B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB61DF9D-76CD-4113-A434-702C5EC417FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO" sheetId="1" r:id="rId1"/>
@@ -27,14 +27,6 @@
     <sheet name="DICIEMBRE" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -407,25 +399,25 @@
     <t>MEXPOST</t>
   </si>
   <si>
-    <t>SHIFTERS SHIMANO ALIVIO 3x9</t>
-  </si>
-  <si>
-    <t>SHIFTERS DE GATILLO - 3x9 - COMO NUEVOS - UN PAR - SEMINUEVOS</t>
+    <t xml:space="preserve">RINES MAVIC F219 26" </t>
+  </si>
+  <si>
+    <t>RODADO 26" - MASAS DE BALERO SELLADO - SERVICIO RECIEN HECHO - GRASA DE LITIO - PIÑON DE 9s - PAR DE RINES - USADO</t>
   </si>
   <si>
     <t>30  julio</t>
   </si>
   <si>
-    <t>1.2405405405405405</t>
+    <t>1.9466666666666668</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>403.05010893246185</t>
-  </si>
-  <si>
-    <t>500.0</t>
+    <t>1130.13698630137</t>
+  </si>
+  <si>
+    <t>2200.0</t>
   </si>
 </sst>
 </file>
@@ -861,12 +853,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -877,6 +863,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
@@ -912,7 +904,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Salida" xfId="1" builtinId="21"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1369,7 +1361,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1696,17 +1688,17 @@
       <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="2" max="3" customWidth="true" width="30.7109375" collapsed="false"/>
-    <col min="4" max="11" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="10.7109375" collapsed="false"/>
-    <col min="13" max="14" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="30.7109375" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="4" max="11" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="30.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1749,7 +1741,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>43837</v>
       </c>
@@ -1794,7 +1786,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>43837</v>
       </c>
@@ -1845,7 +1837,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>43837</v>
       </c>
@@ -1896,7 +1888,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>43837</v>
       </c>
@@ -1947,7 +1939,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>43837</v>
       </c>
@@ -1992,7 +1984,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>43837</v>
       </c>
@@ -2037,7 +2029,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>43850</v>
       </c>
@@ -2088,7 +2080,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>43852</v>
       </c>
@@ -2133,7 +2125,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>43859</v>
       </c>
@@ -2178,7 +2170,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>43861</v>
       </c>
@@ -2223,7 +2215,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>43861</v>
       </c>
@@ -2268,7 +2260,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2294,200 +2286,200 @@
       <c r="N13" s="6"/>
       <c r="O13" s="24"/>
     </row>
-    <row r="14" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2501,7 +2493,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2513,7 +2505,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2525,7 +2517,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2540,17 +2532,17 @@
       <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="2" max="3" customWidth="true" width="30.7109375" collapsed="false"/>
-    <col min="4" max="11" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="10.7109375" collapsed="false"/>
-    <col min="13" max="14" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="30.7109375" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="4" max="11" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="30.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2593,7 +2585,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>43870</v>
       </c>
@@ -2638,7 +2630,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>43869</v>
       </c>
@@ -2683,7 +2675,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>43879</v>
       </c>
@@ -2734,7 +2726,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>43879</v>
       </c>
@@ -2779,7 +2771,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>43837</v>
       </c>
@@ -2830,7 +2822,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>43853</v>
       </c>
@@ -2881,7 +2873,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -2907,203 +2899,203 @@
       <c r="N8" s="6"/>
       <c r="O8" s="24"/>
     </row>
-    <row r="9" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3119,17 +3111,17 @@
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="2" max="3" customWidth="true" width="30.7109375" collapsed="false"/>
-    <col min="4" max="11" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="10.7109375" collapsed="false"/>
-    <col min="13" max="14" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="30.7109375" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="4" max="11" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="30.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -3172,7 +3164,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>43853</v>
       </c>
@@ -3223,7 +3215,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3249,7 +3241,7 @@
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -3266,7 +3258,7 @@
       <c r="N4" s="25"/>
       <c r="O4" s="25"/>
     </row>
-    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -3283,7 +3275,7 @@
       <c r="N5" s="25"/>
       <c r="O5" s="25"/>
     </row>
-    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -3300,7 +3292,7 @@
       <c r="N6" s="25"/>
       <c r="O6" s="25"/>
     </row>
-    <row r="7" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -3317,7 +3309,7 @@
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
     </row>
-    <row r="8" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -3334,7 +3326,7 @@
       <c r="N8" s="25"/>
       <c r="O8" s="25"/>
     </row>
-    <row r="9" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -3351,7 +3343,7 @@
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
     </row>
-    <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -3368,7 +3360,7 @@
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
     </row>
-    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -3385,7 +3377,7 @@
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
     </row>
-    <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -3402,7 +3394,7 @@
       <c r="N12" s="25"/>
       <c r="O12" s="25"/>
     </row>
-    <row r="13" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -3419,7 +3411,7 @@
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
     </row>
-    <row r="14" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -3436,7 +3428,7 @@
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
     </row>
-    <row r="15" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -3453,7 +3445,7 @@
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
     </row>
-    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -3470,7 +3462,7 @@
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
     </row>
-    <row r="17" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -3487,7 +3479,7 @@
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
     </row>
-    <row r="18" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -3504,7 +3496,7 @@
       <c r="N18" s="25"/>
       <c r="O18" s="25"/>
     </row>
-    <row r="19" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
@@ -3521,7 +3513,7 @@
       <c r="N19" s="25"/>
       <c r="O19" s="25"/>
     </row>
-    <row r="20" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25"/>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
@@ -3538,7 +3530,7 @@
       <c r="N20" s="25"/>
       <c r="O20" s="25"/>
     </row>
-    <row r="21" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
@@ -3555,7 +3547,7 @@
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
     </row>
-    <row r="22" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -3572,7 +3564,7 @@
       <c r="N22" s="25"/>
       <c r="O22" s="25"/>
     </row>
-    <row r="23" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -3589,7 +3581,7 @@
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
     </row>
-    <row r="24" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="25"/>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
@@ -3606,7 +3598,7 @@
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
     </row>
-    <row r="25" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="25"/>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
@@ -3623,7 +3615,7 @@
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
     </row>
-    <row r="26" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="25"/>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
@@ -3640,7 +3632,7 @@
       <c r="N26" s="25"/>
       <c r="O26" s="25"/>
     </row>
-    <row r="27" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="25"/>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
@@ -3657,7 +3649,7 @@
       <c r="N27" s="25"/>
       <c r="O27" s="25"/>
     </row>
-    <row r="28" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="25"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
@@ -3674,7 +3666,7 @@
       <c r="N28" s="25"/>
       <c r="O28" s="25"/>
     </row>
-    <row r="29" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="25"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -3691,7 +3683,7 @@
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
     </row>
-    <row r="30" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
@@ -3708,7 +3700,7 @@
       <c r="N30" s="25"/>
       <c r="O30" s="25"/>
     </row>
-    <row r="31" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="25"/>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
@@ -3725,7 +3717,7 @@
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
     </row>
-    <row r="32" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="25"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
@@ -3742,7 +3734,7 @@
       <c r="N32" s="25"/>
       <c r="O32" s="25"/>
     </row>
-    <row r="33" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
@@ -3759,7 +3751,7 @@
       <c r="N33" s="25"/>
       <c r="O33" s="25"/>
     </row>
-    <row r="34" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="25"/>
       <c r="B34" s="25"/>
       <c r="C34" s="25"/>
@@ -3776,7 +3768,7 @@
       <c r="N34" s="25"/>
       <c r="O34" s="25"/>
     </row>
-    <row r="35" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="25"/>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
@@ -3793,7 +3785,7 @@
       <c r="N35" s="25"/>
       <c r="O35" s="25"/>
     </row>
-    <row r="36" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="25"/>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
@@ -3810,7 +3802,7 @@
       <c r="N36" s="25"/>
       <c r="O36" s="25"/>
     </row>
-    <row r="37" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25"/>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
@@ -3827,7 +3819,7 @@
       <c r="N37" s="25"/>
       <c r="O37" s="25"/>
     </row>
-    <row r="38" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="25"/>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
@@ -3844,7 +3836,7 @@
       <c r="N38" s="25"/>
       <c r="O38" s="25"/>
     </row>
-    <row r="39" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="25"/>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -3861,7 +3853,7 @@
       <c r="N39" s="25"/>
       <c r="O39" s="25"/>
     </row>
-    <row r="40" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="25"/>
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
@@ -3878,7 +3870,7 @@
       <c r="N40" s="25"/>
       <c r="O40" s="25"/>
     </row>
-    <row r="41" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="25"/>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
@@ -3895,7 +3887,7 @@
       <c r="N41" s="25"/>
       <c r="O41" s="25"/>
     </row>
-    <row r="42" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="25"/>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
@@ -3912,7 +3904,7 @@
       <c r="N42" s="25"/>
       <c r="O42" s="25"/>
     </row>
-    <row r="43" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="25"/>
       <c r="B43" s="25"/>
       <c r="C43" s="25"/>
@@ -3929,7 +3921,7 @@
       <c r="N43" s="25"/>
       <c r="O43" s="25"/>
     </row>
-    <row r="44" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="25"/>
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
@@ -3946,7 +3938,7 @@
       <c r="N44" s="25"/>
       <c r="O44" s="25"/>
     </row>
-    <row r="45" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="25"/>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
@@ -3963,7 +3955,7 @@
       <c r="N45" s="25"/>
       <c r="O45" s="25"/>
     </row>
-    <row r="46" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="25"/>
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
@@ -3980,7 +3972,7 @@
       <c r="N46" s="25"/>
       <c r="O46" s="25"/>
     </row>
-    <row r="47" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="25"/>
       <c r="B47" s="25"/>
       <c r="C47" s="25"/>
@@ -3997,7 +3989,7 @@
       <c r="N47" s="25"/>
       <c r="O47" s="25"/>
     </row>
-    <row r="48" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="25"/>
       <c r="B48" s="25"/>
       <c r="C48" s="25"/>
@@ -4014,7 +4006,7 @@
       <c r="N48" s="25"/>
       <c r="O48" s="25"/>
     </row>
-    <row r="49" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="25"/>
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
@@ -4031,7 +4023,7 @@
       <c r="N49" s="25"/>
       <c r="O49" s="25"/>
     </row>
-    <row r="50" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="25"/>
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
@@ -4048,7 +4040,7 @@
       <c r="N50" s="25"/>
       <c r="O50" s="25"/>
     </row>
-    <row r="51" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="25"/>
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
@@ -4065,7 +4057,7 @@
       <c r="N51" s="25"/>
       <c r="O51" s="25"/>
     </row>
-    <row r="52" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="25"/>
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
@@ -4082,7 +4074,7 @@
       <c r="N52" s="25"/>
       <c r="O52" s="25"/>
     </row>
-    <row r="53" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="25"/>
       <c r="B53" s="25"/>
       <c r="C53" s="25"/>
@@ -4099,7 +4091,7 @@
       <c r="N53" s="25"/>
       <c r="O53" s="25"/>
     </row>
-    <row r="54" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="25"/>
       <c r="B54" s="25"/>
       <c r="C54" s="25"/>
@@ -4116,7 +4108,7 @@
       <c r="N54" s="25"/>
       <c r="O54" s="25"/>
     </row>
-    <row r="55" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
       <c r="C55" s="25"/>
@@ -4133,7 +4125,7 @@
       <c r="N55" s="25"/>
       <c r="O55" s="25"/>
     </row>
-    <row r="56" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="25"/>
@@ -4150,7 +4142,7 @@
       <c r="N56" s="25"/>
       <c r="O56" s="25"/>
     </row>
-    <row r="57" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="25"/>
       <c r="B57" s="25"/>
       <c r="C57" s="25"/>
@@ -4167,7 +4159,7 @@
       <c r="N57" s="25"/>
       <c r="O57" s="25"/>
     </row>
-    <row r="58" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="25"/>
       <c r="B58" s="25"/>
       <c r="C58" s="25"/>
@@ -4184,7 +4176,7 @@
       <c r="N58" s="25"/>
       <c r="O58" s="25"/>
     </row>
-    <row r="59" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="25"/>
       <c r="B59" s="25"/>
       <c r="C59" s="25"/>
@@ -4201,7 +4193,7 @@
       <c r="N59" s="25"/>
       <c r="O59" s="25"/>
     </row>
-    <row r="60" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="25"/>
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
@@ -4218,7 +4210,7 @@
       <c r="N60" s="25"/>
       <c r="O60" s="25"/>
     </row>
-    <row r="61" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="25"/>
       <c r="B61" s="25"/>
       <c r="C61" s="25"/>
@@ -4235,7 +4227,7 @@
       <c r="N61" s="25"/>
       <c r="O61" s="25"/>
     </row>
-    <row r="62" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="25"/>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
@@ -4252,7 +4244,7 @@
       <c r="N62" s="25"/>
       <c r="O62" s="25"/>
     </row>
-    <row r="63" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="25"/>
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
@@ -4269,7 +4261,7 @@
       <c r="N63" s="25"/>
       <c r="O63" s="25"/>
     </row>
-    <row r="64" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="25"/>
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
@@ -4286,7 +4278,7 @@
       <c r="N64" s="25"/>
       <c r="O64" s="25"/>
     </row>
-    <row r="65" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="25"/>
       <c r="B65" s="25"/>
       <c r="C65" s="25"/>
@@ -4303,7 +4295,7 @@
       <c r="N65" s="25"/>
       <c r="O65" s="25"/>
     </row>
-    <row r="66" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="25"/>
       <c r="B66" s="25"/>
       <c r="C66" s="25"/>
@@ -4320,7 +4312,7 @@
       <c r="N66" s="25"/>
       <c r="O66" s="25"/>
     </row>
-    <row r="67" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="25"/>
       <c r="B67" s="25"/>
       <c r="C67" s="25"/>
@@ -4337,7 +4329,7 @@
       <c r="N67" s="25"/>
       <c r="O67" s="25"/>
     </row>
-    <row r="68" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="25"/>
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
@@ -4354,7 +4346,7 @@
       <c r="N68" s="25"/>
       <c r="O68" s="25"/>
     </row>
-    <row r="69" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="25"/>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
@@ -4371,7 +4363,7 @@
       <c r="N69" s="25"/>
       <c r="O69" s="25"/>
     </row>
-    <row r="70" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="25"/>
       <c r="B70" s="25"/>
       <c r="C70" s="25"/>
@@ -4388,7 +4380,7 @@
       <c r="N70" s="25"/>
       <c r="O70" s="25"/>
     </row>
-    <row r="71" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="25"/>
       <c r="B71" s="25"/>
       <c r="C71" s="25"/>
@@ -4405,7 +4397,7 @@
       <c r="N71" s="25"/>
       <c r="O71" s="25"/>
     </row>
-    <row r="72" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="25"/>
       <c r="B72" s="25"/>
       <c r="C72" s="25"/>
@@ -4422,7 +4414,7 @@
       <c r="N72" s="25"/>
       <c r="O72" s="25"/>
     </row>
-    <row r="73" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="25"/>
       <c r="B73" s="25"/>
       <c r="C73" s="25"/>
@@ -4439,7 +4431,7 @@
       <c r="N73" s="25"/>
       <c r="O73" s="25"/>
     </row>
-    <row r="74" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="25"/>
       <c r="B74" s="25"/>
       <c r="C74" s="25"/>
@@ -4456,7 +4448,7 @@
       <c r="N74" s="25"/>
       <c r="O74" s="25"/>
     </row>
-    <row r="75" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="25"/>
       <c r="B75" s="25"/>
       <c r="C75" s="25"/>
@@ -4473,7 +4465,7 @@
       <c r="N75" s="25"/>
       <c r="O75" s="25"/>
     </row>
-    <row r="76" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="25"/>
       <c r="B76" s="25"/>
       <c r="C76" s="25"/>
@@ -4490,7 +4482,7 @@
       <c r="N76" s="25"/>
       <c r="O76" s="25"/>
     </row>
-    <row r="77" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="25"/>
       <c r="B77" s="25"/>
       <c r="C77" s="25"/>
@@ -4507,7 +4499,7 @@
       <c r="N77" s="25"/>
       <c r="O77" s="25"/>
     </row>
-    <row r="78" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="25"/>
       <c r="B78" s="25"/>
       <c r="C78" s="25"/>
@@ -4524,7 +4516,7 @@
       <c r="N78" s="25"/>
       <c r="O78" s="25"/>
     </row>
-    <row r="79" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="25"/>
       <c r="B79" s="25"/>
       <c r="C79" s="25"/>
@@ -4541,7 +4533,7 @@
       <c r="N79" s="25"/>
       <c r="O79" s="25"/>
     </row>
-    <row r="80" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="25"/>
       <c r="B80" s="25"/>
       <c r="C80" s="25"/>
@@ -4558,7 +4550,7 @@
       <c r="N80" s="25"/>
       <c r="O80" s="25"/>
     </row>
-    <row r="81" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="25"/>
       <c r="B81" s="25"/>
       <c r="C81" s="25"/>
@@ -4575,7 +4567,7 @@
       <c r="N81" s="25"/>
       <c r="O81" s="25"/>
     </row>
-    <row r="82" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="25"/>
       <c r="B82" s="25"/>
       <c r="C82" s="25"/>
@@ -4592,7 +4584,7 @@
       <c r="N82" s="25"/>
       <c r="O82" s="25"/>
     </row>
-    <row r="83" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="25"/>
       <c r="B83" s="25"/>
       <c r="C83" s="25"/>
@@ -4609,7 +4601,7 @@
       <c r="N83" s="25"/>
       <c r="O83" s="25"/>
     </row>
-    <row r="84" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="25"/>
       <c r="B84" s="25"/>
       <c r="C84" s="25"/>
@@ -4626,7 +4618,7 @@
       <c r="N84" s="25"/>
       <c r="O84" s="25"/>
     </row>
-    <row r="85" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="25"/>
       <c r="B85" s="25"/>
       <c r="C85" s="25"/>
@@ -4643,7 +4635,7 @@
       <c r="N85" s="25"/>
       <c r="O85" s="25"/>
     </row>
-    <row r="86" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="25"/>
       <c r="B86" s="25"/>
       <c r="C86" s="25"/>
@@ -4660,7 +4652,7 @@
       <c r="N86" s="25"/>
       <c r="O86" s="25"/>
     </row>
-    <row r="87" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="25"/>
       <c r="B87" s="25"/>
       <c r="C87" s="25"/>
@@ -4677,7 +4669,7 @@
       <c r="N87" s="25"/>
       <c r="O87" s="25"/>
     </row>
-    <row r="88" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="25"/>
       <c r="B88" s="25"/>
       <c r="C88" s="25"/>
@@ -4694,7 +4686,7 @@
       <c r="N88" s="25"/>
       <c r="O88" s="25"/>
     </row>
-    <row r="89" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="25"/>
       <c r="B89" s="25"/>
       <c r="C89" s="25"/>
@@ -4711,7 +4703,7 @@
       <c r="N89" s="25"/>
       <c r="O89" s="25"/>
     </row>
-    <row r="90" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="25"/>
       <c r="B90" s="25"/>
       <c r="C90" s="25"/>
@@ -4728,7 +4720,7 @@
       <c r="N90" s="25"/>
       <c r="O90" s="25"/>
     </row>
-    <row r="91" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="25"/>
       <c r="B91" s="25"/>
       <c r="C91" s="25"/>
@@ -4745,7 +4737,7 @@
       <c r="N91" s="25"/>
       <c r="O91" s="25"/>
     </row>
-    <row r="92" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="25"/>
       <c r="B92" s="25"/>
       <c r="C92" s="25"/>
@@ -4762,7 +4754,7 @@
       <c r="N92" s="25"/>
       <c r="O92" s="25"/>
     </row>
-    <row r="93" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="25"/>
       <c r="B93" s="25"/>
       <c r="C93" s="25"/>
@@ -4779,7 +4771,7 @@
       <c r="N93" s="25"/>
       <c r="O93" s="25"/>
     </row>
-    <row r="94" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="25"/>
       <c r="B94" s="25"/>
       <c r="C94" s="25"/>
@@ -4796,7 +4788,7 @@
       <c r="N94" s="25"/>
       <c r="O94" s="25"/>
     </row>
-    <row r="95" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="25"/>
       <c r="B95" s="25"/>
       <c r="C95" s="25"/>
@@ -4813,7 +4805,7 @@
       <c r="N95" s="25"/>
       <c r="O95" s="25"/>
     </row>
-    <row r="96" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="25"/>
       <c r="B96" s="25"/>
       <c r="C96" s="25"/>
@@ -4830,7 +4822,7 @@
       <c r="N96" s="25"/>
       <c r="O96" s="25"/>
     </row>
-    <row r="97" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="25"/>
       <c r="B97" s="25"/>
       <c r="C97" s="25"/>
@@ -4847,7 +4839,7 @@
       <c r="N97" s="25"/>
       <c r="O97" s="25"/>
     </row>
-    <row r="98" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="25"/>
       <c r="B98" s="25"/>
       <c r="C98" s="25"/>
@@ -4864,7 +4856,7 @@
       <c r="N98" s="25"/>
       <c r="O98" s="25"/>
     </row>
-    <row r="99" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="25"/>
       <c r="B99" s="25"/>
       <c r="C99" s="25"/>
@@ -4881,7 +4873,7 @@
       <c r="N99" s="25"/>
       <c r="O99" s="25"/>
     </row>
-    <row r="100" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="25"/>
       <c r="B100" s="25"/>
       <c r="C100" s="25"/>
@@ -4912,16 +4904,16 @@
       <selection activeCell="N1" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="2" max="3" customWidth="true" width="30.7109375" collapsed="false"/>
-    <col min="4" max="13" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="30.7109375" collapsed="false"/>
-    <col min="15" max="24" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="4" max="13" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="15" max="24" customWidth="true" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -4963,7 +4955,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>43937</v>
       </c>
@@ -5007,7 +4999,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>43853</v>
       </c>
@@ -5057,7 +5049,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>43853</v>
       </c>
@@ -5107,7 +5099,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>43853</v>
       </c>
@@ -5151,7 +5143,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -5176,129 +5168,129 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5314,16 +5306,16 @@
       <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="2" max="3" customWidth="true" width="30.7109375" collapsed="false"/>
-    <col min="4" max="15" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="30.7109375" collapsed="false"/>
-    <col min="17" max="28" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="4" max="15" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="17" max="28" customWidth="true" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -5383,7 +5375,7 @@
       <c r="AA1" s="25"/>
       <c r="AB1" s="25"/>
     </row>
-    <row r="2" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="26">
         <v>43837</v>
       </c>
@@ -5452,7 +5444,7 @@
       <c r="AA2" s="25"/>
       <c r="AB2" s="25"/>
     </row>
-    <row r="3" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>43853</v>
       </c>
@@ -5522,7 +5514,7 @@
       <c r="AA3" s="25"/>
       <c r="AB3" s="25"/>
     </row>
-    <row r="4" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>43853</v>
       </c>
@@ -5591,7 +5583,7 @@
       <c r="AA4" s="25"/>
       <c r="AB4" s="25"/>
     </row>
-    <row r="5" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29">
         <v>43853</v>
       </c>
@@ -5661,7 +5653,7 @@
       <c r="AA5" s="25"/>
       <c r="AB5" s="25"/>
     </row>
-    <row r="6" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>43847</v>
       </c>
@@ -5725,7 +5717,7 @@
       <c r="AA6" s="25"/>
       <c r="AB6" s="25"/>
     </row>
-    <row r="7" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>43837</v>
       </c>
@@ -5789,7 +5781,7 @@
       <c r="AA7" s="25"/>
       <c r="AB7" s="25"/>
     </row>
-    <row r="8" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -5831,7 +5823,7 @@
       <c r="AA8" s="25"/>
       <c r="AB8" s="25"/>
     </row>
-    <row r="9" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -5861,7 +5853,7 @@
       <c r="AA9" s="25"/>
       <c r="AB9" s="25"/>
     </row>
-    <row r="10" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -5891,7 +5883,7 @@
       <c r="AA10" s="25"/>
       <c r="AB10" s="25"/>
     </row>
-    <row r="11" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -5921,7 +5913,7 @@
       <c r="AA11" s="25"/>
       <c r="AB11" s="25"/>
     </row>
-    <row r="12" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -5951,7 +5943,7 @@
       <c r="AA12" s="25"/>
       <c r="AB12" s="25"/>
     </row>
-    <row r="13" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -5981,7 +5973,7 @@
       <c r="AA13" s="25"/>
       <c r="AB13" s="25"/>
     </row>
-    <row r="14" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -6011,7 +6003,7 @@
       <c r="AA14" s="25"/>
       <c r="AB14" s="25"/>
     </row>
-    <row r="15" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -6041,7 +6033,7 @@
       <c r="AA15" s="25"/>
       <c r="AB15" s="25"/>
     </row>
-    <row r="16" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -6071,7 +6063,7 @@
       <c r="AA16" s="25"/>
       <c r="AB16" s="25"/>
     </row>
-    <row r="17" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -6101,7 +6093,7 @@
       <c r="AA17" s="25"/>
       <c r="AB17" s="25"/>
     </row>
-    <row r="18" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -6131,7 +6123,7 @@
       <c r="AA18" s="25"/>
       <c r="AB18" s="25"/>
     </row>
-    <row r="19" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -6161,7 +6153,7 @@
       <c r="AA19" s="25"/>
       <c r="AB19" s="25"/>
     </row>
-    <row r="20" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -6191,7 +6183,7 @@
       <c r="AA20" s="25"/>
       <c r="AB20" s="25"/>
     </row>
-    <row r="21" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -6221,7 +6213,7 @@
       <c r="AA21" s="25"/>
       <c r="AB21" s="25"/>
     </row>
-    <row r="22" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -6251,7 +6243,7 @@
       <c r="AA22" s="25"/>
       <c r="AB22" s="25"/>
     </row>
-    <row r="23" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -6281,7 +6273,7 @@
       <c r="AA23" s="25"/>
       <c r="AB23" s="25"/>
     </row>
-    <row r="24" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -6311,7 +6303,7 @@
       <c r="AA24" s="25"/>
       <c r="AB24" s="25"/>
     </row>
-    <row r="25" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -6341,7 +6333,7 @@
       <c r="AA25" s="25"/>
       <c r="AB25" s="25"/>
     </row>
-    <row r="26" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -6371,7 +6363,7 @@
       <c r="AA26" s="25"/>
       <c r="AB26" s="25"/>
     </row>
-    <row r="27" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -6401,7 +6393,7 @@
       <c r="AA27" s="25"/>
       <c r="AB27" s="25"/>
     </row>
-    <row r="28" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -6431,7 +6423,7 @@
       <c r="AA28" s="25"/>
       <c r="AB28" s="25"/>
     </row>
-    <row r="29" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
@@ -6461,7 +6453,7 @@
       <c r="AA29" s="25"/>
       <c r="AB29" s="25"/>
     </row>
-    <row r="30" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -6491,7 +6483,7 @@
       <c r="AA30" s="25"/>
       <c r="AB30" s="25"/>
     </row>
-    <row r="31" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="19"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -6521,7 +6513,7 @@
       <c r="AA31" s="25"/>
       <c r="AB31" s="25"/>
     </row>
-    <row r="32" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -6551,7 +6543,7 @@
       <c r="AA32" s="25"/>
       <c r="AB32" s="25"/>
     </row>
-    <row r="33" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -6581,7 +6573,7 @@
       <c r="AA33" s="25"/>
       <c r="AB33" s="25"/>
     </row>
-    <row r="34" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -6611,7 +6603,7 @@
       <c r="AA34" s="25"/>
       <c r="AB34" s="25"/>
     </row>
-    <row r="35" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -6641,7 +6633,7 @@
       <c r="AA35" s="25"/>
       <c r="AB35" s="25"/>
     </row>
-    <row r="36" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -6671,7 +6663,7 @@
       <c r="AA36" s="25"/>
       <c r="AB36" s="25"/>
     </row>
-    <row r="37" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -6701,7 +6693,7 @@
       <c r="AA37" s="25"/>
       <c r="AB37" s="25"/>
     </row>
-    <row r="38" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
@@ -6731,7 +6723,7 @@
       <c r="AA38" s="25"/>
       <c r="AB38" s="25"/>
     </row>
-    <row r="39" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -6761,7 +6753,7 @@
       <c r="AA39" s="25"/>
       <c r="AB39" s="25"/>
     </row>
-    <row r="40" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19"/>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -6791,7 +6783,7 @@
       <c r="AA40" s="25"/>
       <c r="AB40" s="25"/>
     </row>
-    <row r="41" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="19"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -6821,7 +6813,7 @@
       <c r="AA41" s="25"/>
       <c r="AB41" s="25"/>
     </row>
-    <row r="42" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -6851,7 +6843,7 @@
       <c r="AA42" s="25"/>
       <c r="AB42" s="25"/>
     </row>
-    <row r="43" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="19"/>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -6881,7 +6873,7 @@
       <c r="AA43" s="25"/>
       <c r="AB43" s="25"/>
     </row>
-    <row r="44" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
@@ -6911,7 +6903,7 @@
       <c r="AA44" s="25"/>
       <c r="AB44" s="25"/>
     </row>
-    <row r="45" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="19"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
@@ -6941,7 +6933,7 @@
       <c r="AA45" s="25"/>
       <c r="AB45" s="25"/>
     </row>
-    <row r="46" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="19"/>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
@@ -6971,7 +6963,7 @@
       <c r="AA46" s="25"/>
       <c r="AB46" s="25"/>
     </row>
-    <row r="47" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="19"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
@@ -7001,7 +6993,7 @@
       <c r="AA47" s="25"/>
       <c r="AB47" s="25"/>
     </row>
-    <row r="48" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
@@ -7031,7 +7023,7 @@
       <c r="AA48" s="25"/>
       <c r="AB48" s="25"/>
     </row>
-    <row r="49" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="19"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
@@ -7061,7 +7053,7 @@
       <c r="AA49" s="25"/>
       <c r="AB49" s="25"/>
     </row>
-    <row r="50" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
@@ -7091,7 +7083,7 @@
       <c r="AA50" s="25"/>
       <c r="AB50" s="25"/>
     </row>
-    <row r="51" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="19"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
@@ -7121,7 +7113,7 @@
       <c r="AA51" s="25"/>
       <c r="AB51" s="25"/>
     </row>
-    <row r="52" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="19"/>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
@@ -7151,7 +7143,7 @@
       <c r="AA52" s="25"/>
       <c r="AB52" s="25"/>
     </row>
-    <row r="53" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="19"/>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
@@ -7181,7 +7173,7 @@
       <c r="AA53" s="25"/>
       <c r="AB53" s="25"/>
     </row>
-    <row r="54" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="19"/>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
@@ -7211,7 +7203,7 @@
       <c r="AA54" s="25"/>
       <c r="AB54" s="25"/>
     </row>
-    <row r="55" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="19"/>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
@@ -7241,7 +7233,7 @@
       <c r="AA55" s="25"/>
       <c r="AB55" s="25"/>
     </row>
-    <row r="56" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="19"/>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
@@ -7271,7 +7263,7 @@
       <c r="AA56" s="25"/>
       <c r="AB56" s="25"/>
     </row>
-    <row r="57" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="19"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -7301,7 +7293,7 @@
       <c r="AA57" s="25"/>
       <c r="AB57" s="25"/>
     </row>
-    <row r="58" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="19"/>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
@@ -7331,7 +7323,7 @@
       <c r="AA58" s="25"/>
       <c r="AB58" s="25"/>
     </row>
-    <row r="59" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="19"/>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
@@ -7361,7 +7353,7 @@
       <c r="AA59" s="25"/>
       <c r="AB59" s="25"/>
     </row>
-    <row r="60" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19"/>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
@@ -7391,7 +7383,7 @@
       <c r="AA60" s="25"/>
       <c r="AB60" s="25"/>
     </row>
-    <row r="61" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="19"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
@@ -7421,7 +7413,7 @@
       <c r="AA61" s="25"/>
       <c r="AB61" s="25"/>
     </row>
-    <row r="62" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="19"/>
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
@@ -7451,7 +7443,7 @@
       <c r="AA62" s="25"/>
       <c r="AB62" s="25"/>
     </row>
-    <row r="63" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="19"/>
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
@@ -7481,7 +7473,7 @@
       <c r="AA63" s="25"/>
       <c r="AB63" s="25"/>
     </row>
-    <row r="64" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="19"/>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
@@ -7511,7 +7503,7 @@
       <c r="AA64" s="25"/>
       <c r="AB64" s="25"/>
     </row>
-    <row r="65" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="19"/>
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
@@ -7541,7 +7533,7 @@
       <c r="AA65" s="25"/>
       <c r="AB65" s="25"/>
     </row>
-    <row r="66" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="19"/>
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
@@ -7571,7 +7563,7 @@
       <c r="AA66" s="25"/>
       <c r="AB66" s="25"/>
     </row>
-    <row r="67" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="19"/>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
@@ -7601,7 +7593,7 @@
       <c r="AA67" s="25"/>
       <c r="AB67" s="25"/>
     </row>
-    <row r="68" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="19"/>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
@@ -7631,7 +7623,7 @@
       <c r="AA68" s="25"/>
       <c r="AB68" s="25"/>
     </row>
-    <row r="69" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="19"/>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
@@ -7661,7 +7653,7 @@
       <c r="AA69" s="25"/>
       <c r="AB69" s="25"/>
     </row>
-    <row r="70" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="19"/>
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
@@ -7691,7 +7683,7 @@
       <c r="AA70" s="25"/>
       <c r="AB70" s="25"/>
     </row>
-    <row r="71" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="19"/>
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
@@ -7721,7 +7713,7 @@
       <c r="AA71" s="25"/>
       <c r="AB71" s="25"/>
     </row>
-    <row r="72" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="19"/>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
@@ -7751,7 +7743,7 @@
       <c r="AA72" s="25"/>
       <c r="AB72" s="25"/>
     </row>
-    <row r="73" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="19"/>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
@@ -7781,7 +7773,7 @@
       <c r="AA73" s="25"/>
       <c r="AB73" s="25"/>
     </row>
-    <row r="74" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="19"/>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
@@ -7811,7 +7803,7 @@
       <c r="AA74" s="25"/>
       <c r="AB74" s="25"/>
     </row>
-    <row r="75" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="19"/>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
@@ -7841,7 +7833,7 @@
       <c r="AA75" s="25"/>
       <c r="AB75" s="25"/>
     </row>
-    <row r="76" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="19"/>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
@@ -7871,7 +7863,7 @@
       <c r="AA76" s="25"/>
       <c r="AB76" s="25"/>
     </row>
-    <row r="77" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="19"/>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -7901,7 +7893,7 @@
       <c r="AA77" s="25"/>
       <c r="AB77" s="25"/>
     </row>
-    <row r="78" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="19"/>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
@@ -7931,7 +7923,7 @@
       <c r="AA78" s="25"/>
       <c r="AB78" s="25"/>
     </row>
-    <row r="79" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="19"/>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
@@ -7961,7 +7953,7 @@
       <c r="AA79" s="25"/>
       <c r="AB79" s="25"/>
     </row>
-    <row r="80" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="19"/>
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
@@ -7991,7 +7983,7 @@
       <c r="AA80" s="25"/>
       <c r="AB80" s="25"/>
     </row>
-    <row r="81" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="19"/>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
@@ -8021,7 +8013,7 @@
       <c r="AA81" s="25"/>
       <c r="AB81" s="25"/>
     </row>
-    <row r="82" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="19"/>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
@@ -8051,7 +8043,7 @@
       <c r="AA82" s="25"/>
       <c r="AB82" s="25"/>
     </row>
-    <row r="83" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="19"/>
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
@@ -8081,7 +8073,7 @@
       <c r="AA83" s="25"/>
       <c r="AB83" s="25"/>
     </row>
-    <row r="84" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="19"/>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
@@ -8111,7 +8103,7 @@
       <c r="AA84" s="25"/>
       <c r="AB84" s="25"/>
     </row>
-    <row r="85" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="19"/>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
@@ -8141,7 +8133,7 @@
       <c r="AA85" s="25"/>
       <c r="AB85" s="25"/>
     </row>
-    <row r="86" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="19"/>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
@@ -8171,7 +8163,7 @@
       <c r="AA86" s="25"/>
       <c r="AB86" s="25"/>
     </row>
-    <row r="87" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="19"/>
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
@@ -8201,7 +8193,7 @@
       <c r="AA87" s="25"/>
       <c r="AB87" s="25"/>
     </row>
-    <row r="88" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="19"/>
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
@@ -8231,7 +8223,7 @@
       <c r="AA88" s="25"/>
       <c r="AB88" s="25"/>
     </row>
-    <row r="89" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="19"/>
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
@@ -8261,7 +8253,7 @@
       <c r="AA89" s="25"/>
       <c r="AB89" s="25"/>
     </row>
-    <row r="90" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="19"/>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
@@ -8291,7 +8283,7 @@
       <c r="AA90" s="25"/>
       <c r="AB90" s="25"/>
     </row>
-    <row r="91" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="19"/>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
@@ -8321,7 +8313,7 @@
       <c r="AA91" s="25"/>
       <c r="AB91" s="25"/>
     </row>
-    <row r="92" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="19"/>
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
@@ -8351,7 +8343,7 @@
       <c r="AA92" s="25"/>
       <c r="AB92" s="25"/>
     </row>
-    <row r="93" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="19"/>
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
@@ -8381,7 +8373,7 @@
       <c r="AA93" s="25"/>
       <c r="AB93" s="25"/>
     </row>
-    <row r="94" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="19"/>
       <c r="B94" s="19"/>
       <c r="C94" s="19"/>
@@ -8411,7 +8403,7 @@
       <c r="AA94" s="25"/>
       <c r="AB94" s="25"/>
     </row>
-    <row r="95" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="19"/>
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
@@ -8441,7 +8433,7 @@
       <c r="AA95" s="25"/>
       <c r="AB95" s="25"/>
     </row>
-    <row r="96" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="19"/>
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
@@ -8471,7 +8463,7 @@
       <c r="AA96" s="25"/>
       <c r="AB96" s="25"/>
     </row>
-    <row r="97" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="19"/>
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
@@ -8501,7 +8493,7 @@
       <c r="AA97" s="25"/>
       <c r="AB97" s="25"/>
     </row>
-    <row r="98" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="19"/>
       <c r="B98" s="19"/>
       <c r="C98" s="19"/>
@@ -8531,7 +8523,7 @@
       <c r="AA98" s="25"/>
       <c r="AB98" s="25"/>
     </row>
-    <row r="99" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="19"/>
       <c r="B99" s="19"/>
       <c r="C99" s="19"/>
@@ -8561,7 +8553,7 @@
       <c r="AA99" s="25"/>
       <c r="AB99" s="25"/>
     </row>
-    <row r="100" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="19"/>
       <c r="B100" s="19"/>
       <c r="C100" s="19"/>
@@ -8591,7 +8583,7 @@
       <c r="AA100" s="25"/>
       <c r="AB100" s="25"/>
     </row>
-    <row r="101" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="19"/>
       <c r="B101" s="19"/>
       <c r="C101" s="19"/>
@@ -8621,7 +8613,7 @@
       <c r="AA101" s="25"/>
       <c r="AB101" s="25"/>
     </row>
-    <row r="102" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="19"/>
       <c r="B102" s="19"/>
       <c r="C102" s="19"/>
@@ -8651,7 +8643,7 @@
       <c r="AA102" s="25"/>
       <c r="AB102" s="25"/>
     </row>
-    <row r="103" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="19"/>
       <c r="B103" s="19"/>
       <c r="C103" s="19"/>
@@ -8681,7 +8673,7 @@
       <c r="AA103" s="25"/>
       <c r="AB103" s="25"/>
     </row>
-    <row r="104" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="19"/>
       <c r="B104" s="19"/>
       <c r="C104" s="19"/>
@@ -8711,7 +8703,7 @@
       <c r="AA104" s="25"/>
       <c r="AB104" s="25"/>
     </row>
-    <row r="105" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="19"/>
       <c r="B105" s="19"/>
       <c r="C105" s="19"/>
@@ -8756,19 +8748,19 @@
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="50.7109375" collapsed="false"/>
-    <col min="4" max="19" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="20" max="20" customWidth="true" width="30.7109375" collapsed="false"/>
-    <col min="21" max="26" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="50.6640625" collapsed="true"/>
+    <col min="4" max="19" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="21" max="26" customWidth="true" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47"/>
-      <c r="B1" s="48"/>
+    <row r="1" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="51"/>
+      <c r="B1" s="52"/>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
@@ -8824,7 +8816,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>43837</v>
       </c>
@@ -8882,7 +8874,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -8922,98 +8914,98 @@
       </c>
       <c r="T3" s="6"/>
     </row>
-    <row r="4" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -9025,23 +9017,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Y201"/>
+  <dimension ref="A1:Y199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y5" sqref="Y5"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:Y5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="40.7109375" collapsed="false"/>
-    <col min="3" max="23" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="24" max="25" customWidth="true" width="40.7109375" collapsed="false"/>
+    <col min="1" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="3" max="23" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="24" max="25" customWidth="true" width="40.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34"/>
       <c r="B1" s="35" t="s">
         <v>1</v>
@@ -9116,27 +9108,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="50">
+      <c r="C2" s="48">
         <v>44038</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="51" t="n">
+      <c r="F2" s="49" t="n">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
-      <c r="G2" s="51">
+      <c r="G2" s="49">
         <v>1</v>
       </c>
       <c r="H2" s="43" t="n">
@@ -9205,11 +9197,11 @@
       <c r="X2" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="Y2" s="52" t="s">
+      <c r="Y2" s="50" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
         <v>117</v>
       </c>
@@ -9292,31 +9284,31 @@
       <c r="X3" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="Y3" s="52" t="s">
+      <c r="Y3" s="50" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="48">
         <v>43837</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="51" t="n">
+      <c r="F4" s="49" t="n">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="49">
         <v>1</v>
       </c>
       <c r="H4" s="43" t="n">
@@ -9385,264 +9377,231 @@
       <c r="X4" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="Y4" s="52" t="s">
+      <c r="Y4" s="50" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" ht="30.0" customHeight="true">
-      <c r="A5" t="n" s="53">
-        <v>122</v>
-      </c>
-      <c r="B5" t="n" s="54">
-        <v>123</v>
-      </c>
-      <c r="C5" t="n" s="55">
-        <v>124</v>
-      </c>
-      <c r="D5" t="n" s="56">
-        <v>17</v>
-      </c>
-      <c r="E5" t="n" s="57">
-        <v>45</v>
-      </c>
-      <c r="F5" t="n" s="58">
-        <v>125</v>
-      </c>
-      <c r="G5" t="n" s="59">
-        <v>126</v>
-      </c>
-      <c r="H5" t="n" s="60">
-        <v>127</v>
-      </c>
-      <c r="I5" t="n" s="61">
-        <v>127</v>
-      </c>
-      <c r="J5" t="n" s="62">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-    </row>
-    <row r="7" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:25" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+    </row>
+    <row r="6" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:25" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:25" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:25" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:25" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:25" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:25" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:25" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:25" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:25" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -9656,7 +9615,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9668,7 +9627,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JavaApplication19/src/excel/Ventas.xlsx
+++ b/JavaApplication19/src/excel/Ventas.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="136">
   <si>
     <t>PRUDUCTO</t>
   </si>
@@ -426,6 +426,27 @@
   </si>
   <si>
     <t>500.0</t>
+  </si>
+  <si>
+    <t>BANDANA MULTIFUNCIONAL - VARIOS MODELOS Y COLORES - ABSORBENTE - FACIL DE LAVAR - NUEVOS</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>189.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
   </si>
 </sst>
 </file>
@@ -435,7 +456,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,6 +525,78 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -727,7 +820,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -907,6 +1000,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1698,12 +1827,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="2" max="3" customWidth="true" width="30.7109375" collapsed="false"/>
-    <col min="4" max="11" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="10.7109375" collapsed="false"/>
-    <col min="13" max="14" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="30.7109375" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="4" max="11" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="30.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -2542,12 +2671,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="2" max="3" customWidth="true" width="30.7109375" collapsed="false"/>
-    <col min="4" max="11" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="10.7109375" collapsed="false"/>
-    <col min="13" max="14" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="30.7109375" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="4" max="11" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="30.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3121,12 +3250,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="2" max="3" customWidth="true" width="30.7109375" collapsed="false"/>
-    <col min="4" max="11" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="10.7109375" collapsed="false"/>
-    <col min="13" max="14" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="30.7109375" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="4" max="11" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="30.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -4914,11 +5043,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="2" max="3" customWidth="true" width="30.7109375" collapsed="false"/>
-    <col min="4" max="13" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="30.7109375" collapsed="false"/>
-    <col min="15" max="24" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="4" max="13" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="15" max="24" customWidth="true" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -5316,11 +5445,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="2" max="3" customWidth="true" width="30.7109375" collapsed="false"/>
-    <col min="4" max="15" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="30.7109375" collapsed="false"/>
-    <col min="17" max="28" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="4" max="15" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="17" max="28" customWidth="true" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -8758,12 +8887,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="50.7109375" collapsed="false"/>
-    <col min="4" max="19" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="20" max="20" customWidth="true" width="30.7109375" collapsed="false"/>
-    <col min="21" max="26" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="50.7109375" collapsed="true"/>
+    <col min="4" max="19" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="21" max="26" customWidth="true" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -9036,9 +9165,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="40.7109375" collapsed="false"/>
-    <col min="3" max="23" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="24" max="25" customWidth="true" width="40.7109375" collapsed="false"/>
+    <col min="1" max="2" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="3" max="23" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="24" max="25" customWidth="true" width="40.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -9421,34 +9550,68 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-    </row>
-    <row r="7" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" ht="30.0" customHeight="true">
+      <c r="A6" t="s" s="63">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s" s="64">
+        <v>129</v>
+      </c>
+      <c r="C6" t="s" s="65">
+        <v>124</v>
+      </c>
+      <c r="D6" t="s" s="66">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s" s="67">
+        <v>130</v>
+      </c>
+      <c r="F6" t="s" s="68">
+        <v>131</v>
+      </c>
+      <c r="G6" t="s" s="69">
+        <v>132</v>
+      </c>
+      <c r="H6" t="s" s="70">
+        <v>133</v>
+      </c>
+      <c r="I6" t="n" s="73">
+        <v>189.0</v>
+      </c>
+      <c r="J6" t="s" s="72">
+        <v>135</v>
+      </c>
+      <c r="K6" t="n" s="74">
+        <v>420.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="45"/>
+    </row>
     <row r="8" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/JavaApplication19/src/excel/Ventas.xlsx
+++ b/JavaApplication19/src/excel/Ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Google Drive\EPIC MOUNTAIN\ADMINISTRACIÒN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D32496-5AC1-40F6-8BA8-EF233E6F053B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F6A99E-6C83-4E68-9AE8-EE60C06DA64C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="131">
   <si>
     <t>PRUDUCTO</t>
   </si>
@@ -344,15 +344,6 @@
     <t>FECHA DE REGISTRO</t>
   </si>
   <si>
-    <t xml:space="preserve">PRECIO LOCAL X UNIDAD </t>
-  </si>
-  <si>
-    <t>PRECIO LOCAL NETO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRECIO ML X UNIDAD </t>
-  </si>
-  <si>
     <t>PRECIO ML NETO</t>
   </si>
   <si>
@@ -365,15 +356,6 @@
     <t>IVA NETA</t>
   </si>
   <si>
-    <t>UTILIDAD LOCAL X UNIDAD</t>
-  </si>
-  <si>
-    <t>UTILIDAD LOCAL NETA</t>
-  </si>
-  <si>
-    <t>UTILIDAD ML X UNIDAD</t>
-  </si>
-  <si>
     <t>UTILIDAD ML NETA</t>
   </si>
   <si>
@@ -407,46 +389,49 @@
     <t>MEXPOST</t>
   </si>
   <si>
-    <t>SHIFTERS SHIMANO ALIVIO 3x9</t>
-  </si>
-  <si>
-    <t>SHIFTERS DE GATILLO - 3x9 - COMO NUEVOS - UN PAR - SEMINUEVOS</t>
-  </si>
-  <si>
-    <t>30  julio</t>
-  </si>
-  <si>
-    <t>1.2405405405405405</t>
+    <t>T.I.G.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRECIO ML UNIDAD </t>
+  </si>
+  <si>
+    <t>UTILIDAD ML UNIDAD</t>
+  </si>
+  <si>
+    <t>UTILIDAD SHOP NETA</t>
+  </si>
+  <si>
+    <t>UTILIDAD SHOP UNIDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRECIO SHOP UNIDAD </t>
+  </si>
+  <si>
+    <t>PRECIO SHOP NETO</t>
+  </si>
+  <si>
+    <t>ADAPTADOR DE CALIPER A 203mm</t>
+  </si>
+  <si>
+    <t>PARA DISCOS DE 203mm - INCLUYE 4 TORNILLOS ALLEN - SEMINUEVO</t>
+  </si>
+  <si>
+    <t>31  julio</t>
+  </si>
+  <si>
+    <t>SEMINUEVO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.0</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>403.05010893246185</t>
-  </si>
-  <si>
-    <t>500.0</t>
-  </si>
-  <si>
-    <t>BANDANA MULTIFUNCIONAL - VARIOS MODELOS Y COLORES - ABSORBENTE - FACIL DE LAVAR - NUEVOS</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>27.0</t>
-  </si>
-  <si>
-    <t>189.0</t>
-  </si>
-  <si>
-    <t>60.0</t>
+    <t>200.0</t>
   </si>
 </sst>
 </file>
@@ -456,7 +441,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,66 +510,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -820,7 +745,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -950,14 +875,7 @@
     <xf numFmtId="164" fontId="6" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -970,6 +888,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
@@ -1006,36 +936,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8896,8 +8796,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47"/>
-      <c r="B1" s="48"/>
+      <c r="A1" s="50"/>
+      <c r="B1" s="51"/>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
@@ -9154,13 +9054,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Y201"/>
+  <dimension ref="A1:Y200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y5" sqref="Y5"/>
+      <selection pane="bottomRight" activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9185,7 +9085,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G1" s="35" t="s">
         <v>2</v>
@@ -9203,69 +9103,69 @@
         <v>89</v>
       </c>
       <c r="L1" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="O1" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="P1" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="Q1" s="39" t="s">
         <v>103</v>
-      </c>
-      <c r="O1" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="P1" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q1" s="39" t="s">
-        <v>106</v>
       </c>
       <c r="R1" s="39" t="s">
         <v>90</v>
       </c>
       <c r="S1" s="39" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T1" s="37" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="U1" s="37" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="V1" s="37" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="W1" s="37" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="X1" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y1" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y1" s="45" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="50">
+        <v>107</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="47">
         <v>44038</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="51" t="n">
+      <c r="F2" s="48" t="n">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
-      <c r="G2" s="51">
+      <c r="G2" s="48">
         <v>1</v>
       </c>
       <c r="H2" s="43" t="n">
@@ -9332,18 +9232,18 @@
         <v>194.52054794520552</v>
       </c>
       <c r="X2" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y2" s="52" t="s">
-        <v>116</v>
+        <v>109</v>
+      </c>
+      <c r="Y2" s="49" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C3" s="41">
         <v>44004</v>
@@ -9419,33 +9319,33 @@
         <v>2.8421709430404007E-14</v>
       </c>
       <c r="X3" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y3" s="52" t="s">
-        <v>116</v>
+        <v>109</v>
+      </c>
+      <c r="Y3" s="49" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="50">
+        <v>113</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="47">
         <v>43837</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="51" t="n">
+      <c r="F4" s="48" t="n">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="48">
         <v>1</v>
       </c>
       <c r="H4" s="43" t="n">
@@ -9512,106 +9412,65 @@
         <v>194.52054794520552</v>
       </c>
       <c r="X4" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y4" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y4" s="49" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" ht="30.0" customHeight="true">
-      <c r="A5" t="n" s="53">
-        <v>122</v>
-      </c>
-      <c r="B5" t="n" s="54">
-        <v>123</v>
-      </c>
-      <c r="C5" t="n" s="55">
-        <v>124</v>
-      </c>
-      <c r="D5" t="n" s="56">
-        <v>17</v>
-      </c>
-      <c r="E5" t="n" s="57">
-        <v>45</v>
-      </c>
-      <c r="F5" t="n" s="58">
-        <v>125</v>
-      </c>
-      <c r="G5" t="n" s="59">
-        <v>126</v>
-      </c>
-      <c r="H5" t="n" s="60">
-        <v>127</v>
-      </c>
-      <c r="I5" t="n" s="61">
-        <v>127</v>
-      </c>
-      <c r="J5" t="n" s="62">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" ht="30.0" customHeight="true">
-      <c r="A6" t="s" s="63">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s" s="64">
-        <v>129</v>
-      </c>
-      <c r="C6" t="s" s="65">
-        <v>124</v>
-      </c>
-      <c r="D6" t="s" s="66">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s" s="67">
-        <v>130</v>
-      </c>
-      <c r="F6" t="s" s="68">
-        <v>131</v>
-      </c>
-      <c r="G6" t="s" s="69">
-        <v>132</v>
-      </c>
-      <c r="H6" t="s" s="70">
-        <v>133</v>
-      </c>
-      <c r="I6" t="n" s="73">
-        <v>189.0</v>
-      </c>
-      <c r="J6" t="s" s="72">
-        <v>135</v>
-      </c>
-      <c r="K6" t="n" s="74">
-        <v>420.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="45"/>
-    </row>
+    <row r="5" spans="1:25" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="53" t="n">
+        <f>SUM(I2:I4)</f>
+        <v>1060.958904109589</v>
+      </c>
+      <c r="J5" s="52"/>
+      <c r="K5" s="53" t="n">
+        <f>SUM(K2:K4)</f>
+        <v>1450.0</v>
+      </c>
+      <c r="L5" s="52"/>
+      <c r="M5" s="53" t="n">
+        <f>SUM(M2:M4)</f>
+        <v>1682.0</v>
+      </c>
+      <c r="N5" s="52"/>
+      <c r="O5" s="53" t="n">
+        <f>SUM(O2:O4)</f>
+        <v>2054.3</v>
+      </c>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="53" t="n">
+        <f>SUM(Q2:Q4)</f>
+        <v>267.29999999999995</v>
+      </c>
+      <c r="R5" s="52"/>
+      <c r="S5" s="53" t="n">
+        <f>SUM(S2:S4)</f>
+        <v>232.0</v>
+      </c>
+      <c r="T5" s="52"/>
+      <c r="U5" s="53" t="n">
+        <f>SUM(U2:U4)</f>
+        <v>389.04109589041104</v>
+      </c>
+      <c r="V5" s="52"/>
+      <c r="W5" s="53" t="n">
+        <f>SUM(W2:W4)</f>
+        <v>389.04109589041104</v>
+      </c>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
+    </row>
+    <row r="6" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9620,7 +9479,7 @@
     <row r="13" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9805,7 +9664,6 @@
     <row r="198" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="199" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="200" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/JavaApplication19/src/excel/Ventas.xlsx
+++ b/JavaApplication19/src/excel/Ventas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Google Drive\EPIC MOUNTAIN\ADMINISTRACIÒN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F6A99E-6C83-4E68-9AE8-EE60C06DA64C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9341EB-F053-4765-B1AF-15408949D023}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO" sheetId="1" r:id="rId1"/>
@@ -27,19 +27,11 @@
     <sheet name="DICIEMBRE" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="133">
   <si>
     <t>PRUDUCTO</t>
   </si>
@@ -410,18 +402,12 @@
     <t>PRECIO SHOP NETO</t>
   </si>
   <si>
-    <t>ADAPTADOR DE CALIPER A 203mm</t>
-  </si>
-  <si>
-    <t>PARA DISCOS DE 203mm - INCLUYE 4 TORNILLOS ALLEN - SEMINUEVO</t>
+    <t>BANDANA MULTIFUNCIONAL - VARIOS MODELOS Y COLORES - ABSORBENTE - FACIL DE LAVAR - NUEVOS</t>
   </si>
   <si>
     <t>31  julio</t>
   </si>
   <si>
-    <t>SEMINUEVO</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -431,7 +417,19 @@
     <t>1</t>
   </si>
   <si>
-    <t>200.0</t>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>LUBRICANTE DE ALTO RENDIMIENTO - PARA: CADENA, DESVIADORES, FUNDAS DE CABLE, ETC. - FACIL APLICACIÓN - TIPO GOTERO - NUEVO</t>
+  </si>
+  <si>
+    <t>14.96</t>
+  </si>
+  <si>
+    <t>30.0</t>
   </si>
 </sst>
 </file>
@@ -441,7 +439,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="197" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,6 +510,1062 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <sz val="12.0"/>
       <color indexed="8"/>
@@ -584,7 +1638,7 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -660,6 +1714,16 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF22B473"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="22B473"/>
       </patternFill>
     </fill>
     <fill>
@@ -745,7 +1809,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -890,58 +1954,583 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Salida" xfId="1" builtinId="21"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1398,7 +2987,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1725,17 +3314,17 @@
       <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="4" max="11" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="4" max="11" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="30.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1778,7 +3367,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>43837</v>
       </c>
@@ -1823,7 +3412,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>43837</v>
       </c>
@@ -1874,7 +3463,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>43837</v>
       </c>
@@ -1925,7 +3514,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>43837</v>
       </c>
@@ -1976,7 +3565,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>43837</v>
       </c>
@@ -2021,7 +3610,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>43837</v>
       </c>
@@ -2066,7 +3655,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>43850</v>
       </c>
@@ -2117,7 +3706,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>43852</v>
       </c>
@@ -2162,7 +3751,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>43859</v>
       </c>
@@ -2207,7 +3796,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>43861</v>
       </c>
@@ -2252,7 +3841,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>43861</v>
       </c>
@@ -2297,7 +3886,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2323,200 +3912,200 @@
       <c r="N13" s="6"/>
       <c r="O13" s="24"/>
     </row>
-    <row r="14" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2530,7 +4119,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2542,7 +4131,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2554,7 +4143,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2569,17 +4158,17 @@
       <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="4" max="11" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="4" max="11" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="30.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2622,7 +4211,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>43870</v>
       </c>
@@ -2667,7 +4256,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>43869</v>
       </c>
@@ -2712,7 +4301,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>43879</v>
       </c>
@@ -2763,7 +4352,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>43879</v>
       </c>
@@ -2808,7 +4397,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>43837</v>
       </c>
@@ -2859,7 +4448,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>43853</v>
       </c>
@@ -2910,7 +4499,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -2936,203 +4525,203 @@
       <c r="N8" s="6"/>
       <c r="O8" s="24"/>
     </row>
-    <row r="9" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3148,17 +4737,17 @@
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="4" max="11" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="4" max="11" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="30.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -3201,7 +4790,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>43853</v>
       </c>
@@ -3252,7 +4841,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3278,7 +4867,7 @@
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -3295,7 +4884,7 @@
       <c r="N4" s="25"/>
       <c r="O4" s="25"/>
     </row>
-    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -3312,7 +4901,7 @@
       <c r="N5" s="25"/>
       <c r="O5" s="25"/>
     </row>
-    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -3329,7 +4918,7 @@
       <c r="N6" s="25"/>
       <c r="O6" s="25"/>
     </row>
-    <row r="7" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -3346,7 +4935,7 @@
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
     </row>
-    <row r="8" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -3363,7 +4952,7 @@
       <c r="N8" s="25"/>
       <c r="O8" s="25"/>
     </row>
-    <row r="9" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -3380,7 +4969,7 @@
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
     </row>
-    <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -3397,7 +4986,7 @@
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
     </row>
-    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -3414,7 +5003,7 @@
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
     </row>
-    <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -3431,7 +5020,7 @@
       <c r="N12" s="25"/>
       <c r="O12" s="25"/>
     </row>
-    <row r="13" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -3448,7 +5037,7 @@
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
     </row>
-    <row r="14" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -3465,7 +5054,7 @@
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
     </row>
-    <row r="15" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -3482,7 +5071,7 @@
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
     </row>
-    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -3499,7 +5088,7 @@
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
     </row>
-    <row r="17" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -3516,7 +5105,7 @@
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
     </row>
-    <row r="18" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -3533,7 +5122,7 @@
       <c r="N18" s="25"/>
       <c r="O18" s="25"/>
     </row>
-    <row r="19" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
@@ -3550,7 +5139,7 @@
       <c r="N19" s="25"/>
       <c r="O19" s="25"/>
     </row>
-    <row r="20" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25"/>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
@@ -3567,7 +5156,7 @@
       <c r="N20" s="25"/>
       <c r="O20" s="25"/>
     </row>
-    <row r="21" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
@@ -3584,7 +5173,7 @@
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
     </row>
-    <row r="22" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -3601,7 +5190,7 @@
       <c r="N22" s="25"/>
       <c r="O22" s="25"/>
     </row>
-    <row r="23" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -3618,7 +5207,7 @@
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
     </row>
-    <row r="24" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="25"/>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
@@ -3635,7 +5224,7 @@
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
     </row>
-    <row r="25" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="25"/>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
@@ -3652,7 +5241,7 @@
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
     </row>
-    <row r="26" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="25"/>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
@@ -3669,7 +5258,7 @@
       <c r="N26" s="25"/>
       <c r="O26" s="25"/>
     </row>
-    <row r="27" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="25"/>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
@@ -3686,7 +5275,7 @@
       <c r="N27" s="25"/>
       <c r="O27" s="25"/>
     </row>
-    <row r="28" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="25"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
@@ -3703,7 +5292,7 @@
       <c r="N28" s="25"/>
       <c r="O28" s="25"/>
     </row>
-    <row r="29" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="25"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -3720,7 +5309,7 @@
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
     </row>
-    <row r="30" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
@@ -3737,7 +5326,7 @@
       <c r="N30" s="25"/>
       <c r="O30" s="25"/>
     </row>
-    <row r="31" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="25"/>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
@@ -3754,7 +5343,7 @@
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
     </row>
-    <row r="32" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="25"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
@@ -3771,7 +5360,7 @@
       <c r="N32" s="25"/>
       <c r="O32" s="25"/>
     </row>
-    <row r="33" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
@@ -3788,7 +5377,7 @@
       <c r="N33" s="25"/>
       <c r="O33" s="25"/>
     </row>
-    <row r="34" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="25"/>
       <c r="B34" s="25"/>
       <c r="C34" s="25"/>
@@ -3805,7 +5394,7 @@
       <c r="N34" s="25"/>
       <c r="O34" s="25"/>
     </row>
-    <row r="35" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="25"/>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
@@ -3822,7 +5411,7 @@
       <c r="N35" s="25"/>
       <c r="O35" s="25"/>
     </row>
-    <row r="36" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="25"/>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
@@ -3839,7 +5428,7 @@
       <c r="N36" s="25"/>
       <c r="O36" s="25"/>
     </row>
-    <row r="37" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25"/>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
@@ -3856,7 +5445,7 @@
       <c r="N37" s="25"/>
       <c r="O37" s="25"/>
     </row>
-    <row r="38" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="25"/>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
@@ -3873,7 +5462,7 @@
       <c r="N38" s="25"/>
       <c r="O38" s="25"/>
     </row>
-    <row r="39" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="25"/>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -3890,7 +5479,7 @@
       <c r="N39" s="25"/>
       <c r="O39" s="25"/>
     </row>
-    <row r="40" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="25"/>
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
@@ -3907,7 +5496,7 @@
       <c r="N40" s="25"/>
       <c r="O40" s="25"/>
     </row>
-    <row r="41" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="25"/>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
@@ -3924,7 +5513,7 @@
       <c r="N41" s="25"/>
       <c r="O41" s="25"/>
     </row>
-    <row r="42" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="25"/>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
@@ -3941,7 +5530,7 @@
       <c r="N42" s="25"/>
       <c r="O42" s="25"/>
     </row>
-    <row r="43" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="25"/>
       <c r="B43" s="25"/>
       <c r="C43" s="25"/>
@@ -3958,7 +5547,7 @@
       <c r="N43" s="25"/>
       <c r="O43" s="25"/>
     </row>
-    <row r="44" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="25"/>
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
@@ -3975,7 +5564,7 @@
       <c r="N44" s="25"/>
       <c r="O44" s="25"/>
     </row>
-    <row r="45" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="25"/>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
@@ -3992,7 +5581,7 @@
       <c r="N45" s="25"/>
       <c r="O45" s="25"/>
     </row>
-    <row r="46" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="25"/>
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
@@ -4009,7 +5598,7 @@
       <c r="N46" s="25"/>
       <c r="O46" s="25"/>
     </row>
-    <row r="47" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="25"/>
       <c r="B47" s="25"/>
       <c r="C47" s="25"/>
@@ -4026,7 +5615,7 @@
       <c r="N47" s="25"/>
       <c r="O47" s="25"/>
     </row>
-    <row r="48" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="25"/>
       <c r="B48" s="25"/>
       <c r="C48" s="25"/>
@@ -4043,7 +5632,7 @@
       <c r="N48" s="25"/>
       <c r="O48" s="25"/>
     </row>
-    <row r="49" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="25"/>
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
@@ -4060,7 +5649,7 @@
       <c r="N49" s="25"/>
       <c r="O49" s="25"/>
     </row>
-    <row r="50" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="25"/>
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
@@ -4077,7 +5666,7 @@
       <c r="N50" s="25"/>
       <c r="O50" s="25"/>
     </row>
-    <row r="51" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="25"/>
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
@@ -4094,7 +5683,7 @@
       <c r="N51" s="25"/>
       <c r="O51" s="25"/>
     </row>
-    <row r="52" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="25"/>
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
@@ -4111,7 +5700,7 @@
       <c r="N52" s="25"/>
       <c r="O52" s="25"/>
     </row>
-    <row r="53" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="25"/>
       <c r="B53" s="25"/>
       <c r="C53" s="25"/>
@@ -4128,7 +5717,7 @@
       <c r="N53" s="25"/>
       <c r="O53" s="25"/>
     </row>
-    <row r="54" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="25"/>
       <c r="B54" s="25"/>
       <c r="C54" s="25"/>
@@ -4145,7 +5734,7 @@
       <c r="N54" s="25"/>
       <c r="O54" s="25"/>
     </row>
-    <row r="55" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
       <c r="C55" s="25"/>
@@ -4162,7 +5751,7 @@
       <c r="N55" s="25"/>
       <c r="O55" s="25"/>
     </row>
-    <row r="56" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="25"/>
@@ -4179,7 +5768,7 @@
       <c r="N56" s="25"/>
       <c r="O56" s="25"/>
     </row>
-    <row r="57" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="25"/>
       <c r="B57" s="25"/>
       <c r="C57" s="25"/>
@@ -4196,7 +5785,7 @@
       <c r="N57" s="25"/>
       <c r="O57" s="25"/>
     </row>
-    <row r="58" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="25"/>
       <c r="B58" s="25"/>
       <c r="C58" s="25"/>
@@ -4213,7 +5802,7 @@
       <c r="N58" s="25"/>
       <c r="O58" s="25"/>
     </row>
-    <row r="59" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="25"/>
       <c r="B59" s="25"/>
       <c r="C59" s="25"/>
@@ -4230,7 +5819,7 @@
       <c r="N59" s="25"/>
       <c r="O59" s="25"/>
     </row>
-    <row r="60" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="25"/>
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
@@ -4247,7 +5836,7 @@
       <c r="N60" s="25"/>
       <c r="O60" s="25"/>
     </row>
-    <row r="61" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="25"/>
       <c r="B61" s="25"/>
       <c r="C61" s="25"/>
@@ -4264,7 +5853,7 @@
       <c r="N61" s="25"/>
       <c r="O61" s="25"/>
     </row>
-    <row r="62" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="25"/>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
@@ -4281,7 +5870,7 @@
       <c r="N62" s="25"/>
       <c r="O62" s="25"/>
     </row>
-    <row r="63" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="25"/>
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
@@ -4298,7 +5887,7 @@
       <c r="N63" s="25"/>
       <c r="O63" s="25"/>
     </row>
-    <row r="64" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="25"/>
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
@@ -4315,7 +5904,7 @@
       <c r="N64" s="25"/>
       <c r="O64" s="25"/>
     </row>
-    <row r="65" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="25"/>
       <c r="B65" s="25"/>
       <c r="C65" s="25"/>
@@ -4332,7 +5921,7 @@
       <c r="N65" s="25"/>
       <c r="O65" s="25"/>
     </row>
-    <row r="66" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="25"/>
       <c r="B66" s="25"/>
       <c r="C66" s="25"/>
@@ -4349,7 +5938,7 @@
       <c r="N66" s="25"/>
       <c r="O66" s="25"/>
     </row>
-    <row r="67" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="25"/>
       <c r="B67" s="25"/>
       <c r="C67" s="25"/>
@@ -4366,7 +5955,7 @@
       <c r="N67" s="25"/>
       <c r="O67" s="25"/>
     </row>
-    <row r="68" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="25"/>
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
@@ -4383,7 +5972,7 @@
       <c r="N68" s="25"/>
       <c r="O68" s="25"/>
     </row>
-    <row r="69" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="25"/>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
@@ -4400,7 +5989,7 @@
       <c r="N69" s="25"/>
       <c r="O69" s="25"/>
     </row>
-    <row r="70" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="25"/>
       <c r="B70" s="25"/>
       <c r="C70" s="25"/>
@@ -4417,7 +6006,7 @@
       <c r="N70" s="25"/>
       <c r="O70" s="25"/>
     </row>
-    <row r="71" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="25"/>
       <c r="B71" s="25"/>
       <c r="C71" s="25"/>
@@ -4434,7 +6023,7 @@
       <c r="N71" s="25"/>
       <c r="O71" s="25"/>
     </row>
-    <row r="72" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="25"/>
       <c r="B72" s="25"/>
       <c r="C72" s="25"/>
@@ -4451,7 +6040,7 @@
       <c r="N72" s="25"/>
       <c r="O72" s="25"/>
     </row>
-    <row r="73" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="25"/>
       <c r="B73" s="25"/>
       <c r="C73" s="25"/>
@@ -4468,7 +6057,7 @@
       <c r="N73" s="25"/>
       <c r="O73" s="25"/>
     </row>
-    <row r="74" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="25"/>
       <c r="B74" s="25"/>
       <c r="C74" s="25"/>
@@ -4485,7 +6074,7 @@
       <c r="N74" s="25"/>
       <c r="O74" s="25"/>
     </row>
-    <row r="75" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="25"/>
       <c r="B75" s="25"/>
       <c r="C75" s="25"/>
@@ -4502,7 +6091,7 @@
       <c r="N75" s="25"/>
       <c r="O75" s="25"/>
     </row>
-    <row r="76" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="25"/>
       <c r="B76" s="25"/>
       <c r="C76" s="25"/>
@@ -4519,7 +6108,7 @@
       <c r="N76" s="25"/>
       <c r="O76" s="25"/>
     </row>
-    <row r="77" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="25"/>
       <c r="B77" s="25"/>
       <c r="C77" s="25"/>
@@ -4536,7 +6125,7 @@
       <c r="N77" s="25"/>
       <c r="O77" s="25"/>
     </row>
-    <row r="78" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="25"/>
       <c r="B78" s="25"/>
       <c r="C78" s="25"/>
@@ -4553,7 +6142,7 @@
       <c r="N78" s="25"/>
       <c r="O78" s="25"/>
     </row>
-    <row r="79" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="25"/>
       <c r="B79" s="25"/>
       <c r="C79" s="25"/>
@@ -4570,7 +6159,7 @@
       <c r="N79" s="25"/>
       <c r="O79" s="25"/>
     </row>
-    <row r="80" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="25"/>
       <c r="B80" s="25"/>
       <c r="C80" s="25"/>
@@ -4587,7 +6176,7 @@
       <c r="N80" s="25"/>
       <c r="O80" s="25"/>
     </row>
-    <row r="81" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="25"/>
       <c r="B81" s="25"/>
       <c r="C81" s="25"/>
@@ -4604,7 +6193,7 @@
       <c r="N81" s="25"/>
       <c r="O81" s="25"/>
     </row>
-    <row r="82" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="25"/>
       <c r="B82" s="25"/>
       <c r="C82" s="25"/>
@@ -4621,7 +6210,7 @@
       <c r="N82" s="25"/>
       <c r="O82" s="25"/>
     </row>
-    <row r="83" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="25"/>
       <c r="B83" s="25"/>
       <c r="C83" s="25"/>
@@ -4638,7 +6227,7 @@
       <c r="N83" s="25"/>
       <c r="O83" s="25"/>
     </row>
-    <row r="84" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="25"/>
       <c r="B84" s="25"/>
       <c r="C84" s="25"/>
@@ -4655,7 +6244,7 @@
       <c r="N84" s="25"/>
       <c r="O84" s="25"/>
     </row>
-    <row r="85" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="25"/>
       <c r="B85" s="25"/>
       <c r="C85" s="25"/>
@@ -4672,7 +6261,7 @@
       <c r="N85" s="25"/>
       <c r="O85" s="25"/>
     </row>
-    <row r="86" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="25"/>
       <c r="B86" s="25"/>
       <c r="C86" s="25"/>
@@ -4689,7 +6278,7 @@
       <c r="N86" s="25"/>
       <c r="O86" s="25"/>
     </row>
-    <row r="87" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="25"/>
       <c r="B87" s="25"/>
       <c r="C87" s="25"/>
@@ -4706,7 +6295,7 @@
       <c r="N87" s="25"/>
       <c r="O87" s="25"/>
     </row>
-    <row r="88" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="25"/>
       <c r="B88" s="25"/>
       <c r="C88" s="25"/>
@@ -4723,7 +6312,7 @@
       <c r="N88" s="25"/>
       <c r="O88" s="25"/>
     </row>
-    <row r="89" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="25"/>
       <c r="B89" s="25"/>
       <c r="C89" s="25"/>
@@ -4740,7 +6329,7 @@
       <c r="N89" s="25"/>
       <c r="O89" s="25"/>
     </row>
-    <row r="90" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="25"/>
       <c r="B90" s="25"/>
       <c r="C90" s="25"/>
@@ -4757,7 +6346,7 @@
       <c r="N90" s="25"/>
       <c r="O90" s="25"/>
     </row>
-    <row r="91" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="25"/>
       <c r="B91" s="25"/>
       <c r="C91" s="25"/>
@@ -4774,7 +6363,7 @@
       <c r="N91" s="25"/>
       <c r="O91" s="25"/>
     </row>
-    <row r="92" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="25"/>
       <c r="B92" s="25"/>
       <c r="C92" s="25"/>
@@ -4791,7 +6380,7 @@
       <c r="N92" s="25"/>
       <c r="O92" s="25"/>
     </row>
-    <row r="93" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="25"/>
       <c r="B93" s="25"/>
       <c r="C93" s="25"/>
@@ -4808,7 +6397,7 @@
       <c r="N93" s="25"/>
       <c r="O93" s="25"/>
     </row>
-    <row r="94" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="25"/>
       <c r="B94" s="25"/>
       <c r="C94" s="25"/>
@@ -4825,7 +6414,7 @@
       <c r="N94" s="25"/>
       <c r="O94" s="25"/>
     </row>
-    <row r="95" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="25"/>
       <c r="B95" s="25"/>
       <c r="C95" s="25"/>
@@ -4842,7 +6431,7 @@
       <c r="N95" s="25"/>
       <c r="O95" s="25"/>
     </row>
-    <row r="96" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="25"/>
       <c r="B96" s="25"/>
       <c r="C96" s="25"/>
@@ -4859,7 +6448,7 @@
       <c r="N96" s="25"/>
       <c r="O96" s="25"/>
     </row>
-    <row r="97" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="25"/>
       <c r="B97" s="25"/>
       <c r="C97" s="25"/>
@@ -4876,7 +6465,7 @@
       <c r="N97" s="25"/>
       <c r="O97" s="25"/>
     </row>
-    <row r="98" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="25"/>
       <c r="B98" s="25"/>
       <c r="C98" s="25"/>
@@ -4893,7 +6482,7 @@
       <c r="N98" s="25"/>
       <c r="O98" s="25"/>
     </row>
-    <row r="99" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="25"/>
       <c r="B99" s="25"/>
       <c r="C99" s="25"/>
@@ -4910,7 +6499,7 @@
       <c r="N99" s="25"/>
       <c r="O99" s="25"/>
     </row>
-    <row r="100" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="25"/>
       <c r="B100" s="25"/>
       <c r="C100" s="25"/>
@@ -4941,16 +6530,16 @@
       <selection activeCell="N1" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="4" max="13" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="15" max="24" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="4" max="13" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="15" max="24" customWidth="true" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -4992,7 +6581,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>43937</v>
       </c>
@@ -5036,7 +6625,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>43853</v>
       </c>
@@ -5086,7 +6675,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>43853</v>
       </c>
@@ -5136,7 +6725,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>43853</v>
       </c>
@@ -5180,7 +6769,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -5205,129 +6794,129 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5343,16 +6932,16 @@
       <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="4" max="15" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="17" max="28" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="4" max="15" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="17" max="28" customWidth="true" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -5412,7 +7001,7 @@
       <c r="AA1" s="25"/>
       <c r="AB1" s="25"/>
     </row>
-    <row r="2" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="26">
         <v>43837</v>
       </c>
@@ -5481,7 +7070,7 @@
       <c r="AA2" s="25"/>
       <c r="AB2" s="25"/>
     </row>
-    <row r="3" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>43853</v>
       </c>
@@ -5551,7 +7140,7 @@
       <c r="AA3" s="25"/>
       <c r="AB3" s="25"/>
     </row>
-    <row r="4" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>43853</v>
       </c>
@@ -5620,7 +7209,7 @@
       <c r="AA4" s="25"/>
       <c r="AB4" s="25"/>
     </row>
-    <row r="5" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29">
         <v>43853</v>
       </c>
@@ -5690,7 +7279,7 @@
       <c r="AA5" s="25"/>
       <c r="AB5" s="25"/>
     </row>
-    <row r="6" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>43847</v>
       </c>
@@ -5754,7 +7343,7 @@
       <c r="AA6" s="25"/>
       <c r="AB6" s="25"/>
     </row>
-    <row r="7" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>43837</v>
       </c>
@@ -5818,7 +7407,7 @@
       <c r="AA7" s="25"/>
       <c r="AB7" s="25"/>
     </row>
-    <row r="8" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -5860,7 +7449,7 @@
       <c r="AA8" s="25"/>
       <c r="AB8" s="25"/>
     </row>
-    <row r="9" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -5890,7 +7479,7 @@
       <c r="AA9" s="25"/>
       <c r="AB9" s="25"/>
     </row>
-    <row r="10" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -5920,7 +7509,7 @@
       <c r="AA10" s="25"/>
       <c r="AB10" s="25"/>
     </row>
-    <row r="11" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -5950,7 +7539,7 @@
       <c r="AA11" s="25"/>
       <c r="AB11" s="25"/>
     </row>
-    <row r="12" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -5980,7 +7569,7 @@
       <c r="AA12" s="25"/>
       <c r="AB12" s="25"/>
     </row>
-    <row r="13" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -6010,7 +7599,7 @@
       <c r="AA13" s="25"/>
       <c r="AB13" s="25"/>
     </row>
-    <row r="14" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -6040,7 +7629,7 @@
       <c r="AA14" s="25"/>
       <c r="AB14" s="25"/>
     </row>
-    <row r="15" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -6070,7 +7659,7 @@
       <c r="AA15" s="25"/>
       <c r="AB15" s="25"/>
     </row>
-    <row r="16" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -6100,7 +7689,7 @@
       <c r="AA16" s="25"/>
       <c r="AB16" s="25"/>
     </row>
-    <row r="17" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -6130,7 +7719,7 @@
       <c r="AA17" s="25"/>
       <c r="AB17" s="25"/>
     </row>
-    <row r="18" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -6160,7 +7749,7 @@
       <c r="AA18" s="25"/>
       <c r="AB18" s="25"/>
     </row>
-    <row r="19" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -6190,7 +7779,7 @@
       <c r="AA19" s="25"/>
       <c r="AB19" s="25"/>
     </row>
-    <row r="20" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -6220,7 +7809,7 @@
       <c r="AA20" s="25"/>
       <c r="AB20" s="25"/>
     </row>
-    <row r="21" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -6250,7 +7839,7 @@
       <c r="AA21" s="25"/>
       <c r="AB21" s="25"/>
     </row>
-    <row r="22" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -6280,7 +7869,7 @@
       <c r="AA22" s="25"/>
       <c r="AB22" s="25"/>
     </row>
-    <row r="23" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -6310,7 +7899,7 @@
       <c r="AA23" s="25"/>
       <c r="AB23" s="25"/>
     </row>
-    <row r="24" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -6340,7 +7929,7 @@
       <c r="AA24" s="25"/>
       <c r="AB24" s="25"/>
     </row>
-    <row r="25" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -6370,7 +7959,7 @@
       <c r="AA25" s="25"/>
       <c r="AB25" s="25"/>
     </row>
-    <row r="26" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -6400,7 +7989,7 @@
       <c r="AA26" s="25"/>
       <c r="AB26" s="25"/>
     </row>
-    <row r="27" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -6430,7 +8019,7 @@
       <c r="AA27" s="25"/>
       <c r="AB27" s="25"/>
     </row>
-    <row r="28" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -6460,7 +8049,7 @@
       <c r="AA28" s="25"/>
       <c r="AB28" s="25"/>
     </row>
-    <row r="29" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
@@ -6490,7 +8079,7 @@
       <c r="AA29" s="25"/>
       <c r="AB29" s="25"/>
     </row>
-    <row r="30" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -6520,7 +8109,7 @@
       <c r="AA30" s="25"/>
       <c r="AB30" s="25"/>
     </row>
-    <row r="31" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="19"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -6550,7 +8139,7 @@
       <c r="AA31" s="25"/>
       <c r="AB31" s="25"/>
     </row>
-    <row r="32" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -6580,7 +8169,7 @@
       <c r="AA32" s="25"/>
       <c r="AB32" s="25"/>
     </row>
-    <row r="33" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -6610,7 +8199,7 @@
       <c r="AA33" s="25"/>
       <c r="AB33" s="25"/>
     </row>
-    <row r="34" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -6640,7 +8229,7 @@
       <c r="AA34" s="25"/>
       <c r="AB34" s="25"/>
     </row>
-    <row r="35" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -6670,7 +8259,7 @@
       <c r="AA35" s="25"/>
       <c r="AB35" s="25"/>
     </row>
-    <row r="36" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -6700,7 +8289,7 @@
       <c r="AA36" s="25"/>
       <c r="AB36" s="25"/>
     </row>
-    <row r="37" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -6730,7 +8319,7 @@
       <c r="AA37" s="25"/>
       <c r="AB37" s="25"/>
     </row>
-    <row r="38" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
@@ -6760,7 +8349,7 @@
       <c r="AA38" s="25"/>
       <c r="AB38" s="25"/>
     </row>
-    <row r="39" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -6790,7 +8379,7 @@
       <c r="AA39" s="25"/>
       <c r="AB39" s="25"/>
     </row>
-    <row r="40" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19"/>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -6820,7 +8409,7 @@
       <c r="AA40" s="25"/>
       <c r="AB40" s="25"/>
     </row>
-    <row r="41" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="19"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -6850,7 +8439,7 @@
       <c r="AA41" s="25"/>
       <c r="AB41" s="25"/>
     </row>
-    <row r="42" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -6880,7 +8469,7 @@
       <c r="AA42" s="25"/>
       <c r="AB42" s="25"/>
     </row>
-    <row r="43" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="19"/>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -6910,7 +8499,7 @@
       <c r="AA43" s="25"/>
       <c r="AB43" s="25"/>
     </row>
-    <row r="44" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
@@ -6940,7 +8529,7 @@
       <c r="AA44" s="25"/>
       <c r="AB44" s="25"/>
     </row>
-    <row r="45" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="19"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
@@ -6970,7 +8559,7 @@
       <c r="AA45" s="25"/>
       <c r="AB45" s="25"/>
     </row>
-    <row r="46" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="19"/>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
@@ -7000,7 +8589,7 @@
       <c r="AA46" s="25"/>
       <c r="AB46" s="25"/>
     </row>
-    <row r="47" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="19"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
@@ -7030,7 +8619,7 @@
       <c r="AA47" s="25"/>
       <c r="AB47" s="25"/>
     </row>
-    <row r="48" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
@@ -7060,7 +8649,7 @@
       <c r="AA48" s="25"/>
       <c r="AB48" s="25"/>
     </row>
-    <row r="49" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="19"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
@@ -7090,7 +8679,7 @@
       <c r="AA49" s="25"/>
       <c r="AB49" s="25"/>
     </row>
-    <row r="50" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
@@ -7120,7 +8709,7 @@
       <c r="AA50" s="25"/>
       <c r="AB50" s="25"/>
     </row>
-    <row r="51" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="19"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
@@ -7150,7 +8739,7 @@
       <c r="AA51" s="25"/>
       <c r="AB51" s="25"/>
     </row>
-    <row r="52" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="19"/>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
@@ -7180,7 +8769,7 @@
       <c r="AA52" s="25"/>
       <c r="AB52" s="25"/>
     </row>
-    <row r="53" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="19"/>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
@@ -7210,7 +8799,7 @@
       <c r="AA53" s="25"/>
       <c r="AB53" s="25"/>
     </row>
-    <row r="54" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="19"/>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
@@ -7240,7 +8829,7 @@
       <c r="AA54" s="25"/>
       <c r="AB54" s="25"/>
     </row>
-    <row r="55" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="19"/>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
@@ -7270,7 +8859,7 @@
       <c r="AA55" s="25"/>
       <c r="AB55" s="25"/>
     </row>
-    <row r="56" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="19"/>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
@@ -7300,7 +8889,7 @@
       <c r="AA56" s="25"/>
       <c r="AB56" s="25"/>
     </row>
-    <row r="57" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="19"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -7330,7 +8919,7 @@
       <c r="AA57" s="25"/>
       <c r="AB57" s="25"/>
     </row>
-    <row r="58" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="19"/>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
@@ -7360,7 +8949,7 @@
       <c r="AA58" s="25"/>
       <c r="AB58" s="25"/>
     </row>
-    <row r="59" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="19"/>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
@@ -7390,7 +8979,7 @@
       <c r="AA59" s="25"/>
       <c r="AB59" s="25"/>
     </row>
-    <row r="60" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19"/>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
@@ -7420,7 +9009,7 @@
       <c r="AA60" s="25"/>
       <c r="AB60" s="25"/>
     </row>
-    <row r="61" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="19"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
@@ -7450,7 +9039,7 @@
       <c r="AA61" s="25"/>
       <c r="AB61" s="25"/>
     </row>
-    <row r="62" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="19"/>
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
@@ -7480,7 +9069,7 @@
       <c r="AA62" s="25"/>
       <c r="AB62" s="25"/>
     </row>
-    <row r="63" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="19"/>
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
@@ -7510,7 +9099,7 @@
       <c r="AA63" s="25"/>
       <c r="AB63" s="25"/>
     </row>
-    <row r="64" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="19"/>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
@@ -7540,7 +9129,7 @@
       <c r="AA64" s="25"/>
       <c r="AB64" s="25"/>
     </row>
-    <row r="65" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="19"/>
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
@@ -7570,7 +9159,7 @@
       <c r="AA65" s="25"/>
       <c r="AB65" s="25"/>
     </row>
-    <row r="66" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="19"/>
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
@@ -7600,7 +9189,7 @@
       <c r="AA66" s="25"/>
       <c r="AB66" s="25"/>
     </row>
-    <row r="67" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="19"/>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
@@ -7630,7 +9219,7 @@
       <c r="AA67" s="25"/>
       <c r="AB67" s="25"/>
     </row>
-    <row r="68" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="19"/>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
@@ -7660,7 +9249,7 @@
       <c r="AA68" s="25"/>
       <c r="AB68" s="25"/>
     </row>
-    <row r="69" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="19"/>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
@@ -7690,7 +9279,7 @@
       <c r="AA69" s="25"/>
       <c r="AB69" s="25"/>
     </row>
-    <row r="70" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="19"/>
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
@@ -7720,7 +9309,7 @@
       <c r="AA70" s="25"/>
       <c r="AB70" s="25"/>
     </row>
-    <row r="71" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="19"/>
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
@@ -7750,7 +9339,7 @@
       <c r="AA71" s="25"/>
       <c r="AB71" s="25"/>
     </row>
-    <row r="72" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="19"/>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
@@ -7780,7 +9369,7 @@
       <c r="AA72" s="25"/>
       <c r="AB72" s="25"/>
     </row>
-    <row r="73" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="19"/>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
@@ -7810,7 +9399,7 @@
       <c r="AA73" s="25"/>
       <c r="AB73" s="25"/>
     </row>
-    <row r="74" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="19"/>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
@@ -7840,7 +9429,7 @@
       <c r="AA74" s="25"/>
       <c r="AB74" s="25"/>
     </row>
-    <row r="75" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="19"/>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
@@ -7870,7 +9459,7 @@
       <c r="AA75" s="25"/>
       <c r="AB75" s="25"/>
     </row>
-    <row r="76" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="19"/>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
@@ -7900,7 +9489,7 @@
       <c r="AA76" s="25"/>
       <c r="AB76" s="25"/>
     </row>
-    <row r="77" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="19"/>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -7930,7 +9519,7 @@
       <c r="AA77" s="25"/>
       <c r="AB77" s="25"/>
     </row>
-    <row r="78" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="19"/>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
@@ -7960,7 +9549,7 @@
       <c r="AA78" s="25"/>
       <c r="AB78" s="25"/>
     </row>
-    <row r="79" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="19"/>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
@@ -7990,7 +9579,7 @@
       <c r="AA79" s="25"/>
       <c r="AB79" s="25"/>
     </row>
-    <row r="80" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="19"/>
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
@@ -8020,7 +9609,7 @@
       <c r="AA80" s="25"/>
       <c r="AB80" s="25"/>
     </row>
-    <row r="81" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="19"/>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
@@ -8050,7 +9639,7 @@
       <c r="AA81" s="25"/>
       <c r="AB81" s="25"/>
     </row>
-    <row r="82" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="19"/>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
@@ -8080,7 +9669,7 @@
       <c r="AA82" s="25"/>
       <c r="AB82" s="25"/>
     </row>
-    <row r="83" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="19"/>
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
@@ -8110,7 +9699,7 @@
       <c r="AA83" s="25"/>
       <c r="AB83" s="25"/>
     </row>
-    <row r="84" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="19"/>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
@@ -8140,7 +9729,7 @@
       <c r="AA84" s="25"/>
       <c r="AB84" s="25"/>
     </row>
-    <row r="85" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="19"/>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
@@ -8170,7 +9759,7 @@
       <c r="AA85" s="25"/>
       <c r="AB85" s="25"/>
     </row>
-    <row r="86" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="19"/>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
@@ -8200,7 +9789,7 @@
       <c r="AA86" s="25"/>
       <c r="AB86" s="25"/>
     </row>
-    <row r="87" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="19"/>
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
@@ -8230,7 +9819,7 @@
       <c r="AA87" s="25"/>
       <c r="AB87" s="25"/>
     </row>
-    <row r="88" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="19"/>
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
@@ -8260,7 +9849,7 @@
       <c r="AA88" s="25"/>
       <c r="AB88" s="25"/>
     </row>
-    <row r="89" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="19"/>
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
@@ -8290,7 +9879,7 @@
       <c r="AA89" s="25"/>
       <c r="AB89" s="25"/>
     </row>
-    <row r="90" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="19"/>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
@@ -8320,7 +9909,7 @@
       <c r="AA90" s="25"/>
       <c r="AB90" s="25"/>
     </row>
-    <row r="91" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="19"/>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
@@ -8350,7 +9939,7 @@
       <c r="AA91" s="25"/>
       <c r="AB91" s="25"/>
     </row>
-    <row r="92" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="19"/>
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
@@ -8380,7 +9969,7 @@
       <c r="AA92" s="25"/>
       <c r="AB92" s="25"/>
     </row>
-    <row r="93" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="19"/>
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
@@ -8410,7 +9999,7 @@
       <c r="AA93" s="25"/>
       <c r="AB93" s="25"/>
     </row>
-    <row r="94" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="19"/>
       <c r="B94" s="19"/>
       <c r="C94" s="19"/>
@@ -8440,7 +10029,7 @@
       <c r="AA94" s="25"/>
       <c r="AB94" s="25"/>
     </row>
-    <row r="95" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="19"/>
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
@@ -8470,7 +10059,7 @@
       <c r="AA95" s="25"/>
       <c r="AB95" s="25"/>
     </row>
-    <row r="96" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="19"/>
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
@@ -8500,7 +10089,7 @@
       <c r="AA96" s="25"/>
       <c r="AB96" s="25"/>
     </row>
-    <row r="97" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="19"/>
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
@@ -8530,7 +10119,7 @@
       <c r="AA97" s="25"/>
       <c r="AB97" s="25"/>
     </row>
-    <row r="98" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="19"/>
       <c r="B98" s="19"/>
       <c r="C98" s="19"/>
@@ -8560,7 +10149,7 @@
       <c r="AA98" s="25"/>
       <c r="AB98" s="25"/>
     </row>
-    <row r="99" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="19"/>
       <c r="B99" s="19"/>
       <c r="C99" s="19"/>
@@ -8590,7 +10179,7 @@
       <c r="AA99" s="25"/>
       <c r="AB99" s="25"/>
     </row>
-    <row r="100" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="19"/>
       <c r="B100" s="19"/>
       <c r="C100" s="19"/>
@@ -8620,7 +10209,7 @@
       <c r="AA100" s="25"/>
       <c r="AB100" s="25"/>
     </row>
-    <row r="101" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="19"/>
       <c r="B101" s="19"/>
       <c r="C101" s="19"/>
@@ -8650,7 +10239,7 @@
       <c r="AA101" s="25"/>
       <c r="AB101" s="25"/>
     </row>
-    <row r="102" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="19"/>
       <c r="B102" s="19"/>
       <c r="C102" s="19"/>
@@ -8680,7 +10269,7 @@
       <c r="AA102" s="25"/>
       <c r="AB102" s="25"/>
     </row>
-    <row r="103" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="19"/>
       <c r="B103" s="19"/>
       <c r="C103" s="19"/>
@@ -8710,7 +10299,7 @@
       <c r="AA103" s="25"/>
       <c r="AB103" s="25"/>
     </row>
-    <row r="104" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="19"/>
       <c r="B104" s="19"/>
       <c r="C104" s="19"/>
@@ -8740,7 +10329,7 @@
       <c r="AA104" s="25"/>
       <c r="AB104" s="25"/>
     </row>
-    <row r="105" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="19"/>
       <c r="B105" s="19"/>
       <c r="C105" s="19"/>
@@ -8785,19 +10374,19 @@
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="50.7109375" collapsed="true"/>
-    <col min="4" max="19" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="21" max="26" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="50.6640625" collapsed="true"/>
+    <col min="4" max="19" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="21" max="26" customWidth="true" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50"/>
-      <c r="B1" s="51"/>
+    <row r="1" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="59"/>
+      <c r="B1" s="60"/>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
@@ -8853,7 +10442,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>43837</v>
       </c>
@@ -8911,7 +10500,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -8951,98 +10540,98 @@
       </c>
       <c r="T3" s="6"/>
     </row>
-    <row r="4" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -9057,20 +10646,20 @@
   <dimension ref="A1:Y200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W6" sqref="W6"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:Y9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="40.7109375" collapsed="true"/>
-    <col min="3" max="23" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="24" max="25" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="1" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="3" max="23" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="24" max="25" customWidth="true" width="40.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34"/>
       <c r="B1" s="35" t="s">
         <v>1</v>
@@ -9145,7 +10734,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>107</v>
       </c>
@@ -9238,7 +10827,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
         <v>111</v>
       </c>
@@ -9325,7 +10914,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>113</v>
       </c>
@@ -9418,252 +11007,558 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="53" t="n">
-        <f>SUM(I2:I4)</f>
-        <v>1060.958904109589</v>
-      </c>
-      <c r="J5" s="52"/>
-      <c r="K5" s="53" t="n">
-        <f>SUM(K2:K4)</f>
-        <v>1450.0</v>
-      </c>
-      <c r="L5" s="52"/>
-      <c r="M5" s="53" t="n">
-        <f>SUM(M2:M4)</f>
+    <row r="5" ht="28.8" customHeight="true">
+      <c r="A5" t="s" s="69">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s" s="70">
+        <v>123</v>
+      </c>
+      <c r="C5" t="s" s="71">
+        <v>124</v>
+      </c>
+      <c r="D5" t="s" s="72">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s" s="73">
+        <v>125</v>
+      </c>
+      <c r="F5" t="s" s="74">
+        <v>126</v>
+      </c>
+      <c r="G5" t="s" s="75">
+        <v>127</v>
+      </c>
+      <c r="H5" t="s" s="76">
+        <v>128</v>
+      </c>
+      <c r="I5" t="n" s="79">
+        <v>27.0</v>
+      </c>
+      <c r="J5" t="s" s="78">
+        <v>129</v>
+      </c>
+      <c r="K5" t="n" s="80">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="6" ht="28.8" customHeight="true">
+      <c r="A6" t="s" s="89">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s" s="90">
+        <v>123</v>
+      </c>
+      <c r="C6" t="s" s="91">
+        <v>124</v>
+      </c>
+      <c r="D6" t="s" s="92">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s" s="93">
+        <v>125</v>
+      </c>
+      <c r="F6" t="s" s="94">
+        <v>126</v>
+      </c>
+      <c r="G6" t="s" s="95">
+        <v>127</v>
+      </c>
+      <c r="H6" t="s" s="96">
+        <v>128</v>
+      </c>
+      <c r="I6" t="n" s="99">
+        <v>27.0</v>
+      </c>
+      <c r="J6" t="s" s="98">
+        <v>129</v>
+      </c>
+      <c r="K6" t="n" s="100">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="7" ht="28.8" customHeight="true">
+      <c r="A7" t="s" s="109">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s" s="110">
+        <v>123</v>
+      </c>
+      <c r="C7" t="s" s="111">
+        <v>124</v>
+      </c>
+      <c r="D7" t="s" s="112">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s" s="113">
+        <v>125</v>
+      </c>
+      <c r="F7" t="s" s="114">
+        <v>126</v>
+      </c>
+      <c r="G7" t="s" s="115">
+        <v>127</v>
+      </c>
+      <c r="H7" t="s" s="116">
+        <v>128</v>
+      </c>
+      <c r="I7" t="n" s="119">
+        <v>27.0</v>
+      </c>
+      <c r="J7" t="s" s="118">
+        <v>129</v>
+      </c>
+      <c r="K7" t="n" s="120">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="8" ht="28.8" customHeight="true">
+      <c r="A8" t="s" s="129">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s" s="130">
+        <v>123</v>
+      </c>
+      <c r="C8" t="s" s="131">
+        <v>124</v>
+      </c>
+      <c r="D8" t="s" s="132">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s" s="133">
+        <v>125</v>
+      </c>
+      <c r="F8" t="s" s="134">
+        <v>126</v>
+      </c>
+      <c r="G8" t="s" s="135">
+        <v>127</v>
+      </c>
+      <c r="H8" t="s" s="136">
+        <v>128</v>
+      </c>
+      <c r="I8" t="n" s="139">
+        <v>27.0</v>
+      </c>
+      <c r="J8" t="s" s="138">
+        <v>129</v>
+      </c>
+      <c r="K8" t="n" s="140">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="9" ht="28.8" customHeight="true">
+      <c r="A9" t="s" s="149">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s" s="150">
+        <v>130</v>
+      </c>
+      <c r="C9" t="s" s="151">
+        <v>124</v>
+      </c>
+      <c r="D9" t="s" s="152">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s" s="153">
+        <v>125</v>
+      </c>
+      <c r="F9" t="s" s="154">
+        <v>126</v>
+      </c>
+      <c r="G9" t="s" s="155">
+        <v>127</v>
+      </c>
+      <c r="H9" t="s" s="156">
+        <v>131</v>
+      </c>
+      <c r="I9" t="n" s="159">
+        <v>14.96</v>
+      </c>
+      <c r="J9" t="s" s="158">
+        <v>132</v>
+      </c>
+      <c r="K9" t="n" s="160">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="10" ht="28.8" customHeight="true">
+      <c r="A10" t="s" s="169">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s" s="170">
+        <v>130</v>
+      </c>
+      <c r="C10" t="s" s="171">
+        <v>124</v>
+      </c>
+      <c r="D10" t="s" s="172">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s" s="173">
+        <v>125</v>
+      </c>
+      <c r="F10" t="s" s="174">
+        <v>126</v>
+      </c>
+      <c r="G10" t="s" s="175">
+        <v>127</v>
+      </c>
+      <c r="H10" t="s" s="176">
+        <v>131</v>
+      </c>
+      <c r="I10" t="n" s="179">
+        <v>14.96</v>
+      </c>
+      <c r="J10" t="s" s="178">
+        <v>132</v>
+      </c>
+      <c r="K10" t="n" s="180">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="11" ht="28.8" customHeight="true">
+      <c r="A11" t="s" s="189">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s" s="190">
+        <v>130</v>
+      </c>
+      <c r="C11" t="s" s="191">
+        <v>124</v>
+      </c>
+      <c r="D11" t="s" s="192">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s" s="193">
+        <v>125</v>
+      </c>
+      <c r="F11" t="s" s="194">
+        <v>126</v>
+      </c>
+      <c r="G11" t="s" s="195">
+        <v>127</v>
+      </c>
+      <c r="H11" t="s" s="196">
+        <v>131</v>
+      </c>
+      <c r="I11" t="n" s="199">
+        <v>14.96</v>
+      </c>
+      <c r="J11" t="s" s="198">
+        <v>132</v>
+      </c>
+      <c r="K11" t="n" s="200">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="12" ht="28.8" customHeight="true">
+      <c r="A12" t="s" s="209">
+        <v>82</v>
+      </c>
+      <c r="B12" t="s" s="210">
+        <v>130</v>
+      </c>
+      <c r="C12" t="s" s="211">
+        <v>124</v>
+      </c>
+      <c r="D12" t="s" s="212">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s" s="213">
+        <v>125</v>
+      </c>
+      <c r="F12" t="s" s="214">
+        <v>126</v>
+      </c>
+      <c r="G12" t="s" s="215">
+        <v>127</v>
+      </c>
+      <c r="H12" t="s" s="216">
+        <v>131</v>
+      </c>
+      <c r="I12" t="n" s="219">
+        <v>14.96</v>
+      </c>
+      <c r="J12" t="s" s="218">
+        <v>132</v>
+      </c>
+      <c r="K12" t="n" s="220">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="13" ht="28.8" customHeight="true">
+      <c r="A13" t="s" s="221">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s" s="222">
+        <v>123</v>
+      </c>
+      <c r="C13" t="s" s="223">
+        <v>124</v>
+      </c>
+      <c r="D13" t="s" s="224">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s" s="225">
+        <v>125</v>
+      </c>
+      <c r="F13" t="s" s="226">
+        <v>126</v>
+      </c>
+      <c r="G13" t="s" s="227">
+        <v>127</v>
+      </c>
+      <c r="H13" t="s" s="228">
+        <v>128</v>
+      </c>
+      <c r="I13" t="n" s="231">
+        <v>27.0</v>
+      </c>
+      <c r="J13" t="s" s="230">
+        <v>129</v>
+      </c>
+      <c r="K13" t="n" s="232">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" t="n" s="233">
+        <f>SUM(I2:I13)</f>
+        <v>1255.798904109589</v>
+      </c>
+      <c r="J14" s="50"/>
+      <c r="K14" t="n" s="234">
+        <f>SUM(K2:K13)</f>
+        <v>1870.0</v>
+      </c>
+      <c r="L14" s="50"/>
+      <c r="M14" t="n" s="235">
+        <f>SUM(M2:M13)</f>
         <v>1682.0</v>
       </c>
-      <c r="N5" s="52"/>
-      <c r="O5" s="53" t="n">
-        <f>SUM(O2:O4)</f>
+      <c r="N14" s="50"/>
+      <c r="O14" t="n" s="236">
+        <f>SUM(O2:O13)</f>
         <v>2054.3</v>
       </c>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="53" t="n">
-        <f>SUM(Q2:Q4)</f>
-        <v>267.29999999999995</v>
-      </c>
-      <c r="R5" s="52"/>
-      <c r="S5" s="53" t="n">
-        <f>SUM(S2:S4)</f>
+      <c r="P14" s="50"/>
+      <c r="Q14" t="n" s="237">
+        <f>SUM(O2:O13)</f>
+        <v>2054.3</v>
+      </c>
+      <c r="R14" s="50"/>
+      <c r="S14" t="n" s="238">
+        <f>SUM(S2:S13)</f>
         <v>232.0</v>
       </c>
-      <c r="T5" s="52"/>
-      <c r="U5" s="53" t="n">
-        <f>SUM(U2:U4)</f>
+      <c r="T14" s="50"/>
+      <c r="U14" t="n" s="239">
+        <f>SUM(U2:U13)</f>
         <v>389.04109589041104</v>
       </c>
-      <c r="V5" s="52"/>
-      <c r="W5" s="53" t="n">
-        <f>SUM(W2:W4)</f>
+      <c r="V14" s="50"/>
+      <c r="W14" t="n" s="240">
+        <f>SUM(W2:W13)</f>
         <v>389.04109589041104</v>
       </c>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
-    </row>
-    <row r="6" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="X14" s="50"/>
+      <c r="Y14" s="50"/>
+    </row>
+    <row r="15" spans="1:25" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:25" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -9677,7 +11572,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9689,7 +11584,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JavaApplication19/src/excel/Ventas.xlsx
+++ b/JavaApplication19/src/excel/Ventas.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="139">
   <si>
     <t>PRUDUCTO</t>
   </si>
@@ -430,6 +430,24 @@
   </si>
   <si>
     <t>30.0</t>
+  </si>
+  <si>
+    <t>ASIENTO GT</t>
+  </si>
+  <si>
+    <t>TALLA 144mm - MUY COMODO - SEMINUEVO</t>
+  </si>
+  <si>
+    <t>SEMINUEVO</t>
+  </si>
+  <si>
+    <t>380.0</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>1323.0</t>
   </si>
 </sst>
 </file>
@@ -439,7 +457,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="197" x14ac:knownFonts="1">
+  <fonts count="237" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,6 +574,246 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1809,7 +2067,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="281">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2525,6 +2783,126 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="196" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10643,7 +11021,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Y200"/>
+  <dimension ref="A1:Y198"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
@@ -11331,42 +11709,42 @@
       <c r="F14" s="50"/>
       <c r="G14" s="50"/>
       <c r="H14" s="50"/>
-      <c r="I14" t="n" s="233">
+      <c r="I14" t="n" s="273">
         <f>SUM(I2:I13)</f>
-        <v>1255.798904109589</v>
+        <v>2578.798904109589</v>
       </c>
       <c r="J14" s="50"/>
-      <c r="K14" t="n" s="234">
+      <c r="K14" t="n" s="274">
         <f>SUM(K2:K13)</f>
-        <v>1870.0</v>
+        <v>4810.0</v>
       </c>
       <c r="L14" s="50"/>
-      <c r="M14" t="n" s="235">
+      <c r="M14" t="n" s="275">
         <f>SUM(M2:M13)</f>
         <v>1682.0</v>
       </c>
       <c r="N14" s="50"/>
-      <c r="O14" t="n" s="236">
+      <c r="O14" t="n" s="276">
         <f>SUM(O2:O13)</f>
         <v>2054.3</v>
       </c>
       <c r="P14" s="50"/>
-      <c r="Q14" t="n" s="237">
-        <f>SUM(O2:O13)</f>
-        <v>2054.3</v>
+      <c r="Q14" t="n" s="277">
+        <f>SUM(Q2:Q13)</f>
+        <v>267.29999999999995</v>
       </c>
       <c r="R14" s="50"/>
-      <c r="S14" t="n" s="238">
+      <c r="S14" t="n" s="278">
         <f>SUM(S2:S13)</f>
         <v>232.0</v>
       </c>
       <c r="T14" s="50"/>
-      <c r="U14" t="n" s="239">
+      <c r="U14" t="n" s="279">
         <f>SUM(U2:U13)</f>
         <v>389.04109589041104</v>
       </c>
       <c r="V14" s="50"/>
-      <c r="W14" t="n" s="240">
+      <c r="W14" t="n" s="280">
         <f>SUM(W2:W13)</f>
         <v>389.04109589041104</v>
       </c>
@@ -11374,7 +11752,7 @@
       <c r="Y14" s="50"/>
     </row>
     <row r="15" spans="1:25" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:25" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11557,8 +11935,6 @@
     <row r="196" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="197" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="198" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/JavaApplication19/src/excel/Ventas.xlsx
+++ b/JavaApplication19/src/excel/Ventas.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="144">
   <si>
     <t>PRUDUCTO</t>
   </si>
@@ -448,6 +448,21 @@
   </si>
   <si>
     <t>1323.0</t>
+  </si>
+  <si>
+    <t>POTENCIA FUJI</t>
+  </si>
+  <si>
+    <t>ALTURA REGULABLE - PARA MANUBRIO 25.4mm - 15cm DE LARGO - USADO</t>
+  </si>
+  <si>
+    <t>1.9466666666666668</t>
+  </si>
+  <si>
+    <t>128.42465753424656</t>
+  </si>
+  <si>
+    <t>250.0</t>
   </si>
 </sst>
 </file>
@@ -457,7 +472,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="237" x14ac:knownFonts="1">
+  <fonts count="257" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -574,6 +589,126 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2067,7 +2202,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="281">
+  <cellXfs count="301">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2903,6 +3038,66 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="236" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11021,7 +11216,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Y198"/>
+  <dimension ref="A1:Y194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
@@ -11386,372 +11581,270 @@
       </c>
     </row>
     <row r="5" ht="28.8" customHeight="true">
-      <c r="A5" t="s" s="69">
+      <c r="A5" t="s" s="129">
         <v>21</v>
       </c>
-      <c r="B5" t="s" s="70">
+      <c r="B5" t="s" s="130">
         <v>123</v>
       </c>
-      <c r="C5" t="s" s="71">
+      <c r="C5" t="s" s="131">
         <v>124</v>
       </c>
-      <c r="D5" t="s" s="72">
+      <c r="D5" t="s" s="132">
         <v>23</v>
       </c>
-      <c r="E5" t="s" s="73">
+      <c r="E5" t="s" s="133">
         <v>125</v>
       </c>
-      <c r="F5" t="s" s="74">
+      <c r="F5" t="s" s="134">
         <v>126</v>
       </c>
-      <c r="G5" t="s" s="75">
+      <c r="G5" t="s" s="135">
         <v>127</v>
       </c>
-      <c r="H5" t="s" s="76">
+      <c r="H5" t="s" s="136">
         <v>128</v>
       </c>
-      <c r="I5" t="n" s="79">
+      <c r="I5" t="n" s="139">
         <v>27.0</v>
       </c>
-      <c r="J5" t="s" s="78">
+      <c r="J5" t="s" s="138">
         <v>129</v>
       </c>
-      <c r="K5" t="n" s="80">
+      <c r="K5" t="n" s="140">
         <v>60.0</v>
       </c>
     </row>
     <row r="6" ht="28.8" customHeight="true">
-      <c r="A6" t="s" s="89">
+      <c r="A6" t="s" s="149">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s" s="150">
+        <v>130</v>
+      </c>
+      <c r="C6" t="s" s="151">
+        <v>124</v>
+      </c>
+      <c r="D6" t="s" s="152">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s" s="153">
+        <v>125</v>
+      </c>
+      <c r="F6" t="s" s="154">
+        <v>126</v>
+      </c>
+      <c r="G6" t="s" s="155">
+        <v>127</v>
+      </c>
+      <c r="H6" t="s" s="156">
+        <v>131</v>
+      </c>
+      <c r="I6" t="n" s="159">
+        <v>14.96</v>
+      </c>
+      <c r="J6" t="s" s="158">
+        <v>132</v>
+      </c>
+      <c r="K6" t="n" s="160">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="7" ht="28.8" customHeight="true">
+      <c r="A7" t="s" s="169">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s" s="170">
+        <v>130</v>
+      </c>
+      <c r="C7" t="s" s="171">
+        <v>124</v>
+      </c>
+      <c r="D7" t="s" s="172">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s" s="173">
+        <v>125</v>
+      </c>
+      <c r="F7" t="s" s="174">
+        <v>126</v>
+      </c>
+      <c r="G7" t="s" s="175">
+        <v>127</v>
+      </c>
+      <c r="H7" t="s" s="176">
+        <v>131</v>
+      </c>
+      <c r="I7" t="n" s="179">
+        <v>14.96</v>
+      </c>
+      <c r="J7" t="s" s="178">
+        <v>132</v>
+      </c>
+      <c r="K7" t="n" s="180">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="8" ht="28.8" customHeight="true">
+      <c r="A8" t="s" s="189">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s" s="190">
+        <v>130</v>
+      </c>
+      <c r="C8" t="s" s="191">
+        <v>124</v>
+      </c>
+      <c r="D8" t="s" s="192">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s" s="193">
+        <v>125</v>
+      </c>
+      <c r="F8" t="s" s="194">
+        <v>126</v>
+      </c>
+      <c r="G8" t="s" s="195">
+        <v>127</v>
+      </c>
+      <c r="H8" t="s" s="196">
+        <v>131</v>
+      </c>
+      <c r="I8" t="n" s="199">
+        <v>14.96</v>
+      </c>
+      <c r="J8" t="s" s="198">
+        <v>132</v>
+      </c>
+      <c r="K8" t="n" s="200">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="9" ht="28.8" customHeight="true">
+      <c r="A9" t="s" s="209">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s" s="210">
+        <v>130</v>
+      </c>
+      <c r="C9" t="s" s="211">
+        <v>124</v>
+      </c>
+      <c r="D9" t="s" s="212">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s" s="213">
+        <v>125</v>
+      </c>
+      <c r="F9" t="s" s="214">
+        <v>126</v>
+      </c>
+      <c r="G9" t="s" s="215">
+        <v>127</v>
+      </c>
+      <c r="H9" t="s" s="216">
+        <v>131</v>
+      </c>
+      <c r="I9" t="n" s="219">
+        <v>14.96</v>
+      </c>
+      <c r="J9" t="s" s="218">
+        <v>132</v>
+      </c>
+      <c r="K9" t="n" s="220">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="10" ht="28.8" customHeight="true">
+      <c r="A10" t="s" s="221">
         <v>21</v>
       </c>
-      <c r="B6" t="s" s="90">
+      <c r="B10" t="s" s="222">
         <v>123</v>
       </c>
-      <c r="C6" t="s" s="91">
+      <c r="C10" t="s" s="223">
         <v>124</v>
       </c>
-      <c r="D6" t="s" s="92">
+      <c r="D10" t="s" s="224">
         <v>23</v>
       </c>
-      <c r="E6" t="s" s="93">
+      <c r="E10" t="s" s="225">
         <v>125</v>
       </c>
-      <c r="F6" t="s" s="94">
+      <c r="F10" t="s" s="226">
         <v>126</v>
       </c>
-      <c r="G6" t="s" s="95">
+      <c r="G10" t="s" s="227">
         <v>127</v>
       </c>
-      <c r="H6" t="s" s="96">
+      <c r="H10" t="s" s="228">
         <v>128</v>
       </c>
-      <c r="I6" t="n" s="99">
+      <c r="I10" t="n" s="231">
         <v>27.0</v>
       </c>
-      <c r="J6" t="s" s="98">
+      <c r="J10" t="s" s="230">
         <v>129</v>
       </c>
-      <c r="K6" t="n" s="100">
+      <c r="K10" t="n" s="232">
         <v>60.0</v>
       </c>
     </row>
-    <row r="7" ht="28.8" customHeight="true">
-      <c r="A7" t="s" s="109">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s" s="110">
-        <v>123</v>
-      </c>
-      <c r="C7" t="s" s="111">
-        <v>124</v>
-      </c>
-      <c r="D7" t="s" s="112">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s" s="113">
-        <v>125</v>
-      </c>
-      <c r="F7" t="s" s="114">
-        <v>126</v>
-      </c>
-      <c r="G7" t="s" s="115">
-        <v>127</v>
-      </c>
-      <c r="H7" t="s" s="116">
-        <v>128</v>
-      </c>
-      <c r="I7" t="n" s="119">
-        <v>27.0</v>
-      </c>
-      <c r="J7" t="s" s="118">
-        <v>129</v>
-      </c>
-      <c r="K7" t="n" s="120">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="8" ht="28.8" customHeight="true">
-      <c r="A8" t="s" s="129">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s" s="130">
-        <v>123</v>
-      </c>
-      <c r="C8" t="s" s="131">
-        <v>124</v>
-      </c>
-      <c r="D8" t="s" s="132">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s" s="133">
-        <v>125</v>
-      </c>
-      <c r="F8" t="s" s="134">
-        <v>126</v>
-      </c>
-      <c r="G8" t="s" s="135">
-        <v>127</v>
-      </c>
-      <c r="H8" t="s" s="136">
-        <v>128</v>
-      </c>
-      <c r="I8" t="n" s="139">
-        <v>27.0</v>
-      </c>
-      <c r="J8" t="s" s="138">
-        <v>129</v>
-      </c>
-      <c r="K8" t="n" s="140">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="9" ht="28.8" customHeight="true">
-      <c r="A9" t="s" s="149">
-        <v>82</v>
-      </c>
-      <c r="B9" t="s" s="150">
-        <v>130</v>
-      </c>
-      <c r="C9" t="s" s="151">
-        <v>124</v>
-      </c>
-      <c r="D9" t="s" s="152">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s" s="153">
-        <v>125</v>
-      </c>
-      <c r="F9" t="s" s="154">
-        <v>126</v>
-      </c>
-      <c r="G9" t="s" s="155">
-        <v>127</v>
-      </c>
-      <c r="H9" t="s" s="156">
-        <v>131</v>
-      </c>
-      <c r="I9" t="n" s="159">
-        <v>14.96</v>
-      </c>
-      <c r="J9" t="s" s="158">
-        <v>132</v>
-      </c>
-      <c r="K9" t="n" s="160">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="10" ht="28.8" customHeight="true">
-      <c r="A10" t="s" s="169">
-        <v>82</v>
-      </c>
-      <c r="B10" t="s" s="170">
-        <v>130</v>
-      </c>
-      <c r="C10" t="s" s="171">
-        <v>124</v>
-      </c>
-      <c r="D10" t="s" s="172">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s" s="173">
-        <v>125</v>
-      </c>
-      <c r="F10" t="s" s="174">
-        <v>126</v>
-      </c>
-      <c r="G10" t="s" s="175">
-        <v>127</v>
-      </c>
-      <c r="H10" t="s" s="176">
-        <v>131</v>
-      </c>
-      <c r="I10" t="n" s="179">
-        <v>14.96</v>
-      </c>
-      <c r="J10" t="s" s="178">
-        <v>132</v>
-      </c>
-      <c r="K10" t="n" s="180">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="11" ht="28.8" customHeight="true">
-      <c r="A11" t="s" s="189">
-        <v>82</v>
-      </c>
-      <c r="B11" t="s" s="190">
-        <v>130</v>
-      </c>
-      <c r="C11" t="s" s="191">
-        <v>124</v>
-      </c>
-      <c r="D11" t="s" s="192">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s" s="193">
-        <v>125</v>
-      </c>
-      <c r="F11" t="s" s="194">
-        <v>126</v>
-      </c>
-      <c r="G11" t="s" s="195">
-        <v>127</v>
-      </c>
-      <c r="H11" t="s" s="196">
-        <v>131</v>
-      </c>
-      <c r="I11" t="n" s="199">
-        <v>14.96</v>
-      </c>
-      <c r="J11" t="s" s="198">
-        <v>132</v>
-      </c>
-      <c r="K11" t="n" s="200">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="12" ht="28.8" customHeight="true">
-      <c r="A12" t="s" s="209">
-        <v>82</v>
-      </c>
-      <c r="B12" t="s" s="210">
-        <v>130</v>
-      </c>
-      <c r="C12" t="s" s="211">
-        <v>124</v>
-      </c>
-      <c r="D12" t="s" s="212">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s" s="213">
-        <v>125</v>
-      </c>
-      <c r="F12" t="s" s="214">
-        <v>126</v>
-      </c>
-      <c r="G12" t="s" s="215">
-        <v>127</v>
-      </c>
-      <c r="H12" t="s" s="216">
-        <v>131</v>
-      </c>
-      <c r="I12" t="n" s="219">
-        <v>14.96</v>
-      </c>
-      <c r="J12" t="s" s="218">
-        <v>132</v>
-      </c>
-      <c r="K12" t="n" s="220">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="13" ht="28.8" customHeight="true">
-      <c r="A13" t="s" s="221">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s" s="222">
-        <v>123</v>
-      </c>
-      <c r="C13" t="s" s="223">
-        <v>124</v>
-      </c>
-      <c r="D13" t="s" s="224">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s" s="225">
-        <v>125</v>
-      </c>
-      <c r="F13" t="s" s="226">
-        <v>126</v>
-      </c>
-      <c r="G13" t="s" s="227">
-        <v>127</v>
-      </c>
-      <c r="H13" t="s" s="228">
-        <v>128</v>
-      </c>
-      <c r="I13" t="n" s="231">
-        <v>27.0</v>
-      </c>
-      <c r="J13" t="s" s="230">
-        <v>129</v>
-      </c>
-      <c r="K13" t="n" s="232">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" t="n" s="273">
-        <f>SUM(I2:I13)</f>
-        <v>2578.798904109589</v>
-      </c>
-      <c r="J14" s="50"/>
-      <c r="K14" t="n" s="274">
-        <f>SUM(K2:K13)</f>
-        <v>4810.0</v>
-      </c>
-      <c r="L14" s="50"/>
-      <c r="M14" t="n" s="275">
-        <f>SUM(M2:M13)</f>
+    <row r="11" spans="1:25" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" t="n" s="293">
+        <f>SUM(I2:I10)</f>
+        <v>1330.2235616438356</v>
+      </c>
+      <c r="J11" s="50"/>
+      <c r="K11" t="n" s="294">
+        <f>SUM(K2:K10)</f>
+        <v>2000.0</v>
+      </c>
+      <c r="L11" s="50"/>
+      <c r="M11" t="n" s="295">
+        <f>SUM(M2:M10)</f>
         <v>1682.0</v>
       </c>
-      <c r="N14" s="50"/>
-      <c r="O14" t="n" s="276">
-        <f>SUM(O2:O13)</f>
+      <c r="N11" s="50"/>
+      <c r="O11" t="n" s="296">
+        <f>SUM(O2:O10)</f>
         <v>2054.3</v>
       </c>
-      <c r="P14" s="50"/>
-      <c r="Q14" t="n" s="277">
-        <f>SUM(Q2:Q13)</f>
+      <c r="P11" s="50"/>
+      <c r="Q11" t="n" s="297">
+        <f>SUM(Q2:Q10)</f>
         <v>267.29999999999995</v>
       </c>
-      <c r="R14" s="50"/>
-      <c r="S14" t="n" s="278">
-        <f>SUM(S2:S13)</f>
+      <c r="R11" s="50"/>
+      <c r="S11" t="n" s="298">
+        <f>SUM(S2:S10)</f>
         <v>232.0</v>
       </c>
-      <c r="T14" s="50"/>
-      <c r="U14" t="n" s="279">
-        <f>SUM(U2:U13)</f>
+      <c r="T11" s="50"/>
+      <c r="U11" t="n" s="299">
+        <f>SUM(U2:U10)</f>
         <v>389.04109589041104</v>
       </c>
-      <c r="V14" s="50"/>
-      <c r="W14" t="n" s="280">
-        <f>SUM(W2:W13)</f>
+      <c r="V11" s="50"/>
+      <c r="W11" t="n" s="300">
+        <f>SUM(W2:W10)</f>
         <v>389.04109589041104</v>
       </c>
-      <c r="X14" s="50"/>
-      <c r="Y14" s="50"/>
-    </row>
-    <row r="15" spans="1:25" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="50"/>
+    </row>
+    <row r="12" spans="1:25" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11931,10 +12024,6 @@
     <row r="192" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="193" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="194" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/JavaApplication19/src/excel/Ventas.xlsx
+++ b/JavaApplication19/src/excel/Ventas.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="148">
   <si>
     <t>PRUDUCTO</t>
   </si>
@@ -463,6 +463,18 @@
   </si>
   <si>
     <t>250.0</t>
+  </si>
+  <si>
+    <t>ASIENTO WTB ROCKET</t>
+  </si>
+  <si>
+    <t>TALLA 125mm - PARA MUJER - USADO</t>
+  </si>
+  <si>
+    <t>01  agosto</t>
+  </si>
+  <si>
+    <t>280.0</t>
   </si>
 </sst>
 </file>
@@ -472,7 +484,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="257" x14ac:knownFonts="1">
+  <fonts count="267" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,6 +601,66 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2202,7 +2274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="301">
+  <cellXfs count="311">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3098,6 +3170,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="256" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12033,12 +12135,45 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" ht="28.8" customHeight="true">
+      <c r="A2" t="s" s="301">
+        <v>144</v>
+      </c>
+      <c r="B2" t="s" s="302">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s" s="303">
+        <v>146</v>
+      </c>
+      <c r="D2" t="s" s="304">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s" s="305">
+        <v>125</v>
+      </c>
+      <c r="F2" t="s" s="306">
+        <v>126</v>
+      </c>
+      <c r="G2" t="s" s="307">
+        <v>127</v>
+      </c>
+      <c r="H2" t="s" s="308">
+        <v>147</v>
+      </c>
+      <c r="I2" t="s" s="309">
+        <v>147</v>
+      </c>
+      <c r="J2" t="s" s="310">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/JavaApplication19/src/excel/Ventas.xlsx
+++ b/JavaApplication19/src/excel/Ventas.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="149">
   <si>
     <t>PRUDUCTO</t>
   </si>
@@ -475,6 +475,9 @@
   </si>
   <si>
     <t>280.0</t>
+  </si>
+  <si>
+    <t>02  agosto</t>
   </si>
 </sst>
 </file>
@@ -484,7 +487,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="267" x14ac:knownFonts="1">
+  <fonts count="307" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,6 +604,246 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2274,7 +2517,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="311">
+  <cellXfs count="351">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3200,6 +3443,126 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="266" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11903,12 +12266,12 @@
       <c r="H11" s="50"/>
       <c r="I11" t="n" s="293">
         <f>SUM(I2:I10)</f>
-        <v>1330.2235616438356</v>
+        <v>1174.798904109589</v>
       </c>
       <c r="J11" s="50"/>
       <c r="K11" t="n" s="294">
         <f>SUM(K2:K10)</f>
-        <v>2000.0</v>
+        <v>1690.0</v>
       </c>
       <c r="L11" s="50"/>
       <c r="M11" t="n" s="295">
@@ -12135,42 +12498,106 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A2:J2"/>
+  <dimension ref="A2:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" ht="28.8" customHeight="true">
-      <c r="A2" t="s" s="301">
+      <c r="A2" t="s" s="311">
         <v>144</v>
       </c>
-      <c r="B2" t="s" s="302">
+      <c r="B2" t="s" s="312">
         <v>145</v>
       </c>
-      <c r="C2" t="s" s="303">
+      <c r="C2" t="s" s="313">
+        <v>148</v>
+      </c>
+      <c r="D2" t="s" s="314">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s" s="315">
+        <v>125</v>
+      </c>
+      <c r="F2" t="s" s="316">
+        <v>126</v>
+      </c>
+      <c r="G2" t="s" s="317">
+        <v>127</v>
+      </c>
+      <c r="H2" t="s" s="318">
+        <v>147</v>
+      </c>
+      <c r="I2" t="n" s="321">
+        <v>280.0</v>
+      </c>
+      <c r="J2" t="s" s="320">
+        <v>147</v>
+      </c>
+      <c r="K2" t="n" s="322">
+        <v>280.0</v>
+      </c>
+    </row>
+    <row r="3" ht="28.8" customHeight="true">
+      <c r="A3" t="s" s="301">
+        <v>144</v>
+      </c>
+      <c r="B3" t="s" s="302">
+        <v>145</v>
+      </c>
+      <c r="C3" t="s" s="303">
         <v>146</v>
       </c>
-      <c r="D2" t="s" s="304">
+      <c r="D3" t="s" s="304">
         <v>17</v>
       </c>
-      <c r="E2" t="s" s="305">
+      <c r="E3" t="s" s="305">
         <v>125</v>
       </c>
-      <c r="F2" t="s" s="306">
+      <c r="F3" t="s" s="306">
         <v>126</v>
       </c>
-      <c r="G2" t="s" s="307">
+      <c r="G3" t="s" s="307">
         <v>127</v>
       </c>
-      <c r="H2" t="s" s="308">
+      <c r="H3" t="s" s="308">
         <v>147</v>
       </c>
-      <c r="I2" t="s" s="309">
+      <c r="I3" t="n" s="343">
+        <f>SUM(I2:I3)</f>
+        <v>560.0</v>
+      </c>
+      <c r="J3" t="s" s="310">
         <v>147</v>
       </c>
-      <c r="J2" t="s" s="310">
-        <v>147</v>
+      <c r="K3" t="n" s="344">
+        <f>SUM(K2:K3)</f>
+        <v>560.0</v>
+      </c>
+      <c r="M3" t="n" s="345">
+        <f>SUM(M2:M3)</f>
+        <v>0.0</v>
+      </c>
+      <c r="O3" t="n" s="346">
+        <f>SUM(O2:O3)</f>
+        <v>0.0</v>
+      </c>
+      <c r="Q3" t="n" s="347">
+        <f>SUM(Q2:Q3)</f>
+        <v>0.0</v>
+      </c>
+      <c r="S3" t="n" s="348">
+        <f>SUM(S2:S3)</f>
+        <v>0.0</v>
+      </c>
+      <c r="U3" t="n" s="349">
+        <f>SUM(U2:U3)</f>
+        <v>0.0</v>
+      </c>
+      <c r="W3" t="n" s="350">
+        <f>SUM(W2:W3)</f>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/JavaApplication19/src/excel/Ventas.xlsx
+++ b/JavaApplication19/src/excel/Ventas.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="177">
   <si>
     <t>PRUDUCTO</t>
   </si>
@@ -479,6 +479,90 @@
   <si>
     <t>02  agosto</t>
   </si>
+  <si>
+    <t>03  agosto</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>74.80000000000001</t>
+  </si>
+  <si>
+    <t>CRANK SHIMANO DEORE</t>
+  </si>
+  <si>
+    <t>CRANK DE 3 PLATOS - BOTTOM BRACKET NUEVO - PLATO 2 NUEVO - EJE HUECO - 104 CBD - USADO</t>
+  </si>
+  <si>
+    <t>1.2405405405405405</t>
+  </si>
+  <si>
+    <t>1209.1503267973856</t>
+  </si>
+  <si>
+    <t>1500.0</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>108.0</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>189.0</t>
+  </si>
+  <si>
+    <t>135.0</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>270.0</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>216.0</t>
+  </si>
+  <si>
+    <t>BICI RUTA SCHWINN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TALLA L </t>
+  </si>
+  <si>
+    <t>5990.0</t>
+  </si>
+  <si>
+    <t>15000.0</t>
+  </si>
+  <si>
+    <t>119.68</t>
+  </si>
+  <si>
+    <t>LLANTA 26" CHADYANG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 90% DE VIDA - MEDIDAS 2.1x26" - PAR DE LLANTAS - SEMINUEVO</t>
+  </si>
+  <si>
+    <t>400.0</t>
+  </si>
+  <si>
+    <t>DESVIADOR DELANTERO SRAM X5</t>
+  </si>
+  <si>
+    <t>PARA 3 PLATOS - ADAPTADOR A VARIAS MEDIDAS DE CUADRO - SEMINUEVO</t>
+  </si>
+  <si>
+    <t>450.0</t>
+  </si>
 </sst>
 </file>
 
@@ -487,7 +571,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="307" x14ac:knownFonts="1">
+  <fonts count="967" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -604,6 +688,3966 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2517,7 +6561,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="351">
+  <cellXfs count="1011">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3563,6 +7607,1986 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="306" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="425" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="429" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="439" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="443" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="455" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="457" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="461" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="463" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="464" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="465" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="466" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="467" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="470" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="471" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="491" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="493" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="509" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="515" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="517" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="518" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="519" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="520" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="521" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="522" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="523" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="524" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="525" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="526" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="527" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="528" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="529" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="530" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="531" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="532" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="533" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="534" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="535" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="536" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="537" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="538" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="539" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="540" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="541" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="543" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="544" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="545" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="546" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="547" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="548" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="549" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="550" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="551" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="552" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="553" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="554" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="555" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="556" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="557" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="558" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="559" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="560" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="561" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="562" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="563" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="564" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="565" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="566" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="567" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="568" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="569" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="570" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="571" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="572" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="573" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="574" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="575" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="576" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="577" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="578" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="579" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="580" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="581" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="582" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="583" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="584" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="585" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="586" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="587" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="588" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="589" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="590" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="591" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="592" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="593" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="594" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="595" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="596" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="597" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="598" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="599" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="600" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="601" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="602" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="603" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="604" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="605" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="606" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="607" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="608" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="609" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="610" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="611" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="612" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="613" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="614" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="615" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="616" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="617" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="618" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="619" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="620" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="621" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="622" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="623" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="624" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="625" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="626" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="627" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="628" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="629" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="630" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="631" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="632" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="633" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="634" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="635" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="636" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="637" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="638" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="639" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="640" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="641" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="642" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="643" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="644" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="645" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="646" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="647" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="648" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="649" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="650" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="651" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="652" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="653" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="654" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="655" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="656" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="657" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="658" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="659" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="660" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="661" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="662" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="663" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="664" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="665" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="666" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="667" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="668" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="669" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="670" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="671" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="672" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="673" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="674" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="675" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="676" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="677" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="678" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="679" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="680" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="681" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="682" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="683" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="684" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="685" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="686" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="687" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="688" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="689" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="690" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="691" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="692" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="693" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="694" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="695" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="696" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="697" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="698" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="699" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="700" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="701" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="702" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="703" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="704" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="705" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="706" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="707" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="708" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="709" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="710" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="711" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="712" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="713" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="714" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="715" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="716" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="717" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="718" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="719" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="720" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="721" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="722" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="723" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="724" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="725" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="726" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="727" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="728" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="729" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="730" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="731" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="732" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="733" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="734" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="735" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="736" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="737" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="738" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="739" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="740" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="741" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="742" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="743" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="744" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="745" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="746" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="747" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="748" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="749" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="750" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="751" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="752" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="753" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="754" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="755" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="756" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="757" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="758" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="759" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="760" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="761" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="762" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="763" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="764" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="765" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="766" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="767" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="768" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="769" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="770" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="771" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="772" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="773" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="774" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="775" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="776" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="777" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="778" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="779" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="780" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="781" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="782" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="783" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="784" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="785" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="786" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="787" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="788" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="789" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="790" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="791" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="792" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="793" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="794" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="795" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="796" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="797" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="798" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="799" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="800" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="801" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="802" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="803" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="804" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="805" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="806" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="807" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="808" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="809" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="810" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="811" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="812" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="813" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="814" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="815" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="816" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="817" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="818" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="819" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="820" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="821" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="822" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="823" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="824" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="825" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="826" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="827" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="828" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="829" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="830" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="831" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="832" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="833" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="834" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="835" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="836" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="837" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="838" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="839" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="840" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="841" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="842" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="843" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="844" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="845" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="846" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="847" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="848" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="849" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="850" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="851" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="852" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="853" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="854" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="855" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="856" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="857" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="858" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="859" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="860" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="861" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="862" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="863" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="864" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="865" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="866" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="867" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="868" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="869" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="870" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="871" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="872" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="873" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="874" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="875" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="876" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="877" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="878" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="879" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="880" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="881" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="882" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="883" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="884" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="885" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="886" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="887" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="888" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="889" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="890" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="891" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="892" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="893" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="894" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="895" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="896" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="897" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="898" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="899" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="900" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="901" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="902" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="903" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="904" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="905" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="906" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="907" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="908" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="909" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="910" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="911" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="912" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="913" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="914" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="915" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="916" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="917" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="918" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="919" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="920" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="921" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="922" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="923" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="924" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="925" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="926" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="927" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="928" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="929" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="930" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="931" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="932" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="933" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="934" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="935" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="936" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="937" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="938" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="939" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="940" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="941" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="942" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="943" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="944" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="945" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="946" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="947" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="948" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="949" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="950" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="951" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="952" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="953" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="954" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="955" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="956" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="957" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="958" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="959" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="960" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="961" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="962" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="963" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="964" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="965" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="966" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12498,7 +18522,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A2:W3"/>
+  <dimension ref="A2:W35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12540,63 +18564,1183 @@
       </c>
     </row>
     <row r="3" ht="28.8" customHeight="true">
-      <c r="A3" t="s" s="301">
+      <c r="A3" t="s" s="351">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s" s="352">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s" s="353">
+        <v>149</v>
+      </c>
+      <c r="D3" t="s" s="354">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s" s="355">
+        <v>125</v>
+      </c>
+      <c r="F3" t="s" s="356">
+        <v>126</v>
+      </c>
+      <c r="G3" t="s" s="357">
+        <v>150</v>
+      </c>
+      <c r="H3" t="s" s="358">
+        <v>131</v>
+      </c>
+      <c r="I3" t="n" s="361">
+        <v>74.80000000000001</v>
+      </c>
+      <c r="J3" t="s" s="360">
+        <v>132</v>
+      </c>
+      <c r="K3" t="n" s="362">
+        <v>150.0</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" customHeight="true">
+      <c r="A4" t="s" s="371">
+        <v>152</v>
+      </c>
+      <c r="B4" t="s" s="372">
+        <v>153</v>
+      </c>
+      <c r="C4" t="s" s="373">
+        <v>149</v>
+      </c>
+      <c r="D4" t="s" s="374">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s" s="375">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s" s="376">
+        <v>154</v>
+      </c>
+      <c r="G4" t="s" s="377">
+        <v>127</v>
+      </c>
+      <c r="H4" t="s" s="378">
+        <v>155</v>
+      </c>
+      <c r="I4" t="n" s="381">
+        <v>1209.1503267973856</v>
+      </c>
+      <c r="J4" t="s" s="380">
+        <v>156</v>
+      </c>
+      <c r="K4" t="n" s="382">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8" customHeight="true">
+      <c r="A5" t="s" s="391">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s" s="392">
+        <v>123</v>
+      </c>
+      <c r="C5" t="s" s="393">
+        <v>149</v>
+      </c>
+      <c r="D5" t="s" s="394">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s" s="395">
+        <v>125</v>
+      </c>
+      <c r="F5" t="s" s="396">
+        <v>126</v>
+      </c>
+      <c r="G5" t="s" s="397">
+        <v>157</v>
+      </c>
+      <c r="H5" t="s" s="398">
+        <v>128</v>
+      </c>
+      <c r="I5" t="n" s="401">
+        <v>108.0</v>
+      </c>
+      <c r="J5" t="s" s="400">
+        <v>129</v>
+      </c>
+      <c r="K5" t="n" s="402">
+        <v>240.0</v>
+      </c>
+    </row>
+    <row r="6" ht="28.8" customHeight="true">
+      <c r="A6" t="s" s="411">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s" s="412">
+        <v>123</v>
+      </c>
+      <c r="C6" t="s" s="413">
+        <v>149</v>
+      </c>
+      <c r="D6" t="s" s="414">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s" s="415">
+        <v>125</v>
+      </c>
+      <c r="F6" t="s" s="416">
+        <v>126</v>
+      </c>
+      <c r="G6" t="s" s="417">
+        <v>127</v>
+      </c>
+      <c r="H6" t="s" s="418">
+        <v>128</v>
+      </c>
+      <c r="I6" t="n" s="421">
+        <v>27.0</v>
+      </c>
+      <c r="J6" t="s" s="420">
+        <v>129</v>
+      </c>
+      <c r="K6" t="n" s="422">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="7" ht="28.8" customHeight="true">
+      <c r="A7" t="s" s="431">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s" s="432">
+        <v>123</v>
+      </c>
+      <c r="C7" t="s" s="433">
+        <v>149</v>
+      </c>
+      <c r="D7" t="s" s="434">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s" s="435">
+        <v>125</v>
+      </c>
+      <c r="F7" t="s" s="436">
+        <v>126</v>
+      </c>
+      <c r="G7" t="s" s="437">
+        <v>127</v>
+      </c>
+      <c r="H7" t="s" s="438">
+        <v>128</v>
+      </c>
+      <c r="I7" t="n" s="441">
+        <v>27.0</v>
+      </c>
+      <c r="J7" t="s" s="440">
+        <v>129</v>
+      </c>
+      <c r="K7" t="n" s="442">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="8" ht="28.8" customHeight="true">
+      <c r="A8" t="s" s="451">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s" s="452">
+        <v>123</v>
+      </c>
+      <c r="C8" t="s" s="453">
+        <v>149</v>
+      </c>
+      <c r="D8" t="s" s="454">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s" s="455">
+        <v>125</v>
+      </c>
+      <c r="F8" t="s" s="456">
+        <v>126</v>
+      </c>
+      <c r="G8" t="s" s="457">
+        <v>127</v>
+      </c>
+      <c r="H8" t="s" s="458">
+        <v>128</v>
+      </c>
+      <c r="I8" t="n" s="461">
+        <v>27.0</v>
+      </c>
+      <c r="J8" t="s" s="460">
+        <v>129</v>
+      </c>
+      <c r="K8" t="n" s="462">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="9" ht="28.8" customHeight="true">
+      <c r="A9" t="s" s="471">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s" s="472">
+        <v>123</v>
+      </c>
+      <c r="C9" t="s" s="473">
+        <v>149</v>
+      </c>
+      <c r="D9" t="s" s="474">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s" s="475">
+        <v>125</v>
+      </c>
+      <c r="F9" t="s" s="476">
+        <v>126</v>
+      </c>
+      <c r="G9" t="s" s="477">
+        <v>127</v>
+      </c>
+      <c r="H9" t="s" s="478">
+        <v>128</v>
+      </c>
+      <c r="I9" t="n" s="481">
+        <v>27.0</v>
+      </c>
+      <c r="J9" t="s" s="480">
+        <v>129</v>
+      </c>
+      <c r="K9" t="n" s="482">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="10" ht="28.8" customHeight="true">
+      <c r="A10" t="s" s="491">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s" s="492">
+        <v>123</v>
+      </c>
+      <c r="C10" t="s" s="493">
+        <v>149</v>
+      </c>
+      <c r="D10" t="s" s="494">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s" s="495">
+        <v>125</v>
+      </c>
+      <c r="F10" t="s" s="496">
+        <v>126</v>
+      </c>
+      <c r="G10" t="s" s="497">
+        <v>127</v>
+      </c>
+      <c r="H10" t="s" s="498">
+        <v>128</v>
+      </c>
+      <c r="I10" t="n" s="501">
+        <v>27.0</v>
+      </c>
+      <c r="J10" t="s" s="500">
+        <v>129</v>
+      </c>
+      <c r="K10" t="n" s="502">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="11" ht="28.8" customHeight="true">
+      <c r="A11" t="s" s="511">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s" s="512">
+        <v>123</v>
+      </c>
+      <c r="C11" t="s" s="513">
+        <v>149</v>
+      </c>
+      <c r="D11" t="s" s="514">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s" s="515">
+        <v>125</v>
+      </c>
+      <c r="F11" t="s" s="516">
+        <v>126</v>
+      </c>
+      <c r="G11" t="s" s="517">
+        <v>127</v>
+      </c>
+      <c r="H11" t="s" s="518">
+        <v>128</v>
+      </c>
+      <c r="I11" t="n" s="521">
+        <v>27.0</v>
+      </c>
+      <c r="J11" t="s" s="520">
+        <v>129</v>
+      </c>
+      <c r="K11" t="n" s="522">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="12" ht="28.8" customHeight="true">
+      <c r="A12" t="s" s="531">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s" s="532">
+        <v>123</v>
+      </c>
+      <c r="C12" t="s" s="533">
+        <v>149</v>
+      </c>
+      <c r="D12" t="s" s="534">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s" s="535">
+        <v>125</v>
+      </c>
+      <c r="F12" t="s" s="536">
+        <v>126</v>
+      </c>
+      <c r="G12" t="s" s="537">
+        <v>127</v>
+      </c>
+      <c r="H12" t="s" s="538">
+        <v>128</v>
+      </c>
+      <c r="I12" t="n" s="541">
+        <v>27.0</v>
+      </c>
+      <c r="J12" t="s" s="540">
+        <v>129</v>
+      </c>
+      <c r="K12" t="n" s="542">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="13" ht="28.8" customHeight="true">
+      <c r="A13" t="s" s="551">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s" s="552">
+        <v>123</v>
+      </c>
+      <c r="C13" t="s" s="553">
+        <v>149</v>
+      </c>
+      <c r="D13" t="s" s="554">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s" s="555">
+        <v>125</v>
+      </c>
+      <c r="F13" t="s" s="556">
+        <v>126</v>
+      </c>
+      <c r="G13" t="s" s="557">
+        <v>127</v>
+      </c>
+      <c r="H13" t="s" s="558">
+        <v>128</v>
+      </c>
+      <c r="I13" t="n" s="561">
+        <v>27.0</v>
+      </c>
+      <c r="J13" t="s" s="560">
+        <v>129</v>
+      </c>
+      <c r="K13" t="n" s="562">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="14" ht="28.8" customHeight="true">
+      <c r="A14" t="s" s="571">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s" s="572">
+        <v>123</v>
+      </c>
+      <c r="C14" t="s" s="573">
+        <v>149</v>
+      </c>
+      <c r="D14" t="s" s="574">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s" s="575">
+        <v>125</v>
+      </c>
+      <c r="F14" t="s" s="576">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s" s="577">
+        <v>127</v>
+      </c>
+      <c r="H14" t="s" s="578">
+        <v>128</v>
+      </c>
+      <c r="I14" t="n" s="581">
+        <v>27.0</v>
+      </c>
+      <c r="J14" t="s" s="580">
+        <v>129</v>
+      </c>
+      <c r="K14" t="n" s="582">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="15" ht="28.8" customHeight="true">
+      <c r="A15" t="s" s="611">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s" s="612">
+        <v>130</v>
+      </c>
+      <c r="C15" t="s" s="613">
+        <v>149</v>
+      </c>
+      <c r="D15" t="s" s="614">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s" s="615">
+        <v>125</v>
+      </c>
+      <c r="F15" t="s" s="616">
+        <v>126</v>
+      </c>
+      <c r="G15" t="s" s="617">
+        <v>150</v>
+      </c>
+      <c r="H15" t="s" s="618">
+        <v>131</v>
+      </c>
+      <c r="I15" t="n" s="621">
+        <v>74.80000000000001</v>
+      </c>
+      <c r="J15" t="s" s="620">
+        <v>132</v>
+      </c>
+      <c r="K15" t="n" s="622">
+        <v>150.0</v>
+      </c>
+    </row>
+    <row r="16" ht="28.8" customHeight="true">
+      <c r="A16" t="s" s="631">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s" s="632">
+        <v>123</v>
+      </c>
+      <c r="C16" t="s" s="633">
+        <v>149</v>
+      </c>
+      <c r="D16" t="s" s="634">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s" s="635">
+        <v>125</v>
+      </c>
+      <c r="F16" t="s" s="636">
+        <v>126</v>
+      </c>
+      <c r="G16" t="s" s="637">
+        <v>127</v>
+      </c>
+      <c r="H16" t="s" s="638">
+        <v>128</v>
+      </c>
+      <c r="I16" t="n" s="641">
+        <v>27.0</v>
+      </c>
+      <c r="J16" t="s" s="640">
+        <v>129</v>
+      </c>
+      <c r="K16" t="n" s="642">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="17" ht="28.8" customHeight="true">
+      <c r="A17" t="s" s="651">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s" s="652">
+        <v>123</v>
+      </c>
+      <c r="C17" t="s" s="653">
+        <v>149</v>
+      </c>
+      <c r="D17" t="s" s="654">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s" s="655">
+        <v>125</v>
+      </c>
+      <c r="F17" t="s" s="656">
+        <v>126</v>
+      </c>
+      <c r="G17" t="s" s="657">
+        <v>127</v>
+      </c>
+      <c r="H17" t="s" s="658">
+        <v>128</v>
+      </c>
+      <c r="I17" t="n" s="661">
+        <v>27.0</v>
+      </c>
+      <c r="J17" t="s" s="660">
+        <v>129</v>
+      </c>
+      <c r="K17" t="n" s="662">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="18" ht="28.8" customHeight="true">
+      <c r="A18" t="s" s="671">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s" s="672">
+        <v>123</v>
+      </c>
+      <c r="C18" t="s" s="673">
+        <v>149</v>
+      </c>
+      <c r="D18" t="s" s="674">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s" s="675">
+        <v>125</v>
+      </c>
+      <c r="F18" t="s" s="676">
+        <v>126</v>
+      </c>
+      <c r="G18" t="s" s="677">
+        <v>159</v>
+      </c>
+      <c r="H18" t="s" s="678">
+        <v>128</v>
+      </c>
+      <c r="I18" t="n" s="681">
+        <v>189.0</v>
+      </c>
+      <c r="J18" t="s" s="680">
+        <v>129</v>
+      </c>
+      <c r="K18" t="n" s="682">
+        <v>420.0</v>
+      </c>
+    </row>
+    <row r="19" ht="28.8" customHeight="true">
+      <c r="A19" t="s" s="691">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s" s="692">
+        <v>123</v>
+      </c>
+      <c r="C19" t="s" s="693">
+        <v>149</v>
+      </c>
+      <c r="D19" t="s" s="694">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s" s="695">
+        <v>125</v>
+      </c>
+      <c r="F19" t="s" s="696">
+        <v>126</v>
+      </c>
+      <c r="G19" t="s" s="697">
+        <v>150</v>
+      </c>
+      <c r="H19" t="s" s="698">
+        <v>128</v>
+      </c>
+      <c r="I19" t="n" s="701">
+        <v>135.0</v>
+      </c>
+      <c r="J19" t="s" s="700">
+        <v>129</v>
+      </c>
+      <c r="K19" t="n" s="702">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="20" ht="28.8" customHeight="true">
+      <c r="A20" t="s" s="711">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s" s="712">
+        <v>123</v>
+      </c>
+      <c r="C20" t="s" s="713">
+        <v>149</v>
+      </c>
+      <c r="D20" t="s" s="714">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s" s="715">
+        <v>125</v>
+      </c>
+      <c r="F20" t="s" s="716">
+        <v>126</v>
+      </c>
+      <c r="G20" t="s" s="717">
+        <v>127</v>
+      </c>
+      <c r="H20" t="s" s="718">
+        <v>128</v>
+      </c>
+      <c r="I20" t="n" s="721">
+        <v>27.0</v>
+      </c>
+      <c r="J20" t="s" s="720">
+        <v>129</v>
+      </c>
+      <c r="K20" t="n" s="722">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="21" ht="28.8" customHeight="true">
+      <c r="A21" t="s" s="731">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s" s="732">
+        <v>123</v>
+      </c>
+      <c r="C21" t="s" s="733">
+        <v>149</v>
+      </c>
+      <c r="D21" t="s" s="734">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s" s="735">
+        <v>125</v>
+      </c>
+      <c r="F21" t="s" s="736">
+        <v>126</v>
+      </c>
+      <c r="G21" t="s" s="737">
+        <v>162</v>
+      </c>
+      <c r="H21" t="s" s="738">
+        <v>128</v>
+      </c>
+      <c r="I21" t="n" s="741">
+        <v>270.0</v>
+      </c>
+      <c r="J21" t="s" s="740">
+        <v>129</v>
+      </c>
+      <c r="K21" t="n" s="742">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="22" ht="28.8" customHeight="true">
+      <c r="A22" t="s" s="751">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s" s="752">
+        <v>123</v>
+      </c>
+      <c r="C22" t="s" s="753">
+        <v>149</v>
+      </c>
+      <c r="D22" t="s" s="754">
+        <v>23</v>
+      </c>
+      <c r="E22" t="s" s="755">
+        <v>125</v>
+      </c>
+      <c r="F22" t="s" s="756">
+        <v>126</v>
+      </c>
+      <c r="G22" t="s" s="757">
+        <v>127</v>
+      </c>
+      <c r="H22" t="s" s="758">
+        <v>128</v>
+      </c>
+      <c r="I22" t="n" s="761">
+        <v>27.0</v>
+      </c>
+      <c r="J22" t="s" s="760">
+        <v>129</v>
+      </c>
+      <c r="K22" t="n" s="762">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="23" ht="28.8" customHeight="true">
+      <c r="A23" t="s" s="771">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s" s="772">
+        <v>123</v>
+      </c>
+      <c r="C23" t="s" s="773">
+        <v>149</v>
+      </c>
+      <c r="D23" t="s" s="774">
+        <v>23</v>
+      </c>
+      <c r="E23" t="s" s="775">
+        <v>125</v>
+      </c>
+      <c r="F23" t="s" s="776">
+        <v>126</v>
+      </c>
+      <c r="G23" t="s" s="777">
+        <v>127</v>
+      </c>
+      <c r="H23" t="s" s="778">
+        <v>128</v>
+      </c>
+      <c r="I23" t="n" s="781">
+        <v>27.0</v>
+      </c>
+      <c r="J23" t="s" s="780">
+        <v>129</v>
+      </c>
+      <c r="K23" t="n" s="782">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="24" ht="28.8" customHeight="true">
+      <c r="A24" t="s" s="791">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s" s="792">
+        <v>123</v>
+      </c>
+      <c r="C24" t="s" s="793">
+        <v>149</v>
+      </c>
+      <c r="D24" t="s" s="794">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s" s="795">
+        <v>125</v>
+      </c>
+      <c r="F24" t="s" s="796">
+        <v>126</v>
+      </c>
+      <c r="G24" t="s" s="797">
+        <v>127</v>
+      </c>
+      <c r="H24" t="s" s="798">
+        <v>128</v>
+      </c>
+      <c r="I24" t="n" s="801">
+        <v>27.0</v>
+      </c>
+      <c r="J24" t="s" s="800">
+        <v>129</v>
+      </c>
+      <c r="K24" t="n" s="802">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="25" ht="28.8" customHeight="true">
+      <c r="A25" t="s" s="811">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s" s="812">
+        <v>123</v>
+      </c>
+      <c r="C25" t="s" s="813">
+        <v>149</v>
+      </c>
+      <c r="D25" t="s" s="814">
+        <v>23</v>
+      </c>
+      <c r="E25" t="s" s="815">
+        <v>125</v>
+      </c>
+      <c r="F25" t="s" s="816">
+        <v>126</v>
+      </c>
+      <c r="G25" t="s" s="817">
+        <v>164</v>
+      </c>
+      <c r="H25" t="s" s="818">
+        <v>128</v>
+      </c>
+      <c r="I25" t="n" s="821">
+        <v>216.0</v>
+      </c>
+      <c r="J25" t="s" s="820">
+        <v>129</v>
+      </c>
+      <c r="K25" t="n" s="822">
+        <v>480.0</v>
+      </c>
+    </row>
+    <row r="26" ht="28.8" customHeight="true">
+      <c r="A26" t="s" s="831">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s" s="832">
+        <v>130</v>
+      </c>
+      <c r="C26" t="s" s="833">
+        <v>149</v>
+      </c>
+      <c r="D26" t="s" s="834">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s" s="835">
+        <v>125</v>
+      </c>
+      <c r="F26" t="s" s="836">
+        <v>126</v>
+      </c>
+      <c r="G26" t="s" s="837">
+        <v>127</v>
+      </c>
+      <c r="H26" t="s" s="838">
+        <v>131</v>
+      </c>
+      <c r="I26" t="n" s="841">
+        <v>14.96</v>
+      </c>
+      <c r="J26" t="s" s="840">
+        <v>132</v>
+      </c>
+      <c r="K26" t="n" s="842">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="27" ht="28.8" customHeight="true">
+      <c r="A27" t="s" s="851">
+        <v>166</v>
+      </c>
+      <c r="B27" t="s" s="852">
+        <v>167</v>
+      </c>
+      <c r="C27" t="s" s="853">
+        <v>149</v>
+      </c>
+      <c r="D27" t="s" s="854">
+        <v>135</v>
+      </c>
+      <c r="E27" t="s" s="855">
+        <v>125</v>
+      </c>
+      <c r="F27" t="s" s="856">
+        <v>126</v>
+      </c>
+      <c r="G27" t="s" s="857">
+        <v>127</v>
+      </c>
+      <c r="H27" t="s" s="858">
+        <v>168</v>
+      </c>
+      <c r="I27" t="n" s="861">
+        <v>5990.0</v>
+      </c>
+      <c r="J27" t="s" s="860">
+        <v>169</v>
+      </c>
+      <c r="K27" t="n" s="862">
+        <v>15000.0</v>
+      </c>
+    </row>
+    <row r="28" ht="28.8" customHeight="true">
+      <c r="A28" t="s" s="871">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s" s="872">
+        <v>130</v>
+      </c>
+      <c r="C28" t="s" s="873">
+        <v>149</v>
+      </c>
+      <c r="D28" t="s" s="874">
+        <v>23</v>
+      </c>
+      <c r="E28" t="s" s="875">
+        <v>125</v>
+      </c>
+      <c r="F28" t="s" s="876">
+        <v>126</v>
+      </c>
+      <c r="G28" t="s" s="877">
+        <v>164</v>
+      </c>
+      <c r="H28" t="s" s="878">
+        <v>131</v>
+      </c>
+      <c r="I28" t="n" s="881">
+        <v>119.68</v>
+      </c>
+      <c r="J28" t="s" s="880">
+        <v>132</v>
+      </c>
+      <c r="K28" t="n" s="882">
+        <v>240.0</v>
+      </c>
+    </row>
+    <row r="29" ht="28.8" customHeight="true">
+      <c r="A29" t="s" s="891">
+        <v>171</v>
+      </c>
+      <c r="B29" t="s" s="892">
+        <v>172</v>
+      </c>
+      <c r="C29" t="s" s="893">
+        <v>149</v>
+      </c>
+      <c r="D29" t="s" s="894">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s" s="895">
+        <v>125</v>
+      </c>
+      <c r="F29" t="s" s="896">
+        <v>126</v>
+      </c>
+      <c r="G29" t="s" s="897">
+        <v>127</v>
+      </c>
+      <c r="H29" t="s" s="898">
+        <v>173</v>
+      </c>
+      <c r="I29" t="n" s="901">
+        <v>400.0</v>
+      </c>
+      <c r="J29" t="s" s="900">
+        <v>173</v>
+      </c>
+      <c r="K29" t="n" s="902">
+        <v>400.0</v>
+      </c>
+    </row>
+    <row r="30" ht="28.8" customHeight="true">
+      <c r="A30" t="s" s="911">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s" s="912">
+        <v>123</v>
+      </c>
+      <c r="C30" t="s" s="913">
+        <v>149</v>
+      </c>
+      <c r="D30" t="s" s="914">
+        <v>23</v>
+      </c>
+      <c r="E30" t="s" s="915">
+        <v>125</v>
+      </c>
+      <c r="F30" t="s" s="916">
+        <v>126</v>
+      </c>
+      <c r="G30" t="s" s="917">
+        <v>127</v>
+      </c>
+      <c r="H30" t="s" s="918">
+        <v>128</v>
+      </c>
+      <c r="I30" t="n" s="921">
+        <v>27.0</v>
+      </c>
+      <c r="J30" t="s" s="920">
+        <v>129</v>
+      </c>
+      <c r="K30" t="n" s="922">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="31" ht="28.8" customHeight="true">
+      <c r="A31" t="s" s="931">
+        <v>82</v>
+      </c>
+      <c r="B31" t="s" s="932">
+        <v>130</v>
+      </c>
+      <c r="C31" t="s" s="933">
+        <v>149</v>
+      </c>
+      <c r="D31" t="s" s="934">
+        <v>23</v>
+      </c>
+      <c r="E31" t="s" s="935">
+        <v>125</v>
+      </c>
+      <c r="F31" t="s" s="936">
+        <v>126</v>
+      </c>
+      <c r="G31" t="s" s="937">
+        <v>164</v>
+      </c>
+      <c r="H31" t="s" s="938">
+        <v>131</v>
+      </c>
+      <c r="I31" t="n" s="941">
+        <v>119.68</v>
+      </c>
+      <c r="J31" t="s" s="940">
+        <v>132</v>
+      </c>
+      <c r="K31" t="n" s="942">
+        <v>240.0</v>
+      </c>
+    </row>
+    <row r="32" ht="28.8" customHeight="true">
+      <c r="A32" t="s" s="951">
+        <v>21</v>
+      </c>
+      <c r="B32" t="s" s="952">
+        <v>123</v>
+      </c>
+      <c r="C32" t="s" s="953">
+        <v>149</v>
+      </c>
+      <c r="D32" t="s" s="954">
+        <v>23</v>
+      </c>
+      <c r="E32" t="s" s="955">
+        <v>125</v>
+      </c>
+      <c r="F32" t="s" s="956">
+        <v>126</v>
+      </c>
+      <c r="G32" t="s" s="957">
+        <v>127</v>
+      </c>
+      <c r="H32" t="s" s="958">
+        <v>128</v>
+      </c>
+      <c r="I32" t="n" s="961">
+        <v>27.0</v>
+      </c>
+      <c r="J32" t="s" s="960">
+        <v>129</v>
+      </c>
+      <c r="K32" t="n" s="962">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="33" ht="28.8" customHeight="true">
+      <c r="A33" t="s" s="971">
+        <v>174</v>
+      </c>
+      <c r="B33" t="s" s="972">
+        <v>175</v>
+      </c>
+      <c r="C33" t="s" s="973">
+        <v>149</v>
+      </c>
+      <c r="D33" t="s" s="974">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s" s="975">
+        <v>125</v>
+      </c>
+      <c r="F33" t="s" s="976">
+        <v>126</v>
+      </c>
+      <c r="G33" t="s" s="977">
+        <v>127</v>
+      </c>
+      <c r="H33" t="s" s="978">
+        <v>176</v>
+      </c>
+      <c r="I33" t="n" s="981">
+        <v>450.0</v>
+      </c>
+      <c r="J33" t="s" s="980">
+        <v>176</v>
+      </c>
+      <c r="K33" t="n" s="982">
+        <v>450.0</v>
+      </c>
+    </row>
+    <row r="34" ht="28.8" customHeight="true">
+      <c r="A34" t="s" s="991">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s" s="992">
+        <v>123</v>
+      </c>
+      <c r="C34" t="s" s="993">
+        <v>149</v>
+      </c>
+      <c r="D34" t="s" s="994">
+        <v>23</v>
+      </c>
+      <c r="E34" t="s" s="995">
+        <v>125</v>
+      </c>
+      <c r="F34" t="s" s="996">
+        <v>126</v>
+      </c>
+      <c r="G34" t="s" s="997">
+        <v>127</v>
+      </c>
+      <c r="H34" t="s" s="998">
+        <v>128</v>
+      </c>
+      <c r="I34" t="n" s="1001">
+        <v>27.0</v>
+      </c>
+      <c r="J34" t="s" s="1000">
+        <v>129</v>
+      </c>
+      <c r="K34" t="n" s="1002">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="35" ht="28.8" customHeight="true">
+      <c r="A35" t="s" s="301">
         <v>144</v>
       </c>
-      <c r="B3" t="s" s="302">
+      <c r="B35" t="s" s="302">
         <v>145</v>
       </c>
-      <c r="C3" t="s" s="303">
+      <c r="C35" t="s" s="303">
         <v>146</v>
       </c>
-      <c r="D3" t="s" s="304">
+      <c r="D35" t="s" s="304">
         <v>17</v>
       </c>
-      <c r="E3" t="s" s="305">
+      <c r="E35" t="s" s="305">
         <v>125</v>
       </c>
-      <c r="F3" t="s" s="306">
+      <c r="F35" t="s" s="306">
         <v>126</v>
       </c>
-      <c r="G3" t="s" s="307">
+      <c r="G35" t="s" s="307">
         <v>127</v>
       </c>
-      <c r="H3" t="s" s="308">
+      <c r="H35" t="s" s="308">
         <v>147</v>
       </c>
-      <c r="I3" t="n" s="343">
-        <f>SUM(I2:I3)</f>
-        <v>560.0</v>
-      </c>
-      <c r="J3" t="s" s="310">
+      <c r="I35" t="n" s="1003">
+        <f>SUM(I2:I34)</f>
+        <v>10137.070326797386</v>
+      </c>
+      <c r="J35" t="s" s="310">
         <v>147</v>
       </c>
-      <c r="K3" t="n" s="344">
-        <f>SUM(K2:K3)</f>
-        <v>560.0</v>
-      </c>
-      <c r="M3" t="n" s="345">
-        <f>SUM(M2:M3)</f>
+      <c r="K35" t="n" s="1004">
+        <f>SUM(K2:K34)</f>
+        <v>21560.0</v>
+      </c>
+      <c r="M35" t="n" s="1005">
+        <f>SUM(M2:M34)</f>
         <v>0.0</v>
       </c>
-      <c r="O3" t="n" s="346">
-        <f>SUM(O2:O3)</f>
+      <c r="O35" t="n" s="1006">
+        <f>SUM(O2:O34)</f>
         <v>0.0</v>
       </c>
-      <c r="Q3" t="n" s="347">
-        <f>SUM(Q2:Q3)</f>
+      <c r="Q35" t="n" s="1007">
+        <f>SUM(Q2:Q34)</f>
         <v>0.0</v>
       </c>
-      <c r="S3" t="n" s="348">
-        <f>SUM(S2:S3)</f>
+      <c r="S35" t="n" s="1008">
+        <f>SUM(S2:S34)</f>
         <v>0.0</v>
       </c>
-      <c r="U3" t="n" s="349">
-        <f>SUM(U2:U3)</f>
+      <c r="U35" t="n" s="1009">
+        <f>SUM(U2:U34)</f>
         <v>0.0</v>
       </c>
-      <c r="W3" t="n" s="350">
-        <f>SUM(W2:W3)</f>
+      <c r="W35" t="n" s="1010">
+        <f>SUM(W2:W34)</f>
         <v>0.0</v>
       </c>
     </row>

--- a/JavaApplication19/src/excel/Ventas.xlsx
+++ b/JavaApplication19/src/excel/Ventas.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="181">
   <si>
     <t>PRUDUCTO</t>
   </si>
@@ -563,6 +563,18 @@
   <si>
     <t>450.0</t>
   </si>
+  <si>
+    <t>BICI FUJI RUTA</t>
+  </si>
+  <si>
+    <t>BICI PARA RUTA - TALLA 56 - LLANTAS 700x38 - DOBLE ENCINTADO - RECIEN ARMADA Y ALINEADA - TRANSMISION 2x8 - TRANSMISION COMPLETA CLARIS - FRENOS ULTEGRA DE ZAPATAS DE REPUESTOS - POTENCIA Y POSTE THOMSON ELITE - MUY RAPIDA - INCLUYE VELOCIMETRO - INCLUYE ESPEJO RETROVISOR - SEMINUEVA</t>
+  </si>
+  <si>
+    <t>10508.0</t>
+  </si>
+  <si>
+    <t>13000.0</t>
+  </si>
 </sst>
 </file>
 
@@ -571,7 +583,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="967" x14ac:knownFonts="1">
+  <fonts count="987" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -688,6 +700,126 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -6561,7 +6693,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1011">
+  <cellXfs count="1031">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9587,6 +9719,66 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="966" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="967" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="968" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="969" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="970" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="971" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="972" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="973" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="974" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="975" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="976" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="977" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="978" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="979" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="980" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="981" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="982" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="983" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="984" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="985" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="986" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -18522,7 +18714,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A2:W35"/>
+  <dimension ref="A2:W36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19684,63 +19876,98 @@
       </c>
     </row>
     <row r="35" ht="28.8" customHeight="true">
-      <c r="A35" t="s" s="301">
+      <c r="A35" t="s" s="1011">
+        <v>177</v>
+      </c>
+      <c r="B35" t="s" s="1012">
+        <v>178</v>
+      </c>
+      <c r="C35" t="s" s="1013">
+        <v>149</v>
+      </c>
+      <c r="D35" t="s" s="1014">
+        <v>17</v>
+      </c>
+      <c r="E35" t="s" s="1015">
+        <v>125</v>
+      </c>
+      <c r="F35" t="s" s="1016">
+        <v>126</v>
+      </c>
+      <c r="G35" t="s" s="1017">
+        <v>127</v>
+      </c>
+      <c r="H35" t="s" s="1018">
+        <v>179</v>
+      </c>
+      <c r="I35" t="n" s="1021">
+        <v>10508.0</v>
+      </c>
+      <c r="J35" t="s" s="1020">
+        <v>180</v>
+      </c>
+      <c r="K35" t="n" s="1022">
+        <v>13000.0</v>
+      </c>
+    </row>
+    <row r="36" ht="28.8" customHeight="true">
+      <c r="A36" t="s" s="301">
         <v>144</v>
       </c>
-      <c r="B35" t="s" s="302">
+      <c r="B36" t="s" s="302">
         <v>145</v>
       </c>
-      <c r="C35" t="s" s="303">
+      <c r="C36" t="s" s="303">
         <v>146</v>
       </c>
-      <c r="D35" t="s" s="304">
+      <c r="D36" t="s" s="304">
         <v>17</v>
       </c>
-      <c r="E35" t="s" s="305">
+      <c r="E36" t="s" s="305">
         <v>125</v>
       </c>
-      <c r="F35" t="s" s="306">
+      <c r="F36" t="s" s="306">
         <v>126</v>
       </c>
-      <c r="G35" t="s" s="307">
+      <c r="G36" t="s" s="307">
         <v>127</v>
       </c>
-      <c r="H35" t="s" s="308">
+      <c r="H36" t="s" s="308">
         <v>147</v>
       </c>
-      <c r="I35" t="n" s="1003">
-        <f>SUM(I2:I34)</f>
-        <v>10137.070326797386</v>
-      </c>
-      <c r="J35" t="s" s="310">
+      <c r="I36" t="n" s="1023">
+        <f>SUM(I2:I35)</f>
+        <v>20645.070326797388</v>
+      </c>
+      <c r="J36" t="s" s="310">
         <v>147</v>
       </c>
-      <c r="K35" t="n" s="1004">
-        <f>SUM(K2:K34)</f>
-        <v>21560.0</v>
-      </c>
-      <c r="M35" t="n" s="1005">
-        <f>SUM(M2:M34)</f>
+      <c r="K36" t="n" s="1024">
+        <f>SUM(K2:K35)</f>
+        <v>34560.0</v>
+      </c>
+      <c r="M36" t="n" s="1025">
+        <f>SUM(M2:M35)</f>
         <v>0.0</v>
       </c>
-      <c r="O35" t="n" s="1006">
-        <f>SUM(O2:O34)</f>
+      <c r="O36" t="n" s="1026">
+        <f>SUM(O2:O35)</f>
         <v>0.0</v>
       </c>
-      <c r="Q35" t="n" s="1007">
-        <f>SUM(Q2:Q34)</f>
+      <c r="Q36" t="n" s="1027">
+        <f>SUM(Q2:Q35)</f>
         <v>0.0</v>
       </c>
-      <c r="S35" t="n" s="1008">
-        <f>SUM(S2:S34)</f>
+      <c r="S36" t="n" s="1028">
+        <f>SUM(S2:S35)</f>
         <v>0.0</v>
       </c>
-      <c r="U35" t="n" s="1009">
-        <f>SUM(U2:U34)</f>
+      <c r="U36" t="n" s="1029">
+        <f>SUM(U2:U35)</f>
         <v>0.0</v>
       </c>
-      <c r="W35" t="n" s="1010">
-        <f>SUM(W2:W34)</f>
+      <c r="W36" t="n" s="1030">
+        <f>SUM(W2:W35)</f>
         <v>0.0</v>
       </c>
     </row>

--- a/JavaApplication19/src/excel/Ventas.xlsx
+++ b/JavaApplication19/src/excel/Ventas.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="202">
   <si>
     <t>PRUDUCTO</t>
   </si>
@@ -575,6 +575,69 @@
   <si>
     <t>13000.0</t>
   </si>
+  <si>
+    <t>BICI FUJI ABSOLUTE</t>
+  </si>
+  <si>
+    <t>BICI PARA CIUDAD - LLANTAS NUEVAS 700x38 - TALLA S - FRENOS DE DISCO TEKTRO - TRANSMISION 3x8 - CAMBIOS DE GATILLO - RECIEN ALINEADA - SEMINUEVA</t>
+  </si>
+  <si>
+    <t>04  agosto</t>
+  </si>
+  <si>
+    <t>4111.59</t>
+  </si>
+  <si>
+    <t>5600.0</t>
+  </si>
+  <si>
+    <t>DESVIADOR DELANTERO XT</t>
+  </si>
+  <si>
+    <t>PARA 3 PLATOS - PARA JALON ARRIBA - USADO</t>
+  </si>
+  <si>
+    <t>179.79452054794518</t>
+  </si>
+  <si>
+    <t>350.0</t>
+  </si>
+  <si>
+    <t>GRIPS LIZARD</t>
+  </si>
+  <si>
+    <t>DOBLE TORNILLO DE SUJECIÓN - USADO</t>
+  </si>
+  <si>
+    <t>77.05479452054794</t>
+  </si>
+  <si>
+    <t>150.0</t>
+  </si>
+  <si>
+    <t>LLANTA 29" GROUND</t>
+  </si>
+  <si>
+    <t>80% DE VIDA - MEDIDAS 2.2x29" - USADO</t>
+  </si>
+  <si>
+    <t>300.0</t>
+  </si>
+  <si>
+    <t>DESVIADOR DELANTERO SHIMANO RUTA</t>
+  </si>
+  <si>
+    <t>PARA 3 PLATOS DE RUTA - PARA TIRON DE CABLE DEBAJO DEL CUADRO - USADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESVIADOR DELANTERO SHIMANO SLX </t>
+  </si>
+  <si>
+    <t>PARA 3 PLATOS - E-TYPE - ANCLAJE A 2 TORNILLOS - USADO</t>
+  </si>
+  <si>
+    <t>322.4400871459695</t>
+  </si>
 </sst>
 </file>
 
@@ -583,7 +646,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="987" x14ac:knownFonts="1">
+  <fonts count="1167" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,6 +763,1086 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -6693,7 +7836,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1031">
+  <cellXfs count="1211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9779,6 +10922,546 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="986" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="987" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="988" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="989" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="990" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="991" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="992" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="993" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="994" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="995" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="996" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="997" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="998" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="999" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1000" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1001" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1002" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1003" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1004" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1005" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1006" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1007" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1008" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1009" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1010" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1011" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1012" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1013" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1014" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1015" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1016" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1017" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1018" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1019" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1020" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1021" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1022" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1023" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1024" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1025" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1026" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1027" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1028" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1029" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1030" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1031" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1032" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1033" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1034" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1035" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1036" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1037" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1038" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1039" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1040" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1041" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1042" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1043" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1044" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1045" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1046" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1047" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1048" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1049" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1050" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1051" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1052" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1053" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1054" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1055" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1056" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1057" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1058" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1059" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1060" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1061" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1062" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1063" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1064" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1065" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1066" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1067" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1068" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1069" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1070" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1071" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1072" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1073" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1074" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1075" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1076" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1077" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1078" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1079" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1080" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1081" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1082" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1083" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1084" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1085" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1086" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1087" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1088" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1089" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1090" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1091" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1092" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1093" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1094" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1095" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1096" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1097" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1098" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1099" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1100" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1101" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1102" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1103" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1104" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1105" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1106" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1107" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1108" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1109" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1110" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1111" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1112" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1113" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1114" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1115" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1116" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1117" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1118" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1119" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1120" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1121" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1122" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1123" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1124" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1125" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1126" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1127" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1128" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1129" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1130" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1131" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1132" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1133" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1134" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1135" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1136" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1137" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1138" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1139" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1140" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1141" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1142" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1143" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1144" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1145" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1146" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1147" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1148" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1149" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1150" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1151" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1152" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1153" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1154" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1155" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1156" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1157" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1158" fillId="17" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1159" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1160" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1161" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1162" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1163" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1164" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1165" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1166" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -18714,7 +20397,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A2:W36"/>
+  <dimension ref="A2:W44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19911,63 +21594,343 @@
       </c>
     </row>
     <row r="36" ht="28.8" customHeight="true">
-      <c r="A36" t="s" s="301">
+      <c r="A36" t="s" s="1051">
+        <v>186</v>
+      </c>
+      <c r="B36" t="s" s="1052">
+        <v>187</v>
+      </c>
+      <c r="C36" t="s" s="1053">
+        <v>183</v>
+      </c>
+      <c r="D36" t="s" s="1054">
+        <v>17</v>
+      </c>
+      <c r="E36" t="s" s="1055">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s" s="1056">
+        <v>141</v>
+      </c>
+      <c r="G36" t="s" s="1057">
+        <v>127</v>
+      </c>
+      <c r="H36" t="s" s="1058">
+        <v>188</v>
+      </c>
+      <c r="I36" t="n" s="1061">
+        <v>179.79452054794518</v>
+      </c>
+      <c r="J36" t="s" s="1060">
+        <v>189</v>
+      </c>
+      <c r="K36" t="n" s="1062">
+        <v>350.0</v>
+      </c>
+    </row>
+    <row r="37" ht="28.8" customHeight="true">
+      <c r="A37" t="s" s="1071">
+        <v>190</v>
+      </c>
+      <c r="B37" t="s" s="1072">
+        <v>191</v>
+      </c>
+      <c r="C37" t="s" s="1073">
+        <v>183</v>
+      </c>
+      <c r="D37" t="s" s="1074">
+        <v>17</v>
+      </c>
+      <c r="E37" t="s" s="1075">
+        <v>18</v>
+      </c>
+      <c r="F37" t="s" s="1076">
+        <v>141</v>
+      </c>
+      <c r="G37" t="s" s="1077">
+        <v>127</v>
+      </c>
+      <c r="H37" t="s" s="1078">
+        <v>192</v>
+      </c>
+      <c r="I37" t="n" s="1081">
+        <v>77.05479452054794</v>
+      </c>
+      <c r="J37" t="s" s="1080">
+        <v>193</v>
+      </c>
+      <c r="K37" t="n" s="1082">
+        <v>150.0</v>
+      </c>
+    </row>
+    <row r="38" ht="28.8" customHeight="true">
+      <c r="A38" t="s" s="1091">
+        <v>194</v>
+      </c>
+      <c r="B38" t="s" s="1092">
+        <v>195</v>
+      </c>
+      <c r="C38" t="s" s="1093">
+        <v>183</v>
+      </c>
+      <c r="D38" t="s" s="1094">
+        <v>17</v>
+      </c>
+      <c r="E38" t="s" s="1095">
+        <v>125</v>
+      </c>
+      <c r="F38" t="s" s="1096">
+        <v>126</v>
+      </c>
+      <c r="G38" t="s" s="1097">
+        <v>127</v>
+      </c>
+      <c r="H38" t="s" s="1098">
+        <v>196</v>
+      </c>
+      <c r="I38" t="n" s="1101">
+        <v>300.0</v>
+      </c>
+      <c r="J38" t="s" s="1100">
+        <v>196</v>
+      </c>
+      <c r="K38" t="n" s="1102">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="39" ht="28.8" customHeight="true">
+      <c r="A39" t="s" s="1111">
+        <v>197</v>
+      </c>
+      <c r="B39" t="s" s="1112">
+        <v>198</v>
+      </c>
+      <c r="C39" t="s" s="1113">
+        <v>183</v>
+      </c>
+      <c r="D39" t="s" s="1114">
+        <v>17</v>
+      </c>
+      <c r="E39" t="s" s="1115">
+        <v>125</v>
+      </c>
+      <c r="F39" t="s" s="1116">
+        <v>126</v>
+      </c>
+      <c r="G39" t="s" s="1117">
+        <v>127</v>
+      </c>
+      <c r="H39" t="s" s="1118">
+        <v>196</v>
+      </c>
+      <c r="I39" t="n" s="1121">
+        <v>300.0</v>
+      </c>
+      <c r="J39" t="s" s="1120">
+        <v>196</v>
+      </c>
+      <c r="K39" t="n" s="1122">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="40" ht="28.8" customHeight="true">
+      <c r="A40" t="s" s="1131">
+        <v>199</v>
+      </c>
+      <c r="B40" t="s" s="1132">
+        <v>200</v>
+      </c>
+      <c r="C40" t="s" s="1133">
+        <v>183</v>
+      </c>
+      <c r="D40" t="s" s="1134">
+        <v>17</v>
+      </c>
+      <c r="E40" t="s" s="1135">
+        <v>45</v>
+      </c>
+      <c r="F40" t="s" s="1136">
+        <v>154</v>
+      </c>
+      <c r="G40" t="s" s="1137">
+        <v>127</v>
+      </c>
+      <c r="H40" t="s" s="1138">
+        <v>201</v>
+      </c>
+      <c r="I40" t="n" s="1141">
+        <v>322.4400871459695</v>
+      </c>
+      <c r="J40" t="s" s="1140">
+        <v>173</v>
+      </c>
+      <c r="K40" t="n" s="1142">
+        <v>400.0</v>
+      </c>
+    </row>
+    <row r="41" ht="28.8" customHeight="true">
+      <c r="A41" t="s" s="1151">
+        <v>186</v>
+      </c>
+      <c r="B41" t="s" s="1152">
+        <v>187</v>
+      </c>
+      <c r="C41" t="s" s="1153">
+        <v>183</v>
+      </c>
+      <c r="D41" t="s" s="1154">
+        <v>17</v>
+      </c>
+      <c r="E41" t="s" s="1155">
+        <v>18</v>
+      </c>
+      <c r="F41" t="s" s="1156">
+        <v>141</v>
+      </c>
+      <c r="G41" t="s" s="1157">
+        <v>127</v>
+      </c>
+      <c r="H41" t="s" s="1158">
+        <v>188</v>
+      </c>
+      <c r="I41" t="n" s="1161">
+        <v>179.79452054794518</v>
+      </c>
+      <c r="J41" t="s" s="1160">
+        <v>189</v>
+      </c>
+      <c r="K41" t="n" s="1162">
+        <v>350.0</v>
+      </c>
+    </row>
+    <row r="42" ht="28.8" customHeight="true">
+      <c r="A42" t="s" s="1171">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s" s="1172">
+        <v>130</v>
+      </c>
+      <c r="C42" t="s" s="1173">
+        <v>183</v>
+      </c>
+      <c r="D42" t="s" s="1174">
+        <v>23</v>
+      </c>
+      <c r="E42" t="s" s="1175">
+        <v>125</v>
+      </c>
+      <c r="F42" t="s" s="1176">
+        <v>126</v>
+      </c>
+      <c r="G42" t="s" s="1177">
+        <v>127</v>
+      </c>
+      <c r="H42" t="s" s="1178">
+        <v>131</v>
+      </c>
+      <c r="I42" t="n" s="1181">
+        <v>14.96</v>
+      </c>
+      <c r="J42" t="s" s="1180">
+        <v>132</v>
+      </c>
+      <c r="K42" t="n" s="1182">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="43" ht="28.8" customHeight="true">
+      <c r="A43" t="s" s="1191">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s" s="1192">
+        <v>130</v>
+      </c>
+      <c r="C43" t="s" s="1193">
+        <v>183</v>
+      </c>
+      <c r="D43" t="s" s="1194">
+        <v>23</v>
+      </c>
+      <c r="E43" t="s" s="1195">
+        <v>125</v>
+      </c>
+      <c r="F43" t="s" s="1196">
+        <v>126</v>
+      </c>
+      <c r="G43" t="s" s="1197">
+        <v>127</v>
+      </c>
+      <c r="H43" t="s" s="1198">
+        <v>131</v>
+      </c>
+      <c r="I43" t="n" s="1201">
+        <v>14.96</v>
+      </c>
+      <c r="J43" t="s" s="1200">
+        <v>132</v>
+      </c>
+      <c r="K43" t="n" s="1202">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="44" ht="28.8" customHeight="true">
+      <c r="A44" t="s" s="301">
         <v>144</v>
       </c>
-      <c r="B36" t="s" s="302">
+      <c r="B44" t="s" s="302">
         <v>145</v>
       </c>
-      <c r="C36" t="s" s="303">
+      <c r="C44" t="s" s="303">
         <v>146</v>
       </c>
-      <c r="D36" t="s" s="304">
+      <c r="D44" t="s" s="304">
         <v>17</v>
       </c>
-      <c r="E36" t="s" s="305">
+      <c r="E44" t="s" s="305">
         <v>125</v>
       </c>
-      <c r="F36" t="s" s="306">
+      <c r="F44" t="s" s="306">
         <v>126</v>
       </c>
-      <c r="G36" t="s" s="307">
+      <c r="G44" t="s" s="307">
         <v>127</v>
       </c>
-      <c r="H36" t="s" s="308">
+      <c r="H44" t="s" s="308">
         <v>147</v>
       </c>
-      <c r="I36" t="n" s="1023">
-        <f>SUM(I2:I35)</f>
-        <v>20645.070326797388</v>
-      </c>
-      <c r="J36" t="s" s="310">
+      <c r="I44" t="n" s="1203">
+        <f>SUM(I2:I43)</f>
+        <v>22034.07424955979</v>
+      </c>
+      <c r="J44" t="s" s="310">
         <v>147</v>
       </c>
-      <c r="K36" t="n" s="1024">
-        <f>SUM(K2:K35)</f>
-        <v>34560.0</v>
-      </c>
-      <c r="M36" t="n" s="1025">
-        <f>SUM(M2:M35)</f>
+      <c r="K44" t="n" s="1204">
+        <f>SUM(K2:K43)</f>
+        <v>36470.0</v>
+      </c>
+      <c r="M44" t="n" s="1205">
+        <f>SUM(M2:M43)</f>
         <v>0.0</v>
       </c>
-      <c r="O36" t="n" s="1026">
-        <f>SUM(O2:O35)</f>
+      <c r="O44" t="n" s="1206">
+        <f>SUM(O2:O43)</f>
         <v>0.0</v>
       </c>
-      <c r="Q36" t="n" s="1027">
-        <f>SUM(Q2:Q35)</f>
+      <c r="Q44" t="n" s="1207">
+        <f>SUM(Q2:Q43)</f>
         <v>0.0</v>
       </c>
-      <c r="S36" t="n" s="1028">
-        <f>SUM(S2:S35)</f>
+      <c r="S44" t="n" s="1208">
+        <f>SUM(S2:S43)</f>
         <v>0.0</v>
       </c>
-      <c r="U36" t="n" s="1029">
-        <f>SUM(U2:U35)</f>
+      <c r="U44" t="n" s="1209">
+        <f>SUM(U2:U43)</f>
         <v>0.0</v>
       </c>
-      <c r="W36" t="n" s="1030">
-        <f>SUM(W2:W35)</f>
+      <c r="W44" t="n" s="1210">
+        <f>SUM(W2:W43)</f>
         <v>0.0</v>
       </c>
     </row>

--- a/JavaApplication19/src/excel/Ventas.xlsx
+++ b/JavaApplication19/src/excel/Ventas.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="163">
   <si>
     <t>PRUDUCTO</t>
   </si>
@@ -461,6 +461,66 @@
   <si>
     <t>60.0</t>
   </si>
+  <si>
+    <t>CRANK SHIMANO DEORE</t>
+  </si>
+  <si>
+    <t>CRANK DE 3 PLATOS - BOTTOM BRACKET NUEVO - PLATO 2 NUEVO - EJE HUECO - 104 CBD - USADO</t>
+  </si>
+  <si>
+    <t>1.2405405405405405</t>
+  </si>
+  <si>
+    <t>1209.1503267973856</t>
+  </si>
+  <si>
+    <t>1500.0</t>
+  </si>
+  <si>
+    <t>DESVIADOR DELANTERO SHIMANO RUTA</t>
+  </si>
+  <si>
+    <t>PARA 3 PLATOS DE RUTA - PARA TIRON DE CABLE DEBAJO DEL CUADRO - USADO</t>
+  </si>
+  <si>
+    <t>300.0</t>
+  </si>
+  <si>
+    <t>LUBRICANTE DE ALTO RENDIMIENTO - PARA: CADENA, DESVIADORES, FUNDAS DE CABLE, ETC. - FACIL APLICACIÓN - TIPO GOTERO - NUEVO</t>
+  </si>
+  <si>
+    <t>14.96</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>DESVIADOR DELANTERO XT</t>
+  </si>
+  <si>
+    <t>PARA 3 PLATOS - PARA JALON ARRIBA - USADO</t>
+  </si>
+  <si>
+    <t>1.9466666666666668</t>
+  </si>
+  <si>
+    <t>179.79452054794518</t>
+  </si>
+  <si>
+    <t>350.0</t>
+  </si>
+  <si>
+    <t>DESVIADOR DELANTERO SRAM X5</t>
+  </si>
+  <si>
+    <t>PARA 3 PLATOS - ADAPTADOR A VARIAS MEDIDAS DE CUADRO - SEMINUEVO</t>
+  </si>
+  <si>
+    <t>450.0</t>
+  </si>
 </sst>
 </file>
 
@@ -469,7 +529,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="141" x14ac:knownFonts="1">
+  <fonts count="600" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1114,6 +1174,2760 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1548,7 +4362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="645">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2099,6 +4913,1383 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="140" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="15" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical=